--- a/Opponent_List.xlsx
+++ b/Opponent_List.xlsx
@@ -8,9 +8,9 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\zacha\Documents\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{7F48759E-820F-4172-9E8B-14116806C8B1}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{855F53C2-88E4-4E61-813E-16A05658F4BB}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="384" yWindow="144" windowWidth="15576" windowHeight="12216" xr2:uid="{A256BCE2-616E-47A0-B9EF-3250AE7F456A}"/>
+    <workbookView xWindow="-108" yWindow="-108" windowWidth="23256" windowHeight="12576" xr2:uid="{A256BCE2-616E-47A0-B9EF-3250AE7F456A}"/>
   </bookViews>
   <sheets>
     <sheet name="Opponent_List" sheetId="1" r:id="rId1"/>
@@ -34,7 +34,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="93" uniqueCount="34">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="504" uniqueCount="55">
   <si>
     <t>N/A</t>
   </si>
@@ -132,10 +132,73 @@
     <t>TEAM</t>
   </si>
   <si>
-    <t>5-16</t>
-  </si>
-  <si>
     <t>10-22</t>
+  </si>
+  <si>
+    <t>10-29</t>
+  </si>
+  <si>
+    <t>11-05</t>
+  </si>
+  <si>
+    <t>11-12</t>
+  </si>
+  <si>
+    <t>11-19</t>
+  </si>
+  <si>
+    <t>11-26</t>
+  </si>
+  <si>
+    <t>12-03</t>
+  </si>
+  <si>
+    <t>12-10</t>
+  </si>
+  <si>
+    <t>12-17</t>
+  </si>
+  <si>
+    <t>12-31</t>
+  </si>
+  <si>
+    <t>01-07</t>
+  </si>
+  <si>
+    <t>01-14</t>
+  </si>
+  <si>
+    <t>02-04</t>
+  </si>
+  <si>
+    <t>02-11</t>
+  </si>
+  <si>
+    <t>02-18</t>
+  </si>
+  <si>
+    <t>02-25</t>
+  </si>
+  <si>
+    <t>03-04</t>
+  </si>
+  <si>
+    <t>03-11</t>
+  </si>
+  <si>
+    <t>03-18</t>
+  </si>
+  <si>
+    <t>03-25</t>
+  </si>
+  <si>
+    <t>04-01</t>
+  </si>
+  <si>
+    <t>04-08</t>
+  </si>
+  <si>
+    <t>12-23</t>
   </si>
 </sst>
 </file>
@@ -491,15 +554,16 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{C49934C3-58C9-470B-89F5-1E7727BEEAE9}">
-  <dimension ref="A1:C31"/>
+  <dimension ref="A1:X31"/>
   <sheetViews>
-    <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="C5" sqref="C5"/>
+    <sheetView tabSelected="1" zoomScale="80" zoomScaleNormal="80" workbookViewId="0">
+      <pane xSplit="1" topLeftCell="B1" activePane="topRight" state="frozen"/>
+      <selection pane="topRight" activeCell="C2" sqref="C2"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="14.4" x14ac:dyDescent="0.3"/>
   <sheetData>
-    <row r="1" spans="1:3" x14ac:dyDescent="0.3">
+    <row r="1" spans="1:24" x14ac:dyDescent="0.3">
       <c r="A1" s="2" t="s">
         <v>31</v>
       </c>
@@ -509,107 +573,521 @@
       <c r="C1" s="2" t="s">
         <v>33</v>
       </c>
-    </row>
-    <row r="2" spans="1:3" x14ac:dyDescent="0.3">
+      <c r="D1" s="2" t="s">
+        <v>34</v>
+      </c>
+      <c r="E1" s="2" t="s">
+        <v>35</v>
+      </c>
+      <c r="F1" s="2" t="s">
+        <v>36</v>
+      </c>
+      <c r="G1" s="2" t="s">
+        <v>37</v>
+      </c>
+      <c r="H1" s="2" t="s">
+        <v>38</v>
+      </c>
+      <c r="I1" s="2" t="s">
+        <v>39</v>
+      </c>
+      <c r="J1" s="2" t="s">
+        <v>40</v>
+      </c>
+      <c r="K1" s="2" t="s">
+        <v>54</v>
+      </c>
+      <c r="L1" s="2" t="s">
+        <v>41</v>
+      </c>
+      <c r="M1" s="2" t="s">
+        <v>42</v>
+      </c>
+      <c r="N1" s="2" t="s">
+        <v>43</v>
+      </c>
+      <c r="O1" s="2" t="s">
+        <v>44</v>
+      </c>
+      <c r="P1" s="2" t="s">
+        <v>45</v>
+      </c>
+      <c r="Q1" s="2" t="s">
+        <v>46</v>
+      </c>
+      <c r="R1" s="2" t="s">
+        <v>47</v>
+      </c>
+      <c r="S1" s="2" t="s">
+        <v>48</v>
+      </c>
+      <c r="T1" s="2" t="s">
+        <v>49</v>
+      </c>
+      <c r="U1" s="2" t="s">
+        <v>50</v>
+      </c>
+      <c r="V1" s="2" t="s">
+        <v>51</v>
+      </c>
+      <c r="W1" s="2" t="s">
+        <v>52</v>
+      </c>
+      <c r="X1" s="2" t="s">
+        <v>53</v>
+      </c>
+    </row>
+    <row r="2" spans="1:24" x14ac:dyDescent="0.3">
       <c r="A2" s="1" t="s">
         <v>19</v>
       </c>
       <c r="B2" t="s">
-        <v>21</v>
+        <v>0</v>
       </c>
       <c r="C2" t="s">
         <v>0</v>
       </c>
-    </row>
-    <row r="3" spans="1:3" x14ac:dyDescent="0.3">
+      <c r="D2" t="s">
+        <v>0</v>
+      </c>
+      <c r="E2" t="s">
+        <v>25</v>
+      </c>
+      <c r="F2" t="s">
+        <v>0</v>
+      </c>
+      <c r="G2" t="s">
+        <v>12</v>
+      </c>
+      <c r="H2" t="s">
+        <v>29</v>
+      </c>
+      <c r="I2" t="s">
+        <v>23</v>
+      </c>
+      <c r="J2" t="s">
+        <v>25</v>
+      </c>
+      <c r="K2" t="s">
+        <v>29</v>
+      </c>
+      <c r="L2" t="s">
+        <v>1</v>
+      </c>
+      <c r="M2" t="s">
+        <v>27</v>
+      </c>
+      <c r="N2" t="s">
+        <v>7</v>
+      </c>
+      <c r="O2" t="s">
+        <v>13</v>
+      </c>
+      <c r="P2" t="s">
+        <v>26</v>
+      </c>
+    </row>
+    <row r="3" spans="1:24" x14ac:dyDescent="0.3">
       <c r="A3" s="1" t="s">
         <v>23</v>
       </c>
       <c r="B3" t="s">
-        <v>1</v>
+        <v>29</v>
       </c>
       <c r="C3" t="s">
-        <v>29</v>
-      </c>
-    </row>
-    <row r="4" spans="1:3" x14ac:dyDescent="0.3">
+        <v>30</v>
+      </c>
+      <c r="D3" t="s">
+        <v>28</v>
+      </c>
+      <c r="E3" t="s">
+        <v>3</v>
+      </c>
+      <c r="F3" t="s">
+        <v>18</v>
+      </c>
+      <c r="G3" t="s">
+        <v>0</v>
+      </c>
+      <c r="H3" t="s">
+        <v>22</v>
+      </c>
+      <c r="I3" t="s">
+        <v>19</v>
+      </c>
+      <c r="J3" t="s">
+        <v>0</v>
+      </c>
+      <c r="K3" t="s">
+        <v>24</v>
+      </c>
+      <c r="L3" t="s">
+        <v>0</v>
+      </c>
+      <c r="M3" t="s">
+        <v>14</v>
+      </c>
+      <c r="N3" t="s">
+        <v>0</v>
+      </c>
+      <c r="O3" t="s">
+        <v>16</v>
+      </c>
+      <c r="P3" t="s">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="4" spans="1:24" x14ac:dyDescent="0.3">
       <c r="A4" s="1" t="s">
         <v>20</v>
       </c>
       <c r="B4" t="s">
-        <v>0</v>
+        <v>13</v>
       </c>
       <c r="C4" t="s">
-        <v>13</v>
-      </c>
-    </row>
-    <row r="5" spans="1:3" x14ac:dyDescent="0.3">
+        <v>0</v>
+      </c>
+      <c r="D4" t="s">
+        <v>0</v>
+      </c>
+      <c r="E4" t="s">
+        <v>14</v>
+      </c>
+      <c r="F4" t="s">
+        <v>27</v>
+      </c>
+      <c r="G4" t="s">
+        <v>26</v>
+      </c>
+      <c r="H4" t="s">
+        <v>16</v>
+      </c>
+      <c r="I4" t="s">
+        <v>10</v>
+      </c>
+      <c r="J4" t="s">
+        <v>4</v>
+      </c>
+      <c r="K4" t="s">
+        <v>0</v>
+      </c>
+      <c r="L4" t="s">
+        <v>0</v>
+      </c>
+      <c r="M4" t="s">
+        <v>0</v>
+      </c>
+      <c r="N4" t="s">
+        <v>29</v>
+      </c>
+      <c r="O4" t="s">
+        <v>28</v>
+      </c>
+      <c r="P4" t="s">
+        <v>25</v>
+      </c>
+    </row>
+    <row r="5" spans="1:24" x14ac:dyDescent="0.3">
       <c r="A5" s="1" t="s">
         <v>15</v>
       </c>
       <c r="B5" t="s">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="C5" t="s">
+        <v>7</v>
+      </c>
+      <c r="D5" t="s">
+        <v>9</v>
+      </c>
+      <c r="E5" t="s">
+        <v>6</v>
+      </c>
+      <c r="F5" t="s">
+        <v>30</v>
+      </c>
+      <c r="G5" t="s">
+        <v>22</v>
+      </c>
+      <c r="H5" t="s">
+        <v>0</v>
+      </c>
+      <c r="I5" t="s">
+        <v>9</v>
+      </c>
+      <c r="J5" t="s">
+        <v>24</v>
+      </c>
+      <c r="K5" t="s">
+        <v>25</v>
+      </c>
+      <c r="L5" t="s">
+        <v>0</v>
+      </c>
+      <c r="M5" t="s">
+        <v>0</v>
+      </c>
+      <c r="N5" t="s">
+        <v>18</v>
+      </c>
+      <c r="O5" t="s">
         <v>1</v>
       </c>
-    </row>
-    <row r="6" spans="1:3" x14ac:dyDescent="0.3">
+      <c r="P5" t="s">
+        <v>28</v>
+      </c>
+    </row>
+    <row r="6" spans="1:24" x14ac:dyDescent="0.3">
       <c r="A6" s="1" t="s">
         <v>11</v>
       </c>
       <c r="B6" t="s">
-        <v>14</v>
+        <v>3</v>
       </c>
       <c r="C6" t="s">
-        <v>3</v>
-      </c>
-    </row>
-    <row r="7" spans="1:3" x14ac:dyDescent="0.3">
+        <v>0</v>
+      </c>
+      <c r="D6" t="s">
+        <v>0</v>
+      </c>
+      <c r="E6" t="s">
+        <v>4</v>
+      </c>
+      <c r="F6" t="s">
+        <v>25</v>
+      </c>
+      <c r="G6" t="s">
+        <v>18</v>
+      </c>
+      <c r="H6" t="s">
+        <v>0</v>
+      </c>
+      <c r="I6" t="s">
+        <v>0</v>
+      </c>
+      <c r="J6" t="s">
+        <v>0</v>
+      </c>
+      <c r="K6" t="s">
+        <v>0</v>
+      </c>
+      <c r="L6" t="s">
+        <v>0</v>
+      </c>
+      <c r="M6" t="s">
+        <v>8</v>
+      </c>
+      <c r="N6" t="s">
+        <v>4</v>
+      </c>
+      <c r="O6" t="s">
+        <v>30</v>
+      </c>
+      <c r="P6" t="s">
+        <v>22</v>
+      </c>
+    </row>
+    <row r="7" spans="1:24" x14ac:dyDescent="0.3">
       <c r="A7" s="1" t="s">
         <v>1</v>
       </c>
       <c r="B7" t="s">
-        <v>23</v>
+        <v>15</v>
       </c>
       <c r="C7" t="s">
+        <v>27</v>
+      </c>
+      <c r="D7" t="s">
+        <v>13</v>
+      </c>
+      <c r="E7" t="s">
+        <v>28</v>
+      </c>
+      <c r="F7" t="s">
+        <v>0</v>
+      </c>
+      <c r="G7" t="s">
+        <v>0</v>
+      </c>
+      <c r="H7" t="s">
+        <v>8</v>
+      </c>
+      <c r="I7" t="s">
+        <v>22</v>
+      </c>
+      <c r="J7" t="s">
+        <v>0</v>
+      </c>
+      <c r="K7" t="s">
+        <v>0</v>
+      </c>
+      <c r="L7" t="s">
+        <v>19</v>
+      </c>
+      <c r="M7" t="s">
+        <v>24</v>
+      </c>
+      <c r="N7" t="s">
+        <v>26</v>
+      </c>
+      <c r="O7" t="s">
         <v>15</v>
       </c>
-    </row>
-    <row r="8" spans="1:3" x14ac:dyDescent="0.3">
+      <c r="P7" t="s">
+        <v>30</v>
+      </c>
+    </row>
+    <row r="8" spans="1:24" x14ac:dyDescent="0.3">
       <c r="A8" s="1" t="s">
         <v>17</v>
       </c>
       <c r="B8" t="s">
-        <v>22</v>
+        <v>0</v>
       </c>
       <c r="C8" t="s">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="9" spans="1:3" x14ac:dyDescent="0.3">
+        <v>25</v>
+      </c>
+      <c r="D8" t="s">
+        <v>0</v>
+      </c>
+      <c r="E8" t="s">
+        <v>26</v>
+      </c>
+      <c r="F8" t="s">
+        <v>10</v>
+      </c>
+      <c r="G8" t="s">
+        <v>0</v>
+      </c>
+      <c r="H8" t="s">
+        <v>3</v>
+      </c>
+      <c r="I8" t="s">
+        <v>30</v>
+      </c>
+      <c r="J8" t="s">
+        <v>0</v>
+      </c>
+      <c r="K8" t="s">
+        <v>14</v>
+      </c>
+      <c r="L8" t="s">
+        <v>0</v>
+      </c>
+      <c r="M8" t="s">
+        <v>21</v>
+      </c>
+      <c r="N8" t="s">
+        <v>12</v>
+      </c>
+      <c r="O8" t="s">
+        <v>29</v>
+      </c>
+      <c r="P8" t="s">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="9" spans="1:24" x14ac:dyDescent="0.3">
       <c r="A9" s="1" t="s">
         <v>25</v>
       </c>
       <c r="B9" t="s">
-        <v>24</v>
+        <v>26</v>
       </c>
       <c r="C9" t="s">
-        <v>26</v>
-      </c>
-    </row>
-    <row r="10" spans="1:3" x14ac:dyDescent="0.3">
+        <v>17</v>
+      </c>
+      <c r="D9" t="s">
+        <v>0</v>
+      </c>
+      <c r="E9" t="s">
+        <v>19</v>
+      </c>
+      <c r="F9" t="s">
+        <v>11</v>
+      </c>
+      <c r="G9" t="s">
+        <v>14</v>
+      </c>
+      <c r="H9" t="s">
+        <v>0</v>
+      </c>
+      <c r="I9" t="s">
+        <v>0</v>
+      </c>
+      <c r="J9" t="s">
+        <v>19</v>
+      </c>
+      <c r="K9" t="s">
+        <v>15</v>
+      </c>
+      <c r="L9" t="s">
+        <v>0</v>
+      </c>
+      <c r="M9" t="s">
+        <v>9</v>
+      </c>
+      <c r="N9" t="s">
+        <v>0</v>
+      </c>
+      <c r="O9" t="s">
+        <v>3</v>
+      </c>
+      <c r="P9" t="s">
+        <v>20</v>
+      </c>
+    </row>
+    <row r="10" spans="1:24" x14ac:dyDescent="0.3">
       <c r="A10" s="1" t="s">
         <v>28</v>
       </c>
       <c r="B10" t="s">
+        <v>0</v>
+      </c>
+      <c r="C10" t="s">
+        <v>0</v>
+      </c>
+      <c r="D10" t="s">
+        <v>23</v>
+      </c>
+      <c r="E10" t="s">
+        <v>1</v>
+      </c>
+      <c r="F10" t="s">
+        <v>4</v>
+      </c>
+      <c r="G10" t="s">
+        <v>0</v>
+      </c>
+      <c r="H10" t="s">
+        <v>0</v>
+      </c>
+      <c r="I10" t="s">
+        <v>3</v>
+      </c>
+      <c r="J10" t="s">
+        <v>0</v>
+      </c>
+      <c r="K10" t="s">
         <v>7</v>
       </c>
-      <c r="C10" t="s">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="11" spans="1:3" x14ac:dyDescent="0.3">
+      <c r="L10" t="s">
+        <v>0</v>
+      </c>
+      <c r="M10" t="s">
+        <v>0</v>
+      </c>
+      <c r="N10" t="s">
+        <v>13</v>
+      </c>
+      <c r="O10" t="s">
+        <v>20</v>
+      </c>
+      <c r="P10" t="s">
+        <v>15</v>
+      </c>
+    </row>
+    <row r="11" spans="1:24" x14ac:dyDescent="0.3">
       <c r="A11" s="1" t="s">
         <v>4</v>
       </c>
@@ -619,52 +1097,247 @@
       <c r="C11" t="s">
         <v>0</v>
       </c>
-    </row>
-    <row r="12" spans="1:3" x14ac:dyDescent="0.3">
+      <c r="D11" t="s">
+        <v>3</v>
+      </c>
+      <c r="E11" t="s">
+        <v>11</v>
+      </c>
+      <c r="F11" t="s">
+        <v>28</v>
+      </c>
+      <c r="G11" t="s">
+        <v>24</v>
+      </c>
+      <c r="H11" t="s">
+        <v>10</v>
+      </c>
+      <c r="I11" t="s">
+        <v>0</v>
+      </c>
+      <c r="J11" t="s">
+        <v>20</v>
+      </c>
+      <c r="K11" t="s">
+        <v>12</v>
+      </c>
+      <c r="L11" t="s">
+        <v>0</v>
+      </c>
+      <c r="M11" t="s">
+        <v>0</v>
+      </c>
+      <c r="N11" t="s">
+        <v>11</v>
+      </c>
+      <c r="O11" t="s">
+        <v>0</v>
+      </c>
+      <c r="P11" t="s">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="12" spans="1:24" x14ac:dyDescent="0.3">
       <c r="A12" s="1" t="s">
         <v>21</v>
       </c>
       <c r="B12" t="s">
-        <v>19</v>
+        <v>2</v>
       </c>
       <c r="C12" t="s">
-        <v>2</v>
-      </c>
-    </row>
-    <row r="13" spans="1:3" x14ac:dyDescent="0.3">
+        <v>0</v>
+      </c>
+      <c r="D12" t="s">
+        <v>0</v>
+      </c>
+      <c r="E12" t="s">
+        <v>24</v>
+      </c>
+      <c r="F12" t="s">
+        <v>0</v>
+      </c>
+      <c r="G12" t="s">
+        <v>0</v>
+      </c>
+      <c r="H12" t="s">
+        <v>18</v>
+      </c>
+      <c r="I12" t="s">
+        <v>14</v>
+      </c>
+      <c r="J12" t="s">
+        <v>0</v>
+      </c>
+      <c r="K12" t="s">
+        <v>30</v>
+      </c>
+      <c r="L12" t="s">
+        <v>7</v>
+      </c>
+      <c r="M12" t="s">
+        <v>17</v>
+      </c>
+      <c r="N12" t="s">
+        <v>9</v>
+      </c>
+      <c r="O12" t="s">
+        <v>26</v>
+      </c>
+      <c r="P12" t="s">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="13" spans="1:24" x14ac:dyDescent="0.3">
       <c r="A13" s="1" t="s">
         <v>30</v>
       </c>
       <c r="B13" t="s">
-        <v>0</v>
+        <v>8</v>
       </c>
       <c r="C13" t="s">
-        <v>8</v>
-      </c>
-    </row>
-    <row r="14" spans="1:3" x14ac:dyDescent="0.3">
+        <v>23</v>
+      </c>
+      <c r="D13" t="s">
+        <v>24</v>
+      </c>
+      <c r="E13" t="s">
+        <v>0</v>
+      </c>
+      <c r="F13" t="s">
+        <v>15</v>
+      </c>
+      <c r="G13" t="s">
+        <v>13</v>
+      </c>
+      <c r="H13" t="s">
+        <v>7</v>
+      </c>
+      <c r="I13" t="s">
+        <v>17</v>
+      </c>
+      <c r="J13" t="s">
+        <v>0</v>
+      </c>
+      <c r="K13" t="s">
+        <v>21</v>
+      </c>
+      <c r="L13" t="s">
+        <v>0</v>
+      </c>
+      <c r="M13" t="s">
+        <v>0</v>
+      </c>
+      <c r="N13" t="s">
+        <v>10</v>
+      </c>
+      <c r="O13" t="s">
+        <v>11</v>
+      </c>
+      <c r="P13" t="s">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="14" spans="1:24" x14ac:dyDescent="0.3">
       <c r="A14" s="1" t="s">
         <v>5</v>
       </c>
       <c r="B14" t="s">
-        <v>2</v>
+        <v>0</v>
       </c>
       <c r="C14" t="s">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="15" spans="1:3" x14ac:dyDescent="0.3">
+        <v>24</v>
+      </c>
+      <c r="D14" t="s">
+        <v>22</v>
+      </c>
+      <c r="E14" t="s">
+        <v>0</v>
+      </c>
+      <c r="F14" t="s">
+        <v>3</v>
+      </c>
+      <c r="G14" t="s">
+        <v>0</v>
+      </c>
+      <c r="H14" t="s">
+        <v>27</v>
+      </c>
+      <c r="I14" t="s">
+        <v>0</v>
+      </c>
+      <c r="J14" t="s">
+        <v>0</v>
+      </c>
+      <c r="K14" t="s">
+        <v>0</v>
+      </c>
+      <c r="L14" t="s">
+        <v>13</v>
+      </c>
+      <c r="M14" t="s">
+        <v>0</v>
+      </c>
+      <c r="N14" t="s">
+        <v>0</v>
+      </c>
+      <c r="O14" t="s">
+        <v>0</v>
+      </c>
+      <c r="P14" t="s">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="15" spans="1:24" x14ac:dyDescent="0.3">
       <c r="A15" s="1" t="s">
         <v>27</v>
       </c>
       <c r="B15" t="s">
-        <v>3</v>
+        <v>10</v>
       </c>
       <c r="C15" t="s">
-        <v>10</v>
-      </c>
-    </row>
-    <row r="16" spans="1:3" x14ac:dyDescent="0.3">
+        <v>1</v>
+      </c>
+      <c r="D15" t="s">
+        <v>0</v>
+      </c>
+      <c r="E15" t="s">
+        <v>22</v>
+      </c>
+      <c r="F15" t="s">
+        <v>20</v>
+      </c>
+      <c r="G15" t="s">
+        <v>9</v>
+      </c>
+      <c r="H15" t="s">
+        <v>5</v>
+      </c>
+      <c r="I15" t="s">
+        <v>2</v>
+      </c>
+      <c r="J15" t="s">
+        <v>22</v>
+      </c>
+      <c r="K15" t="s">
+        <v>26</v>
+      </c>
+      <c r="L15" t="s">
+        <v>24</v>
+      </c>
+      <c r="M15" t="s">
+        <v>19</v>
+      </c>
+      <c r="N15" t="s">
+        <v>0</v>
+      </c>
+      <c r="O15" t="s">
+        <v>0</v>
+      </c>
+      <c r="P15" t="s">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="16" spans="1:24" x14ac:dyDescent="0.3">
       <c r="A16" s="1" t="s">
         <v>12</v>
       </c>
@@ -674,118 +1347,547 @@
       <c r="C16" t="s">
         <v>0</v>
       </c>
-    </row>
-    <row r="17" spans="1:3" x14ac:dyDescent="0.3">
+      <c r="D16" t="s">
+        <v>8</v>
+      </c>
+      <c r="E16" t="s">
+        <v>10</v>
+      </c>
+      <c r="F16" t="s">
+        <v>0</v>
+      </c>
+      <c r="G16" t="s">
+        <v>19</v>
+      </c>
+      <c r="H16" t="s">
+        <v>0</v>
+      </c>
+      <c r="I16" t="s">
+        <v>0</v>
+      </c>
+      <c r="J16" t="s">
+        <v>9</v>
+      </c>
+      <c r="K16" t="s">
+        <v>4</v>
+      </c>
+      <c r="L16" t="s">
+        <v>26</v>
+      </c>
+      <c r="M16" t="s">
+        <v>0</v>
+      </c>
+      <c r="N16" t="s">
+        <v>17</v>
+      </c>
+      <c r="O16" t="s">
+        <v>0</v>
+      </c>
+      <c r="P16" t="s">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="17" spans="1:16" x14ac:dyDescent="0.3">
       <c r="A17" s="1" t="s">
         <v>7</v>
       </c>
       <c r="B17" t="s">
+        <v>0</v>
+      </c>
+      <c r="C17" t="s">
+        <v>15</v>
+      </c>
+      <c r="D17" t="s">
+        <v>0</v>
+      </c>
+      <c r="E17" t="s">
+        <v>0</v>
+      </c>
+      <c r="F17" t="s">
+        <v>0</v>
+      </c>
+      <c r="G17" t="s">
+        <v>0</v>
+      </c>
+      <c r="H17" t="s">
+        <v>30</v>
+      </c>
+      <c r="I17" t="s">
+        <v>0</v>
+      </c>
+      <c r="J17" t="s">
+        <v>18</v>
+      </c>
+      <c r="K17" t="s">
         <v>28</v>
       </c>
-      <c r="C17" t="s">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="18" spans="1:3" x14ac:dyDescent="0.3">
+      <c r="L17" t="s">
+        <v>21</v>
+      </c>
+      <c r="M17" t="s">
+        <v>0</v>
+      </c>
+      <c r="N17" t="s">
+        <v>19</v>
+      </c>
+      <c r="O17" t="s">
+        <v>0</v>
+      </c>
+      <c r="P17" t="s">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="18" spans="1:16" x14ac:dyDescent="0.3">
       <c r="A18" s="1" t="s">
         <v>14</v>
       </c>
       <c r="B18" t="s">
-        <v>11</v>
+        <v>0</v>
       </c>
       <c r="C18" t="s">
         <v>0</v>
       </c>
-    </row>
-    <row r="19" spans="1:3" x14ac:dyDescent="0.3">
+      <c r="D18" t="s">
+        <v>6</v>
+      </c>
+      <c r="E18" t="s">
+        <v>20</v>
+      </c>
+      <c r="F18" t="s">
+        <v>2</v>
+      </c>
+      <c r="G18" t="s">
+        <v>25</v>
+      </c>
+      <c r="H18" t="s">
+        <v>0</v>
+      </c>
+      <c r="I18" t="s">
+        <v>21</v>
+      </c>
+      <c r="J18" t="s">
+        <v>3</v>
+      </c>
+      <c r="K18" t="s">
+        <v>17</v>
+      </c>
+      <c r="L18" t="s">
+        <v>0</v>
+      </c>
+      <c r="M18" t="s">
+        <v>23</v>
+      </c>
+      <c r="N18" t="s">
+        <v>0</v>
+      </c>
+      <c r="O18" t="s">
+        <v>0</v>
+      </c>
+      <c r="P18" t="s">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="19" spans="1:16" x14ac:dyDescent="0.3">
       <c r="A19" s="1" t="s">
         <v>22</v>
       </c>
       <c r="B19" t="s">
-        <v>17</v>
+        <v>0</v>
       </c>
       <c r="C19" t="s">
         <v>0</v>
       </c>
-    </row>
-    <row r="20" spans="1:3" x14ac:dyDescent="0.3">
+      <c r="D19" t="s">
+        <v>5</v>
+      </c>
+      <c r="E19" t="s">
+        <v>27</v>
+      </c>
+      <c r="F19" t="s">
+        <v>0</v>
+      </c>
+      <c r="G19" t="s">
+        <v>15</v>
+      </c>
+      <c r="H19" t="s">
+        <v>23</v>
+      </c>
+      <c r="I19" t="s">
+        <v>1</v>
+      </c>
+      <c r="J19" t="s">
+        <v>27</v>
+      </c>
+      <c r="K19" t="s">
+        <v>16</v>
+      </c>
+      <c r="L19" t="s">
+        <v>16</v>
+      </c>
+      <c r="M19" t="s">
+        <v>2</v>
+      </c>
+      <c r="N19" t="s">
+        <v>0</v>
+      </c>
+      <c r="O19" t="s">
+        <v>0</v>
+      </c>
+      <c r="P19" t="s">
+        <v>11</v>
+      </c>
+    </row>
+    <row r="20" spans="1:16" x14ac:dyDescent="0.3">
       <c r="A20" s="1" t="s">
         <v>3</v>
       </c>
       <c r="B20" t="s">
-        <v>27</v>
+        <v>11</v>
       </c>
       <c r="C20" t="s">
-        <v>11</v>
-      </c>
-    </row>
-    <row r="21" spans="1:3" x14ac:dyDescent="0.3">
+        <v>9</v>
+      </c>
+      <c r="D20" t="s">
+        <v>4</v>
+      </c>
+      <c r="E20" t="s">
+        <v>23</v>
+      </c>
+      <c r="F20" t="s">
+        <v>5</v>
+      </c>
+      <c r="G20" t="s">
+        <v>16</v>
+      </c>
+      <c r="H20" t="s">
+        <v>17</v>
+      </c>
+      <c r="I20" t="s">
+        <v>28</v>
+      </c>
+      <c r="J20" t="s">
+        <v>14</v>
+      </c>
+      <c r="K20" t="s">
+        <v>18</v>
+      </c>
+      <c r="L20" t="s">
+        <v>0</v>
+      </c>
+      <c r="M20" t="s">
+        <v>0</v>
+      </c>
+      <c r="N20" t="s">
+        <v>0</v>
+      </c>
+      <c r="O20" t="s">
+        <v>25</v>
+      </c>
+      <c r="P20" t="s">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="21" spans="1:16" x14ac:dyDescent="0.3">
       <c r="A21" s="1" t="s">
         <v>6</v>
       </c>
       <c r="B21" t="s">
-        <v>0</v>
+        <v>18</v>
       </c>
       <c r="C21" t="s">
-        <v>18</v>
-      </c>
-    </row>
-    <row r="22" spans="1:3" x14ac:dyDescent="0.3">
+        <v>0</v>
+      </c>
+      <c r="D21" t="s">
+        <v>14</v>
+      </c>
+      <c r="E21" t="s">
+        <v>15</v>
+      </c>
+      <c r="F21" t="s">
+        <v>0</v>
+      </c>
+      <c r="G21" t="s">
+        <v>10</v>
+      </c>
+      <c r="H21" t="s">
+        <v>0</v>
+      </c>
+      <c r="I21" t="s">
+        <v>13</v>
+      </c>
+      <c r="J21" t="s">
+        <v>0</v>
+      </c>
+      <c r="K21" t="s">
+        <v>8</v>
+      </c>
+      <c r="L21" t="s">
+        <v>2</v>
+      </c>
+      <c r="M21" t="s">
+        <v>0</v>
+      </c>
+      <c r="N21" t="s">
+        <v>0</v>
+      </c>
+      <c r="O21" t="s">
+        <v>0</v>
+      </c>
+      <c r="P21" t="s">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="22" spans="1:16" x14ac:dyDescent="0.3">
       <c r="A22" s="1" t="s">
         <v>2</v>
       </c>
       <c r="B22" t="s">
-        <v>5</v>
+        <v>21</v>
       </c>
       <c r="C22" t="s">
-        <v>21</v>
-      </c>
-    </row>
-    <row r="23" spans="1:3" x14ac:dyDescent="0.3">
+        <v>0</v>
+      </c>
+      <c r="D22" t="s">
+        <v>0</v>
+      </c>
+      <c r="E22" t="s">
+        <v>9</v>
+      </c>
+      <c r="F22" t="s">
+        <v>14</v>
+      </c>
+      <c r="G22" t="s">
+        <v>8</v>
+      </c>
+      <c r="H22" t="s">
+        <v>0</v>
+      </c>
+      <c r="I22" t="s">
+        <v>27</v>
+      </c>
+      <c r="J22" t="s">
+        <v>0</v>
+      </c>
+      <c r="K22" t="s">
+        <v>10</v>
+      </c>
+      <c r="L22" t="s">
+        <v>6</v>
+      </c>
+      <c r="M22" t="s">
+        <v>22</v>
+      </c>
+      <c r="N22" t="s">
+        <v>0</v>
+      </c>
+      <c r="O22" t="s">
+        <v>24</v>
+      </c>
+      <c r="P22" t="s">
+        <v>29</v>
+      </c>
+    </row>
+    <row r="23" spans="1:16" x14ac:dyDescent="0.3">
       <c r="A23" s="1" t="s">
         <v>18</v>
       </c>
       <c r="B23" t="s">
-        <v>29</v>
+        <v>6</v>
       </c>
       <c r="C23" t="s">
-        <v>6</v>
-      </c>
-    </row>
-    <row r="24" spans="1:3" x14ac:dyDescent="0.3">
+        <v>13</v>
+      </c>
+      <c r="D23" t="s">
+        <v>26</v>
+      </c>
+      <c r="E23" t="s">
+        <v>0</v>
+      </c>
+      <c r="F23" t="s">
+        <v>23</v>
+      </c>
+      <c r="G23" t="s">
+        <v>11</v>
+      </c>
+      <c r="H23" t="s">
+        <v>21</v>
+      </c>
+      <c r="I23" t="s">
+        <v>0</v>
+      </c>
+      <c r="J23" t="s">
+        <v>7</v>
+      </c>
+      <c r="K23" t="s">
+        <v>3</v>
+      </c>
+      <c r="L23" t="s">
+        <v>0</v>
+      </c>
+      <c r="M23" t="s">
+        <v>0</v>
+      </c>
+      <c r="N23" t="s">
+        <v>15</v>
+      </c>
+      <c r="O23" t="s">
+        <v>0</v>
+      </c>
+      <c r="P23" t="s">
+        <v>16</v>
+      </c>
+    </row>
+    <row r="24" spans="1:16" x14ac:dyDescent="0.3">
       <c r="A24" s="1" t="s">
         <v>29</v>
       </c>
       <c r="B24" t="s">
-        <v>18</v>
+        <v>23</v>
       </c>
       <c r="C24" t="s">
-        <v>23</v>
-      </c>
-    </row>
-    <row r="25" spans="1:3" x14ac:dyDescent="0.3">
+        <v>0</v>
+      </c>
+      <c r="D24" t="s">
+        <v>0</v>
+      </c>
+      <c r="E24" t="s">
+        <v>0</v>
+      </c>
+      <c r="F24" t="s">
+        <v>0</v>
+      </c>
+      <c r="G24" t="s">
+        <v>0</v>
+      </c>
+      <c r="H24" t="s">
+        <v>19</v>
+      </c>
+      <c r="I24" t="s">
+        <v>0</v>
+      </c>
+      <c r="J24" t="s">
+        <v>0</v>
+      </c>
+      <c r="K24" t="s">
+        <v>19</v>
+      </c>
+      <c r="L24" t="s">
+        <v>0</v>
+      </c>
+      <c r="M24" t="s">
+        <v>26</v>
+      </c>
+      <c r="N24" t="s">
+        <v>20</v>
+      </c>
+      <c r="O24" t="s">
+        <v>17</v>
+      </c>
+      <c r="P24" t="s">
+        <v>2</v>
+      </c>
+    </row>
+    <row r="25" spans="1:16" x14ac:dyDescent="0.3">
       <c r="A25" s="1" t="s">
         <v>10</v>
       </c>
       <c r="B25" t="s">
-        <v>0</v>
+        <v>27</v>
       </c>
       <c r="C25" t="s">
-        <v>27</v>
-      </c>
-    </row>
-    <row r="26" spans="1:3" x14ac:dyDescent="0.3">
+        <v>0</v>
+      </c>
+      <c r="D25" t="s">
+        <v>0</v>
+      </c>
+      <c r="E25" t="s">
+        <v>12</v>
+      </c>
+      <c r="F25" t="s">
+        <v>17</v>
+      </c>
+      <c r="G25" t="s">
+        <v>6</v>
+      </c>
+      <c r="H25" t="s">
+        <v>4</v>
+      </c>
+      <c r="I25" t="s">
+        <v>20</v>
+      </c>
+      <c r="J25" t="s">
+        <v>0</v>
+      </c>
+      <c r="K25" t="s">
+        <v>2</v>
+      </c>
+      <c r="L25" t="s">
+        <v>0</v>
+      </c>
+      <c r="M25" t="s">
+        <v>0</v>
+      </c>
+      <c r="N25" t="s">
+        <v>30</v>
+      </c>
+      <c r="O25" t="s">
+        <v>0</v>
+      </c>
+      <c r="P25" t="s">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="26" spans="1:16" x14ac:dyDescent="0.3">
       <c r="A26" s="1" t="s">
         <v>24</v>
       </c>
       <c r="B26" t="s">
-        <v>25</v>
+        <v>0</v>
       </c>
       <c r="C26" t="s">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="27" spans="1:3" x14ac:dyDescent="0.3">
+        <v>5</v>
+      </c>
+      <c r="D26" t="s">
+        <v>30</v>
+      </c>
+      <c r="E26" t="s">
+        <v>21</v>
+      </c>
+      <c r="F26" t="s">
+        <v>0</v>
+      </c>
+      <c r="G26" t="s">
+        <v>4</v>
+      </c>
+      <c r="H26" t="s">
+        <v>0</v>
+      </c>
+      <c r="I26" t="s">
+        <v>0</v>
+      </c>
+      <c r="J26" t="s">
+        <v>15</v>
+      </c>
+      <c r="K26" t="s">
+        <v>23</v>
+      </c>
+      <c r="L26" t="s">
+        <v>27</v>
+      </c>
+      <c r="M26" t="s">
+        <v>1</v>
+      </c>
+      <c r="N26" t="s">
+        <v>0</v>
+      </c>
+      <c r="O26" t="s">
+        <v>2</v>
+      </c>
+      <c r="P26" t="s">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="27" spans="1:16" x14ac:dyDescent="0.3">
       <c r="A27" s="1" t="s">
         <v>9</v>
       </c>
@@ -793,32 +1895,149 @@
         <v>16</v>
       </c>
       <c r="C27" t="s">
-        <v>16</v>
-      </c>
-    </row>
-    <row r="28" spans="1:3" x14ac:dyDescent="0.3">
+        <v>3</v>
+      </c>
+      <c r="D27" t="s">
+        <v>15</v>
+      </c>
+      <c r="E27" t="s">
+        <v>2</v>
+      </c>
+      <c r="F27" t="s">
+        <v>13</v>
+      </c>
+      <c r="G27" t="s">
+        <v>27</v>
+      </c>
+      <c r="H27" t="s">
+        <v>0</v>
+      </c>
+      <c r="I27" t="s">
+        <v>15</v>
+      </c>
+      <c r="J27" t="s">
+        <v>12</v>
+      </c>
+      <c r="K27" t="s">
+        <v>0</v>
+      </c>
+      <c r="L27" t="s">
+        <v>0</v>
+      </c>
+      <c r="M27" t="s">
+        <v>25</v>
+      </c>
+      <c r="N27" t="s">
+        <v>21</v>
+      </c>
+      <c r="O27" t="s">
+        <v>0</v>
+      </c>
+      <c r="P27" t="s">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="28" spans="1:16" x14ac:dyDescent="0.3">
       <c r="A28" s="1" t="s">
         <v>26</v>
       </c>
       <c r="B28" t="s">
-        <v>0</v>
+        <v>25</v>
       </c>
       <c r="C28" t="s">
-        <v>25</v>
-      </c>
-    </row>
-    <row r="29" spans="1:3" x14ac:dyDescent="0.3">
+        <v>0</v>
+      </c>
+      <c r="D28" t="s">
+        <v>18</v>
+      </c>
+      <c r="E28" t="s">
+        <v>17</v>
+      </c>
+      <c r="F28" t="s">
+        <v>0</v>
+      </c>
+      <c r="G28" t="s">
+        <v>20</v>
+      </c>
+      <c r="H28" t="s">
+        <v>0</v>
+      </c>
+      <c r="I28" t="s">
+        <v>0</v>
+      </c>
+      <c r="J28" t="s">
+        <v>16</v>
+      </c>
+      <c r="K28" t="s">
+        <v>27</v>
+      </c>
+      <c r="L28" t="s">
+        <v>12</v>
+      </c>
+      <c r="M28" t="s">
+        <v>29</v>
+      </c>
+      <c r="N28" t="s">
+        <v>1</v>
+      </c>
+      <c r="O28" t="s">
+        <v>21</v>
+      </c>
+      <c r="P28" t="s">
+        <v>19</v>
+      </c>
+    </row>
+    <row r="29" spans="1:16" x14ac:dyDescent="0.3">
       <c r="A29" s="1" t="s">
         <v>13</v>
       </c>
       <c r="B29" t="s">
-        <v>0</v>
+        <v>20</v>
       </c>
       <c r="C29" t="s">
-        <v>20</v>
-      </c>
-    </row>
-    <row r="30" spans="1:3" x14ac:dyDescent="0.3">
+        <v>18</v>
+      </c>
+      <c r="D29" t="s">
+        <v>1</v>
+      </c>
+      <c r="E29" t="s">
+        <v>0</v>
+      </c>
+      <c r="F29" t="s">
+        <v>9</v>
+      </c>
+      <c r="G29" t="s">
+        <v>30</v>
+      </c>
+      <c r="H29" t="s">
+        <v>0</v>
+      </c>
+      <c r="I29" t="s">
+        <v>6</v>
+      </c>
+      <c r="J29" t="s">
+        <v>0</v>
+      </c>
+      <c r="K29" t="s">
+        <v>0</v>
+      </c>
+      <c r="L29" t="s">
+        <v>5</v>
+      </c>
+      <c r="M29" t="s">
+        <v>16</v>
+      </c>
+      <c r="N29" t="s">
+        <v>28</v>
+      </c>
+      <c r="O29" t="s">
+        <v>19</v>
+      </c>
+      <c r="P29" t="s">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="30" spans="1:16" x14ac:dyDescent="0.3">
       <c r="A30" s="1" t="s">
         <v>16</v>
       </c>
@@ -826,18 +2045,96 @@
         <v>9</v>
       </c>
       <c r="C30" t="s">
-        <v>9</v>
-      </c>
-    </row>
-    <row r="31" spans="1:3" x14ac:dyDescent="0.3">
+        <v>0</v>
+      </c>
+      <c r="D30" t="s">
+        <v>0</v>
+      </c>
+      <c r="E30" t="s">
+        <v>0</v>
+      </c>
+      <c r="F30" t="s">
+        <v>0</v>
+      </c>
+      <c r="G30" t="s">
+        <v>3</v>
+      </c>
+      <c r="H30" t="s">
+        <v>20</v>
+      </c>
+      <c r="I30" t="s">
+        <v>0</v>
+      </c>
+      <c r="J30" t="s">
+        <v>26</v>
+      </c>
+      <c r="K30" t="s">
+        <v>22</v>
+      </c>
+      <c r="L30" t="s">
+        <v>22</v>
+      </c>
+      <c r="M30" t="s">
+        <v>13</v>
+      </c>
+      <c r="N30" t="s">
+        <v>0</v>
+      </c>
+      <c r="O30" t="s">
+        <v>23</v>
+      </c>
+      <c r="P30" t="s">
+        <v>18</v>
+      </c>
+    </row>
+    <row r="31" spans="1:16" x14ac:dyDescent="0.3">
       <c r="A31" s="1" t="s">
         <v>8</v>
       </c>
       <c r="B31" t="s">
-        <v>0</v>
+        <v>30</v>
       </c>
       <c r="C31" t="s">
-        <v>30</v>
+        <v>0</v>
+      </c>
+      <c r="D31" t="s">
+        <v>12</v>
+      </c>
+      <c r="E31" t="s">
+        <v>0</v>
+      </c>
+      <c r="F31" t="s">
+        <v>0</v>
+      </c>
+      <c r="G31" t="s">
+        <v>2</v>
+      </c>
+      <c r="H31" t="s">
+        <v>1</v>
+      </c>
+      <c r="I31" t="s">
+        <v>0</v>
+      </c>
+      <c r="J31" t="s">
+        <v>0</v>
+      </c>
+      <c r="K31" t="s">
+        <v>6</v>
+      </c>
+      <c r="L31" t="s">
+        <v>0</v>
+      </c>
+      <c r="M31" t="s">
+        <v>11</v>
+      </c>
+      <c r="N31" t="s">
+        <v>0</v>
+      </c>
+      <c r="O31" t="s">
+        <v>0</v>
+      </c>
+      <c r="P31" t="s">
+        <v>0</v>
       </c>
     </row>
   </sheetData>

--- a/Opponent_List.xlsx
+++ b/Opponent_List.xlsx
@@ -1,19 +1,20 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
 <workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
-  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="24430"/>
+  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="24527"/>
   <workbookPr defaultThemeVersion="166925"/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\zacha\Documents\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{855F53C2-88E4-4E61-813E-16A05658F4BB}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{74DBD0B5-E7F2-4785-BE57-4B73F82BCE4C}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="-108" yWindow="-108" windowWidth="23256" windowHeight="12576" xr2:uid="{A256BCE2-616E-47A0-B9EF-3250AE7F456A}"/>
   </bookViews>
   <sheets>
     <sheet name="Opponent_List" sheetId="1" r:id="rId1"/>
+    <sheet name="Positions" sheetId="2" r:id="rId2"/>
   </sheets>
   <calcPr calcId="191029"/>
   <extLst>
@@ -34,7 +35,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="504" uniqueCount="55">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="1708" uniqueCount="662">
   <si>
     <t>N/A</t>
   </si>
@@ -199,6 +200,1827 @@
   </si>
   <si>
     <t>12-23</t>
+  </si>
+  <si>
+    <t>Aaron Gordon</t>
+  </si>
+  <si>
+    <t>PF</t>
+  </si>
+  <si>
+    <t>Aaron Holiday</t>
+  </si>
+  <si>
+    <t>PG</t>
+  </si>
+  <si>
+    <t>Aaron Nesmith</t>
+  </si>
+  <si>
+    <t>SF</t>
+  </si>
+  <si>
+    <t>Abdel Nader</t>
+  </si>
+  <si>
+    <t>Adam Mokoka</t>
+  </si>
+  <si>
+    <t>SG</t>
+  </si>
+  <si>
+    <t>Al Horford</t>
+  </si>
+  <si>
+    <t>Alec Burks</t>
+  </si>
+  <si>
+    <t>Aleksej Pokusevski</t>
+  </si>
+  <si>
+    <t>Alen Smailagic</t>
+  </si>
+  <si>
+    <t>Alex Caruso</t>
+  </si>
+  <si>
+    <t>Alex Len</t>
+  </si>
+  <si>
+    <t>C</t>
+  </si>
+  <si>
+    <t>Al-Farouq Aminu</t>
+  </si>
+  <si>
+    <t>Alfonzo McKinnie</t>
+  </si>
+  <si>
+    <t>Alize Johnson</t>
+  </si>
+  <si>
+    <t>Amir Coffey</t>
+  </si>
+  <si>
+    <t>Andre Drummond</t>
+  </si>
+  <si>
+    <t>Andre Iguodala</t>
+  </si>
+  <si>
+    <t>Andre Roberson</t>
+  </si>
+  <si>
+    <t>Andrew Wiggins</t>
+  </si>
+  <si>
+    <t>Anfernee Simons</t>
+  </si>
+  <si>
+    <t>Anthony Davis</t>
+  </si>
+  <si>
+    <t>Anthony Edwards</t>
+  </si>
+  <si>
+    <t>Anthony Gill</t>
+  </si>
+  <si>
+    <t>Anthony Lamb</t>
+  </si>
+  <si>
+    <t>Anzejs Pasecniks</t>
+  </si>
+  <si>
+    <t>Aron Baynes</t>
+  </si>
+  <si>
+    <t>Ashton Hagans</t>
+  </si>
+  <si>
+    <t>Austin Rivers</t>
+  </si>
+  <si>
+    <t>Avery Bradley</t>
+  </si>
+  <si>
+    <t>Axel Toupane</t>
+  </si>
+  <si>
+    <t>Bam Adebayo</t>
+  </si>
+  <si>
+    <t>Ben McLemore</t>
+  </si>
+  <si>
+    <t>Ben Simmons</t>
+  </si>
+  <si>
+    <t>Bismack Biyombo</t>
+  </si>
+  <si>
+    <t>Blake Griffin</t>
+  </si>
+  <si>
+    <t>Boban Marjanovic</t>
+  </si>
+  <si>
+    <t>Bobby Portis</t>
+  </si>
+  <si>
+    <t>Bogdan Bogdanovic</t>
+  </si>
+  <si>
+    <t>Bojan Bogdanovic</t>
+  </si>
+  <si>
+    <t>Bol Bol</t>
+  </si>
+  <si>
+    <t>Brad Wanamaker</t>
+  </si>
+  <si>
+    <t>Bradley Beal</t>
+  </si>
+  <si>
+    <t>Brandon Clarke</t>
+  </si>
+  <si>
+    <t>Brandon Goodwin</t>
+  </si>
+  <si>
+    <t>Brandon Ingram</t>
+  </si>
+  <si>
+    <t>Brian Bowen II</t>
+  </si>
+  <si>
+    <t>Brodric Thomas</t>
+  </si>
+  <si>
+    <t>Brook Lopez</t>
+  </si>
+  <si>
+    <t>Bruce Brown</t>
+  </si>
+  <si>
+    <t>Bruno Caboclo</t>
+  </si>
+  <si>
+    <t>Bruno Fernando</t>
+  </si>
+  <si>
+    <t>Bryn Forbes</t>
+  </si>
+  <si>
+    <t>Buddy Hield</t>
+  </si>
+  <si>
+    <t>Caleb Martin</t>
+  </si>
+  <si>
+    <t>Cam Reddish</t>
+  </si>
+  <si>
+    <t>Cameron Johnson</t>
+  </si>
+  <si>
+    <t>Cameron Payne</t>
+  </si>
+  <si>
+    <t>Cameron Reynolds</t>
+  </si>
+  <si>
+    <t>Caris LeVert</t>
+  </si>
+  <si>
+    <t>Carmelo Anthony</t>
+  </si>
+  <si>
+    <t>Carsen Edwards</t>
+  </si>
+  <si>
+    <t>Cassius Stanley</t>
+  </si>
+  <si>
+    <t>Cassius Winston</t>
+  </si>
+  <si>
+    <t>Cedi Osman</t>
+  </si>
+  <si>
+    <t>Chandler Hutchison</t>
+  </si>
+  <si>
+    <t>Chasson Randle</t>
+  </si>
+  <si>
+    <t>Chimezie Metu</t>
+  </si>
+  <si>
+    <t>Chris Boucher</t>
+  </si>
+  <si>
+    <t>Chris Chiozza</t>
+  </si>
+  <si>
+    <t>Chris Paul</t>
+  </si>
+  <si>
+    <t>Chris Silva</t>
+  </si>
+  <si>
+    <t>Christian Wood</t>
+  </si>
+  <si>
+    <t>Chuma Okeke</t>
+  </si>
+  <si>
+    <t>CJ Elleby</t>
+  </si>
+  <si>
+    <t>CJ McCollum</t>
+  </si>
+  <si>
+    <t>Clint Capela</t>
+  </si>
+  <si>
+    <t>Coby White</t>
+  </si>
+  <si>
+    <t>Cody Martin</t>
+  </si>
+  <si>
+    <t>Cody Zeller</t>
+  </si>
+  <si>
+    <t>Cole Anthony</t>
+  </si>
+  <si>
+    <t>Collin Sexton</t>
+  </si>
+  <si>
+    <t>Cory Joseph</t>
+  </si>
+  <si>
+    <t>Cristiano Felicio</t>
+  </si>
+  <si>
+    <t>D.J. Augustin</t>
+  </si>
+  <si>
+    <t>D.J. Wilson</t>
+  </si>
+  <si>
+    <t>Dakota Mathias</t>
+  </si>
+  <si>
+    <t>Damian Jones</t>
+  </si>
+  <si>
+    <t>Damian Lillard</t>
+  </si>
+  <si>
+    <t>Damion Lee</t>
+  </si>
+  <si>
+    <t>Damyean Dotson</t>
+  </si>
+  <si>
+    <t>D'Angelo Russell</t>
+  </si>
+  <si>
+    <t>Daniel Gafford</t>
+  </si>
+  <si>
+    <t>Daniel Oturu</t>
+  </si>
+  <si>
+    <t>Daniel Theis</t>
+  </si>
+  <si>
+    <t>Danilo Gallinari</t>
+  </si>
+  <si>
+    <t>Danny Green</t>
+  </si>
+  <si>
+    <t>Dante Exum</t>
+  </si>
+  <si>
+    <t>Danuel House Jr.</t>
+  </si>
+  <si>
+    <t>DaQuan Jeffries</t>
+  </si>
+  <si>
+    <t>Dario Saric</t>
+  </si>
+  <si>
+    <t>Darius Bazley</t>
+  </si>
+  <si>
+    <t>Darius Garland</t>
+  </si>
+  <si>
+    <t>Darius Miller</t>
+  </si>
+  <si>
+    <t>David Nwaba</t>
+  </si>
+  <si>
+    <t>Davis Bertans</t>
+  </si>
+  <si>
+    <t>De'Aaron Fox</t>
+  </si>
+  <si>
+    <t>Dean Wade</t>
+  </si>
+  <si>
+    <t>Deandre Ayton</t>
+  </si>
+  <si>
+    <t>DeAndre' Bembry</t>
+  </si>
+  <si>
+    <t>De'Andre Hunter</t>
+  </si>
+  <si>
+    <t>DeAndre Jordan</t>
+  </si>
+  <si>
+    <t>De'Anthony Melton</t>
+  </si>
+  <si>
+    <t>Deividas Sirvydis</t>
+  </si>
+  <si>
+    <t>Dejounte Murray</t>
+  </si>
+  <si>
+    <t>Delon Wright</t>
+  </si>
+  <si>
+    <t>DeMar DeRozan</t>
+  </si>
+  <si>
+    <t>DeMarcus Cousins</t>
+  </si>
+  <si>
+    <t>Deni Avdija</t>
+  </si>
+  <si>
+    <t>Dennis Schroder</t>
+  </si>
+  <si>
+    <t>Dennis Smith Jr.</t>
+  </si>
+  <si>
+    <t>Denzel Valentine</t>
+  </si>
+  <si>
+    <t>Derrick Favors</t>
+  </si>
+  <si>
+    <t>Derrick Jones Jr.</t>
+  </si>
+  <si>
+    <t>Derrick Rose</t>
+  </si>
+  <si>
+    <t>Derrick White</t>
+  </si>
+  <si>
+    <t>Desmond Bane</t>
+  </si>
+  <si>
+    <t>Devin Booker</t>
+  </si>
+  <si>
+    <t>Devin Vassell</t>
+  </si>
+  <si>
+    <t>Devon Dotson</t>
+  </si>
+  <si>
+    <t>Devontae Cacok</t>
+  </si>
+  <si>
+    <t>Devonte' Graham</t>
+  </si>
+  <si>
+    <t>Dillon Brooks</t>
+  </si>
+  <si>
+    <t>Domantas Sabonis</t>
+  </si>
+  <si>
+    <t>Donovan Mitchell</t>
+  </si>
+  <si>
+    <t>Donte DiVincenzo</t>
+  </si>
+  <si>
+    <t>Dorian Finney-Smith</t>
+  </si>
+  <si>
+    <t>Doug McDermott</t>
+  </si>
+  <si>
+    <t>Draymond Green</t>
+  </si>
+  <si>
+    <t>Drew Eubanks</t>
+  </si>
+  <si>
+    <t>Duncan Robinson</t>
+  </si>
+  <si>
+    <t>Dwayne Bacon</t>
+  </si>
+  <si>
+    <t>Dwight Howard</t>
+  </si>
+  <si>
+    <t>Dwight Powell</t>
+  </si>
+  <si>
+    <t>Dylan Windler</t>
+  </si>
+  <si>
+    <t>Ed Davis</t>
+  </si>
+  <si>
+    <t>Edmond Sumner</t>
+  </si>
+  <si>
+    <t>Elfrid Payton</t>
+  </si>
+  <si>
+    <t>Elijah Hughes</t>
+  </si>
+  <si>
+    <t>Enes Kanter</t>
+  </si>
+  <si>
+    <t>Eric Bledsoe</t>
+  </si>
+  <si>
+    <t>Eric Gordon</t>
+  </si>
+  <si>
+    <t>Eric Paschall</t>
+  </si>
+  <si>
+    <t>Ersan Ilyasova</t>
+  </si>
+  <si>
+    <t>E'Twaun Moore</t>
+  </si>
+  <si>
+    <t>Evan Fournier</t>
+  </si>
+  <si>
+    <t>Facundo Campazzo</t>
+  </si>
+  <si>
+    <t>Frank Jackson</t>
+  </si>
+  <si>
+    <t>Frank Kaminsky</t>
+  </si>
+  <si>
+    <t>Frank Mason</t>
+  </si>
+  <si>
+    <t>Frank Ntilikina</t>
+  </si>
+  <si>
+    <t>Fred VanVleet</t>
+  </si>
+  <si>
+    <t>Furkan Korkmaz</t>
+  </si>
+  <si>
+    <t>Gabe Vincent</t>
+  </si>
+  <si>
+    <t>Garrett Temple</t>
+  </si>
+  <si>
+    <t>Garrison Mathews</t>
+  </si>
+  <si>
+    <t>Gary Clark</t>
+  </si>
+  <si>
+    <t>Gary Harris</t>
+  </si>
+  <si>
+    <t>Gary Trent Jr.</t>
+  </si>
+  <si>
+    <t>George Hill</t>
+  </si>
+  <si>
+    <t>Georges Niang</t>
+  </si>
+  <si>
+    <t>Giannis Antetokounmpo</t>
+  </si>
+  <si>
+    <t>Glenn Robinson III</t>
+  </si>
+  <si>
+    <t>Goga Bitadze</t>
+  </si>
+  <si>
+    <t>Goran Dragic</t>
+  </si>
+  <si>
+    <t>Gordon Hayward</t>
+  </si>
+  <si>
+    <t>Gorgui Dieng</t>
+  </si>
+  <si>
+    <t>Grant Williams</t>
+  </si>
+  <si>
+    <t>Grayson Allen</t>
+  </si>
+  <si>
+    <t>Greg Whittington</t>
+  </si>
+  <si>
+    <t>Hamidou Diallo</t>
+  </si>
+  <si>
+    <t>Harrison Barnes</t>
+  </si>
+  <si>
+    <t>Harry Giles III</t>
+  </si>
+  <si>
+    <t>Hassan Whiteside</t>
+  </si>
+  <si>
+    <t>Henry Ellenson</t>
+  </si>
+  <si>
+    <t>Ignas Brazdeikis</t>
+  </si>
+  <si>
+    <t>Iman Shumpert</t>
+  </si>
+  <si>
+    <t>Immanuel Quickley</t>
+  </si>
+  <si>
+    <t>Isaac Bonga</t>
+  </si>
+  <si>
+    <t>Isaac Okoro</t>
+  </si>
+  <si>
+    <t>Isaiah Hartenstein</t>
+  </si>
+  <si>
+    <t>Isaiah Joe</t>
+  </si>
+  <si>
+    <t>Isaiah Roby</t>
+  </si>
+  <si>
+    <t>Isaiah Stewart</t>
+  </si>
+  <si>
+    <t>Ish Smith</t>
+  </si>
+  <si>
+    <t>Ivica Zubac</t>
+  </si>
+  <si>
+    <t>Ja Morant</t>
+  </si>
+  <si>
+    <t>Jabari Parker</t>
+  </si>
+  <si>
+    <t>Jaden McDaniels</t>
+  </si>
+  <si>
+    <t>Jae Crowder</t>
+  </si>
+  <si>
+    <t>Jae'Sean Tate</t>
+  </si>
+  <si>
+    <t>Jahlil Okafor</t>
+  </si>
+  <si>
+    <t>Jahmi'us Ramsey</t>
+  </si>
+  <si>
+    <t>JaKarr Sampson</t>
+  </si>
+  <si>
+    <t>Jake Layman</t>
+  </si>
+  <si>
+    <t>Jakob Poeltl</t>
+  </si>
+  <si>
+    <t>Jalen Brunson</t>
+  </si>
+  <si>
+    <t>Jalen Harris</t>
+  </si>
+  <si>
+    <t>Jalen Lecque</t>
+  </si>
+  <si>
+    <t>Jalen McDaniels</t>
+  </si>
+  <si>
+    <t>Jalen Smith</t>
+  </si>
+  <si>
+    <t>Jamal Murray</t>
+  </si>
+  <si>
+    <t>James Ennis III</t>
+  </si>
+  <si>
+    <t>James Harden</t>
+  </si>
+  <si>
+    <t>James Johnson</t>
+  </si>
+  <si>
+    <t>James Wiseman</t>
+  </si>
+  <si>
+    <t>JaMychal Green</t>
+  </si>
+  <si>
+    <t>Jared Dudley</t>
+  </si>
+  <si>
+    <t>Jared Harper</t>
+  </si>
+  <si>
+    <t>Jarred Vanderbilt</t>
+  </si>
+  <si>
+    <t>Jarrell Brantley</t>
+  </si>
+  <si>
+    <t>Jarrett Allen</t>
+  </si>
+  <si>
+    <t>Jarrett Culver</t>
+  </si>
+  <si>
+    <t>JaVale McGee</t>
+  </si>
+  <si>
+    <t>Javonte Green</t>
+  </si>
+  <si>
+    <t>Jaxson Hayes</t>
+  </si>
+  <si>
+    <t>Jaylen Adams</t>
+  </si>
+  <si>
+    <t>Jaylen Brown</t>
+  </si>
+  <si>
+    <t>Jaylen Nowell</t>
+  </si>
+  <si>
+    <t>Jayson Tatum</t>
+  </si>
+  <si>
+    <t>Jeff Green</t>
+  </si>
+  <si>
+    <t>Jeff Teague</t>
+  </si>
+  <si>
+    <t>Jerami Grant</t>
+  </si>
+  <si>
+    <t>Jeremy Lamb</t>
+  </si>
+  <si>
+    <t>Jerome Robinson</t>
+  </si>
+  <si>
+    <t>Jevon Carter</t>
+  </si>
+  <si>
+    <t>Jimmy Butler</t>
+  </si>
+  <si>
+    <t>JJ Redick</t>
+  </si>
+  <si>
+    <t>Joe Harris</t>
+  </si>
+  <si>
+    <t>Joe Ingles</t>
+  </si>
+  <si>
+    <t>Joel Embiid</t>
+  </si>
+  <si>
+    <t>John Collins</t>
+  </si>
+  <si>
+    <t>John Konchar</t>
+  </si>
+  <si>
+    <t>John Wall</t>
+  </si>
+  <si>
+    <t>Jonas Valanciunas</t>
+  </si>
+  <si>
+    <t>Jontay Porter</t>
+  </si>
+  <si>
+    <t>Jordan Bell</t>
+  </si>
+  <si>
+    <t>Jordan Bone</t>
+  </si>
+  <si>
+    <t>Jordan Clarkson</t>
+  </si>
+  <si>
+    <t>Jordan McLaughlin</t>
+  </si>
+  <si>
+    <t>Jordan Nwora</t>
+  </si>
+  <si>
+    <t>Jordan Poole</t>
+  </si>
+  <si>
+    <t>Josh Green</t>
+  </si>
+  <si>
+    <t>Josh Hall</t>
+  </si>
+  <si>
+    <t>Josh Hart</t>
+  </si>
+  <si>
+    <t>Josh Jackson</t>
+  </si>
+  <si>
+    <t>Josh Okogie</t>
+  </si>
+  <si>
+    <t>Josh Richardson</t>
+  </si>
+  <si>
+    <t>Jrue Holiday</t>
+  </si>
+  <si>
+    <t>Juan Toscano-Anderson</t>
+  </si>
+  <si>
+    <t>Juancho Hernangomez</t>
+  </si>
+  <si>
+    <t>Julius Randle</t>
+  </si>
+  <si>
+    <t>Justin Holiday</t>
+  </si>
+  <si>
+    <t>Justin Jackson</t>
+  </si>
+  <si>
+    <t>Justin James</t>
+  </si>
+  <si>
+    <t>Justin Patton</t>
+  </si>
+  <si>
+    <t>Justise Winslow</t>
+  </si>
+  <si>
+    <t>Jusuf Nurkic</t>
+  </si>
+  <si>
+    <t>Juwan Morgan</t>
+  </si>
+  <si>
+    <t>Karim Mane</t>
+  </si>
+  <si>
+    <t>Karl-Anthony Towns</t>
+  </si>
+  <si>
+    <t>Kawhi Leonard</t>
+  </si>
+  <si>
+    <t>Keita Bates-Diop</t>
+  </si>
+  <si>
+    <t>Kelan Martin</t>
+  </si>
+  <si>
+    <t>Keldon Johnson</t>
+  </si>
+  <si>
+    <t>Keljin Blevins</t>
+  </si>
+  <si>
+    <t>Kelly Olynyk</t>
+  </si>
+  <si>
+    <t>Kelly Oubre Jr.</t>
+  </si>
+  <si>
+    <t>Kemba Walker</t>
+  </si>
+  <si>
+    <t>Kendrick Nunn</t>
+  </si>
+  <si>
+    <t>Kenrich Williams</t>
+  </si>
+  <si>
+    <t>Kent Bazemore</t>
+  </si>
+  <si>
+    <t>Kentavious Caldwell-Pope</t>
+  </si>
+  <si>
+    <t>Kenyon Martin Jr.</t>
+  </si>
+  <si>
+    <t>Kevin Durant</t>
+  </si>
+  <si>
+    <t>Kevin Huerter</t>
+  </si>
+  <si>
+    <t>Kevin Knox II</t>
+  </si>
+  <si>
+    <t>Kevin Love</t>
+  </si>
+  <si>
+    <t>Kevin Porter Jr.</t>
+  </si>
+  <si>
+    <t>Kevon Looney</t>
+  </si>
+  <si>
+    <t>Khem Birch</t>
+  </si>
+  <si>
+    <t>Khris Middleton</t>
+  </si>
+  <si>
+    <t>Killian Hayes</t>
+  </si>
+  <si>
+    <t>Killian Tillie</t>
+  </si>
+  <si>
+    <t>Kira Lewis Jr.</t>
+  </si>
+  <si>
+    <t>Kostas Antetokounmpo</t>
+  </si>
+  <si>
+    <t>Kristaps Porzingis</t>
+  </si>
+  <si>
+    <t>Kyle Anderson</t>
+  </si>
+  <si>
+    <t>Kyle Guy</t>
+  </si>
+  <si>
+    <t>Kyle Kuzma</t>
+  </si>
+  <si>
+    <t>Kyle Lowry</t>
+  </si>
+  <si>
+    <t>Kyrie Irving</t>
+  </si>
+  <si>
+    <t>KZ Okpala</t>
+  </si>
+  <si>
+    <t>Lamar Stevens</t>
+  </si>
+  <si>
+    <t>LaMarcus Aldridge</t>
+  </si>
+  <si>
+    <t>LaMelo Ball</t>
+  </si>
+  <si>
+    <t>Landry Shamet</t>
+  </si>
+  <si>
+    <t>Langston Galloway</t>
+  </si>
+  <si>
+    <t>Larry Nance Jr.</t>
+  </si>
+  <si>
+    <t>Lauri Markkanen</t>
+  </si>
+  <si>
+    <t>LeBron James</t>
+  </si>
+  <si>
+    <t>Lonnie Walker IV</t>
+  </si>
+  <si>
+    <t>Lonzo Ball</t>
+  </si>
+  <si>
+    <t>Lou Williams</t>
+  </si>
+  <si>
+    <t>Luguentz Dort</t>
+  </si>
+  <si>
+    <t>Luka Doncic</t>
+  </si>
+  <si>
+    <t>Luka Samanic</t>
+  </si>
+  <si>
+    <t>Luke Kennard</t>
+  </si>
+  <si>
+    <t>Luke Kornet</t>
+  </si>
+  <si>
+    <t>Malachi Flynn</t>
+  </si>
+  <si>
+    <t>Malcolm Brogdon</t>
+  </si>
+  <si>
+    <t>Malik Beasley</t>
+  </si>
+  <si>
+    <t>Malik Monk</t>
+  </si>
+  <si>
+    <t>Mamadi Diakite</t>
+  </si>
+  <si>
+    <t>Marc Gasol</t>
+  </si>
+  <si>
+    <t>Marcus Morris Sr.</t>
+  </si>
+  <si>
+    <t>Marcus Smart</t>
+  </si>
+  <si>
+    <t>Markelle Fultz</t>
+  </si>
+  <si>
+    <t>Markieff Morris</t>
+  </si>
+  <si>
+    <t>Markus Howard</t>
+  </si>
+  <si>
+    <t>Marques Bolden</t>
+  </si>
+  <si>
+    <t>Marquese Chriss</t>
+  </si>
+  <si>
+    <t>Marvin Bagley III</t>
+  </si>
+  <si>
+    <t>Mason Jones</t>
+  </si>
+  <si>
+    <t>Mason Plumlee</t>
+  </si>
+  <si>
+    <t>Matisse Thybulle</t>
+  </si>
+  <si>
+    <t>Matt Thomas</t>
+  </si>
+  <si>
+    <t>Matthew Dellavedova</t>
+  </si>
+  <si>
+    <t>Maurice Harkless</t>
+  </si>
+  <si>
+    <t>Max Strus</t>
+  </si>
+  <si>
+    <t>Maxi Kleber</t>
+  </si>
+  <si>
+    <t>Meyers Leonard</t>
+  </si>
+  <si>
+    <t>Mfiondu Kabengele</t>
+  </si>
+  <si>
+    <t>Michael Carter-Williams</t>
+  </si>
+  <si>
+    <t>Michael Porter Jr.</t>
+  </si>
+  <si>
+    <t>Mikal Bridges</t>
+  </si>
+  <si>
+    <t>Mike Conley</t>
+  </si>
+  <si>
+    <t>Mike Muscala</t>
+  </si>
+  <si>
+    <t>Mike Scott</t>
+  </si>
+  <si>
+    <t>Miles Bridges</t>
+  </si>
+  <si>
+    <t>Mitchell Robinson</t>
+  </si>
+  <si>
+    <t>Miye Oni</t>
+  </si>
+  <si>
+    <t>Mo Bamba</t>
+  </si>
+  <si>
+    <t>Monte Morris</t>
+  </si>
+  <si>
+    <t>Montrezl Harrell</t>
+  </si>
+  <si>
+    <t>Moritz Wagner</t>
+  </si>
+  <si>
+    <t>Moses Brown</t>
+  </si>
+  <si>
+    <t>Mychal Mulder</t>
+  </si>
+  <si>
+    <t>Myles Turner</t>
+  </si>
+  <si>
+    <t>Naji Marshall</t>
+  </si>
+  <si>
+    <t>Nassir Little</t>
+  </si>
+  <si>
+    <t>Nate Darling</t>
+  </si>
+  <si>
+    <t>Nate Hinton</t>
+  </si>
+  <si>
+    <t>Nathan Knight</t>
+  </si>
+  <si>
+    <t>Naz Reid</t>
+  </si>
+  <si>
+    <t>Nemanja Bjelica</t>
+  </si>
+  <si>
+    <t>Nerlens Noel</t>
+  </si>
+  <si>
+    <t>Nick Richards</t>
+  </si>
+  <si>
+    <t>Nickeil Alexander-Walker</t>
+  </si>
+  <si>
+    <t>Nico Mannion</t>
+  </si>
+  <si>
+    <t>Nicolas Batum</t>
+  </si>
+  <si>
+    <t>Nicolas Claxton</t>
+  </si>
+  <si>
+    <t>Nicolo Melli</t>
+  </si>
+  <si>
+    <t>Nikola Jokic</t>
+  </si>
+  <si>
+    <t>Nikola Vucevic</t>
+  </si>
+  <si>
+    <t>Noah Vonleh</t>
+  </si>
+  <si>
+    <t>Norman Powell</t>
+  </si>
+  <si>
+    <t>Norvel Pelle</t>
+  </si>
+  <si>
+    <t>Obi Toppin</t>
+  </si>
+  <si>
+    <t>OG Anunoby</t>
+  </si>
+  <si>
+    <t>Onyeka Okongwu</t>
+  </si>
+  <si>
+    <t>Otto Porter Jr.</t>
+  </si>
+  <si>
+    <t>P.J. Tucker</t>
+  </si>
+  <si>
+    <t>P.J. Washington</t>
+  </si>
+  <si>
+    <t>Pascal Siakam</t>
+  </si>
+  <si>
+    <t>Pat Connaughton</t>
+  </si>
+  <si>
+    <t>Patrick Beverley</t>
+  </si>
+  <si>
+    <t>Patrick McCaw</t>
+  </si>
+  <si>
+    <t>Patrick Patterson</t>
+  </si>
+  <si>
+    <t>Patrick Williams</t>
+  </si>
+  <si>
+    <t>Patty Mills</t>
+  </si>
+  <si>
+    <t>Paul George</t>
+  </si>
+  <si>
+    <t>Paul Millsap</t>
+  </si>
+  <si>
+    <t>Paul Reed</t>
+  </si>
+  <si>
+    <t>Paul Watson</t>
+  </si>
+  <si>
+    <t>Payton Pritchard</t>
+  </si>
+  <si>
+    <t>PJ Dozier</t>
+  </si>
+  <si>
+    <t>Precious Achiuwa</t>
+  </si>
+  <si>
+    <t>Quinn Cook</t>
+  </si>
+  <si>
+    <t>Quinndary Weatherspoon</t>
+  </si>
+  <si>
+    <t>R.J. Hampton</t>
+  </si>
+  <si>
+    <t>Rajon Rondo</t>
+  </si>
+  <si>
+    <t>Raul Neto</t>
+  </si>
+  <si>
+    <t>Ray Spalding</t>
+  </si>
+  <si>
+    <t>Rayjon Tucker</t>
+  </si>
+  <si>
+    <t>Reggie Bullock</t>
+  </si>
+  <si>
+    <t>Reggie Jackson</t>
+  </si>
+  <si>
+    <t>Reggie Perry</t>
+  </si>
+  <si>
+    <t>Richaun Holmes</t>
+  </si>
+  <si>
+    <t>Ricky Rubio</t>
+  </si>
+  <si>
+    <t>RJ Barrett</t>
+  </si>
+  <si>
+    <t>Robert Covington</t>
+  </si>
+  <si>
+    <t>Robert Williams III</t>
+  </si>
+  <si>
+    <t>Robert Woodard II</t>
+  </si>
+  <si>
+    <t>Robin Lopez</t>
+  </si>
+  <si>
+    <t>Rodions Kurucs</t>
+  </si>
+  <si>
+    <t>Rodney Hood</t>
+  </si>
+  <si>
+    <t>Rodney McGruder</t>
+  </si>
+  <si>
+    <t>Royce O'Neale</t>
+  </si>
+  <si>
+    <t>Rudy Gay</t>
+  </si>
+  <si>
+    <t>Rudy Gobert</t>
+  </si>
+  <si>
+    <t>Rui Hachimura</t>
+  </si>
+  <si>
+    <t>Russell Westbrook</t>
+  </si>
+  <si>
+    <t>Ryan Arcidiacono</t>
+  </si>
+  <si>
+    <t>Saben Lee</t>
+  </si>
+  <si>
+    <t>Saddiq Bey</t>
+  </si>
+  <si>
+    <t>Sam Merrill</t>
+  </si>
+  <si>
+    <t>Sean McDermott</t>
+  </si>
+  <si>
+    <t>Sekou Doumbouya</t>
+  </si>
+  <si>
+    <t>Semi Ojeleye</t>
+  </si>
+  <si>
+    <t>Serge Ibaka</t>
+  </si>
+  <si>
+    <t>Seth Curry</t>
+  </si>
+  <si>
+    <t>Shai Gilgeous-Alexander</t>
+  </si>
+  <si>
+    <t>Shake Milton</t>
+  </si>
+  <si>
+    <t>Shaquille Harrison</t>
+  </si>
+  <si>
+    <t>Sindarius Thornwell</t>
+  </si>
+  <si>
+    <t>Skylar Mays</t>
+  </si>
+  <si>
+    <t>Solomon Hill</t>
+  </si>
+  <si>
+    <t>Spencer Dinwiddie</t>
+  </si>
+  <si>
+    <t>Stanley Johnson</t>
+  </si>
+  <si>
+    <t>Stephen Curry</t>
+  </si>
+  <si>
+    <t>Sterling Brown</t>
+  </si>
+  <si>
+    <t>Steven Adams</t>
+  </si>
+  <si>
+    <t>Svi Mykhailiuk</t>
+  </si>
+  <si>
+    <t>T.J. McConnell</t>
+  </si>
+  <si>
+    <t>T.J. Warren</t>
+  </si>
+  <si>
+    <t>Tacko Fall</t>
+  </si>
+  <si>
+    <t>Taj Gibson</t>
+  </si>
+  <si>
+    <t>Talen Horton-Tucker</t>
+  </si>
+  <si>
+    <t>Taurean Prince</t>
+  </si>
+  <si>
+    <t>Terance Mann</t>
+  </si>
+  <si>
+    <t>Terence Davis</t>
+  </si>
+  <si>
+    <t>Terrance Ferguson</t>
+  </si>
+  <si>
+    <t>Terrence Ross</t>
+  </si>
+  <si>
+    <t>Terry Rozier</t>
+  </si>
+  <si>
+    <t>Thaddeus Young</t>
+  </si>
+  <si>
+    <t>Thanasis Antetokounmpo</t>
+  </si>
+  <si>
+    <t>Theo Maledon</t>
+  </si>
+  <si>
+    <t>Theo Pinson</t>
+  </si>
+  <si>
+    <t>Thomas Bryant</t>
+  </si>
+  <si>
+    <t>Thon Maker</t>
+  </si>
+  <si>
+    <t>Tim Frazier</t>
+  </si>
+  <si>
+    <t>Tim Hardaway Jr.</t>
+  </si>
+  <si>
+    <t>Timothe Luwawu-Cabarrot</t>
+  </si>
+  <si>
+    <t>Tobias Harris</t>
+  </si>
+  <si>
+    <t>Tomas Satoransky</t>
+  </si>
+  <si>
+    <t>Tony Bradley</t>
+  </si>
+  <si>
+    <t>Tony Snell</t>
+  </si>
+  <si>
+    <t>Torrey Craig</t>
+  </si>
+  <si>
+    <t>Trae Young</t>
+  </si>
+  <si>
+    <t>Tre Jones</t>
+  </si>
+  <si>
+    <t>Tremont Waters</t>
+  </si>
+  <si>
+    <t>Trent Forrest</t>
+  </si>
+  <si>
+    <t>Trevor Ariza</t>
+  </si>
+  <si>
+    <t>Trey Burke</t>
+  </si>
+  <si>
+    <t>Trey Lyles</t>
+  </si>
+  <si>
+    <t>Tristan Thompson</t>
+  </si>
+  <si>
+    <t>Troy Brown Jr.</t>
+  </si>
+  <si>
+    <t>Ty Jerome</t>
+  </si>
+  <si>
+    <t>Tyler Bey</t>
+  </si>
+  <si>
+    <t>Tyler Cook</t>
+  </si>
+  <si>
+    <t>Tyler Herro</t>
+  </si>
+  <si>
+    <t>Tyler Johnson</t>
+  </si>
+  <si>
+    <t>Tyrell Terry</t>
+  </si>
+  <si>
+    <t>Tyrese Haliburton</t>
+  </si>
+  <si>
+    <t>Tyrese Maxey</t>
+  </si>
+  <si>
+    <t>Ty-Shon Alexander</t>
+  </si>
+  <si>
+    <t>Tyus Jones</t>
+  </si>
+  <si>
+    <t>Udoka Azubuike</t>
+  </si>
+  <si>
+    <t>Vernon Carey Jr.</t>
+  </si>
+  <si>
+    <t>Victor Oladipo</t>
+  </si>
+  <si>
+    <t>Vincent Poirier</t>
+  </si>
+  <si>
+    <t>Vlatko Cancar</t>
+  </si>
+  <si>
+    <t>Wayne Ellington</t>
+  </si>
+  <si>
+    <t>Wendell Carter Jr.</t>
+  </si>
+  <si>
+    <t>Wenyen Gabriel</t>
+  </si>
+  <si>
+    <t>Wes Iwundu</t>
+  </si>
+  <si>
+    <t>Wesley Matthews</t>
+  </si>
+  <si>
+    <t>Will Barton</t>
+  </si>
+  <si>
+    <t>Will Magnay</t>
+  </si>
+  <si>
+    <t>Willie Cauley-Stein</t>
+  </si>
+  <si>
+    <t>Willy Hernangomez</t>
+  </si>
+  <si>
+    <t>Xavier Tillman</t>
+  </si>
+  <si>
+    <t>Yogi Ferrell</t>
+  </si>
+  <si>
+    <t>Yuta Watanabe</t>
+  </si>
+  <si>
+    <t>Zach LaVine</t>
+  </si>
+  <si>
+    <t>Zeke Nnaji</t>
+  </si>
+  <si>
+    <t>Zion Williamson</t>
+  </si>
+  <si>
+    <t>Rondae Hollis-Jefferson</t>
+  </si>
+  <si>
+    <t>Justin Robinson</t>
+  </si>
+  <si>
+    <t>Jaylen Hoard</t>
+  </si>
+  <si>
+    <t>James Nunnally</t>
+  </si>
+  <si>
+    <t>Isaiah Thomas</t>
+  </si>
+  <si>
+    <t>Grant Riller</t>
+  </si>
+  <si>
+    <t>Gary Payton II</t>
+  </si>
+  <si>
+    <t>Freddie Gillespie</t>
+  </si>
+  <si>
+    <t>Donta Hall</t>
+  </si>
+  <si>
+    <t>Dewayne Dedmon</t>
+  </si>
+  <si>
+    <t>Devin Cannady</t>
+  </si>
+  <si>
+    <t>Armoni Brooks</t>
+  </si>
+  <si>
+    <t>Malik Fitts</t>
+  </si>
+  <si>
+    <t>Oshae Brissett</t>
+  </si>
+  <si>
+    <t>Robert Franks</t>
+  </si>
+  <si>
+    <t>Romeo Langford</t>
+  </si>
+  <si>
+    <t>Jaren Jackson Jr.</t>
+  </si>
+  <si>
+    <t>Gabriel Deck</t>
+  </si>
+  <si>
+    <t>Charlie Brown Jr.</t>
+  </si>
+  <si>
+    <t>Mike James</t>
+  </si>
+  <si>
+    <t>Amida Brimah</t>
+  </si>
+  <si>
+    <t>Kris Dunn</t>
+  </si>
+  <si>
+    <t>Anthony Tolliver</t>
+  </si>
+  <si>
+    <t>Jeremiah Martin</t>
+  </si>
+  <si>
+    <t>T.J. Leaf</t>
+  </si>
+  <si>
+    <t>Louis King</t>
+  </si>
+  <si>
+    <t>Udonis Haslem</t>
+  </si>
+  <si>
+    <t>Jay Scrubb</t>
+  </si>
+  <si>
+    <t>Cameron Oliver</t>
+  </si>
+  <si>
+    <t>Khyri Thomas</t>
+  </si>
+  <si>
+    <t>Didi Louzada</t>
+  </si>
+  <si>
+    <t>Anderson Varejao</t>
+  </si>
+  <si>
+    <t>Aaron Henry</t>
+  </si>
+  <si>
+    <t>Alperen Sengun</t>
+  </si>
+  <si>
+    <t>Ayo Dosunmu</t>
+  </si>
+  <si>
+    <t>Cam Thomas</t>
+  </si>
+  <si>
+    <t>Charles Bassey</t>
+  </si>
+  <si>
+    <t>Chris Duarte</t>
+  </si>
+  <si>
+    <t>Dalano Banton</t>
+  </si>
+  <si>
+    <t>Davion Mitchell</t>
+  </si>
+  <si>
+    <t>Evan Mobley</t>
+  </si>
+  <si>
+    <t>Franz Wagner</t>
+  </si>
+  <si>
+    <t>Georgios Kalaitzakis</t>
+  </si>
+  <si>
+    <t>Herbert Jones</t>
+  </si>
+  <si>
+    <t>Jaden Springer</t>
+  </si>
+  <si>
+    <t>Jalen Green</t>
+  </si>
+  <si>
+    <t>Jalen Johnson</t>
+  </si>
+  <si>
+    <t>Jalen Suggs</t>
+  </si>
+  <si>
+    <t>Jared Butler</t>
+  </si>
+  <si>
+    <t>Jeremiah Robinson-Earl</t>
+  </si>
+  <si>
+    <t>Jericho Sims</t>
+  </si>
+  <si>
+    <t>Jock Landale</t>
+  </si>
+  <si>
+    <t>Josh Christopher</t>
+  </si>
+  <si>
+    <t>Josh Giddey</t>
+  </si>
+  <si>
+    <t>Joshua Primo</t>
+  </si>
+  <si>
+    <t>Leandro Bolmaro</t>
+  </si>
+  <si>
+    <t>Marcus Garrett</t>
+  </si>
+  <si>
+    <t>McKinley Wright IV</t>
+  </si>
+  <si>
+    <t>Moses Moody</t>
+  </si>
+  <si>
+    <t>Nic Claxton</t>
+  </si>
+  <si>
+    <t>Omer Yurtseven</t>
+  </si>
+  <si>
+    <t>P.J. Dozier</t>
+  </si>
+  <si>
+    <t>Quentin Grimes</t>
+  </si>
+  <si>
+    <t>Sandro Mamukelashvili</t>
+  </si>
+  <si>
+    <t>Scottie Barnes</t>
+  </si>
+  <si>
+    <t>Sharife Cooper</t>
+  </si>
+  <si>
+    <t>Talen Horton Tucker</t>
+  </si>
+  <si>
+    <t>Tre Mann</t>
+  </si>
+  <si>
+    <t>Trey Murphy III</t>
+  </si>
+  <si>
+    <t>Usman Garuba</t>
+  </si>
+  <si>
+    <t>Vit Krejci</t>
+  </si>
+  <si>
+    <t>Ziaire Williams</t>
+  </si>
+  <si>
+    <t>Xavier Tillman Sr.</t>
+  </si>
+  <si>
+    <t>Luka Garza</t>
+  </si>
+  <si>
+    <t>Corey Kispert</t>
+  </si>
+  <si>
+    <t>Kevin Pangos</t>
+  </si>
+  <si>
+    <t>Santi Aldama</t>
+  </si>
+  <si>
+    <t>Greg Brown III</t>
+  </si>
+  <si>
+    <t>Austin Reaves</t>
+  </si>
+  <si>
+    <t>Sam Dekker</t>
+  </si>
+  <si>
+    <t>Justin Champagnie</t>
+  </si>
+  <si>
+    <t>Isaiah Jackson</t>
+  </si>
+  <si>
+    <t>Day'Ron Sharpe</t>
+  </si>
+  <si>
+    <t>Jamorko Pickett</t>
+  </si>
+  <si>
+    <t>Bones Hyland</t>
+  </si>
+  <si>
+    <t>Petr Cornelie</t>
+  </si>
+  <si>
+    <t>Brandon Boston Jr.</t>
+  </si>
+  <si>
+    <t>Isaiah Todd</t>
+  </si>
+  <si>
+    <t>Joel Ayayi</t>
+  </si>
+  <si>
+    <t>Kai Jones</t>
+  </si>
+  <si>
+    <t>James Bouknight</t>
+  </si>
+  <si>
+    <t>JT Thor</t>
+  </si>
+  <si>
+    <t>Wayne Selden</t>
+  </si>
+  <si>
+    <t>Miles McBride</t>
+  </si>
+  <si>
+    <t>RJ Nembhard Jr.</t>
   </si>
 </sst>
 </file>
@@ -558,7 +2380,7 @@
   <sheetViews>
     <sheetView tabSelected="1" zoomScale="80" zoomScaleNormal="80" workbookViewId="0">
       <pane xSplit="1" topLeftCell="B1" activePane="topRight" state="frozen"/>
-      <selection pane="topRight" activeCell="C2" sqref="C2"/>
+      <selection pane="topRight" activeCell="E19" sqref="E19"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="14.4" x14ac:dyDescent="0.3"/>
@@ -2140,4 +3962,4838 @@
   </sheetData>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
 </worksheet>
+</file>
+
+<file path=xl/worksheets/sheet2.xml><?xml version="1.0" encoding="utf-8"?>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{84EB052B-3BE7-49CF-9FAB-B98234BC3C78}">
+  <dimension ref="A1:B602"/>
+  <sheetViews>
+    <sheetView topLeftCell="A578" workbookViewId="0">
+      <selection activeCell="H590" sqref="H590"/>
+    </sheetView>
+  </sheetViews>
+  <sheetFormatPr defaultRowHeight="14.4" x14ac:dyDescent="0.3"/>
+  <cols>
+    <col min="1" max="1" width="23.21875" bestFit="1" customWidth="1"/>
+  </cols>
+  <sheetData>
+    <row r="1" spans="1:2" x14ac:dyDescent="0.3">
+      <c r="A1" t="s">
+        <v>55</v>
+      </c>
+      <c r="B1" t="s">
+        <v>56</v>
+      </c>
+    </row>
+    <row r="2" spans="1:2" x14ac:dyDescent="0.3">
+      <c r="A2" t="s">
+        <v>57</v>
+      </c>
+      <c r="B2" t="s">
+        <v>58</v>
+      </c>
+    </row>
+    <row r="3" spans="1:2" x14ac:dyDescent="0.3">
+      <c r="A3" t="s">
+        <v>59</v>
+      </c>
+      <c r="B3" t="s">
+        <v>60</v>
+      </c>
+    </row>
+    <row r="4" spans="1:2" x14ac:dyDescent="0.3">
+      <c r="A4" t="s">
+        <v>61</v>
+      </c>
+      <c r="B4" t="s">
+        <v>60</v>
+      </c>
+    </row>
+    <row r="5" spans="1:2" x14ac:dyDescent="0.3">
+      <c r="A5" t="s">
+        <v>62</v>
+      </c>
+      <c r="B5" t="s">
+        <v>63</v>
+      </c>
+    </row>
+    <row r="6" spans="1:2" x14ac:dyDescent="0.3">
+      <c r="A6" t="s">
+        <v>64</v>
+      </c>
+      <c r="B6" t="s">
+        <v>56</v>
+      </c>
+    </row>
+    <row r="7" spans="1:2" x14ac:dyDescent="0.3">
+      <c r="A7" t="s">
+        <v>65</v>
+      </c>
+      <c r="B7" t="s">
+        <v>63</v>
+      </c>
+    </row>
+    <row r="8" spans="1:2" x14ac:dyDescent="0.3">
+      <c r="A8" t="s">
+        <v>66</v>
+      </c>
+      <c r="B8" t="s">
+        <v>56</v>
+      </c>
+    </row>
+    <row r="9" spans="1:2" x14ac:dyDescent="0.3">
+      <c r="A9" t="s">
+        <v>67</v>
+      </c>
+      <c r="B9" t="s">
+        <v>60</v>
+      </c>
+    </row>
+    <row r="10" spans="1:2" x14ac:dyDescent="0.3">
+      <c r="A10" t="s">
+        <v>68</v>
+      </c>
+      <c r="B10" t="s">
+        <v>63</v>
+      </c>
+    </row>
+    <row r="11" spans="1:2" x14ac:dyDescent="0.3">
+      <c r="A11" t="s">
+        <v>69</v>
+      </c>
+      <c r="B11" t="s">
+        <v>70</v>
+      </c>
+    </row>
+    <row r="12" spans="1:2" x14ac:dyDescent="0.3">
+      <c r="A12" t="s">
+        <v>71</v>
+      </c>
+      <c r="B12" t="s">
+        <v>60</v>
+      </c>
+    </row>
+    <row r="13" spans="1:2" x14ac:dyDescent="0.3">
+      <c r="A13" t="s">
+        <v>72</v>
+      </c>
+      <c r="B13" t="s">
+        <v>60</v>
+      </c>
+    </row>
+    <row r="14" spans="1:2" x14ac:dyDescent="0.3">
+      <c r="A14" t="s">
+        <v>73</v>
+      </c>
+      <c r="B14" t="s">
+        <v>60</v>
+      </c>
+    </row>
+    <row r="15" spans="1:2" x14ac:dyDescent="0.3">
+      <c r="A15" t="s">
+        <v>74</v>
+      </c>
+      <c r="B15" t="s">
+        <v>63</v>
+      </c>
+    </row>
+    <row r="16" spans="1:2" x14ac:dyDescent="0.3">
+      <c r="A16" t="s">
+        <v>75</v>
+      </c>
+      <c r="B16" t="s">
+        <v>70</v>
+      </c>
+    </row>
+    <row r="17" spans="1:2" x14ac:dyDescent="0.3">
+      <c r="A17" t="s">
+        <v>76</v>
+      </c>
+      <c r="B17" t="s">
+        <v>63</v>
+      </c>
+    </row>
+    <row r="18" spans="1:2" x14ac:dyDescent="0.3">
+      <c r="A18" t="s">
+        <v>77</v>
+      </c>
+      <c r="B18" t="s">
+        <v>60</v>
+      </c>
+    </row>
+    <row r="19" spans="1:2" x14ac:dyDescent="0.3">
+      <c r="A19" t="s">
+        <v>78</v>
+      </c>
+      <c r="B19" t="s">
+        <v>63</v>
+      </c>
+    </row>
+    <row r="20" spans="1:2" x14ac:dyDescent="0.3">
+      <c r="A20" t="s">
+        <v>79</v>
+      </c>
+      <c r="B20" t="s">
+        <v>63</v>
+      </c>
+    </row>
+    <row r="21" spans="1:2" x14ac:dyDescent="0.3">
+      <c r="A21" t="s">
+        <v>80</v>
+      </c>
+      <c r="B21" t="s">
+        <v>56</v>
+      </c>
+    </row>
+    <row r="22" spans="1:2" x14ac:dyDescent="0.3">
+      <c r="A22" t="s">
+        <v>81</v>
+      </c>
+      <c r="B22" t="s">
+        <v>63</v>
+      </c>
+    </row>
+    <row r="23" spans="1:2" x14ac:dyDescent="0.3">
+      <c r="A23" t="s">
+        <v>82</v>
+      </c>
+      <c r="B23" t="s">
+        <v>56</v>
+      </c>
+    </row>
+    <row r="24" spans="1:2" x14ac:dyDescent="0.3">
+      <c r="A24" t="s">
+        <v>83</v>
+      </c>
+      <c r="B24" t="s">
+        <v>60</v>
+      </c>
+    </row>
+    <row r="25" spans="1:2" x14ac:dyDescent="0.3">
+      <c r="A25" t="s">
+        <v>84</v>
+      </c>
+      <c r="B25" t="s">
+        <v>70</v>
+      </c>
+    </row>
+    <row r="26" spans="1:2" x14ac:dyDescent="0.3">
+      <c r="A26" t="s">
+        <v>85</v>
+      </c>
+      <c r="B26" t="s">
+        <v>70</v>
+      </c>
+    </row>
+    <row r="27" spans="1:2" x14ac:dyDescent="0.3">
+      <c r="A27" t="s">
+        <v>86</v>
+      </c>
+      <c r="B27" t="s">
+        <v>60</v>
+      </c>
+    </row>
+    <row r="28" spans="1:2" x14ac:dyDescent="0.3">
+      <c r="A28" t="s">
+        <v>87</v>
+      </c>
+      <c r="B28" t="s">
+        <v>58</v>
+      </c>
+    </row>
+    <row r="29" spans="1:2" x14ac:dyDescent="0.3">
+      <c r="A29" t="s">
+        <v>88</v>
+      </c>
+      <c r="B29" t="s">
+        <v>58</v>
+      </c>
+    </row>
+    <row r="30" spans="1:2" x14ac:dyDescent="0.3">
+      <c r="A30" t="s">
+        <v>89</v>
+      </c>
+      <c r="B30" t="s">
+        <v>60</v>
+      </c>
+    </row>
+    <row r="31" spans="1:2" x14ac:dyDescent="0.3">
+      <c r="A31" t="s">
+        <v>90</v>
+      </c>
+      <c r="B31" t="s">
+        <v>56</v>
+      </c>
+    </row>
+    <row r="32" spans="1:2" x14ac:dyDescent="0.3">
+      <c r="A32" t="s">
+        <v>91</v>
+      </c>
+      <c r="B32" t="s">
+        <v>63</v>
+      </c>
+    </row>
+    <row r="33" spans="1:2" x14ac:dyDescent="0.3">
+      <c r="A33" t="s">
+        <v>92</v>
+      </c>
+      <c r="B33" t="s">
+        <v>58</v>
+      </c>
+    </row>
+    <row r="34" spans="1:2" x14ac:dyDescent="0.3">
+      <c r="A34" t="s">
+        <v>93</v>
+      </c>
+      <c r="B34" t="s">
+        <v>70</v>
+      </c>
+    </row>
+    <row r="35" spans="1:2" x14ac:dyDescent="0.3">
+      <c r="A35" t="s">
+        <v>94</v>
+      </c>
+      <c r="B35" t="s">
+        <v>56</v>
+      </c>
+    </row>
+    <row r="36" spans="1:2" x14ac:dyDescent="0.3">
+      <c r="A36" t="s">
+        <v>95</v>
+      </c>
+      <c r="B36" t="s">
+        <v>70</v>
+      </c>
+    </row>
+    <row r="37" spans="1:2" x14ac:dyDescent="0.3">
+      <c r="A37" t="s">
+        <v>96</v>
+      </c>
+      <c r="B37" t="s">
+        <v>56</v>
+      </c>
+    </row>
+    <row r="38" spans="1:2" x14ac:dyDescent="0.3">
+      <c r="A38" t="s">
+        <v>97</v>
+      </c>
+      <c r="B38" t="s">
+        <v>63</v>
+      </c>
+    </row>
+    <row r="39" spans="1:2" x14ac:dyDescent="0.3">
+      <c r="A39" t="s">
+        <v>98</v>
+      </c>
+      <c r="B39" t="s">
+        <v>60</v>
+      </c>
+    </row>
+    <row r="40" spans="1:2" x14ac:dyDescent="0.3">
+      <c r="A40" t="s">
+        <v>99</v>
+      </c>
+      <c r="B40" t="s">
+        <v>56</v>
+      </c>
+    </row>
+    <row r="41" spans="1:2" x14ac:dyDescent="0.3">
+      <c r="A41" t="s">
+        <v>100</v>
+      </c>
+      <c r="B41" t="s">
+        <v>58</v>
+      </c>
+    </row>
+    <row r="42" spans="1:2" x14ac:dyDescent="0.3">
+      <c r="A42" t="s">
+        <v>101</v>
+      </c>
+      <c r="B42" t="s">
+        <v>63</v>
+      </c>
+    </row>
+    <row r="43" spans="1:2" x14ac:dyDescent="0.3">
+      <c r="A43" t="s">
+        <v>102</v>
+      </c>
+      <c r="B43" t="s">
+        <v>60</v>
+      </c>
+    </row>
+    <row r="44" spans="1:2" x14ac:dyDescent="0.3">
+      <c r="A44" t="s">
+        <v>103</v>
+      </c>
+      <c r="B44" t="s">
+        <v>58</v>
+      </c>
+    </row>
+    <row r="45" spans="1:2" x14ac:dyDescent="0.3">
+      <c r="A45" t="s">
+        <v>104</v>
+      </c>
+      <c r="B45" t="s">
+        <v>60</v>
+      </c>
+    </row>
+    <row r="46" spans="1:2" x14ac:dyDescent="0.3">
+      <c r="A46" t="s">
+        <v>105</v>
+      </c>
+      <c r="B46" t="s">
+        <v>63</v>
+      </c>
+    </row>
+    <row r="47" spans="1:2" x14ac:dyDescent="0.3">
+      <c r="A47" t="s">
+        <v>106</v>
+      </c>
+      <c r="B47" t="s">
+        <v>63</v>
+      </c>
+    </row>
+    <row r="48" spans="1:2" x14ac:dyDescent="0.3">
+      <c r="A48" t="s">
+        <v>107</v>
+      </c>
+      <c r="B48" t="s">
+        <v>70</v>
+      </c>
+    </row>
+    <row r="49" spans="1:2" x14ac:dyDescent="0.3">
+      <c r="A49" t="s">
+        <v>108</v>
+      </c>
+      <c r="B49" t="s">
+        <v>63</v>
+      </c>
+    </row>
+    <row r="50" spans="1:2" x14ac:dyDescent="0.3">
+      <c r="A50" t="s">
+        <v>109</v>
+      </c>
+      <c r="B50" t="s">
+        <v>60</v>
+      </c>
+    </row>
+    <row r="51" spans="1:2" x14ac:dyDescent="0.3">
+      <c r="A51" t="s">
+        <v>110</v>
+      </c>
+      <c r="B51" t="s">
+        <v>56</v>
+      </c>
+    </row>
+    <row r="52" spans="1:2" x14ac:dyDescent="0.3">
+      <c r="A52" t="s">
+        <v>111</v>
+      </c>
+      <c r="B52" t="s">
+        <v>63</v>
+      </c>
+    </row>
+    <row r="53" spans="1:2" x14ac:dyDescent="0.3">
+      <c r="A53" t="s">
+        <v>112</v>
+      </c>
+      <c r="B53" t="s">
+        <v>63</v>
+      </c>
+    </row>
+    <row r="54" spans="1:2" x14ac:dyDescent="0.3">
+      <c r="A54" t="s">
+        <v>113</v>
+      </c>
+      <c r="B54" t="s">
+        <v>63</v>
+      </c>
+    </row>
+    <row r="55" spans="1:2" x14ac:dyDescent="0.3">
+      <c r="A55" t="s">
+        <v>114</v>
+      </c>
+      <c r="B55" t="s">
+        <v>63</v>
+      </c>
+    </row>
+    <row r="56" spans="1:2" x14ac:dyDescent="0.3">
+      <c r="A56" t="s">
+        <v>115</v>
+      </c>
+      <c r="B56" t="s">
+        <v>60</v>
+      </c>
+    </row>
+    <row r="57" spans="1:2" x14ac:dyDescent="0.3">
+      <c r="A57" t="s">
+        <v>116</v>
+      </c>
+      <c r="B57" t="s">
+        <v>58</v>
+      </c>
+    </row>
+    <row r="58" spans="1:2" x14ac:dyDescent="0.3">
+      <c r="A58" t="s">
+        <v>117</v>
+      </c>
+      <c r="B58" t="s">
+        <v>60</v>
+      </c>
+    </row>
+    <row r="59" spans="1:2" x14ac:dyDescent="0.3">
+      <c r="A59" t="s">
+        <v>118</v>
+      </c>
+      <c r="B59" t="s">
+        <v>63</v>
+      </c>
+    </row>
+    <row r="60" spans="1:2" x14ac:dyDescent="0.3">
+      <c r="A60" t="s">
+        <v>119</v>
+      </c>
+      <c r="B60" t="s">
+        <v>56</v>
+      </c>
+    </row>
+    <row r="61" spans="1:2" x14ac:dyDescent="0.3">
+      <c r="A61" t="s">
+        <v>120</v>
+      </c>
+      <c r="B61" t="s">
+        <v>58</v>
+      </c>
+    </row>
+    <row r="62" spans="1:2" x14ac:dyDescent="0.3">
+      <c r="A62" t="s">
+        <v>121</v>
+      </c>
+      <c r="B62" t="s">
+        <v>58</v>
+      </c>
+    </row>
+    <row r="63" spans="1:2" x14ac:dyDescent="0.3">
+      <c r="A63" t="s">
+        <v>122</v>
+      </c>
+      <c r="B63" t="s">
+        <v>58</v>
+      </c>
+    </row>
+    <row r="64" spans="1:2" x14ac:dyDescent="0.3">
+      <c r="A64" t="s">
+        <v>123</v>
+      </c>
+      <c r="B64" t="s">
+        <v>60</v>
+      </c>
+    </row>
+    <row r="65" spans="1:2" x14ac:dyDescent="0.3">
+      <c r="A65" t="s">
+        <v>124</v>
+      </c>
+      <c r="B65" t="s">
+        <v>60</v>
+      </c>
+    </row>
+    <row r="66" spans="1:2" x14ac:dyDescent="0.3">
+      <c r="A66" t="s">
+        <v>125</v>
+      </c>
+      <c r="B66" t="s">
+        <v>60</v>
+      </c>
+    </row>
+    <row r="67" spans="1:2" x14ac:dyDescent="0.3">
+      <c r="A67" t="s">
+        <v>126</v>
+      </c>
+      <c r="B67" t="s">
+        <v>56</v>
+      </c>
+    </row>
+    <row r="68" spans="1:2" x14ac:dyDescent="0.3">
+      <c r="A68" t="s">
+        <v>127</v>
+      </c>
+      <c r="B68" t="s">
+        <v>56</v>
+      </c>
+    </row>
+    <row r="69" spans="1:2" x14ac:dyDescent="0.3">
+      <c r="A69" t="s">
+        <v>128</v>
+      </c>
+      <c r="B69" t="s">
+        <v>58</v>
+      </c>
+    </row>
+    <row r="70" spans="1:2" x14ac:dyDescent="0.3">
+      <c r="A70" t="s">
+        <v>129</v>
+      </c>
+      <c r="B70" t="s">
+        <v>58</v>
+      </c>
+    </row>
+    <row r="71" spans="1:2" x14ac:dyDescent="0.3">
+      <c r="A71" t="s">
+        <v>130</v>
+      </c>
+      <c r="B71" t="s">
+        <v>56</v>
+      </c>
+    </row>
+    <row r="72" spans="1:2" x14ac:dyDescent="0.3">
+      <c r="A72" t="s">
+        <v>131</v>
+      </c>
+      <c r="B72" t="s">
+        <v>56</v>
+      </c>
+    </row>
+    <row r="73" spans="1:2" x14ac:dyDescent="0.3">
+      <c r="A73" t="s">
+        <v>132</v>
+      </c>
+      <c r="B73" t="s">
+        <v>56</v>
+      </c>
+    </row>
+    <row r="74" spans="1:2" x14ac:dyDescent="0.3">
+      <c r="A74" t="s">
+        <v>133</v>
+      </c>
+      <c r="B74" t="s">
+        <v>60</v>
+      </c>
+    </row>
+    <row r="75" spans="1:2" x14ac:dyDescent="0.3">
+      <c r="A75" t="s">
+        <v>134</v>
+      </c>
+      <c r="B75" t="s">
+        <v>63</v>
+      </c>
+    </row>
+    <row r="76" spans="1:2" x14ac:dyDescent="0.3">
+      <c r="A76" t="s">
+        <v>135</v>
+      </c>
+      <c r="B76" t="s">
+        <v>70</v>
+      </c>
+    </row>
+    <row r="77" spans="1:2" x14ac:dyDescent="0.3">
+      <c r="A77" t="s">
+        <v>136</v>
+      </c>
+      <c r="B77" t="s">
+        <v>58</v>
+      </c>
+    </row>
+    <row r="78" spans="1:2" x14ac:dyDescent="0.3">
+      <c r="A78" t="s">
+        <v>137</v>
+      </c>
+      <c r="B78" t="s">
+        <v>60</v>
+      </c>
+    </row>
+    <row r="79" spans="1:2" x14ac:dyDescent="0.3">
+      <c r="A79" t="s">
+        <v>138</v>
+      </c>
+      <c r="B79" t="s">
+        <v>70</v>
+      </c>
+    </row>
+    <row r="80" spans="1:2" x14ac:dyDescent="0.3">
+      <c r="A80" t="s">
+        <v>139</v>
+      </c>
+      <c r="B80" t="s">
+        <v>58</v>
+      </c>
+    </row>
+    <row r="81" spans="1:2" x14ac:dyDescent="0.3">
+      <c r="A81" t="s">
+        <v>140</v>
+      </c>
+      <c r="B81" t="s">
+        <v>58</v>
+      </c>
+    </row>
+    <row r="82" spans="1:2" x14ac:dyDescent="0.3">
+      <c r="A82" t="s">
+        <v>141</v>
+      </c>
+      <c r="B82" t="s">
+        <v>58</v>
+      </c>
+    </row>
+    <row r="83" spans="1:2" x14ac:dyDescent="0.3">
+      <c r="A83" t="s">
+        <v>142</v>
+      </c>
+      <c r="B83" t="s">
+        <v>56</v>
+      </c>
+    </row>
+    <row r="84" spans="1:2" x14ac:dyDescent="0.3">
+      <c r="A84" t="s">
+        <v>143</v>
+      </c>
+      <c r="B84" t="s">
+        <v>58</v>
+      </c>
+    </row>
+    <row r="85" spans="1:2" x14ac:dyDescent="0.3">
+      <c r="A85" t="s">
+        <v>144</v>
+      </c>
+      <c r="B85" t="s">
+        <v>56</v>
+      </c>
+    </row>
+    <row r="86" spans="1:2" x14ac:dyDescent="0.3">
+      <c r="A86" t="s">
+        <v>145</v>
+      </c>
+      <c r="B86" t="s">
+        <v>63</v>
+      </c>
+    </row>
+    <row r="87" spans="1:2" x14ac:dyDescent="0.3">
+      <c r="A87" t="s">
+        <v>146</v>
+      </c>
+      <c r="B87" t="s">
+        <v>70</v>
+      </c>
+    </row>
+    <row r="88" spans="1:2" x14ac:dyDescent="0.3">
+      <c r="A88" t="s">
+        <v>147</v>
+      </c>
+      <c r="B88" t="s">
+        <v>58</v>
+      </c>
+    </row>
+    <row r="89" spans="1:2" x14ac:dyDescent="0.3">
+      <c r="A89" t="s">
+        <v>148</v>
+      </c>
+      <c r="B89" t="s">
+        <v>63</v>
+      </c>
+    </row>
+    <row r="90" spans="1:2" x14ac:dyDescent="0.3">
+      <c r="A90" t="s">
+        <v>149</v>
+      </c>
+      <c r="B90" t="s">
+        <v>63</v>
+      </c>
+    </row>
+    <row r="91" spans="1:2" x14ac:dyDescent="0.3">
+      <c r="A91" t="s">
+        <v>150</v>
+      </c>
+      <c r="B91" t="s">
+        <v>63</v>
+      </c>
+    </row>
+    <row r="92" spans="1:2" x14ac:dyDescent="0.3">
+      <c r="A92" t="s">
+        <v>151</v>
+      </c>
+      <c r="B92" t="s">
+        <v>56</v>
+      </c>
+    </row>
+    <row r="93" spans="1:2" x14ac:dyDescent="0.3">
+      <c r="A93" t="s">
+        <v>152</v>
+      </c>
+      <c r="B93" t="s">
+        <v>70</v>
+      </c>
+    </row>
+    <row r="94" spans="1:2" x14ac:dyDescent="0.3">
+      <c r="A94" t="s">
+        <v>153</v>
+      </c>
+      <c r="B94" t="s">
+        <v>70</v>
+      </c>
+    </row>
+    <row r="95" spans="1:2" x14ac:dyDescent="0.3">
+      <c r="A95" t="s">
+        <v>154</v>
+      </c>
+      <c r="B95" t="s">
+        <v>56</v>
+      </c>
+    </row>
+    <row r="96" spans="1:2" x14ac:dyDescent="0.3">
+      <c r="A96" t="s">
+        <v>155</v>
+      </c>
+      <c r="B96" t="s">
+        <v>63</v>
+      </c>
+    </row>
+    <row r="97" spans="1:2" x14ac:dyDescent="0.3">
+      <c r="A97" t="s">
+        <v>156</v>
+      </c>
+      <c r="B97" t="s">
+        <v>58</v>
+      </c>
+    </row>
+    <row r="98" spans="1:2" x14ac:dyDescent="0.3">
+      <c r="A98" t="s">
+        <v>157</v>
+      </c>
+      <c r="B98" t="s">
+        <v>60</v>
+      </c>
+    </row>
+    <row r="99" spans="1:2" x14ac:dyDescent="0.3">
+      <c r="A99" t="s">
+        <v>158</v>
+      </c>
+      <c r="B99" t="s">
+        <v>60</v>
+      </c>
+    </row>
+    <row r="100" spans="1:2" x14ac:dyDescent="0.3">
+      <c r="A100" t="s">
+        <v>159</v>
+      </c>
+      <c r="B100" t="s">
+        <v>56</v>
+      </c>
+    </row>
+    <row r="101" spans="1:2" x14ac:dyDescent="0.3">
+      <c r="A101" t="s">
+        <v>160</v>
+      </c>
+      <c r="B101" t="s">
+        <v>60</v>
+      </c>
+    </row>
+    <row r="102" spans="1:2" x14ac:dyDescent="0.3">
+      <c r="A102" t="s">
+        <v>161</v>
+      </c>
+      <c r="B102" t="s">
+        <v>58</v>
+      </c>
+    </row>
+    <row r="103" spans="1:2" x14ac:dyDescent="0.3">
+      <c r="A103" t="s">
+        <v>162</v>
+      </c>
+      <c r="B103" t="s">
+        <v>60</v>
+      </c>
+    </row>
+    <row r="104" spans="1:2" x14ac:dyDescent="0.3">
+      <c r="A104" t="s">
+        <v>163</v>
+      </c>
+      <c r="B104" t="s">
+        <v>60</v>
+      </c>
+    </row>
+    <row r="105" spans="1:2" x14ac:dyDescent="0.3">
+      <c r="A105" t="s">
+        <v>164</v>
+      </c>
+      <c r="B105" t="s">
+        <v>60</v>
+      </c>
+    </row>
+    <row r="106" spans="1:2" x14ac:dyDescent="0.3">
+      <c r="A106" t="s">
+        <v>165</v>
+      </c>
+      <c r="B106" t="s">
+        <v>58</v>
+      </c>
+    </row>
+    <row r="107" spans="1:2" x14ac:dyDescent="0.3">
+      <c r="A107" t="s">
+        <v>166</v>
+      </c>
+      <c r="B107" t="s">
+        <v>56</v>
+      </c>
+    </row>
+    <row r="108" spans="1:2" x14ac:dyDescent="0.3">
+      <c r="A108" t="s">
+        <v>167</v>
+      </c>
+      <c r="B108" t="s">
+        <v>70</v>
+      </c>
+    </row>
+    <row r="109" spans="1:2" x14ac:dyDescent="0.3">
+      <c r="A109" t="s">
+        <v>168</v>
+      </c>
+      <c r="B109" t="s">
+        <v>63</v>
+      </c>
+    </row>
+    <row r="110" spans="1:2" x14ac:dyDescent="0.3">
+      <c r="A110" t="s">
+        <v>169</v>
+      </c>
+      <c r="B110" t="s">
+        <v>60</v>
+      </c>
+    </row>
+    <row r="111" spans="1:2" x14ac:dyDescent="0.3">
+      <c r="A111" t="s">
+        <v>170</v>
+      </c>
+      <c r="B111" t="s">
+        <v>70</v>
+      </c>
+    </row>
+    <row r="112" spans="1:2" x14ac:dyDescent="0.3">
+      <c r="A112" t="s">
+        <v>171</v>
+      </c>
+      <c r="B112" t="s">
+        <v>63</v>
+      </c>
+    </row>
+    <row r="113" spans="1:2" x14ac:dyDescent="0.3">
+      <c r="A113" t="s">
+        <v>172</v>
+      </c>
+      <c r="B113" t="s">
+        <v>60</v>
+      </c>
+    </row>
+    <row r="114" spans="1:2" x14ac:dyDescent="0.3">
+      <c r="A114" t="s">
+        <v>173</v>
+      </c>
+      <c r="B114" t="s">
+        <v>58</v>
+      </c>
+    </row>
+    <row r="115" spans="1:2" x14ac:dyDescent="0.3">
+      <c r="A115" t="s">
+        <v>174</v>
+      </c>
+      <c r="B115" t="s">
+        <v>58</v>
+      </c>
+    </row>
+    <row r="116" spans="1:2" x14ac:dyDescent="0.3">
+      <c r="A116" t="s">
+        <v>175</v>
+      </c>
+      <c r="B116" t="s">
+        <v>60</v>
+      </c>
+    </row>
+    <row r="117" spans="1:2" x14ac:dyDescent="0.3">
+      <c r="A117" t="s">
+        <v>176</v>
+      </c>
+      <c r="B117" t="s">
+        <v>70</v>
+      </c>
+    </row>
+    <row r="118" spans="1:2" x14ac:dyDescent="0.3">
+      <c r="A118" t="s">
+        <v>177</v>
+      </c>
+      <c r="B118" t="s">
+        <v>60</v>
+      </c>
+    </row>
+    <row r="119" spans="1:2" x14ac:dyDescent="0.3">
+      <c r="A119" t="s">
+        <v>178</v>
+      </c>
+      <c r="B119" t="s">
+        <v>58</v>
+      </c>
+    </row>
+    <row r="120" spans="1:2" x14ac:dyDescent="0.3">
+      <c r="A120" t="s">
+        <v>179</v>
+      </c>
+      <c r="B120" t="s">
+        <v>58</v>
+      </c>
+    </row>
+    <row r="121" spans="1:2" x14ac:dyDescent="0.3">
+      <c r="A121" t="s">
+        <v>180</v>
+      </c>
+      <c r="B121" t="s">
+        <v>63</v>
+      </c>
+    </row>
+    <row r="122" spans="1:2" x14ac:dyDescent="0.3">
+      <c r="A122" t="s">
+        <v>181</v>
+      </c>
+      <c r="B122" t="s">
+        <v>70</v>
+      </c>
+    </row>
+    <row r="123" spans="1:2" x14ac:dyDescent="0.3">
+      <c r="A123" t="s">
+        <v>182</v>
+      </c>
+      <c r="B123" t="s">
+        <v>60</v>
+      </c>
+    </row>
+    <row r="124" spans="1:2" x14ac:dyDescent="0.3">
+      <c r="A124" t="s">
+        <v>183</v>
+      </c>
+      <c r="B124" t="s">
+        <v>58</v>
+      </c>
+    </row>
+    <row r="125" spans="1:2" x14ac:dyDescent="0.3">
+      <c r="A125" t="s">
+        <v>184</v>
+      </c>
+      <c r="B125" t="s">
+        <v>63</v>
+      </c>
+    </row>
+    <row r="126" spans="1:2" x14ac:dyDescent="0.3">
+      <c r="A126" t="s">
+        <v>185</v>
+      </c>
+      <c r="B126" t="s">
+        <v>63</v>
+      </c>
+    </row>
+    <row r="127" spans="1:2" x14ac:dyDescent="0.3">
+      <c r="A127" t="s">
+        <v>186</v>
+      </c>
+      <c r="B127" t="s">
+        <v>63</v>
+      </c>
+    </row>
+    <row r="128" spans="1:2" x14ac:dyDescent="0.3">
+      <c r="A128" t="s">
+        <v>187</v>
+      </c>
+      <c r="B128" t="s">
+        <v>63</v>
+      </c>
+    </row>
+    <row r="129" spans="1:2" x14ac:dyDescent="0.3">
+      <c r="A129" t="s">
+        <v>188</v>
+      </c>
+      <c r="B129" t="s">
+        <v>63</v>
+      </c>
+    </row>
+    <row r="130" spans="1:2" x14ac:dyDescent="0.3">
+      <c r="A130" t="s">
+        <v>189</v>
+      </c>
+      <c r="B130" t="s">
+        <v>56</v>
+      </c>
+    </row>
+    <row r="131" spans="1:2" x14ac:dyDescent="0.3">
+      <c r="A131" t="s">
+        <v>190</v>
+      </c>
+      <c r="B131" t="s">
+        <v>58</v>
+      </c>
+    </row>
+    <row r="132" spans="1:2" x14ac:dyDescent="0.3">
+      <c r="A132" t="s">
+        <v>191</v>
+      </c>
+      <c r="B132" t="s">
+        <v>63</v>
+      </c>
+    </row>
+    <row r="133" spans="1:2" x14ac:dyDescent="0.3">
+      <c r="A133" t="s">
+        <v>192</v>
+      </c>
+      <c r="B133" t="s">
+        <v>56</v>
+      </c>
+    </row>
+    <row r="134" spans="1:2" x14ac:dyDescent="0.3">
+      <c r="A134" t="s">
+        <v>193</v>
+      </c>
+      <c r="B134" t="s">
+        <v>63</v>
+      </c>
+    </row>
+    <row r="135" spans="1:2" x14ac:dyDescent="0.3">
+      <c r="A135" t="s">
+        <v>194</v>
+      </c>
+      <c r="B135" t="s">
+        <v>63</v>
+      </c>
+    </row>
+    <row r="136" spans="1:2" x14ac:dyDescent="0.3">
+      <c r="A136" t="s">
+        <v>195</v>
+      </c>
+      <c r="B136" t="s">
+        <v>60</v>
+      </c>
+    </row>
+    <row r="137" spans="1:2" x14ac:dyDescent="0.3">
+      <c r="A137" t="s">
+        <v>196</v>
+      </c>
+      <c r="B137" t="s">
+        <v>60</v>
+      </c>
+    </row>
+    <row r="138" spans="1:2" x14ac:dyDescent="0.3">
+      <c r="A138" t="s">
+        <v>197</v>
+      </c>
+      <c r="B138" t="s">
+        <v>56</v>
+      </c>
+    </row>
+    <row r="139" spans="1:2" x14ac:dyDescent="0.3">
+      <c r="A139" t="s">
+        <v>198</v>
+      </c>
+      <c r="B139" t="s">
+        <v>56</v>
+      </c>
+    </row>
+    <row r="140" spans="1:2" x14ac:dyDescent="0.3">
+      <c r="A140" t="s">
+        <v>199</v>
+      </c>
+      <c r="B140" t="s">
+        <v>63</v>
+      </c>
+    </row>
+    <row r="141" spans="1:2" x14ac:dyDescent="0.3">
+      <c r="A141" t="s">
+        <v>200</v>
+      </c>
+      <c r="B141" t="s">
+        <v>63</v>
+      </c>
+    </row>
+    <row r="142" spans="1:2" x14ac:dyDescent="0.3">
+      <c r="A142" t="s">
+        <v>201</v>
+      </c>
+      <c r="B142" t="s">
+        <v>70</v>
+      </c>
+    </row>
+    <row r="143" spans="1:2" x14ac:dyDescent="0.3">
+      <c r="A143" t="s">
+        <v>202</v>
+      </c>
+      <c r="B143" t="s">
+        <v>70</v>
+      </c>
+    </row>
+    <row r="144" spans="1:2" x14ac:dyDescent="0.3">
+      <c r="A144" t="s">
+        <v>203</v>
+      </c>
+      <c r="B144" t="s">
+        <v>60</v>
+      </c>
+    </row>
+    <row r="145" spans="1:2" x14ac:dyDescent="0.3">
+      <c r="A145" t="s">
+        <v>204</v>
+      </c>
+      <c r="B145" t="s">
+        <v>70</v>
+      </c>
+    </row>
+    <row r="146" spans="1:2" x14ac:dyDescent="0.3">
+      <c r="A146" t="s">
+        <v>205</v>
+      </c>
+      <c r="B146" t="s">
+        <v>58</v>
+      </c>
+    </row>
+    <row r="147" spans="1:2" x14ac:dyDescent="0.3">
+      <c r="A147" t="s">
+        <v>206</v>
+      </c>
+      <c r="B147" t="s">
+        <v>58</v>
+      </c>
+    </row>
+    <row r="148" spans="1:2" x14ac:dyDescent="0.3">
+      <c r="A148" t="s">
+        <v>207</v>
+      </c>
+      <c r="B148" t="s">
+        <v>63</v>
+      </c>
+    </row>
+    <row r="149" spans="1:2" x14ac:dyDescent="0.3">
+      <c r="A149" t="s">
+        <v>208</v>
+      </c>
+      <c r="B149" t="s">
+        <v>70</v>
+      </c>
+    </row>
+    <row r="150" spans="1:2" x14ac:dyDescent="0.3">
+      <c r="A150" t="s">
+        <v>209</v>
+      </c>
+      <c r="B150" t="s">
+        <v>58</v>
+      </c>
+    </row>
+    <row r="151" spans="1:2" x14ac:dyDescent="0.3">
+      <c r="A151" t="s">
+        <v>210</v>
+      </c>
+      <c r="B151" t="s">
+        <v>63</v>
+      </c>
+    </row>
+    <row r="152" spans="1:2" x14ac:dyDescent="0.3">
+      <c r="A152" t="s">
+        <v>211</v>
+      </c>
+      <c r="B152" t="s">
+        <v>56</v>
+      </c>
+    </row>
+    <row r="153" spans="1:2" x14ac:dyDescent="0.3">
+      <c r="A153" t="s">
+        <v>212</v>
+      </c>
+      <c r="B153" t="s">
+        <v>60</v>
+      </c>
+    </row>
+    <row r="154" spans="1:2" x14ac:dyDescent="0.3">
+      <c r="A154" t="s">
+        <v>213</v>
+      </c>
+      <c r="B154" t="s">
+        <v>63</v>
+      </c>
+    </row>
+    <row r="155" spans="1:2" x14ac:dyDescent="0.3">
+      <c r="A155" t="s">
+        <v>214</v>
+      </c>
+      <c r="B155" t="s">
+        <v>63</v>
+      </c>
+    </row>
+    <row r="156" spans="1:2" x14ac:dyDescent="0.3">
+      <c r="A156" t="s">
+        <v>215</v>
+      </c>
+      <c r="B156" t="s">
+        <v>58</v>
+      </c>
+    </row>
+    <row r="157" spans="1:2" x14ac:dyDescent="0.3">
+      <c r="A157" t="s">
+        <v>216</v>
+      </c>
+      <c r="B157" t="s">
+        <v>58</v>
+      </c>
+    </row>
+    <row r="158" spans="1:2" x14ac:dyDescent="0.3">
+      <c r="A158" t="s">
+        <v>217</v>
+      </c>
+      <c r="B158" t="s">
+        <v>70</v>
+      </c>
+    </row>
+    <row r="159" spans="1:2" x14ac:dyDescent="0.3">
+      <c r="A159" t="s">
+        <v>218</v>
+      </c>
+      <c r="B159" t="s">
+        <v>60</v>
+      </c>
+    </row>
+    <row r="160" spans="1:2" x14ac:dyDescent="0.3">
+      <c r="A160" t="s">
+        <v>219</v>
+      </c>
+      <c r="B160" t="s">
+        <v>58</v>
+      </c>
+    </row>
+    <row r="161" spans="1:2" x14ac:dyDescent="0.3">
+      <c r="A161" t="s">
+        <v>220</v>
+      </c>
+      <c r="B161" t="s">
+        <v>63</v>
+      </c>
+    </row>
+    <row r="162" spans="1:2" x14ac:dyDescent="0.3">
+      <c r="A162" t="s">
+        <v>221</v>
+      </c>
+      <c r="B162" t="s">
+        <v>63</v>
+      </c>
+    </row>
+    <row r="163" spans="1:2" x14ac:dyDescent="0.3">
+      <c r="A163" t="s">
+        <v>222</v>
+      </c>
+      <c r="B163" t="s">
+        <v>58</v>
+      </c>
+    </row>
+    <row r="164" spans="1:2" x14ac:dyDescent="0.3">
+      <c r="A164" t="s">
+        <v>223</v>
+      </c>
+      <c r="B164" t="s">
+        <v>63</v>
+      </c>
+    </row>
+    <row r="165" spans="1:2" x14ac:dyDescent="0.3">
+      <c r="A165" t="s">
+        <v>224</v>
+      </c>
+      <c r="B165" t="s">
+        <v>63</v>
+      </c>
+    </row>
+    <row r="166" spans="1:2" x14ac:dyDescent="0.3">
+      <c r="A166" t="s">
+        <v>225</v>
+      </c>
+      <c r="B166" t="s">
+        <v>56</v>
+      </c>
+    </row>
+    <row r="167" spans="1:2" x14ac:dyDescent="0.3">
+      <c r="A167" t="s">
+        <v>226</v>
+      </c>
+      <c r="B167" t="s">
+        <v>63</v>
+      </c>
+    </row>
+    <row r="168" spans="1:2" x14ac:dyDescent="0.3">
+      <c r="A168" t="s">
+        <v>227</v>
+      </c>
+      <c r="B168" t="s">
+        <v>63</v>
+      </c>
+    </row>
+    <row r="169" spans="1:2" x14ac:dyDescent="0.3">
+      <c r="A169" t="s">
+        <v>228</v>
+      </c>
+      <c r="B169" t="s">
+        <v>58</v>
+      </c>
+    </row>
+    <row r="170" spans="1:2" x14ac:dyDescent="0.3">
+      <c r="A170" t="s">
+        <v>229</v>
+      </c>
+      <c r="B170" t="s">
+        <v>60</v>
+      </c>
+    </row>
+    <row r="171" spans="1:2" x14ac:dyDescent="0.3">
+      <c r="A171" t="s">
+        <v>230</v>
+      </c>
+      <c r="B171" t="s">
+        <v>56</v>
+      </c>
+    </row>
+    <row r="172" spans="1:2" x14ac:dyDescent="0.3">
+      <c r="A172" t="s">
+        <v>231</v>
+      </c>
+      <c r="B172" t="s">
+        <v>60</v>
+      </c>
+    </row>
+    <row r="173" spans="1:2" x14ac:dyDescent="0.3">
+      <c r="A173" t="s">
+        <v>232</v>
+      </c>
+      <c r="B173" t="s">
+        <v>70</v>
+      </c>
+    </row>
+    <row r="174" spans="1:2" x14ac:dyDescent="0.3">
+      <c r="A174" t="s">
+        <v>233</v>
+      </c>
+      <c r="B174" t="s">
+        <v>58</v>
+      </c>
+    </row>
+    <row r="175" spans="1:2" x14ac:dyDescent="0.3">
+      <c r="A175" t="s">
+        <v>234</v>
+      </c>
+      <c r="B175" t="s">
+        <v>60</v>
+      </c>
+    </row>
+    <row r="176" spans="1:2" x14ac:dyDescent="0.3">
+      <c r="A176" t="s">
+        <v>235</v>
+      </c>
+      <c r="B176" t="s">
+        <v>70</v>
+      </c>
+    </row>
+    <row r="177" spans="1:2" x14ac:dyDescent="0.3">
+      <c r="A177" t="s">
+        <v>236</v>
+      </c>
+      <c r="B177" t="s">
+        <v>56</v>
+      </c>
+    </row>
+    <row r="178" spans="1:2" x14ac:dyDescent="0.3">
+      <c r="A178" t="s">
+        <v>237</v>
+      </c>
+      <c r="B178" t="s">
+        <v>63</v>
+      </c>
+    </row>
+    <row r="179" spans="1:2" x14ac:dyDescent="0.3">
+      <c r="A179" t="s">
+        <v>238</v>
+      </c>
+      <c r="B179" t="s">
+        <v>58</v>
+      </c>
+    </row>
+    <row r="180" spans="1:2" x14ac:dyDescent="0.3">
+      <c r="A180" t="s">
+        <v>239</v>
+      </c>
+      <c r="B180" t="s">
+        <v>63</v>
+      </c>
+    </row>
+    <row r="181" spans="1:2" x14ac:dyDescent="0.3">
+      <c r="A181" t="s">
+        <v>240</v>
+      </c>
+      <c r="B181" t="s">
+        <v>60</v>
+      </c>
+    </row>
+    <row r="182" spans="1:2" x14ac:dyDescent="0.3">
+      <c r="A182" t="s">
+        <v>241</v>
+      </c>
+      <c r="B182" t="s">
+        <v>56</v>
+      </c>
+    </row>
+    <row r="183" spans="1:2" x14ac:dyDescent="0.3">
+      <c r="A183" t="s">
+        <v>242</v>
+      </c>
+      <c r="B183" t="s">
+        <v>70</v>
+      </c>
+    </row>
+    <row r="184" spans="1:2" x14ac:dyDescent="0.3">
+      <c r="A184" t="s">
+        <v>243</v>
+      </c>
+      <c r="B184" t="s">
+        <v>60</v>
+      </c>
+    </row>
+    <row r="185" spans="1:2" x14ac:dyDescent="0.3">
+      <c r="A185" t="s">
+        <v>244</v>
+      </c>
+      <c r="B185" t="s">
+        <v>60</v>
+      </c>
+    </row>
+    <row r="186" spans="1:2" x14ac:dyDescent="0.3">
+      <c r="A186" t="s">
+        <v>245</v>
+      </c>
+      <c r="B186" t="s">
+        <v>60</v>
+      </c>
+    </row>
+    <row r="187" spans="1:2" x14ac:dyDescent="0.3">
+      <c r="A187" t="s">
+        <v>246</v>
+      </c>
+      <c r="B187" t="s">
+        <v>58</v>
+      </c>
+    </row>
+    <row r="188" spans="1:2" x14ac:dyDescent="0.3">
+      <c r="A188" t="s">
+        <v>247</v>
+      </c>
+      <c r="B188" t="s">
+        <v>60</v>
+      </c>
+    </row>
+    <row r="189" spans="1:2" x14ac:dyDescent="0.3">
+      <c r="A189" t="s">
+        <v>248</v>
+      </c>
+      <c r="B189" t="s">
+        <v>60</v>
+      </c>
+    </row>
+    <row r="190" spans="1:2" x14ac:dyDescent="0.3">
+      <c r="A190" t="s">
+        <v>249</v>
+      </c>
+      <c r="B190" t="s">
+        <v>70</v>
+      </c>
+    </row>
+    <row r="191" spans="1:2" x14ac:dyDescent="0.3">
+      <c r="A191" t="s">
+        <v>250</v>
+      </c>
+      <c r="B191" t="s">
+        <v>63</v>
+      </c>
+    </row>
+    <row r="192" spans="1:2" x14ac:dyDescent="0.3">
+      <c r="A192" t="s">
+        <v>251</v>
+      </c>
+      <c r="B192" t="s">
+        <v>60</v>
+      </c>
+    </row>
+    <row r="193" spans="1:2" x14ac:dyDescent="0.3">
+      <c r="A193" t="s">
+        <v>252</v>
+      </c>
+      <c r="B193" t="s">
+        <v>70</v>
+      </c>
+    </row>
+    <row r="194" spans="1:2" x14ac:dyDescent="0.3">
+      <c r="A194" t="s">
+        <v>253</v>
+      </c>
+      <c r="B194" t="s">
+        <v>58</v>
+      </c>
+    </row>
+    <row r="195" spans="1:2" x14ac:dyDescent="0.3">
+      <c r="A195" t="s">
+        <v>254</v>
+      </c>
+      <c r="B195" t="s">
+        <v>70</v>
+      </c>
+    </row>
+    <row r="196" spans="1:2" x14ac:dyDescent="0.3">
+      <c r="A196" t="s">
+        <v>255</v>
+      </c>
+      <c r="B196" t="s">
+        <v>58</v>
+      </c>
+    </row>
+    <row r="197" spans="1:2" x14ac:dyDescent="0.3">
+      <c r="A197" t="s">
+        <v>256</v>
+      </c>
+      <c r="B197" t="s">
+        <v>60</v>
+      </c>
+    </row>
+    <row r="198" spans="1:2" x14ac:dyDescent="0.3">
+      <c r="A198" t="s">
+        <v>257</v>
+      </c>
+      <c r="B198" t="s">
+        <v>56</v>
+      </c>
+    </row>
+    <row r="199" spans="1:2" x14ac:dyDescent="0.3">
+      <c r="A199" t="s">
+        <v>258</v>
+      </c>
+      <c r="B199" t="s">
+        <v>60</v>
+      </c>
+    </row>
+    <row r="200" spans="1:2" x14ac:dyDescent="0.3">
+      <c r="A200" t="s">
+        <v>259</v>
+      </c>
+      <c r="B200" t="s">
+        <v>58</v>
+      </c>
+    </row>
+    <row r="201" spans="1:2" x14ac:dyDescent="0.3">
+      <c r="A201" t="s">
+        <v>260</v>
+      </c>
+      <c r="B201" t="s">
+        <v>70</v>
+      </c>
+    </row>
+    <row r="202" spans="1:2" x14ac:dyDescent="0.3">
+      <c r="A202" t="s">
+        <v>261</v>
+      </c>
+      <c r="B202" t="s">
+        <v>63</v>
+      </c>
+    </row>
+    <row r="203" spans="1:2" x14ac:dyDescent="0.3">
+      <c r="A203" t="s">
+        <v>262</v>
+      </c>
+      <c r="B203" t="s">
+        <v>60</v>
+      </c>
+    </row>
+    <row r="204" spans="1:2" x14ac:dyDescent="0.3">
+      <c r="A204" t="s">
+        <v>263</v>
+      </c>
+      <c r="B204" t="s">
+        <v>56</v>
+      </c>
+    </row>
+    <row r="205" spans="1:2" x14ac:dyDescent="0.3">
+      <c r="A205" t="s">
+        <v>264</v>
+      </c>
+      <c r="B205" t="s">
+        <v>70</v>
+      </c>
+    </row>
+    <row r="206" spans="1:2" x14ac:dyDescent="0.3">
+      <c r="A206" t="s">
+        <v>265</v>
+      </c>
+      <c r="B206" t="s">
+        <v>58</v>
+      </c>
+    </row>
+    <row r="207" spans="1:2" x14ac:dyDescent="0.3">
+      <c r="A207" t="s">
+        <v>266</v>
+      </c>
+      <c r="B207" t="s">
+        <v>63</v>
+      </c>
+    </row>
+    <row r="208" spans="1:2" x14ac:dyDescent="0.3">
+      <c r="A208" t="s">
+        <v>267</v>
+      </c>
+      <c r="B208" t="s">
+        <v>58</v>
+      </c>
+    </row>
+    <row r="209" spans="1:2" x14ac:dyDescent="0.3">
+      <c r="A209" t="s">
+        <v>268</v>
+      </c>
+      <c r="B209" t="s">
+        <v>56</v>
+      </c>
+    </row>
+    <row r="210" spans="1:2" x14ac:dyDescent="0.3">
+      <c r="A210" t="s">
+        <v>269</v>
+      </c>
+      <c r="B210" t="s">
+        <v>56</v>
+      </c>
+    </row>
+    <row r="211" spans="1:2" x14ac:dyDescent="0.3">
+      <c r="A211" t="s">
+        <v>270</v>
+      </c>
+      <c r="B211" t="s">
+        <v>58</v>
+      </c>
+    </row>
+    <row r="212" spans="1:2" x14ac:dyDescent="0.3">
+      <c r="A212" t="s">
+        <v>271</v>
+      </c>
+      <c r="B212" t="s">
+        <v>60</v>
+      </c>
+    </row>
+    <row r="213" spans="1:2" x14ac:dyDescent="0.3">
+      <c r="A213" t="s">
+        <v>272</v>
+      </c>
+      <c r="B213" t="s">
+        <v>63</v>
+      </c>
+    </row>
+    <row r="214" spans="1:2" x14ac:dyDescent="0.3">
+      <c r="A214" t="s">
+        <v>273</v>
+      </c>
+      <c r="B214" t="s">
+        <v>56</v>
+      </c>
+    </row>
+    <row r="215" spans="1:2" x14ac:dyDescent="0.3">
+      <c r="A215" t="s">
+        <v>274</v>
+      </c>
+      <c r="B215" t="s">
+        <v>70</v>
+      </c>
+    </row>
+    <row r="216" spans="1:2" x14ac:dyDescent="0.3">
+      <c r="A216" t="s">
+        <v>275</v>
+      </c>
+      <c r="B216" t="s">
+        <v>56</v>
+      </c>
+    </row>
+    <row r="217" spans="1:2" x14ac:dyDescent="0.3">
+      <c r="A217" t="s">
+        <v>276</v>
+      </c>
+      <c r="B217" t="s">
+        <v>60</v>
+      </c>
+    </row>
+    <row r="218" spans="1:2" x14ac:dyDescent="0.3">
+      <c r="A218" t="s">
+        <v>277</v>
+      </c>
+      <c r="B218" t="s">
+        <v>58</v>
+      </c>
+    </row>
+    <row r="219" spans="1:2" x14ac:dyDescent="0.3">
+      <c r="A219" t="s">
+        <v>278</v>
+      </c>
+      <c r="B219" t="s">
+        <v>56</v>
+      </c>
+    </row>
+    <row r="220" spans="1:2" x14ac:dyDescent="0.3">
+      <c r="A220" t="s">
+        <v>279</v>
+      </c>
+      <c r="B220" t="s">
+        <v>56</v>
+      </c>
+    </row>
+    <row r="221" spans="1:2" x14ac:dyDescent="0.3">
+      <c r="A221" t="s">
+        <v>280</v>
+      </c>
+      <c r="B221" t="s">
+        <v>70</v>
+      </c>
+    </row>
+    <row r="222" spans="1:2" x14ac:dyDescent="0.3">
+      <c r="A222" t="s">
+        <v>281</v>
+      </c>
+      <c r="B222" t="s">
+        <v>63</v>
+      </c>
+    </row>
+    <row r="223" spans="1:2" x14ac:dyDescent="0.3">
+      <c r="A223" t="s">
+        <v>282</v>
+      </c>
+      <c r="B223" t="s">
+        <v>70</v>
+      </c>
+    </row>
+    <row r="224" spans="1:2" x14ac:dyDescent="0.3">
+      <c r="A224" t="s">
+        <v>283</v>
+      </c>
+      <c r="B224" t="s">
+        <v>63</v>
+      </c>
+    </row>
+    <row r="225" spans="1:2" x14ac:dyDescent="0.3">
+      <c r="A225" t="s">
+        <v>284</v>
+      </c>
+      <c r="B225" t="s">
+        <v>70</v>
+      </c>
+    </row>
+    <row r="226" spans="1:2" x14ac:dyDescent="0.3">
+      <c r="A226" t="s">
+        <v>285</v>
+      </c>
+      <c r="B226" t="s">
+        <v>58</v>
+      </c>
+    </row>
+    <row r="227" spans="1:2" x14ac:dyDescent="0.3">
+      <c r="A227" t="s">
+        <v>286</v>
+      </c>
+      <c r="B227" t="s">
+        <v>63</v>
+      </c>
+    </row>
+    <row r="228" spans="1:2" x14ac:dyDescent="0.3">
+      <c r="A228" t="s">
+        <v>287</v>
+      </c>
+      <c r="B228" t="s">
+        <v>63</v>
+      </c>
+    </row>
+    <row r="229" spans="1:2" x14ac:dyDescent="0.3">
+      <c r="A229" t="s">
+        <v>288</v>
+      </c>
+      <c r="B229" t="s">
+        <v>56</v>
+      </c>
+    </row>
+    <row r="230" spans="1:2" x14ac:dyDescent="0.3">
+      <c r="A230" t="s">
+        <v>289</v>
+      </c>
+      <c r="B230" t="s">
+        <v>56</v>
+      </c>
+    </row>
+    <row r="231" spans="1:2" x14ac:dyDescent="0.3">
+      <c r="A231" t="s">
+        <v>290</v>
+      </c>
+      <c r="B231" t="s">
+        <v>58</v>
+      </c>
+    </row>
+    <row r="232" spans="1:2" x14ac:dyDescent="0.3">
+      <c r="A232" t="s">
+        <v>291</v>
+      </c>
+      <c r="B232" t="s">
+        <v>56</v>
+      </c>
+    </row>
+    <row r="233" spans="1:2" x14ac:dyDescent="0.3">
+      <c r="A233" t="s">
+        <v>292</v>
+      </c>
+      <c r="B233" t="s">
+        <v>63</v>
+      </c>
+    </row>
+    <row r="234" spans="1:2" x14ac:dyDescent="0.3">
+      <c r="A234" t="s">
+        <v>293</v>
+      </c>
+      <c r="B234" t="s">
+        <v>63</v>
+      </c>
+    </row>
+    <row r="235" spans="1:2" x14ac:dyDescent="0.3">
+      <c r="A235" t="s">
+        <v>294</v>
+      </c>
+      <c r="B235" t="s">
+        <v>58</v>
+      </c>
+    </row>
+    <row r="236" spans="1:2" x14ac:dyDescent="0.3">
+      <c r="A236" t="s">
+        <v>295</v>
+      </c>
+      <c r="B236" t="s">
+        <v>60</v>
+      </c>
+    </row>
+    <row r="237" spans="1:2" x14ac:dyDescent="0.3">
+      <c r="A237" t="s">
+        <v>296</v>
+      </c>
+      <c r="B237" t="s">
+        <v>63</v>
+      </c>
+    </row>
+    <row r="238" spans="1:2" x14ac:dyDescent="0.3">
+      <c r="A238" t="s">
+        <v>297</v>
+      </c>
+      <c r="B238" t="s">
+        <v>60</v>
+      </c>
+    </row>
+    <row r="239" spans="1:2" x14ac:dyDescent="0.3">
+      <c r="A239" t="s">
+        <v>298</v>
+      </c>
+      <c r="B239" t="s">
+        <v>63</v>
+      </c>
+    </row>
+    <row r="240" spans="1:2" x14ac:dyDescent="0.3">
+      <c r="A240" t="s">
+        <v>299</v>
+      </c>
+      <c r="B240" t="s">
+        <v>70</v>
+      </c>
+    </row>
+    <row r="241" spans="1:2" x14ac:dyDescent="0.3">
+      <c r="A241" t="s">
+        <v>300</v>
+      </c>
+      <c r="B241" t="s">
+        <v>56</v>
+      </c>
+    </row>
+    <row r="242" spans="1:2" x14ac:dyDescent="0.3">
+      <c r="A242" t="s">
+        <v>301</v>
+      </c>
+      <c r="B242" t="s">
+        <v>63</v>
+      </c>
+    </row>
+    <row r="243" spans="1:2" x14ac:dyDescent="0.3">
+      <c r="A243" t="s">
+        <v>302</v>
+      </c>
+      <c r="B243" t="s">
+        <v>58</v>
+      </c>
+    </row>
+    <row r="244" spans="1:2" x14ac:dyDescent="0.3">
+      <c r="A244" t="s">
+        <v>303</v>
+      </c>
+      <c r="B244" t="s">
+        <v>70</v>
+      </c>
+    </row>
+    <row r="245" spans="1:2" x14ac:dyDescent="0.3">
+      <c r="A245" t="s">
+        <v>304</v>
+      </c>
+      <c r="B245" t="s">
+        <v>60</v>
+      </c>
+    </row>
+    <row r="246" spans="1:2" x14ac:dyDescent="0.3">
+      <c r="A246" t="s">
+        <v>305</v>
+      </c>
+      <c r="B246" t="s">
+        <v>56</v>
+      </c>
+    </row>
+    <row r="247" spans="1:2" x14ac:dyDescent="0.3">
+      <c r="A247" t="s">
+        <v>306</v>
+      </c>
+      <c r="B247" t="s">
+        <v>58</v>
+      </c>
+    </row>
+    <row r="248" spans="1:2" x14ac:dyDescent="0.3">
+      <c r="A248" t="s">
+        <v>307</v>
+      </c>
+      <c r="B248" t="s">
+        <v>58</v>
+      </c>
+    </row>
+    <row r="249" spans="1:2" x14ac:dyDescent="0.3">
+      <c r="A249" t="s">
+        <v>308</v>
+      </c>
+      <c r="B249" t="s">
+        <v>58</v>
+      </c>
+    </row>
+    <row r="250" spans="1:2" x14ac:dyDescent="0.3">
+      <c r="A250" t="s">
+        <v>309</v>
+      </c>
+      <c r="B250" t="s">
+        <v>60</v>
+      </c>
+    </row>
+    <row r="251" spans="1:2" x14ac:dyDescent="0.3">
+      <c r="A251" t="s">
+        <v>310</v>
+      </c>
+      <c r="B251" t="s">
+        <v>63</v>
+      </c>
+    </row>
+    <row r="252" spans="1:2" x14ac:dyDescent="0.3">
+      <c r="A252" t="s">
+        <v>311</v>
+      </c>
+      <c r="B252" t="s">
+        <v>60</v>
+      </c>
+    </row>
+    <row r="253" spans="1:2" x14ac:dyDescent="0.3">
+      <c r="A253" t="s">
+        <v>312</v>
+      </c>
+      <c r="B253" t="s">
+        <v>60</v>
+      </c>
+    </row>
+    <row r="254" spans="1:2" x14ac:dyDescent="0.3">
+      <c r="A254" t="s">
+        <v>313</v>
+      </c>
+      <c r="B254" t="s">
+        <v>63</v>
+      </c>
+    </row>
+    <row r="255" spans="1:2" x14ac:dyDescent="0.3">
+      <c r="A255" t="s">
+        <v>314</v>
+      </c>
+      <c r="B255" t="s">
+        <v>63</v>
+      </c>
+    </row>
+    <row r="256" spans="1:2" x14ac:dyDescent="0.3">
+      <c r="A256" t="s">
+        <v>315</v>
+      </c>
+      <c r="B256" t="s">
+        <v>63</v>
+      </c>
+    </row>
+    <row r="257" spans="1:2" x14ac:dyDescent="0.3">
+      <c r="A257" t="s">
+        <v>316</v>
+      </c>
+      <c r="B257" t="s">
+        <v>63</v>
+      </c>
+    </row>
+    <row r="258" spans="1:2" x14ac:dyDescent="0.3">
+      <c r="A258" t="s">
+        <v>317</v>
+      </c>
+      <c r="B258" t="s">
+        <v>63</v>
+      </c>
+    </row>
+    <row r="259" spans="1:2" x14ac:dyDescent="0.3">
+      <c r="A259" t="s">
+        <v>318</v>
+      </c>
+      <c r="B259" t="s">
+        <v>60</v>
+      </c>
+    </row>
+    <row r="260" spans="1:2" x14ac:dyDescent="0.3">
+      <c r="A260" t="s">
+        <v>319</v>
+      </c>
+      <c r="B260" t="s">
+        <v>56</v>
+      </c>
+    </row>
+    <row r="261" spans="1:2" x14ac:dyDescent="0.3">
+      <c r="A261" t="s">
+        <v>320</v>
+      </c>
+      <c r="B261" t="s">
+        <v>56</v>
+      </c>
+    </row>
+    <row r="262" spans="1:2" x14ac:dyDescent="0.3">
+      <c r="A262" t="s">
+        <v>321</v>
+      </c>
+      <c r="B262" t="s">
+        <v>60</v>
+      </c>
+    </row>
+    <row r="263" spans="1:2" x14ac:dyDescent="0.3">
+      <c r="A263" t="s">
+        <v>322</v>
+      </c>
+      <c r="B263" t="s">
+        <v>60</v>
+      </c>
+    </row>
+    <row r="264" spans="1:2" x14ac:dyDescent="0.3">
+      <c r="A264" t="s">
+        <v>323</v>
+      </c>
+      <c r="B264" t="s">
+        <v>63</v>
+      </c>
+    </row>
+    <row r="265" spans="1:2" x14ac:dyDescent="0.3">
+      <c r="A265" t="s">
+        <v>324</v>
+      </c>
+      <c r="B265" t="s">
+        <v>60</v>
+      </c>
+    </row>
+    <row r="266" spans="1:2" x14ac:dyDescent="0.3">
+      <c r="A266" t="s">
+        <v>325</v>
+      </c>
+      <c r="B266" t="s">
+        <v>60</v>
+      </c>
+    </row>
+    <row r="267" spans="1:2" x14ac:dyDescent="0.3">
+      <c r="A267" t="s">
+        <v>326</v>
+      </c>
+      <c r="B267" t="s">
+        <v>70</v>
+      </c>
+    </row>
+    <row r="268" spans="1:2" x14ac:dyDescent="0.3">
+      <c r="A268" t="s">
+        <v>327</v>
+      </c>
+      <c r="B268" t="s">
+        <v>60</v>
+      </c>
+    </row>
+    <row r="269" spans="1:2" x14ac:dyDescent="0.3">
+      <c r="A269" t="s">
+        <v>328</v>
+      </c>
+      <c r="B269" t="s">
+        <v>58</v>
+      </c>
+    </row>
+    <row r="270" spans="1:2" x14ac:dyDescent="0.3">
+      <c r="A270" t="s">
+        <v>329</v>
+      </c>
+      <c r="B270" t="s">
+        <v>70</v>
+      </c>
+    </row>
+    <row r="271" spans="1:2" x14ac:dyDescent="0.3">
+      <c r="A271" t="s">
+        <v>330</v>
+      </c>
+      <c r="B271" t="s">
+        <v>60</v>
+      </c>
+    </row>
+    <row r="272" spans="1:2" x14ac:dyDescent="0.3">
+      <c r="A272" t="s">
+        <v>331</v>
+      </c>
+      <c r="B272" t="s">
+        <v>60</v>
+      </c>
+    </row>
+    <row r="273" spans="1:2" x14ac:dyDescent="0.3">
+      <c r="A273" t="s">
+        <v>332</v>
+      </c>
+      <c r="B273" t="s">
+        <v>60</v>
+      </c>
+    </row>
+    <row r="274" spans="1:2" x14ac:dyDescent="0.3">
+      <c r="A274" t="s">
+        <v>333</v>
+      </c>
+      <c r="B274" t="s">
+        <v>60</v>
+      </c>
+    </row>
+    <row r="275" spans="1:2" x14ac:dyDescent="0.3">
+      <c r="A275" t="s">
+        <v>334</v>
+      </c>
+      <c r="B275" t="s">
+        <v>58</v>
+      </c>
+    </row>
+    <row r="276" spans="1:2" x14ac:dyDescent="0.3">
+      <c r="A276" t="s">
+        <v>335</v>
+      </c>
+      <c r="B276" t="s">
+        <v>56</v>
+      </c>
+    </row>
+    <row r="277" spans="1:2" x14ac:dyDescent="0.3">
+      <c r="A277" t="s">
+        <v>336</v>
+      </c>
+      <c r="B277" t="s">
+        <v>60</v>
+      </c>
+    </row>
+    <row r="278" spans="1:2" x14ac:dyDescent="0.3">
+      <c r="A278" t="s">
+        <v>337</v>
+      </c>
+      <c r="B278" t="s">
+        <v>58</v>
+      </c>
+    </row>
+    <row r="279" spans="1:2" x14ac:dyDescent="0.3">
+      <c r="A279" t="s">
+        <v>338</v>
+      </c>
+      <c r="B279" t="s">
+        <v>63</v>
+      </c>
+    </row>
+    <row r="280" spans="1:2" x14ac:dyDescent="0.3">
+      <c r="A280" t="s">
+        <v>339</v>
+      </c>
+      <c r="B280" t="s">
+        <v>63</v>
+      </c>
+    </row>
+    <row r="281" spans="1:2" x14ac:dyDescent="0.3">
+      <c r="A281" t="s">
+        <v>340</v>
+      </c>
+      <c r="B281" t="s">
+        <v>63</v>
+      </c>
+    </row>
+    <row r="282" spans="1:2" x14ac:dyDescent="0.3">
+      <c r="A282" t="s">
+        <v>341</v>
+      </c>
+      <c r="B282" t="s">
+        <v>63</v>
+      </c>
+    </row>
+    <row r="283" spans="1:2" x14ac:dyDescent="0.3">
+      <c r="A283" t="s">
+        <v>342</v>
+      </c>
+      <c r="B283" t="s">
+        <v>60</v>
+      </c>
+    </row>
+    <row r="284" spans="1:2" x14ac:dyDescent="0.3">
+      <c r="A284" t="s">
+        <v>343</v>
+      </c>
+      <c r="B284" t="s">
+        <v>60</v>
+      </c>
+    </row>
+    <row r="285" spans="1:2" x14ac:dyDescent="0.3">
+      <c r="A285" t="s">
+        <v>344</v>
+      </c>
+      <c r="B285" t="s">
+        <v>63</v>
+      </c>
+    </row>
+    <row r="286" spans="1:2" x14ac:dyDescent="0.3">
+      <c r="A286" t="s">
+        <v>345</v>
+      </c>
+      <c r="B286" t="s">
+        <v>60</v>
+      </c>
+    </row>
+    <row r="287" spans="1:2" x14ac:dyDescent="0.3">
+      <c r="A287" t="s">
+        <v>346</v>
+      </c>
+      <c r="B287" t="s">
+        <v>56</v>
+      </c>
+    </row>
+    <row r="288" spans="1:2" x14ac:dyDescent="0.3">
+      <c r="A288" t="s">
+        <v>347</v>
+      </c>
+      <c r="B288" t="s">
+        <v>60</v>
+      </c>
+    </row>
+    <row r="289" spans="1:2" x14ac:dyDescent="0.3">
+      <c r="A289" t="s">
+        <v>348</v>
+      </c>
+      <c r="B289" t="s">
+        <v>70</v>
+      </c>
+    </row>
+    <row r="290" spans="1:2" x14ac:dyDescent="0.3">
+      <c r="A290" t="s">
+        <v>349</v>
+      </c>
+      <c r="B290" t="s">
+        <v>70</v>
+      </c>
+    </row>
+    <row r="291" spans="1:2" x14ac:dyDescent="0.3">
+      <c r="A291" t="s">
+        <v>350</v>
+      </c>
+      <c r="B291" t="s">
+        <v>60</v>
+      </c>
+    </row>
+    <row r="292" spans="1:2" x14ac:dyDescent="0.3">
+      <c r="A292" t="s">
+        <v>351</v>
+      </c>
+      <c r="B292" t="s">
+        <v>58</v>
+      </c>
+    </row>
+    <row r="293" spans="1:2" x14ac:dyDescent="0.3">
+      <c r="A293" t="s">
+        <v>352</v>
+      </c>
+      <c r="B293" t="s">
+        <v>58</v>
+      </c>
+    </row>
+    <row r="294" spans="1:2" x14ac:dyDescent="0.3">
+      <c r="A294" t="s">
+        <v>353</v>
+      </c>
+      <c r="B294" t="s">
+        <v>58</v>
+      </c>
+    </row>
+    <row r="295" spans="1:2" x14ac:dyDescent="0.3">
+      <c r="A295" t="s">
+        <v>354</v>
+      </c>
+      <c r="B295" t="s">
+        <v>56</v>
+      </c>
+    </row>
+    <row r="296" spans="1:2" x14ac:dyDescent="0.3">
+      <c r="A296" t="s">
+        <v>355</v>
+      </c>
+      <c r="B296" t="s">
+        <v>56</v>
+      </c>
+    </row>
+    <row r="297" spans="1:2" x14ac:dyDescent="0.3">
+      <c r="A297" t="s">
+        <v>356</v>
+      </c>
+      <c r="B297" t="s">
+        <v>60</v>
+      </c>
+    </row>
+    <row r="298" spans="1:2" x14ac:dyDescent="0.3">
+      <c r="A298" t="s">
+        <v>357</v>
+      </c>
+      <c r="B298" t="s">
+        <v>63</v>
+      </c>
+    </row>
+    <row r="299" spans="1:2" x14ac:dyDescent="0.3">
+      <c r="A299" t="s">
+        <v>358</v>
+      </c>
+      <c r="B299" t="s">
+        <v>56</v>
+      </c>
+    </row>
+    <row r="300" spans="1:2" x14ac:dyDescent="0.3">
+      <c r="A300" t="s">
+        <v>359</v>
+      </c>
+      <c r="B300" t="s">
+        <v>58</v>
+      </c>
+    </row>
+    <row r="301" spans="1:2" x14ac:dyDescent="0.3">
+      <c r="A301" t="s">
+        <v>360</v>
+      </c>
+      <c r="B301" t="s">
+        <v>58</v>
+      </c>
+    </row>
+    <row r="302" spans="1:2" x14ac:dyDescent="0.3">
+      <c r="A302" t="s">
+        <v>361</v>
+      </c>
+      <c r="B302" t="s">
+        <v>60</v>
+      </c>
+    </row>
+    <row r="303" spans="1:2" x14ac:dyDescent="0.3">
+      <c r="A303" t="s">
+        <v>362</v>
+      </c>
+      <c r="B303" t="s">
+        <v>60</v>
+      </c>
+    </row>
+    <row r="304" spans="1:2" x14ac:dyDescent="0.3">
+      <c r="A304" t="s">
+        <v>363</v>
+      </c>
+      <c r="B304" t="s">
+        <v>56</v>
+      </c>
+    </row>
+    <row r="305" spans="1:2" x14ac:dyDescent="0.3">
+      <c r="A305" t="s">
+        <v>364</v>
+      </c>
+      <c r="B305" t="s">
+        <v>58</v>
+      </c>
+    </row>
+    <row r="306" spans="1:2" x14ac:dyDescent="0.3">
+      <c r="A306" t="s">
+        <v>365</v>
+      </c>
+      <c r="B306" t="s">
+        <v>63</v>
+      </c>
+    </row>
+    <row r="307" spans="1:2" x14ac:dyDescent="0.3">
+      <c r="A307" t="s">
+        <v>366</v>
+      </c>
+      <c r="B307" t="s">
+        <v>63</v>
+      </c>
+    </row>
+    <row r="308" spans="1:2" x14ac:dyDescent="0.3">
+      <c r="A308" t="s">
+        <v>367</v>
+      </c>
+      <c r="B308" t="s">
+        <v>56</v>
+      </c>
+    </row>
+    <row r="309" spans="1:2" x14ac:dyDescent="0.3">
+      <c r="A309" t="s">
+        <v>368</v>
+      </c>
+      <c r="B309" t="s">
+        <v>56</v>
+      </c>
+    </row>
+    <row r="310" spans="1:2" x14ac:dyDescent="0.3">
+      <c r="A310" t="s">
+        <v>369</v>
+      </c>
+      <c r="B310" t="s">
+        <v>60</v>
+      </c>
+    </row>
+    <row r="311" spans="1:2" x14ac:dyDescent="0.3">
+      <c r="A311" t="s">
+        <v>370</v>
+      </c>
+      <c r="B311" t="s">
+        <v>63</v>
+      </c>
+    </row>
+    <row r="312" spans="1:2" x14ac:dyDescent="0.3">
+      <c r="A312" t="s">
+        <v>371</v>
+      </c>
+      <c r="B312" t="s">
+        <v>58</v>
+      </c>
+    </row>
+    <row r="313" spans="1:2" x14ac:dyDescent="0.3">
+      <c r="A313" t="s">
+        <v>372</v>
+      </c>
+      <c r="B313" t="s">
+        <v>63</v>
+      </c>
+    </row>
+    <row r="314" spans="1:2" x14ac:dyDescent="0.3">
+      <c r="A314" t="s">
+        <v>373</v>
+      </c>
+      <c r="B314" t="s">
+        <v>63</v>
+      </c>
+    </row>
+    <row r="315" spans="1:2" x14ac:dyDescent="0.3">
+      <c r="A315" t="s">
+        <v>374</v>
+      </c>
+      <c r="B315" t="s">
+        <v>58</v>
+      </c>
+    </row>
+    <row r="316" spans="1:2" x14ac:dyDescent="0.3">
+      <c r="A316" t="s">
+        <v>375</v>
+      </c>
+      <c r="B316" t="s">
+        <v>56</v>
+      </c>
+    </row>
+    <row r="317" spans="1:2" x14ac:dyDescent="0.3">
+      <c r="A317" t="s">
+        <v>376</v>
+      </c>
+      <c r="B317" t="s">
+        <v>63</v>
+      </c>
+    </row>
+    <row r="318" spans="1:2" x14ac:dyDescent="0.3">
+      <c r="A318" t="s">
+        <v>377</v>
+      </c>
+      <c r="B318" t="s">
+        <v>56</v>
+      </c>
+    </row>
+    <row r="319" spans="1:2" x14ac:dyDescent="0.3">
+      <c r="A319" t="s">
+        <v>378</v>
+      </c>
+      <c r="B319" t="s">
+        <v>58</v>
+      </c>
+    </row>
+    <row r="320" spans="1:2" x14ac:dyDescent="0.3">
+      <c r="A320" t="s">
+        <v>379</v>
+      </c>
+      <c r="B320" t="s">
+        <v>58</v>
+      </c>
+    </row>
+    <row r="321" spans="1:2" x14ac:dyDescent="0.3">
+      <c r="A321" t="s">
+        <v>380</v>
+      </c>
+      <c r="B321" t="s">
+        <v>63</v>
+      </c>
+    </row>
+    <row r="322" spans="1:2" x14ac:dyDescent="0.3">
+      <c r="A322" t="s">
+        <v>381</v>
+      </c>
+      <c r="B322" t="s">
+        <v>63</v>
+      </c>
+    </row>
+    <row r="323" spans="1:2" x14ac:dyDescent="0.3">
+      <c r="A323" t="s">
+        <v>382</v>
+      </c>
+      <c r="B323" t="s">
+        <v>60</v>
+      </c>
+    </row>
+    <row r="324" spans="1:2" x14ac:dyDescent="0.3">
+      <c r="A324" t="s">
+        <v>383</v>
+      </c>
+      <c r="B324" t="s">
+        <v>70</v>
+      </c>
+    </row>
+    <row r="325" spans="1:2" x14ac:dyDescent="0.3">
+      <c r="A325" t="s">
+        <v>384</v>
+      </c>
+      <c r="B325" t="s">
+        <v>60</v>
+      </c>
+    </row>
+    <row r="326" spans="1:2" x14ac:dyDescent="0.3">
+      <c r="A326" t="s">
+        <v>385</v>
+      </c>
+      <c r="B326" t="s">
+        <v>58</v>
+      </c>
+    </row>
+    <row r="327" spans="1:2" x14ac:dyDescent="0.3">
+      <c r="A327" t="s">
+        <v>386</v>
+      </c>
+      <c r="B327" t="s">
+        <v>58</v>
+      </c>
+    </row>
+    <row r="328" spans="1:2" x14ac:dyDescent="0.3">
+      <c r="A328" t="s">
+        <v>387</v>
+      </c>
+      <c r="B328" t="s">
+        <v>56</v>
+      </c>
+    </row>
+    <row r="329" spans="1:2" x14ac:dyDescent="0.3">
+      <c r="A329" t="s">
+        <v>388</v>
+      </c>
+      <c r="B329" t="s">
+        <v>58</v>
+      </c>
+    </row>
+    <row r="330" spans="1:2" x14ac:dyDescent="0.3">
+      <c r="A330" t="s">
+        <v>389</v>
+      </c>
+      <c r="B330" t="s">
+        <v>70</v>
+      </c>
+    </row>
+    <row r="331" spans="1:2" x14ac:dyDescent="0.3">
+      <c r="A331" t="s">
+        <v>390</v>
+      </c>
+      <c r="B331" t="s">
+        <v>56</v>
+      </c>
+    </row>
+    <row r="332" spans="1:2" x14ac:dyDescent="0.3">
+      <c r="A332" t="s">
+        <v>391</v>
+      </c>
+      <c r="B332" t="s">
+        <v>56</v>
+      </c>
+    </row>
+    <row r="333" spans="1:2" x14ac:dyDescent="0.3">
+      <c r="A333" t="s">
+        <v>392</v>
+      </c>
+      <c r="B333" t="s">
+        <v>63</v>
+      </c>
+    </row>
+    <row r="334" spans="1:2" x14ac:dyDescent="0.3">
+      <c r="A334" t="s">
+        <v>393</v>
+      </c>
+      <c r="B334" t="s">
+        <v>56</v>
+      </c>
+    </row>
+    <row r="335" spans="1:2" x14ac:dyDescent="0.3">
+      <c r="A335" t="s">
+        <v>394</v>
+      </c>
+      <c r="B335" t="s">
+        <v>63</v>
+      </c>
+    </row>
+    <row r="336" spans="1:2" x14ac:dyDescent="0.3">
+      <c r="A336" t="s">
+        <v>395</v>
+      </c>
+      <c r="B336" t="s">
+        <v>63</v>
+      </c>
+    </row>
+    <row r="337" spans="1:2" x14ac:dyDescent="0.3">
+      <c r="A337" t="s">
+        <v>396</v>
+      </c>
+      <c r="B337" t="s">
+        <v>60</v>
+      </c>
+    </row>
+    <row r="338" spans="1:2" x14ac:dyDescent="0.3">
+      <c r="A338" t="s">
+        <v>397</v>
+      </c>
+      <c r="B338" t="s">
+        <v>60</v>
+      </c>
+    </row>
+    <row r="339" spans="1:2" x14ac:dyDescent="0.3">
+      <c r="A339" t="s">
+        <v>398</v>
+      </c>
+      <c r="B339" t="s">
+        <v>63</v>
+      </c>
+    </row>
+    <row r="340" spans="1:2" x14ac:dyDescent="0.3">
+      <c r="A340" t="s">
+        <v>399</v>
+      </c>
+      <c r="B340" t="s">
+        <v>56</v>
+      </c>
+    </row>
+    <row r="341" spans="1:2" x14ac:dyDescent="0.3">
+      <c r="A341" t="s">
+        <v>400</v>
+      </c>
+      <c r="B341" t="s">
+        <v>70</v>
+      </c>
+    </row>
+    <row r="342" spans="1:2" x14ac:dyDescent="0.3">
+      <c r="A342" t="s">
+        <v>401</v>
+      </c>
+      <c r="B342" t="s">
+        <v>70</v>
+      </c>
+    </row>
+    <row r="343" spans="1:2" x14ac:dyDescent="0.3">
+      <c r="A343" t="s">
+        <v>402</v>
+      </c>
+      <c r="B343" t="s">
+        <v>58</v>
+      </c>
+    </row>
+    <row r="344" spans="1:2" x14ac:dyDescent="0.3">
+      <c r="A344" t="s">
+        <v>403</v>
+      </c>
+      <c r="B344" t="s">
+        <v>56</v>
+      </c>
+    </row>
+    <row r="345" spans="1:2" x14ac:dyDescent="0.3">
+      <c r="A345" t="s">
+        <v>404</v>
+      </c>
+      <c r="B345" t="s">
+        <v>60</v>
+      </c>
+    </row>
+    <row r="346" spans="1:2" x14ac:dyDescent="0.3">
+      <c r="A346" t="s">
+        <v>405</v>
+      </c>
+      <c r="B346" t="s">
+        <v>58</v>
+      </c>
+    </row>
+    <row r="347" spans="1:2" x14ac:dyDescent="0.3">
+      <c r="A347" t="s">
+        <v>406</v>
+      </c>
+      <c r="B347" t="s">
+        <v>56</v>
+      </c>
+    </row>
+    <row r="348" spans="1:2" x14ac:dyDescent="0.3">
+      <c r="A348" t="s">
+        <v>407</v>
+      </c>
+      <c r="B348" t="s">
+        <v>56</v>
+      </c>
+    </row>
+    <row r="349" spans="1:2" x14ac:dyDescent="0.3">
+      <c r="A349" t="s">
+        <v>408</v>
+      </c>
+      <c r="B349" t="s">
+        <v>60</v>
+      </c>
+    </row>
+    <row r="350" spans="1:2" x14ac:dyDescent="0.3">
+      <c r="A350" t="s">
+        <v>409</v>
+      </c>
+      <c r="B350" t="s">
+        <v>70</v>
+      </c>
+    </row>
+    <row r="351" spans="1:2" x14ac:dyDescent="0.3">
+      <c r="A351" t="s">
+        <v>410</v>
+      </c>
+      <c r="B351" t="s">
+        <v>63</v>
+      </c>
+    </row>
+    <row r="352" spans="1:2" x14ac:dyDescent="0.3">
+      <c r="A352" t="s">
+        <v>411</v>
+      </c>
+      <c r="B352" t="s">
+        <v>70</v>
+      </c>
+    </row>
+    <row r="353" spans="1:2" x14ac:dyDescent="0.3">
+      <c r="A353" t="s">
+        <v>412</v>
+      </c>
+      <c r="B353" t="s">
+        <v>58</v>
+      </c>
+    </row>
+    <row r="354" spans="1:2" x14ac:dyDescent="0.3">
+      <c r="A354" t="s">
+        <v>413</v>
+      </c>
+      <c r="B354" t="s">
+        <v>56</v>
+      </c>
+    </row>
+    <row r="355" spans="1:2" x14ac:dyDescent="0.3">
+      <c r="A355" t="s">
+        <v>414</v>
+      </c>
+      <c r="B355" t="s">
+        <v>70</v>
+      </c>
+    </row>
+    <row r="356" spans="1:2" x14ac:dyDescent="0.3">
+      <c r="A356" t="s">
+        <v>415</v>
+      </c>
+      <c r="B356" t="s">
+        <v>70</v>
+      </c>
+    </row>
+    <row r="357" spans="1:2" x14ac:dyDescent="0.3">
+      <c r="A357" t="s">
+        <v>416</v>
+      </c>
+      <c r="B357" t="s">
+        <v>63</v>
+      </c>
+    </row>
+    <row r="358" spans="1:2" x14ac:dyDescent="0.3">
+      <c r="A358" t="s">
+        <v>417</v>
+      </c>
+      <c r="B358" t="s">
+        <v>70</v>
+      </c>
+    </row>
+    <row r="359" spans="1:2" x14ac:dyDescent="0.3">
+      <c r="A359" t="s">
+        <v>418</v>
+      </c>
+      <c r="B359" t="s">
+        <v>60</v>
+      </c>
+    </row>
+    <row r="360" spans="1:2" x14ac:dyDescent="0.3">
+      <c r="A360" t="s">
+        <v>419</v>
+      </c>
+      <c r="B360" t="s">
+        <v>60</v>
+      </c>
+    </row>
+    <row r="361" spans="1:2" x14ac:dyDescent="0.3">
+      <c r="A361" t="s">
+        <v>420</v>
+      </c>
+      <c r="B361" t="s">
+        <v>60</v>
+      </c>
+    </row>
+    <row r="362" spans="1:2" x14ac:dyDescent="0.3">
+      <c r="A362" t="s">
+        <v>421</v>
+      </c>
+      <c r="B362" t="s">
+        <v>63</v>
+      </c>
+    </row>
+    <row r="363" spans="1:2" x14ac:dyDescent="0.3">
+      <c r="A363" t="s">
+        <v>422</v>
+      </c>
+      <c r="B363" t="s">
+        <v>70</v>
+      </c>
+    </row>
+    <row r="364" spans="1:2" x14ac:dyDescent="0.3">
+      <c r="A364" t="s">
+        <v>423</v>
+      </c>
+      <c r="B364" t="s">
+        <v>70</v>
+      </c>
+    </row>
+    <row r="365" spans="1:2" x14ac:dyDescent="0.3">
+      <c r="A365" t="s">
+        <v>424</v>
+      </c>
+      <c r="B365" t="s">
+        <v>56</v>
+      </c>
+    </row>
+    <row r="366" spans="1:2" x14ac:dyDescent="0.3">
+      <c r="A366" t="s">
+        <v>425</v>
+      </c>
+      <c r="B366" t="s">
+        <v>70</v>
+      </c>
+    </row>
+    <row r="367" spans="1:2" x14ac:dyDescent="0.3">
+      <c r="A367" t="s">
+        <v>426</v>
+      </c>
+      <c r="B367" t="s">
+        <v>70</v>
+      </c>
+    </row>
+    <row r="368" spans="1:2" x14ac:dyDescent="0.3">
+      <c r="A368" t="s">
+        <v>427</v>
+      </c>
+      <c r="B368" t="s">
+        <v>63</v>
+      </c>
+    </row>
+    <row r="369" spans="1:2" x14ac:dyDescent="0.3">
+      <c r="A369" t="s">
+        <v>428</v>
+      </c>
+      <c r="B369" t="s">
+        <v>58</v>
+      </c>
+    </row>
+    <row r="370" spans="1:2" x14ac:dyDescent="0.3">
+      <c r="A370" t="s">
+        <v>429</v>
+      </c>
+      <c r="B370" t="s">
+        <v>63</v>
+      </c>
+    </row>
+    <row r="371" spans="1:2" x14ac:dyDescent="0.3">
+      <c r="A371" t="s">
+        <v>430</v>
+      </c>
+      <c r="B371" t="s">
+        <v>60</v>
+      </c>
+    </row>
+    <row r="372" spans="1:2" x14ac:dyDescent="0.3">
+      <c r="A372" t="s">
+        <v>431</v>
+      </c>
+      <c r="B372" t="s">
+        <v>56</v>
+      </c>
+    </row>
+    <row r="373" spans="1:2" x14ac:dyDescent="0.3">
+      <c r="A373" t="s">
+        <v>432</v>
+      </c>
+      <c r="B373" t="s">
+        <v>70</v>
+      </c>
+    </row>
+    <row r="374" spans="1:2" x14ac:dyDescent="0.3">
+      <c r="A374" t="s">
+        <v>433</v>
+      </c>
+      <c r="B374" t="s">
+        <v>70</v>
+      </c>
+    </row>
+    <row r="375" spans="1:2" x14ac:dyDescent="0.3">
+      <c r="A375" t="s">
+        <v>434</v>
+      </c>
+      <c r="B375" t="s">
+        <v>60</v>
+      </c>
+    </row>
+    <row r="376" spans="1:2" x14ac:dyDescent="0.3">
+      <c r="A376" t="s">
+        <v>435</v>
+      </c>
+      <c r="B376" t="s">
+        <v>63</v>
+      </c>
+    </row>
+    <row r="377" spans="1:2" x14ac:dyDescent="0.3">
+      <c r="A377" t="s">
+        <v>436</v>
+      </c>
+      <c r="B377" t="s">
+        <v>60</v>
+      </c>
+    </row>
+    <row r="378" spans="1:2" x14ac:dyDescent="0.3">
+      <c r="A378" t="s">
+        <v>437</v>
+      </c>
+      <c r="B378" t="s">
+        <v>56</v>
+      </c>
+    </row>
+    <row r="379" spans="1:2" x14ac:dyDescent="0.3">
+      <c r="A379" t="s">
+        <v>438</v>
+      </c>
+      <c r="B379" t="s">
+        <v>60</v>
+      </c>
+    </row>
+    <row r="380" spans="1:2" x14ac:dyDescent="0.3">
+      <c r="A380" t="s">
+        <v>439</v>
+      </c>
+      <c r="B380" t="s">
+        <v>70</v>
+      </c>
+    </row>
+    <row r="381" spans="1:2" x14ac:dyDescent="0.3">
+      <c r="A381" t="s">
+        <v>440</v>
+      </c>
+      <c r="B381" t="s">
+        <v>60</v>
+      </c>
+    </row>
+    <row r="382" spans="1:2" x14ac:dyDescent="0.3">
+      <c r="A382" t="s">
+        <v>441</v>
+      </c>
+      <c r="B382" t="s">
+        <v>56</v>
+      </c>
+    </row>
+    <row r="383" spans="1:2" x14ac:dyDescent="0.3">
+      <c r="A383" t="s">
+        <v>442</v>
+      </c>
+      <c r="B383" t="s">
+        <v>56</v>
+      </c>
+    </row>
+    <row r="384" spans="1:2" x14ac:dyDescent="0.3">
+      <c r="A384" t="s">
+        <v>443</v>
+      </c>
+      <c r="B384" t="s">
+        <v>56</v>
+      </c>
+    </row>
+    <row r="385" spans="1:2" x14ac:dyDescent="0.3">
+      <c r="A385" t="s">
+        <v>444</v>
+      </c>
+      <c r="B385" t="s">
+        <v>63</v>
+      </c>
+    </row>
+    <row r="386" spans="1:2" x14ac:dyDescent="0.3">
+      <c r="A386" t="s">
+        <v>445</v>
+      </c>
+      <c r="B386" t="s">
+        <v>58</v>
+      </c>
+    </row>
+    <row r="387" spans="1:2" x14ac:dyDescent="0.3">
+      <c r="A387" t="s">
+        <v>446</v>
+      </c>
+      <c r="B387" t="s">
+        <v>60</v>
+      </c>
+    </row>
+    <row r="388" spans="1:2" x14ac:dyDescent="0.3">
+      <c r="A388" t="s">
+        <v>447</v>
+      </c>
+      <c r="B388" t="s">
+        <v>56</v>
+      </c>
+    </row>
+    <row r="389" spans="1:2" x14ac:dyDescent="0.3">
+      <c r="A389" t="s">
+        <v>448</v>
+      </c>
+      <c r="B389" t="s">
+        <v>56</v>
+      </c>
+    </row>
+    <row r="390" spans="1:2" x14ac:dyDescent="0.3">
+      <c r="A390" t="s">
+        <v>449</v>
+      </c>
+      <c r="B390" t="s">
+        <v>58</v>
+      </c>
+    </row>
+    <row r="391" spans="1:2" x14ac:dyDescent="0.3">
+      <c r="A391" t="s">
+        <v>450</v>
+      </c>
+      <c r="B391" t="s">
+        <v>63</v>
+      </c>
+    </row>
+    <row r="392" spans="1:2" x14ac:dyDescent="0.3">
+      <c r="A392" t="s">
+        <v>451</v>
+      </c>
+      <c r="B392" t="s">
+        <v>56</v>
+      </c>
+    </row>
+    <row r="393" spans="1:2" x14ac:dyDescent="0.3">
+      <c r="A393" t="s">
+        <v>452</v>
+      </c>
+      <c r="B393" t="s">
+        <v>56</v>
+      </c>
+    </row>
+    <row r="394" spans="1:2" x14ac:dyDescent="0.3">
+      <c r="A394" t="s">
+        <v>453</v>
+      </c>
+      <c r="B394" t="s">
+        <v>60</v>
+      </c>
+    </row>
+    <row r="395" spans="1:2" x14ac:dyDescent="0.3">
+      <c r="A395" t="s">
+        <v>454</v>
+      </c>
+      <c r="B395" t="s">
+        <v>58</v>
+      </c>
+    </row>
+    <row r="396" spans="1:2" x14ac:dyDescent="0.3">
+      <c r="A396" t="s">
+        <v>455</v>
+      </c>
+      <c r="B396" t="s">
+        <v>58</v>
+      </c>
+    </row>
+    <row r="397" spans="1:2" x14ac:dyDescent="0.3">
+      <c r="A397" t="s">
+        <v>456</v>
+      </c>
+      <c r="B397" t="s">
+        <v>56</v>
+      </c>
+    </row>
+    <row r="398" spans="1:2" x14ac:dyDescent="0.3">
+      <c r="A398" t="s">
+        <v>457</v>
+      </c>
+      <c r="B398" t="s">
+        <v>58</v>
+      </c>
+    </row>
+    <row r="399" spans="1:2" x14ac:dyDescent="0.3">
+      <c r="A399" t="s">
+        <v>458</v>
+      </c>
+      <c r="B399" t="s">
+        <v>63</v>
+      </c>
+    </row>
+    <row r="400" spans="1:2" x14ac:dyDescent="0.3">
+      <c r="A400" t="s">
+        <v>459</v>
+      </c>
+      <c r="B400" t="s">
+        <v>63</v>
+      </c>
+    </row>
+    <row r="401" spans="1:2" x14ac:dyDescent="0.3">
+      <c r="A401" t="s">
+        <v>460</v>
+      </c>
+      <c r="B401" t="s">
+        <v>58</v>
+      </c>
+    </row>
+    <row r="402" spans="1:2" x14ac:dyDescent="0.3">
+      <c r="A402" t="s">
+        <v>461</v>
+      </c>
+      <c r="B402" t="s">
+        <v>58</v>
+      </c>
+    </row>
+    <row r="403" spans="1:2" x14ac:dyDescent="0.3">
+      <c r="A403" t="s">
+        <v>462</v>
+      </c>
+      <c r="B403" t="s">
+        <v>60</v>
+      </c>
+    </row>
+    <row r="404" spans="1:2" x14ac:dyDescent="0.3">
+      <c r="A404" t="s">
+        <v>463</v>
+      </c>
+      <c r="B404" t="s">
+        <v>60</v>
+      </c>
+    </row>
+    <row r="405" spans="1:2" x14ac:dyDescent="0.3">
+      <c r="A405" t="s">
+        <v>464</v>
+      </c>
+      <c r="B405" t="s">
+        <v>63</v>
+      </c>
+    </row>
+    <row r="406" spans="1:2" x14ac:dyDescent="0.3">
+      <c r="A406" t="s">
+        <v>465</v>
+      </c>
+      <c r="B406" t="s">
+        <v>58</v>
+      </c>
+    </row>
+    <row r="407" spans="1:2" x14ac:dyDescent="0.3">
+      <c r="A407" t="s">
+        <v>466</v>
+      </c>
+      <c r="B407" t="s">
+        <v>56</v>
+      </c>
+    </row>
+    <row r="408" spans="1:2" x14ac:dyDescent="0.3">
+      <c r="A408" t="s">
+        <v>467</v>
+      </c>
+      <c r="B408" t="s">
+        <v>70</v>
+      </c>
+    </row>
+    <row r="409" spans="1:2" x14ac:dyDescent="0.3">
+      <c r="A409" t="s">
+        <v>468</v>
+      </c>
+      <c r="B409" t="s">
+        <v>58</v>
+      </c>
+    </row>
+    <row r="410" spans="1:2" x14ac:dyDescent="0.3">
+      <c r="A410" t="s">
+        <v>469</v>
+      </c>
+      <c r="B410" t="s">
+        <v>63</v>
+      </c>
+    </row>
+    <row r="411" spans="1:2" x14ac:dyDescent="0.3">
+      <c r="A411" t="s">
+        <v>470</v>
+      </c>
+      <c r="B411" t="s">
+        <v>56</v>
+      </c>
+    </row>
+    <row r="412" spans="1:2" x14ac:dyDescent="0.3">
+      <c r="A412" t="s">
+        <v>471</v>
+      </c>
+      <c r="B412" t="s">
+        <v>70</v>
+      </c>
+    </row>
+    <row r="413" spans="1:2" x14ac:dyDescent="0.3">
+      <c r="A413" t="s">
+        <v>472</v>
+      </c>
+      <c r="B413" t="s">
+        <v>63</v>
+      </c>
+    </row>
+    <row r="414" spans="1:2" x14ac:dyDescent="0.3">
+      <c r="A414" t="s">
+        <v>473</v>
+      </c>
+      <c r="B414" t="s">
+        <v>70</v>
+      </c>
+    </row>
+    <row r="415" spans="1:2" x14ac:dyDescent="0.3">
+      <c r="A415" t="s">
+        <v>474</v>
+      </c>
+      <c r="B415" t="s">
+        <v>60</v>
+      </c>
+    </row>
+    <row r="416" spans="1:2" x14ac:dyDescent="0.3">
+      <c r="A416" t="s">
+        <v>475</v>
+      </c>
+      <c r="B416" t="s">
+        <v>60</v>
+      </c>
+    </row>
+    <row r="417" spans="1:2" x14ac:dyDescent="0.3">
+      <c r="A417" t="s">
+        <v>476</v>
+      </c>
+      <c r="B417" t="s">
+        <v>63</v>
+      </c>
+    </row>
+    <row r="418" spans="1:2" x14ac:dyDescent="0.3">
+      <c r="A418" t="s">
+        <v>477</v>
+      </c>
+      <c r="B418" t="s">
+        <v>60</v>
+      </c>
+    </row>
+    <row r="419" spans="1:2" x14ac:dyDescent="0.3">
+      <c r="A419" t="s">
+        <v>478</v>
+      </c>
+      <c r="B419" t="s">
+        <v>60</v>
+      </c>
+    </row>
+    <row r="420" spans="1:2" x14ac:dyDescent="0.3">
+      <c r="A420" t="s">
+        <v>479</v>
+      </c>
+      <c r="B420" t="s">
+        <v>70</v>
+      </c>
+    </row>
+    <row r="421" spans="1:2" x14ac:dyDescent="0.3">
+      <c r="A421" t="s">
+        <v>480</v>
+      </c>
+      <c r="B421" t="s">
+        <v>56</v>
+      </c>
+    </row>
+    <row r="422" spans="1:2" x14ac:dyDescent="0.3">
+      <c r="A422" t="s">
+        <v>481</v>
+      </c>
+      <c r="B422" t="s">
+        <v>58</v>
+      </c>
+    </row>
+    <row r="423" spans="1:2" x14ac:dyDescent="0.3">
+      <c r="A423" t="s">
+        <v>482</v>
+      </c>
+      <c r="B423" t="s">
+        <v>58</v>
+      </c>
+    </row>
+    <row r="424" spans="1:2" x14ac:dyDescent="0.3">
+      <c r="A424" t="s">
+        <v>483</v>
+      </c>
+      <c r="B424" t="s">
+        <v>58</v>
+      </c>
+    </row>
+    <row r="425" spans="1:2" x14ac:dyDescent="0.3">
+      <c r="A425" t="s">
+        <v>484</v>
+      </c>
+      <c r="B425" t="s">
+        <v>60</v>
+      </c>
+    </row>
+    <row r="426" spans="1:2" x14ac:dyDescent="0.3">
+      <c r="A426" t="s">
+        <v>485</v>
+      </c>
+      <c r="B426" t="s">
+        <v>63</v>
+      </c>
+    </row>
+    <row r="427" spans="1:2" x14ac:dyDescent="0.3">
+      <c r="A427" t="s">
+        <v>486</v>
+      </c>
+      <c r="B427" t="s">
+        <v>63</v>
+      </c>
+    </row>
+    <row r="428" spans="1:2" x14ac:dyDescent="0.3">
+      <c r="A428" t="s">
+        <v>487</v>
+      </c>
+      <c r="B428" t="s">
+        <v>60</v>
+      </c>
+    </row>
+    <row r="429" spans="1:2" x14ac:dyDescent="0.3">
+      <c r="A429" t="s">
+        <v>488</v>
+      </c>
+      <c r="B429" t="s">
+        <v>56</v>
+      </c>
+    </row>
+    <row r="430" spans="1:2" x14ac:dyDescent="0.3">
+      <c r="A430" t="s">
+        <v>489</v>
+      </c>
+      <c r="B430" t="s">
+        <v>70</v>
+      </c>
+    </row>
+    <row r="431" spans="1:2" x14ac:dyDescent="0.3">
+      <c r="A431" t="s">
+        <v>490</v>
+      </c>
+      <c r="B431" t="s">
+        <v>63</v>
+      </c>
+    </row>
+    <row r="432" spans="1:2" x14ac:dyDescent="0.3">
+      <c r="A432" t="s">
+        <v>491</v>
+      </c>
+      <c r="B432" t="s">
+        <v>63</v>
+      </c>
+    </row>
+    <row r="433" spans="1:2" x14ac:dyDescent="0.3">
+      <c r="A433" t="s">
+        <v>492</v>
+      </c>
+      <c r="B433" t="s">
+        <v>63</v>
+      </c>
+    </row>
+    <row r="434" spans="1:2" x14ac:dyDescent="0.3">
+      <c r="A434" t="s">
+        <v>493</v>
+      </c>
+      <c r="B434" t="s">
+        <v>58</v>
+      </c>
+    </row>
+    <row r="435" spans="1:2" x14ac:dyDescent="0.3">
+      <c r="A435" t="s">
+        <v>494</v>
+      </c>
+      <c r="B435" t="s">
+        <v>63</v>
+      </c>
+    </row>
+    <row r="436" spans="1:2" x14ac:dyDescent="0.3">
+      <c r="A436" t="s">
+        <v>495</v>
+      </c>
+      <c r="B436" t="s">
+        <v>63</v>
+      </c>
+    </row>
+    <row r="437" spans="1:2" x14ac:dyDescent="0.3">
+      <c r="A437" t="s">
+        <v>496</v>
+      </c>
+      <c r="B437" t="s">
+        <v>60</v>
+      </c>
+    </row>
+    <row r="438" spans="1:2" x14ac:dyDescent="0.3">
+      <c r="A438" t="s">
+        <v>497</v>
+      </c>
+      <c r="B438" t="s">
+        <v>58</v>
+      </c>
+    </row>
+    <row r="439" spans="1:2" x14ac:dyDescent="0.3">
+      <c r="A439" t="s">
+        <v>498</v>
+      </c>
+      <c r="B439" t="s">
+        <v>60</v>
+      </c>
+    </row>
+    <row r="440" spans="1:2" x14ac:dyDescent="0.3">
+      <c r="A440" t="s">
+        <v>499</v>
+      </c>
+      <c r="B440" t="s">
+        <v>58</v>
+      </c>
+    </row>
+    <row r="441" spans="1:2" x14ac:dyDescent="0.3">
+      <c r="A441" t="s">
+        <v>500</v>
+      </c>
+      <c r="B441" t="s">
+        <v>63</v>
+      </c>
+    </row>
+    <row r="442" spans="1:2" x14ac:dyDescent="0.3">
+      <c r="A442" t="s">
+        <v>501</v>
+      </c>
+      <c r="B442" t="s">
+        <v>70</v>
+      </c>
+    </row>
+    <row r="443" spans="1:2" x14ac:dyDescent="0.3">
+      <c r="A443" t="s">
+        <v>502</v>
+      </c>
+      <c r="B443" t="s">
+        <v>63</v>
+      </c>
+    </row>
+    <row r="444" spans="1:2" x14ac:dyDescent="0.3">
+      <c r="A444" t="s">
+        <v>503</v>
+      </c>
+      <c r="B444" t="s">
+        <v>58</v>
+      </c>
+    </row>
+    <row r="445" spans="1:2" x14ac:dyDescent="0.3">
+      <c r="A445" t="s">
+        <v>504</v>
+      </c>
+      <c r="B445" t="s">
+        <v>60</v>
+      </c>
+    </row>
+    <row r="446" spans="1:2" x14ac:dyDescent="0.3">
+      <c r="A446" t="s">
+        <v>505</v>
+      </c>
+      <c r="B446" t="s">
+        <v>70</v>
+      </c>
+    </row>
+    <row r="447" spans="1:2" x14ac:dyDescent="0.3">
+      <c r="A447" t="s">
+        <v>506</v>
+      </c>
+      <c r="B447" t="s">
+        <v>70</v>
+      </c>
+    </row>
+    <row r="448" spans="1:2" x14ac:dyDescent="0.3">
+      <c r="A448" t="s">
+        <v>507</v>
+      </c>
+      <c r="B448" t="s">
+        <v>60</v>
+      </c>
+    </row>
+    <row r="449" spans="1:2" x14ac:dyDescent="0.3">
+      <c r="A449" t="s">
+        <v>508</v>
+      </c>
+      <c r="B449" t="s">
+        <v>56</v>
+      </c>
+    </row>
+    <row r="450" spans="1:2" x14ac:dyDescent="0.3">
+      <c r="A450" t="s">
+        <v>509</v>
+      </c>
+      <c r="B450" t="s">
+        <v>63</v>
+      </c>
+    </row>
+    <row r="451" spans="1:2" x14ac:dyDescent="0.3">
+      <c r="A451" t="s">
+        <v>510</v>
+      </c>
+      <c r="B451" t="s">
+        <v>63</v>
+      </c>
+    </row>
+    <row r="452" spans="1:2" x14ac:dyDescent="0.3">
+      <c r="A452" t="s">
+        <v>511</v>
+      </c>
+      <c r="B452" t="s">
+        <v>60</v>
+      </c>
+    </row>
+    <row r="453" spans="1:2" x14ac:dyDescent="0.3">
+      <c r="A453" t="s">
+        <v>512</v>
+      </c>
+      <c r="B453" t="s">
+        <v>63</v>
+      </c>
+    </row>
+    <row r="454" spans="1:2" x14ac:dyDescent="0.3">
+      <c r="A454" t="s">
+        <v>513</v>
+      </c>
+      <c r="B454" t="s">
+        <v>58</v>
+      </c>
+    </row>
+    <row r="455" spans="1:2" x14ac:dyDescent="0.3">
+      <c r="A455" t="s">
+        <v>514</v>
+      </c>
+      <c r="B455" t="s">
+        <v>56</v>
+      </c>
+    </row>
+    <row r="456" spans="1:2" x14ac:dyDescent="0.3">
+      <c r="A456" t="s">
+        <v>515</v>
+      </c>
+      <c r="B456" t="s">
+        <v>60</v>
+      </c>
+    </row>
+    <row r="457" spans="1:2" x14ac:dyDescent="0.3">
+      <c r="A457" t="s">
+        <v>516</v>
+      </c>
+      <c r="B457" t="s">
+        <v>58</v>
+      </c>
+    </row>
+    <row r="458" spans="1:2" x14ac:dyDescent="0.3">
+      <c r="A458" t="s">
+        <v>517</v>
+      </c>
+      <c r="B458" t="s">
+        <v>63</v>
+      </c>
+    </row>
+    <row r="459" spans="1:2" x14ac:dyDescent="0.3">
+      <c r="A459" t="s">
+        <v>518</v>
+      </c>
+      <c r="B459" t="s">
+        <v>70</v>
+      </c>
+    </row>
+    <row r="460" spans="1:2" x14ac:dyDescent="0.3">
+      <c r="A460" t="s">
+        <v>519</v>
+      </c>
+      <c r="B460" t="s">
+        <v>56</v>
+      </c>
+    </row>
+    <row r="461" spans="1:2" x14ac:dyDescent="0.3">
+      <c r="A461" t="s">
+        <v>520</v>
+      </c>
+      <c r="B461" t="s">
+        <v>58</v>
+      </c>
+    </row>
+    <row r="462" spans="1:2" x14ac:dyDescent="0.3">
+      <c r="A462" t="s">
+        <v>521</v>
+      </c>
+      <c r="B462" t="s">
+        <v>63</v>
+      </c>
+    </row>
+    <row r="463" spans="1:2" x14ac:dyDescent="0.3">
+      <c r="A463" t="s">
+        <v>522</v>
+      </c>
+      <c r="B463" t="s">
+        <v>63</v>
+      </c>
+    </row>
+    <row r="464" spans="1:2" x14ac:dyDescent="0.3">
+      <c r="A464" t="s">
+        <v>523</v>
+      </c>
+      <c r="B464" t="s">
+        <v>60</v>
+      </c>
+    </row>
+    <row r="465" spans="1:2" x14ac:dyDescent="0.3">
+      <c r="A465" t="s">
+        <v>524</v>
+      </c>
+      <c r="B465" t="s">
+        <v>63</v>
+      </c>
+    </row>
+    <row r="466" spans="1:2" x14ac:dyDescent="0.3">
+      <c r="A466" t="s">
+        <v>525</v>
+      </c>
+      <c r="B466" t="s">
+        <v>70</v>
+      </c>
+    </row>
+    <row r="467" spans="1:2" x14ac:dyDescent="0.3">
+      <c r="A467" t="s">
+        <v>526</v>
+      </c>
+      <c r="B467" t="s">
+        <v>60</v>
+      </c>
+    </row>
+    <row r="468" spans="1:2" x14ac:dyDescent="0.3">
+      <c r="A468" t="s">
+        <v>527</v>
+      </c>
+      <c r="B468" t="s">
+        <v>60</v>
+      </c>
+    </row>
+    <row r="469" spans="1:2" x14ac:dyDescent="0.3">
+      <c r="A469" t="s">
+        <v>528</v>
+      </c>
+      <c r="B469" t="s">
+        <v>58</v>
+      </c>
+    </row>
+    <row r="470" spans="1:2" x14ac:dyDescent="0.3">
+      <c r="A470" t="s">
+        <v>529</v>
+      </c>
+      <c r="B470" t="s">
+        <v>58</v>
+      </c>
+    </row>
+    <row r="471" spans="1:2" x14ac:dyDescent="0.3">
+      <c r="A471" t="s">
+        <v>530</v>
+      </c>
+      <c r="B471" t="s">
+        <v>58</v>
+      </c>
+    </row>
+    <row r="472" spans="1:2" x14ac:dyDescent="0.3">
+      <c r="A472" t="s">
+        <v>531</v>
+      </c>
+      <c r="B472" t="s">
+        <v>63</v>
+      </c>
+    </row>
+    <row r="473" spans="1:2" x14ac:dyDescent="0.3">
+      <c r="A473" t="s">
+        <v>532</v>
+      </c>
+      <c r="B473" t="s">
+        <v>60</v>
+      </c>
+    </row>
+    <row r="474" spans="1:2" x14ac:dyDescent="0.3">
+      <c r="A474" t="s">
+        <v>533</v>
+      </c>
+      <c r="B474" t="s">
+        <v>58</v>
+      </c>
+    </row>
+    <row r="475" spans="1:2" x14ac:dyDescent="0.3">
+      <c r="A475" t="s">
+        <v>534</v>
+      </c>
+      <c r="B475" t="s">
+        <v>70</v>
+      </c>
+    </row>
+    <row r="476" spans="1:2" x14ac:dyDescent="0.3">
+      <c r="A476" t="s">
+        <v>535</v>
+      </c>
+      <c r="B476" t="s">
+        <v>70</v>
+      </c>
+    </row>
+    <row r="477" spans="1:2" x14ac:dyDescent="0.3">
+      <c r="A477" t="s">
+        <v>536</v>
+      </c>
+      <c r="B477" t="s">
+        <v>60</v>
+      </c>
+    </row>
+    <row r="478" spans="1:2" x14ac:dyDescent="0.3">
+      <c r="A478" t="s">
+        <v>537</v>
+      </c>
+      <c r="B478" t="s">
+        <v>58</v>
+      </c>
+    </row>
+    <row r="479" spans="1:2" x14ac:dyDescent="0.3">
+      <c r="A479" t="s">
+        <v>538</v>
+      </c>
+      <c r="B479" t="s">
+        <v>60</v>
+      </c>
+    </row>
+    <row r="480" spans="1:2" x14ac:dyDescent="0.3">
+      <c r="A480" t="s">
+        <v>539</v>
+      </c>
+      <c r="B480" t="s">
+        <v>58</v>
+      </c>
+    </row>
+    <row r="481" spans="1:2" x14ac:dyDescent="0.3">
+      <c r="A481" t="s">
+        <v>540</v>
+      </c>
+      <c r="B481" t="s">
+        <v>63</v>
+      </c>
+    </row>
+    <row r="482" spans="1:2" x14ac:dyDescent="0.3">
+      <c r="A482" t="s">
+        <v>541</v>
+      </c>
+      <c r="B482" t="s">
+        <v>63</v>
+      </c>
+    </row>
+    <row r="483" spans="1:2" x14ac:dyDescent="0.3">
+      <c r="A483" t="s">
+        <v>542</v>
+      </c>
+      <c r="B483" t="s">
+        <v>63</v>
+      </c>
+    </row>
+    <row r="484" spans="1:2" x14ac:dyDescent="0.3">
+      <c r="A484" t="s">
+        <v>543</v>
+      </c>
+      <c r="B484" t="s">
+        <v>63</v>
+      </c>
+    </row>
+    <row r="485" spans="1:2" x14ac:dyDescent="0.3">
+      <c r="A485" t="s">
+        <v>544</v>
+      </c>
+      <c r="B485" t="s">
+        <v>58</v>
+      </c>
+    </row>
+    <row r="486" spans="1:2" x14ac:dyDescent="0.3">
+      <c r="A486" t="s">
+        <v>545</v>
+      </c>
+      <c r="B486" t="s">
+        <v>63</v>
+      </c>
+    </row>
+    <row r="487" spans="1:2" x14ac:dyDescent="0.3">
+      <c r="A487" t="s">
+        <v>546</v>
+      </c>
+      <c r="B487" t="s">
+        <v>58</v>
+      </c>
+    </row>
+    <row r="488" spans="1:2" x14ac:dyDescent="0.3">
+      <c r="A488" t="s">
+        <v>547</v>
+      </c>
+      <c r="B488" t="s">
+        <v>70</v>
+      </c>
+    </row>
+    <row r="489" spans="1:2" x14ac:dyDescent="0.3">
+      <c r="A489" t="s">
+        <v>548</v>
+      </c>
+      <c r="B489" t="s">
+        <v>70</v>
+      </c>
+    </row>
+    <row r="490" spans="1:2" x14ac:dyDescent="0.3">
+      <c r="A490" t="s">
+        <v>549</v>
+      </c>
+      <c r="B490" t="s">
+        <v>63</v>
+      </c>
+    </row>
+    <row r="491" spans="1:2" x14ac:dyDescent="0.3">
+      <c r="A491" t="s">
+        <v>550</v>
+      </c>
+      <c r="B491" t="s">
+        <v>70</v>
+      </c>
+    </row>
+    <row r="492" spans="1:2" x14ac:dyDescent="0.3">
+      <c r="A492" t="s">
+        <v>551</v>
+      </c>
+      <c r="B492" t="s">
+        <v>60</v>
+      </c>
+    </row>
+    <row r="493" spans="1:2" x14ac:dyDescent="0.3">
+      <c r="A493" t="s">
+        <v>552</v>
+      </c>
+      <c r="B493" t="s">
+        <v>63</v>
+      </c>
+    </row>
+    <row r="494" spans="1:2" x14ac:dyDescent="0.3">
+      <c r="A494" t="s">
+        <v>553</v>
+      </c>
+      <c r="B494" t="s">
+        <v>70</v>
+      </c>
+    </row>
+    <row r="495" spans="1:2" x14ac:dyDescent="0.3">
+      <c r="A495" t="s">
+        <v>554</v>
+      </c>
+      <c r="B495" t="s">
+        <v>56</v>
+      </c>
+    </row>
+    <row r="496" spans="1:2" x14ac:dyDescent="0.3">
+      <c r="A496" t="s">
+        <v>555</v>
+      </c>
+      <c r="B496" t="s">
+        <v>60</v>
+      </c>
+    </row>
+    <row r="497" spans="1:2" x14ac:dyDescent="0.3">
+      <c r="A497" t="s">
+        <v>556</v>
+      </c>
+      <c r="B497" t="s">
+        <v>63</v>
+      </c>
+    </row>
+    <row r="498" spans="1:2" x14ac:dyDescent="0.3">
+      <c r="A498" t="s">
+        <v>557</v>
+      </c>
+      <c r="B498" t="s">
+        <v>60</v>
+      </c>
+    </row>
+    <row r="499" spans="1:2" x14ac:dyDescent="0.3">
+      <c r="A499" t="s">
+        <v>558</v>
+      </c>
+      <c r="B499" t="s">
+        <v>60</v>
+      </c>
+    </row>
+    <row r="500" spans="1:2" x14ac:dyDescent="0.3">
+      <c r="A500" t="s">
+        <v>559</v>
+      </c>
+      <c r="B500" t="s">
+        <v>70</v>
+      </c>
+    </row>
+    <row r="501" spans="1:2" x14ac:dyDescent="0.3">
+      <c r="A501" t="s">
+        <v>560</v>
+      </c>
+      <c r="B501" t="s">
+        <v>70</v>
+      </c>
+    </row>
+    <row r="502" spans="1:2" x14ac:dyDescent="0.3">
+      <c r="A502" t="s">
+        <v>561</v>
+      </c>
+      <c r="B502" t="s">
+        <v>70</v>
+      </c>
+    </row>
+    <row r="503" spans="1:2" x14ac:dyDescent="0.3">
+      <c r="A503" t="s">
+        <v>562</v>
+      </c>
+      <c r="B503" t="s">
+        <v>58</v>
+      </c>
+    </row>
+    <row r="504" spans="1:2" x14ac:dyDescent="0.3">
+      <c r="A504" t="s">
+        <v>563</v>
+      </c>
+      <c r="B504" t="s">
+        <v>63</v>
+      </c>
+    </row>
+    <row r="505" spans="1:2" x14ac:dyDescent="0.3">
+      <c r="A505" t="s">
+        <v>564</v>
+      </c>
+      <c r="B505" t="s">
+        <v>63</v>
+      </c>
+    </row>
+    <row r="506" spans="1:2" x14ac:dyDescent="0.3">
+      <c r="A506" t="s">
+        <v>565</v>
+      </c>
+      <c r="B506" t="s">
+        <v>56</v>
+      </c>
+    </row>
+    <row r="507" spans="1:2" x14ac:dyDescent="0.3">
+      <c r="A507" t="s">
+        <v>566</v>
+      </c>
+      <c r="B507" t="s">
+        <v>56</v>
+      </c>
+    </row>
+    <row r="508" spans="1:2" x14ac:dyDescent="0.3">
+      <c r="A508" t="s">
+        <v>567</v>
+      </c>
+      <c r="B508" t="s">
+        <v>56</v>
+      </c>
+    </row>
+    <row r="509" spans="1:2" x14ac:dyDescent="0.3">
+      <c r="A509" t="s">
+        <v>568</v>
+      </c>
+      <c r="B509" t="s">
+        <v>58</v>
+      </c>
+    </row>
+    <row r="510" spans="1:2" x14ac:dyDescent="0.3">
+      <c r="A510" t="s">
+        <v>569</v>
+      </c>
+      <c r="B510" t="s">
+        <v>60</v>
+      </c>
+    </row>
+    <row r="511" spans="1:2" x14ac:dyDescent="0.3">
+      <c r="A511" t="s">
+        <v>570</v>
+      </c>
+      <c r="B511" t="s">
+        <v>60</v>
+      </c>
+    </row>
+    <row r="512" spans="1:2" x14ac:dyDescent="0.3">
+      <c r="A512" t="s">
+        <v>571</v>
+      </c>
+      <c r="B512" t="s">
+        <v>58</v>
+      </c>
+    </row>
+    <row r="513" spans="1:2" x14ac:dyDescent="0.3">
+      <c r="A513" t="s">
+        <v>572</v>
+      </c>
+      <c r="B513" t="s">
+        <v>58</v>
+      </c>
+    </row>
+    <row r="514" spans="1:2" x14ac:dyDescent="0.3">
+      <c r="A514" t="s">
+        <v>573</v>
+      </c>
+      <c r="B514" t="s">
+        <v>58</v>
+      </c>
+    </row>
+    <row r="515" spans="1:2" x14ac:dyDescent="0.3">
+      <c r="A515" t="s">
+        <v>574</v>
+      </c>
+      <c r="B515" t="s">
+        <v>60</v>
+      </c>
+    </row>
+    <row r="516" spans="1:2" x14ac:dyDescent="0.3">
+      <c r="A516" t="s">
+        <v>575</v>
+      </c>
+      <c r="B516" t="s">
+        <v>70</v>
+      </c>
+    </row>
+    <row r="517" spans="1:2" x14ac:dyDescent="0.3">
+      <c r="A517" t="s">
+        <v>576</v>
+      </c>
+      <c r="B517" t="s">
+        <v>70</v>
+      </c>
+    </row>
+    <row r="518" spans="1:2" x14ac:dyDescent="0.3">
+      <c r="A518" t="s">
+        <v>577</v>
+      </c>
+      <c r="B518" t="s">
+        <v>58</v>
+      </c>
+    </row>
+    <row r="519" spans="1:2" x14ac:dyDescent="0.3">
+      <c r="A519" t="s">
+        <v>578</v>
+      </c>
+      <c r="B519" t="s">
+        <v>58</v>
+      </c>
+    </row>
+    <row r="520" spans="1:2" x14ac:dyDescent="0.3">
+      <c r="A520" t="s">
+        <v>579</v>
+      </c>
+      <c r="B520" t="s">
+        <v>56</v>
+      </c>
+    </row>
+    <row r="521" spans="1:2" x14ac:dyDescent="0.3">
+      <c r="A521" t="s">
+        <v>580</v>
+      </c>
+      <c r="B521" t="s">
+        <v>60</v>
+      </c>
+    </row>
+    <row r="522" spans="1:2" x14ac:dyDescent="0.3">
+      <c r="A522" t="s">
+        <v>581</v>
+      </c>
+      <c r="B522" t="s">
+        <v>56</v>
+      </c>
+    </row>
+    <row r="523" spans="1:2" x14ac:dyDescent="0.3">
+      <c r="A523" t="s">
+        <v>582</v>
+      </c>
+      <c r="B523" t="s">
+        <v>63</v>
+      </c>
+    </row>
+    <row r="524" spans="1:2" x14ac:dyDescent="0.3">
+      <c r="A524" t="s">
+        <v>583</v>
+      </c>
+      <c r="B524" t="s">
+        <v>56</v>
+      </c>
+    </row>
+    <row r="525" spans="1:2" x14ac:dyDescent="0.3">
+      <c r="A525" t="s">
+        <v>584</v>
+      </c>
+      <c r="B525" t="s">
+        <v>60</v>
+      </c>
+    </row>
+    <row r="526" spans="1:2" x14ac:dyDescent="0.3">
+      <c r="A526" t="s">
+        <v>585</v>
+      </c>
+      <c r="B526" t="s">
+        <v>60</v>
+      </c>
+    </row>
+    <row r="527" spans="1:2" x14ac:dyDescent="0.3">
+      <c r="A527" t="s">
+        <v>586</v>
+      </c>
+      <c r="B527" t="s">
+        <v>58</v>
+      </c>
+    </row>
+    <row r="528" spans="1:2" x14ac:dyDescent="0.3">
+      <c r="A528" t="s">
+        <v>587</v>
+      </c>
+      <c r="B528" t="s">
+        <v>70</v>
+      </c>
+    </row>
+    <row r="529" spans="1:2" x14ac:dyDescent="0.3">
+      <c r="A529" t="s">
+        <v>588</v>
+      </c>
+      <c r="B529" t="s">
+        <v>58</v>
+      </c>
+    </row>
+    <row r="530" spans="1:2" x14ac:dyDescent="0.3">
+      <c r="A530" t="s">
+        <v>589</v>
+      </c>
+      <c r="B530" t="s">
+        <v>56</v>
+      </c>
+    </row>
+    <row r="531" spans="1:2" x14ac:dyDescent="0.3">
+      <c r="A531" t="s">
+        <v>590</v>
+      </c>
+      <c r="B531" t="s">
+        <v>63</v>
+      </c>
+    </row>
+    <row r="532" spans="1:2" x14ac:dyDescent="0.3">
+      <c r="A532" t="s">
+        <v>591</v>
+      </c>
+      <c r="B532" t="s">
+        <v>56</v>
+      </c>
+    </row>
+    <row r="533" spans="1:2" x14ac:dyDescent="0.3">
+      <c r="A533" t="s">
+        <v>592</v>
+      </c>
+      <c r="B533" t="s">
+        <v>56</v>
+      </c>
+    </row>
+    <row r="534" spans="1:2" x14ac:dyDescent="0.3">
+      <c r="A534" t="s">
+        <v>593</v>
+      </c>
+      <c r="B534" t="s">
+        <v>56</v>
+      </c>
+    </row>
+    <row r="535" spans="1:2" x14ac:dyDescent="0.3">
+      <c r="A535" t="s">
+        <v>594</v>
+      </c>
+      <c r="B535" t="s">
+        <v>63</v>
+      </c>
+    </row>
+    <row r="536" spans="1:2" x14ac:dyDescent="0.3">
+      <c r="A536" t="s">
+        <v>595</v>
+      </c>
+      <c r="B536" t="s">
+        <v>60</v>
+      </c>
+    </row>
+    <row r="537" spans="1:2" x14ac:dyDescent="0.3">
+      <c r="A537" t="s">
+        <v>596</v>
+      </c>
+      <c r="B537" t="s">
+        <v>63</v>
+      </c>
+    </row>
+    <row r="538" spans="1:2" x14ac:dyDescent="0.3">
+      <c r="A538" t="s">
+        <v>597</v>
+      </c>
+      <c r="B538" t="s">
+        <v>60</v>
+      </c>
+    </row>
+    <row r="539" spans="1:2" x14ac:dyDescent="0.3">
+      <c r="A539" t="s">
+        <v>598</v>
+      </c>
+      <c r="B539" t="s">
+        <v>70</v>
+      </c>
+    </row>
+    <row r="540" spans="1:2" x14ac:dyDescent="0.3">
+      <c r="A540" t="s">
+        <v>599</v>
+      </c>
+      <c r="B540" t="s">
+        <v>60</v>
+      </c>
+    </row>
+    <row r="541" spans="1:2" x14ac:dyDescent="0.3">
+      <c r="A541" t="s">
+        <v>600</v>
+      </c>
+      <c r="B541" t="s">
+        <v>70</v>
+      </c>
+    </row>
+    <row r="542" spans="1:2" x14ac:dyDescent="0.3">
+      <c r="A542" t="s">
+        <v>601</v>
+      </c>
+      <c r="B542" t="s">
+        <v>58</v>
+      </c>
+    </row>
+    <row r="543" spans="1:2" x14ac:dyDescent="0.3">
+      <c r="A543" t="s">
+        <v>602</v>
+      </c>
+      <c r="B543" t="s">
+        <v>63</v>
+      </c>
+    </row>
+    <row r="544" spans="1:2" x14ac:dyDescent="0.3">
+      <c r="A544" t="s">
+        <v>603</v>
+      </c>
+      <c r="B544" t="s">
+        <v>70</v>
+      </c>
+    </row>
+    <row r="545" spans="1:2" x14ac:dyDescent="0.3">
+      <c r="A545" t="s">
+        <v>604</v>
+      </c>
+      <c r="B545" t="s">
+        <v>63</v>
+      </c>
+    </row>
+    <row r="546" spans="1:2" x14ac:dyDescent="0.3">
+      <c r="A546" t="s">
+        <v>605</v>
+      </c>
+      <c r="B546" t="s">
+        <v>60</v>
+      </c>
+    </row>
+    <row r="547" spans="1:2" x14ac:dyDescent="0.3">
+      <c r="A547" t="s">
+        <v>606</v>
+      </c>
+      <c r="B547" t="s">
+        <v>58</v>
+      </c>
+    </row>
+    <row r="548" spans="1:2" x14ac:dyDescent="0.3">
+      <c r="A548" t="s">
+        <v>607</v>
+      </c>
+      <c r="B548" t="s">
+        <v>56</v>
+      </c>
+    </row>
+    <row r="549" spans="1:2" x14ac:dyDescent="0.3">
+      <c r="A549" t="s">
+        <v>608</v>
+      </c>
+      <c r="B549" t="s">
+        <v>56</v>
+      </c>
+    </row>
+    <row r="550" spans="1:2" x14ac:dyDescent="0.3">
+      <c r="A550" t="s">
+        <v>609</v>
+      </c>
+      <c r="B550" t="s">
+        <v>60</v>
+      </c>
+    </row>
+    <row r="551" spans="1:2" x14ac:dyDescent="0.3">
+      <c r="A551" t="s">
+        <v>610</v>
+      </c>
+      <c r="B551" t="s">
+        <v>60</v>
+      </c>
+    </row>
+    <row r="552" spans="1:2" x14ac:dyDescent="0.3">
+      <c r="A552" t="s">
+        <v>611</v>
+      </c>
+      <c r="B552" t="s">
+        <v>63</v>
+      </c>
+    </row>
+    <row r="553" spans="1:2" x14ac:dyDescent="0.3">
+      <c r="A553" t="s">
+        <v>612</v>
+      </c>
+      <c r="B553" t="s">
+        <v>63</v>
+      </c>
+    </row>
+    <row r="554" spans="1:2" x14ac:dyDescent="0.3">
+      <c r="A554" t="s">
+        <v>613</v>
+      </c>
+      <c r="B554" t="s">
+        <v>60</v>
+      </c>
+    </row>
+    <row r="555" spans="1:2" x14ac:dyDescent="0.3">
+      <c r="A555" t="s">
+        <v>614</v>
+      </c>
+      <c r="B555" t="s">
+        <v>63</v>
+      </c>
+    </row>
+    <row r="556" spans="1:2" x14ac:dyDescent="0.3">
+      <c r="A556" t="s">
+        <v>615</v>
+      </c>
+      <c r="B556" t="s">
+        <v>58</v>
+      </c>
+    </row>
+    <row r="557" spans="1:2" x14ac:dyDescent="0.3">
+      <c r="A557" t="s">
+        <v>616</v>
+      </c>
+      <c r="B557" t="s">
+        <v>56</v>
+      </c>
+    </row>
+    <row r="558" spans="1:2" x14ac:dyDescent="0.3">
+      <c r="A558" t="s">
+        <v>617</v>
+      </c>
+      <c r="B558" t="s">
+        <v>70</v>
+      </c>
+    </row>
+    <row r="559" spans="1:2" x14ac:dyDescent="0.3">
+      <c r="A559" t="s">
+        <v>618</v>
+      </c>
+      <c r="B559" t="s">
+        <v>70</v>
+      </c>
+    </row>
+    <row r="560" spans="1:2" x14ac:dyDescent="0.3">
+      <c r="A560" t="s">
+        <v>619</v>
+      </c>
+      <c r="B560" t="s">
+        <v>63</v>
+      </c>
+    </row>
+    <row r="561" spans="1:2" x14ac:dyDescent="0.3">
+      <c r="A561" t="s">
+        <v>620</v>
+      </c>
+      <c r="B561" t="s">
+        <v>60</v>
+      </c>
+    </row>
+    <row r="562" spans="1:2" x14ac:dyDescent="0.3">
+      <c r="A562" t="s">
+        <v>621</v>
+      </c>
+      <c r="B562" t="s">
+        <v>63</v>
+      </c>
+    </row>
+    <row r="563" spans="1:2" x14ac:dyDescent="0.3">
+      <c r="A563" t="s">
+        <v>622</v>
+      </c>
+      <c r="B563" t="s">
+        <v>60</v>
+      </c>
+    </row>
+    <row r="564" spans="1:2" x14ac:dyDescent="0.3">
+      <c r="A564" t="s">
+        <v>623</v>
+      </c>
+      <c r="B564" t="s">
+        <v>63</v>
+      </c>
+    </row>
+    <row r="565" spans="1:2" x14ac:dyDescent="0.3">
+      <c r="A565" t="s">
+        <v>624</v>
+      </c>
+      <c r="B565" t="s">
+        <v>58</v>
+      </c>
+    </row>
+    <row r="566" spans="1:2" x14ac:dyDescent="0.3">
+      <c r="A566" t="s">
+        <v>625</v>
+      </c>
+      <c r="B566" t="s">
+        <v>60</v>
+      </c>
+    </row>
+    <row r="567" spans="1:2" x14ac:dyDescent="0.3">
+      <c r="A567" t="s">
+        <v>626</v>
+      </c>
+      <c r="B567" t="s">
+        <v>70</v>
+      </c>
+    </row>
+    <row r="568" spans="1:2" x14ac:dyDescent="0.3">
+      <c r="A568" t="s">
+        <v>627</v>
+      </c>
+      <c r="B568" t="s">
+        <v>70</v>
+      </c>
+    </row>
+    <row r="569" spans="1:2" x14ac:dyDescent="0.3">
+      <c r="A569" t="s">
+        <v>628</v>
+      </c>
+      <c r="B569" t="s">
+        <v>60</v>
+      </c>
+    </row>
+    <row r="570" spans="1:2" x14ac:dyDescent="0.3">
+      <c r="A570" t="s">
+        <v>629</v>
+      </c>
+      <c r="B570" t="s">
+        <v>63</v>
+      </c>
+    </row>
+    <row r="571" spans="1:2" x14ac:dyDescent="0.3">
+      <c r="A571" t="s">
+        <v>630</v>
+      </c>
+      <c r="B571" t="s">
+        <v>70</v>
+      </c>
+    </row>
+    <row r="572" spans="1:2" x14ac:dyDescent="0.3">
+      <c r="A572" t="s">
+        <v>631</v>
+      </c>
+      <c r="B572" t="s">
+        <v>60</v>
+      </c>
+    </row>
+    <row r="573" spans="1:2" x14ac:dyDescent="0.3">
+      <c r="A573" t="s">
+        <v>632</v>
+      </c>
+      <c r="B573" t="s">
+        <v>58</v>
+      </c>
+    </row>
+    <row r="574" spans="1:2" x14ac:dyDescent="0.3">
+      <c r="A574" t="s">
+        <v>633</v>
+      </c>
+      <c r="B574" t="s">
+        <v>60</v>
+      </c>
+    </row>
+    <row r="575" spans="1:2" x14ac:dyDescent="0.3">
+      <c r="A575" t="s">
+        <v>634</v>
+      </c>
+      <c r="B575" t="s">
+        <v>63</v>
+      </c>
+    </row>
+    <row r="576" spans="1:2" x14ac:dyDescent="0.3">
+      <c r="A576" t="s">
+        <v>635</v>
+      </c>
+      <c r="B576" t="s">
+        <v>63</v>
+      </c>
+    </row>
+    <row r="577" spans="1:2" x14ac:dyDescent="0.3">
+      <c r="A577" t="s">
+        <v>636</v>
+      </c>
+      <c r="B577" t="s">
+        <v>56</v>
+      </c>
+    </row>
+    <row r="578" spans="1:2" x14ac:dyDescent="0.3">
+      <c r="A578" t="s">
+        <v>637</v>
+      </c>
+      <c r="B578" t="s">
+        <v>58</v>
+      </c>
+    </row>
+    <row r="579" spans="1:2" x14ac:dyDescent="0.3">
+      <c r="A579" t="s">
+        <v>638</v>
+      </c>
+      <c r="B579" t="s">
+        <v>60</v>
+      </c>
+    </row>
+    <row r="580" spans="1:2" x14ac:dyDescent="0.3">
+      <c r="A580" t="s">
+        <v>639</v>
+      </c>
+      <c r="B580" t="s">
+        <v>70</v>
+      </c>
+    </row>
+    <row r="581" spans="1:2" x14ac:dyDescent="0.3">
+      <c r="A581" t="s">
+        <v>640</v>
+      </c>
+      <c r="B581" t="s">
+        <v>70</v>
+      </c>
+    </row>
+    <row r="582" spans="1:2" x14ac:dyDescent="0.3">
+      <c r="A582" t="s">
+        <v>641</v>
+      </c>
+      <c r="B582" t="s">
+        <v>63</v>
+      </c>
+    </row>
+    <row r="583" spans="1:2" x14ac:dyDescent="0.3">
+      <c r="A583" t="s">
+        <v>642</v>
+      </c>
+      <c r="B583" t="s">
+        <v>58</v>
+      </c>
+    </row>
+    <row r="584" spans="1:2" x14ac:dyDescent="0.3">
+      <c r="A584" t="s">
+        <v>643</v>
+      </c>
+      <c r="B584" t="s">
+        <v>70</v>
+      </c>
+    </row>
+    <row r="585" spans="1:2" x14ac:dyDescent="0.3">
+      <c r="A585" t="s">
+        <v>644</v>
+      </c>
+      <c r="B585" t="s">
+        <v>56</v>
+      </c>
+    </row>
+    <row r="586" spans="1:2" x14ac:dyDescent="0.3">
+      <c r="A586" t="s">
+        <v>645</v>
+      </c>
+      <c r="B586" t="s">
+        <v>63</v>
+      </c>
+    </row>
+    <row r="587" spans="1:2" x14ac:dyDescent="0.3">
+      <c r="A587" t="s">
+        <v>646</v>
+      </c>
+      <c r="B587" t="s">
+        <v>56</v>
+      </c>
+    </row>
+    <row r="588" spans="1:2" x14ac:dyDescent="0.3">
+      <c r="A588" t="s">
+        <v>647</v>
+      </c>
+      <c r="B588" t="s">
+        <v>60</v>
+      </c>
+    </row>
+    <row r="589" spans="1:2" x14ac:dyDescent="0.3">
+      <c r="A589" t="s">
+        <v>648</v>
+      </c>
+      <c r="B589" t="s">
+        <v>56</v>
+      </c>
+    </row>
+    <row r="590" spans="1:2" x14ac:dyDescent="0.3">
+      <c r="A590" t="s">
+        <v>649</v>
+      </c>
+      <c r="B590" t="s">
+        <v>56</v>
+      </c>
+    </row>
+    <row r="591" spans="1:2" x14ac:dyDescent="0.3">
+      <c r="A591" t="s">
+        <v>650</v>
+      </c>
+      <c r="B591" t="s">
+        <v>60</v>
+      </c>
+    </row>
+    <row r="592" spans="1:2" x14ac:dyDescent="0.3">
+      <c r="A592" t="s">
+        <v>651</v>
+      </c>
+      <c r="B592" t="s">
+        <v>58</v>
+      </c>
+    </row>
+    <row r="593" spans="1:2" x14ac:dyDescent="0.3">
+      <c r="A593" t="s">
+        <v>652</v>
+      </c>
+      <c r="B593" t="s">
+        <v>56</v>
+      </c>
+    </row>
+    <row r="594" spans="1:2" x14ac:dyDescent="0.3">
+      <c r="A594" t="s">
+        <v>653</v>
+      </c>
+      <c r="B594" t="s">
+        <v>63</v>
+      </c>
+    </row>
+    <row r="595" spans="1:2" x14ac:dyDescent="0.3">
+      <c r="A595" t="s">
+        <v>654</v>
+      </c>
+      <c r="B595" t="s">
+        <v>56</v>
+      </c>
+    </row>
+    <row r="596" spans="1:2" x14ac:dyDescent="0.3">
+      <c r="A596" t="s">
+        <v>655</v>
+      </c>
+      <c r="B596" t="s">
+        <v>63</v>
+      </c>
+    </row>
+    <row r="597" spans="1:2" x14ac:dyDescent="0.3">
+      <c r="A597" t="s">
+        <v>656</v>
+      </c>
+      <c r="B597" t="s">
+        <v>70</v>
+      </c>
+    </row>
+    <row r="598" spans="1:2" x14ac:dyDescent="0.3">
+      <c r="A598" t="s">
+        <v>657</v>
+      </c>
+      <c r="B598" t="s">
+        <v>63</v>
+      </c>
+    </row>
+    <row r="599" spans="1:2" x14ac:dyDescent="0.3">
+      <c r="A599" t="s">
+        <v>658</v>
+      </c>
+      <c r="B599" t="s">
+        <v>56</v>
+      </c>
+    </row>
+    <row r="600" spans="1:2" x14ac:dyDescent="0.3">
+      <c r="A600" t="s">
+        <v>659</v>
+      </c>
+      <c r="B600" t="s">
+        <v>63</v>
+      </c>
+    </row>
+    <row r="601" spans="1:2" x14ac:dyDescent="0.3">
+      <c r="A601" t="s">
+        <v>660</v>
+      </c>
+      <c r="B601" t="s">
+        <v>58</v>
+      </c>
+    </row>
+    <row r="602" spans="1:2" x14ac:dyDescent="0.3">
+      <c r="A602" t="s">
+        <v>661</v>
+      </c>
+      <c r="B602" t="s">
+        <v>63</v>
+      </c>
+    </row>
+  </sheetData>
+  <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
+</worksheet>
 </file>
--- a/Opponent_List.xlsx
+++ b/Opponent_List.xlsx
@@ -8,9 +8,9 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\zacha\Documents\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{74DBD0B5-E7F2-4785-BE57-4B73F82BCE4C}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{636C3909-0CAB-4C9F-9FAF-C3988CC1CCB0}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="-108" yWindow="-108" windowWidth="23256" windowHeight="12576" xr2:uid="{A256BCE2-616E-47A0-B9EF-3250AE7F456A}"/>
+    <workbookView xWindow="-108" yWindow="-108" windowWidth="23256" windowHeight="12576" activeTab="1" xr2:uid="{A256BCE2-616E-47A0-B9EF-3250AE7F456A}"/>
   </bookViews>
   <sheets>
     <sheet name="Opponent_List" sheetId="1" r:id="rId1"/>
@@ -35,7 +35,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="1708" uniqueCount="662">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="1710" uniqueCount="664">
   <si>
     <t>N/A</t>
   </si>
@@ -2021,6 +2021,12 @@
   </si>
   <si>
     <t>RJ Nembhard Jr.</t>
+  </si>
+  <si>
+    <t>PLAYER</t>
+  </si>
+  <si>
+    <t>POSITION</t>
   </si>
 </sst>
 </file>
@@ -2378,7 +2384,7 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{C49934C3-58C9-470B-89F5-1E7727BEEAE9}">
   <dimension ref="A1:X31"/>
   <sheetViews>
-    <sheetView tabSelected="1" zoomScale="80" zoomScaleNormal="80" workbookViewId="0">
+    <sheetView zoomScale="80" zoomScaleNormal="80" workbookViewId="0">
       <pane xSplit="1" topLeftCell="B1" activePane="topRight" state="frozen"/>
       <selection pane="topRight" activeCell="E19" sqref="E19"/>
     </sheetView>
@@ -3966,10 +3972,10 @@
 
 <file path=xl/worksheets/sheet2.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{84EB052B-3BE7-49CF-9FAB-B98234BC3C78}">
-  <dimension ref="A1:B602"/>
+  <dimension ref="A1:B603"/>
   <sheetViews>
-    <sheetView topLeftCell="A578" workbookViewId="0">
-      <selection activeCell="H590" sqref="H590"/>
+    <sheetView tabSelected="1" workbookViewId="0">
+      <selection activeCell="A2" sqref="A2"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="14.4" x14ac:dyDescent="0.3"/>
@@ -3979,31 +3985,31 @@
   <sheetData>
     <row r="1" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A1" t="s">
-        <v>55</v>
+        <v>662</v>
       </c>
       <c r="B1" t="s">
-        <v>56</v>
+        <v>663</v>
       </c>
     </row>
     <row r="2" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A2" t="s">
-        <v>57</v>
+        <v>55</v>
       </c>
       <c r="B2" t="s">
-        <v>58</v>
+        <v>56</v>
       </c>
     </row>
     <row r="3" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A3" t="s">
-        <v>59</v>
+        <v>57</v>
       </c>
       <c r="B3" t="s">
-        <v>60</v>
+        <v>58</v>
       </c>
     </row>
     <row r="4" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A4" t="s">
-        <v>61</v>
+        <v>59</v>
       </c>
       <c r="B4" t="s">
         <v>60</v>
@@ -4011,71 +4017,71 @@
     </row>
     <row r="5" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A5" t="s">
-        <v>62</v>
+        <v>61</v>
       </c>
       <c r="B5" t="s">
-        <v>63</v>
+        <v>60</v>
       </c>
     </row>
     <row r="6" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A6" t="s">
-        <v>64</v>
+        <v>62</v>
       </c>
       <c r="B6" t="s">
-        <v>56</v>
+        <v>63</v>
       </c>
     </row>
     <row r="7" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A7" t="s">
-        <v>65</v>
+        <v>64</v>
       </c>
       <c r="B7" t="s">
-        <v>63</v>
+        <v>56</v>
       </c>
     </row>
     <row r="8" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A8" t="s">
-        <v>66</v>
+        <v>65</v>
       </c>
       <c r="B8" t="s">
-        <v>56</v>
+        <v>63</v>
       </c>
     </row>
     <row r="9" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A9" t="s">
-        <v>67</v>
+        <v>66</v>
       </c>
       <c r="B9" t="s">
-        <v>60</v>
+        <v>56</v>
       </c>
     </row>
     <row r="10" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A10" t="s">
-        <v>68</v>
+        <v>67</v>
       </c>
       <c r="B10" t="s">
-        <v>63</v>
+        <v>60</v>
       </c>
     </row>
     <row r="11" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A11" t="s">
-        <v>69</v>
+        <v>68</v>
       </c>
       <c r="B11" t="s">
-        <v>70</v>
+        <v>63</v>
       </c>
     </row>
     <row r="12" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A12" t="s">
-        <v>71</v>
+        <v>69</v>
       </c>
       <c r="B12" t="s">
-        <v>60</v>
+        <v>70</v>
       </c>
     </row>
     <row r="13" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A13" t="s">
-        <v>72</v>
+        <v>71</v>
       </c>
       <c r="B13" t="s">
         <v>60</v>
@@ -4083,7 +4089,7 @@
     </row>
     <row r="14" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A14" t="s">
-        <v>73</v>
+        <v>72</v>
       </c>
       <c r="B14" t="s">
         <v>60</v>
@@ -4091,47 +4097,47 @@
     </row>
     <row r="15" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A15" t="s">
-        <v>74</v>
+        <v>73</v>
       </c>
       <c r="B15" t="s">
-        <v>63</v>
+        <v>60</v>
       </c>
     </row>
     <row r="16" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A16" t="s">
-        <v>75</v>
+        <v>74</v>
       </c>
       <c r="B16" t="s">
-        <v>70</v>
+        <v>63</v>
       </c>
     </row>
     <row r="17" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A17" t="s">
-        <v>76</v>
+        <v>75</v>
       </c>
       <c r="B17" t="s">
-        <v>63</v>
+        <v>70</v>
       </c>
     </row>
     <row r="18" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A18" t="s">
-        <v>77</v>
+        <v>76</v>
       </c>
       <c r="B18" t="s">
-        <v>60</v>
+        <v>63</v>
       </c>
     </row>
     <row r="19" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A19" t="s">
-        <v>78</v>
+        <v>77</v>
       </c>
       <c r="B19" t="s">
-        <v>63</v>
+        <v>60</v>
       </c>
     </row>
     <row r="20" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A20" t="s">
-        <v>79</v>
+        <v>78</v>
       </c>
       <c r="B20" t="s">
         <v>63</v>
@@ -4139,47 +4145,47 @@
     </row>
     <row r="21" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A21" t="s">
-        <v>80</v>
+        <v>79</v>
       </c>
       <c r="B21" t="s">
-        <v>56</v>
+        <v>63</v>
       </c>
     </row>
     <row r="22" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A22" t="s">
-        <v>81</v>
+        <v>80</v>
       </c>
       <c r="B22" t="s">
-        <v>63</v>
+        <v>56</v>
       </c>
     </row>
     <row r="23" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A23" t="s">
-        <v>82</v>
+        <v>81</v>
       </c>
       <c r="B23" t="s">
-        <v>56</v>
+        <v>63</v>
       </c>
     </row>
     <row r="24" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A24" t="s">
-        <v>83</v>
+        <v>82</v>
       </c>
       <c r="B24" t="s">
-        <v>60</v>
+        <v>56</v>
       </c>
     </row>
     <row r="25" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A25" t="s">
-        <v>84</v>
+        <v>83</v>
       </c>
       <c r="B25" t="s">
-        <v>70</v>
+        <v>60</v>
       </c>
     </row>
     <row r="26" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A26" t="s">
-        <v>85</v>
+        <v>84</v>
       </c>
       <c r="B26" t="s">
         <v>70</v>
@@ -4187,23 +4193,23 @@
     </row>
     <row r="27" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A27" t="s">
-        <v>86</v>
+        <v>85</v>
       </c>
       <c r="B27" t="s">
-        <v>60</v>
+        <v>70</v>
       </c>
     </row>
     <row r="28" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A28" t="s">
-        <v>87</v>
+        <v>86</v>
       </c>
       <c r="B28" t="s">
-        <v>58</v>
+        <v>60</v>
       </c>
     </row>
     <row r="29" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A29" t="s">
-        <v>88</v>
+        <v>87</v>
       </c>
       <c r="B29" t="s">
         <v>58</v>
@@ -4211,143 +4217,143 @@
     </row>
     <row r="30" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A30" t="s">
-        <v>89</v>
+        <v>88</v>
       </c>
       <c r="B30" t="s">
-        <v>60</v>
+        <v>58</v>
       </c>
     </row>
     <row r="31" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A31" t="s">
-        <v>90</v>
+        <v>89</v>
       </c>
       <c r="B31" t="s">
-        <v>56</v>
+        <v>60</v>
       </c>
     </row>
     <row r="32" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A32" t="s">
-        <v>91</v>
+        <v>90</v>
       </c>
       <c r="B32" t="s">
-        <v>63</v>
+        <v>56</v>
       </c>
     </row>
     <row r="33" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A33" t="s">
-        <v>92</v>
+        <v>91</v>
       </c>
       <c r="B33" t="s">
-        <v>58</v>
+        <v>63</v>
       </c>
     </row>
     <row r="34" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A34" t="s">
-        <v>93</v>
+        <v>92</v>
       </c>
       <c r="B34" t="s">
-        <v>70</v>
+        <v>58</v>
       </c>
     </row>
     <row r="35" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A35" t="s">
-        <v>94</v>
+        <v>93</v>
       </c>
       <c r="B35" t="s">
-        <v>56</v>
+        <v>70</v>
       </c>
     </row>
     <row r="36" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A36" t="s">
-        <v>95</v>
+        <v>94</v>
       </c>
       <c r="B36" t="s">
-        <v>70</v>
+        <v>56</v>
       </c>
     </row>
     <row r="37" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A37" t="s">
-        <v>96</v>
+        <v>95</v>
       </c>
       <c r="B37" t="s">
-        <v>56</v>
+        <v>70</v>
       </c>
     </row>
     <row r="38" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A38" t="s">
-        <v>97</v>
+        <v>96</v>
       </c>
       <c r="B38" t="s">
-        <v>63</v>
+        <v>56</v>
       </c>
     </row>
     <row r="39" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A39" t="s">
-        <v>98</v>
+        <v>97</v>
       </c>
       <c r="B39" t="s">
-        <v>60</v>
+        <v>63</v>
       </c>
     </row>
     <row r="40" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A40" t="s">
-        <v>99</v>
+        <v>98</v>
       </c>
       <c r="B40" t="s">
-        <v>56</v>
+        <v>60</v>
       </c>
     </row>
     <row r="41" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A41" t="s">
-        <v>100</v>
+        <v>99</v>
       </c>
       <c r="B41" t="s">
-        <v>58</v>
+        <v>56</v>
       </c>
     </row>
     <row r="42" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A42" t="s">
-        <v>101</v>
+        <v>100</v>
       </c>
       <c r="B42" t="s">
-        <v>63</v>
+        <v>58</v>
       </c>
     </row>
     <row r="43" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A43" t="s">
-        <v>102</v>
+        <v>101</v>
       </c>
       <c r="B43" t="s">
-        <v>60</v>
+        <v>63</v>
       </c>
     </row>
     <row r="44" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A44" t="s">
-        <v>103</v>
+        <v>102</v>
       </c>
       <c r="B44" t="s">
-        <v>58</v>
+        <v>60</v>
       </c>
     </row>
     <row r="45" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A45" t="s">
-        <v>104</v>
+        <v>103</v>
       </c>
       <c r="B45" t="s">
-        <v>60</v>
+        <v>58</v>
       </c>
     </row>
     <row r="46" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A46" t="s">
-        <v>105</v>
+        <v>104</v>
       </c>
       <c r="B46" t="s">
-        <v>63</v>
+        <v>60</v>
       </c>
     </row>
     <row r="47" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A47" t="s">
-        <v>106</v>
+        <v>105</v>
       </c>
       <c r="B47" t="s">
         <v>63</v>
@@ -4355,47 +4361,47 @@
     </row>
     <row r="48" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A48" t="s">
-        <v>107</v>
+        <v>106</v>
       </c>
       <c r="B48" t="s">
-        <v>70</v>
+        <v>63</v>
       </c>
     </row>
     <row r="49" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A49" t="s">
-        <v>108</v>
+        <v>107</v>
       </c>
       <c r="B49" t="s">
-        <v>63</v>
+        <v>70</v>
       </c>
     </row>
     <row r="50" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A50" t="s">
-        <v>109</v>
+        <v>108</v>
       </c>
       <c r="B50" t="s">
-        <v>60</v>
+        <v>63</v>
       </c>
     </row>
     <row r="51" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A51" t="s">
-        <v>110</v>
+        <v>109</v>
       </c>
       <c r="B51" t="s">
-        <v>56</v>
+        <v>60</v>
       </c>
     </row>
     <row r="52" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A52" t="s">
-        <v>111</v>
+        <v>110</v>
       </c>
       <c r="B52" t="s">
-        <v>63</v>
+        <v>56</v>
       </c>
     </row>
     <row r="53" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A53" t="s">
-        <v>112</v>
+        <v>111</v>
       </c>
       <c r="B53" t="s">
         <v>63</v>
@@ -4403,7 +4409,7 @@
     </row>
     <row r="54" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A54" t="s">
-        <v>113</v>
+        <v>112</v>
       </c>
       <c r="B54" t="s">
         <v>63</v>
@@ -4411,7 +4417,7 @@
     </row>
     <row r="55" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A55" t="s">
-        <v>114</v>
+        <v>113</v>
       </c>
       <c r="B55" t="s">
         <v>63</v>
@@ -4419,55 +4425,55 @@
     </row>
     <row r="56" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A56" t="s">
-        <v>115</v>
+        <v>114</v>
       </c>
       <c r="B56" t="s">
-        <v>60</v>
+        <v>63</v>
       </c>
     </row>
     <row r="57" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A57" t="s">
-        <v>116</v>
+        <v>115</v>
       </c>
       <c r="B57" t="s">
-        <v>58</v>
+        <v>60</v>
       </c>
     </row>
     <row r="58" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A58" t="s">
-        <v>117</v>
+        <v>116</v>
       </c>
       <c r="B58" t="s">
-        <v>60</v>
+        <v>58</v>
       </c>
     </row>
     <row r="59" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A59" t="s">
-        <v>118</v>
+        <v>117</v>
       </c>
       <c r="B59" t="s">
-        <v>63</v>
+        <v>60</v>
       </c>
     </row>
     <row r="60" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A60" t="s">
-        <v>119</v>
+        <v>118</v>
       </c>
       <c r="B60" t="s">
-        <v>56</v>
+        <v>63</v>
       </c>
     </row>
     <row r="61" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A61" t="s">
-        <v>120</v>
+        <v>119</v>
       </c>
       <c r="B61" t="s">
-        <v>58</v>
+        <v>56</v>
       </c>
     </row>
     <row r="62" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A62" t="s">
-        <v>121</v>
+        <v>120</v>
       </c>
       <c r="B62" t="s">
         <v>58</v>
@@ -4475,7 +4481,7 @@
     </row>
     <row r="63" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A63" t="s">
-        <v>122</v>
+        <v>121</v>
       </c>
       <c r="B63" t="s">
         <v>58</v>
@@ -4483,15 +4489,15 @@
     </row>
     <row r="64" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A64" t="s">
-        <v>123</v>
+        <v>122</v>
       </c>
       <c r="B64" t="s">
-        <v>60</v>
+        <v>58</v>
       </c>
     </row>
     <row r="65" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A65" t="s">
-        <v>124</v>
+        <v>123</v>
       </c>
       <c r="B65" t="s">
         <v>60</v>
@@ -4499,7 +4505,7 @@
     </row>
     <row r="66" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A66" t="s">
-        <v>125</v>
+        <v>124</v>
       </c>
       <c r="B66" t="s">
         <v>60</v>
@@ -4507,15 +4513,15 @@
     </row>
     <row r="67" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A67" t="s">
-        <v>126</v>
+        <v>125</v>
       </c>
       <c r="B67" t="s">
-        <v>56</v>
+        <v>60</v>
       </c>
     </row>
     <row r="68" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A68" t="s">
-        <v>127</v>
+        <v>126</v>
       </c>
       <c r="B68" t="s">
         <v>56</v>
@@ -4523,15 +4529,15 @@
     </row>
     <row r="69" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A69" t="s">
-        <v>128</v>
+        <v>127</v>
       </c>
       <c r="B69" t="s">
-        <v>58</v>
+        <v>56</v>
       </c>
     </row>
     <row r="70" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A70" t="s">
-        <v>129</v>
+        <v>128</v>
       </c>
       <c r="B70" t="s">
         <v>58</v>
@@ -4539,15 +4545,15 @@
     </row>
     <row r="71" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A71" t="s">
-        <v>130</v>
+        <v>129</v>
       </c>
       <c r="B71" t="s">
-        <v>56</v>
+        <v>58</v>
       </c>
     </row>
     <row r="72" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A72" t="s">
-        <v>131</v>
+        <v>130</v>
       </c>
       <c r="B72" t="s">
         <v>56</v>
@@ -4555,7 +4561,7 @@
     </row>
     <row r="73" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A73" t="s">
-        <v>132</v>
+        <v>131</v>
       </c>
       <c r="B73" t="s">
         <v>56</v>
@@ -4563,63 +4569,63 @@
     </row>
     <row r="74" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A74" t="s">
-        <v>133</v>
+        <v>132</v>
       </c>
       <c r="B74" t="s">
-        <v>60</v>
+        <v>56</v>
       </c>
     </row>
     <row r="75" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A75" t="s">
-        <v>134</v>
+        <v>133</v>
       </c>
       <c r="B75" t="s">
-        <v>63</v>
+        <v>60</v>
       </c>
     </row>
     <row r="76" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A76" t="s">
-        <v>135</v>
+        <v>134</v>
       </c>
       <c r="B76" t="s">
-        <v>70</v>
+        <v>63</v>
       </c>
     </row>
     <row r="77" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A77" t="s">
-        <v>136</v>
+        <v>135</v>
       </c>
       <c r="B77" t="s">
-        <v>58</v>
+        <v>70</v>
       </c>
     </row>
     <row r="78" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A78" t="s">
-        <v>137</v>
+        <v>136</v>
       </c>
       <c r="B78" t="s">
-        <v>60</v>
+        <v>58</v>
       </c>
     </row>
     <row r="79" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A79" t="s">
-        <v>138</v>
+        <v>137</v>
       </c>
       <c r="B79" t="s">
-        <v>70</v>
+        <v>60</v>
       </c>
     </row>
     <row r="80" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A80" t="s">
-        <v>139</v>
+        <v>138</v>
       </c>
       <c r="B80" t="s">
-        <v>58</v>
+        <v>70</v>
       </c>
     </row>
     <row r="81" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A81" t="s">
-        <v>140</v>
+        <v>139</v>
       </c>
       <c r="B81" t="s">
         <v>58</v>
@@ -4627,7 +4633,7 @@
     </row>
     <row r="82" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A82" t="s">
-        <v>141</v>
+        <v>140</v>
       </c>
       <c r="B82" t="s">
         <v>58</v>
@@ -4635,63 +4641,63 @@
     </row>
     <row r="83" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A83" t="s">
-        <v>142</v>
+        <v>141</v>
       </c>
       <c r="B83" t="s">
-        <v>56</v>
+        <v>58</v>
       </c>
     </row>
     <row r="84" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A84" t="s">
-        <v>143</v>
+        <v>142</v>
       </c>
       <c r="B84" t="s">
-        <v>58</v>
+        <v>56</v>
       </c>
     </row>
     <row r="85" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A85" t="s">
-        <v>144</v>
+        <v>143</v>
       </c>
       <c r="B85" t="s">
-        <v>56</v>
+        <v>58</v>
       </c>
     </row>
     <row r="86" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A86" t="s">
-        <v>145</v>
+        <v>144</v>
       </c>
       <c r="B86" t="s">
-        <v>63</v>
+        <v>56</v>
       </c>
     </row>
     <row r="87" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A87" t="s">
-        <v>146</v>
+        <v>145</v>
       </c>
       <c r="B87" t="s">
-        <v>70</v>
+        <v>63</v>
       </c>
     </row>
     <row r="88" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A88" t="s">
-        <v>147</v>
+        <v>146</v>
       </c>
       <c r="B88" t="s">
-        <v>58</v>
+        <v>70</v>
       </c>
     </row>
     <row r="89" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A89" t="s">
-        <v>148</v>
+        <v>147</v>
       </c>
       <c r="B89" t="s">
-        <v>63</v>
+        <v>58</v>
       </c>
     </row>
     <row r="90" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A90" t="s">
-        <v>149</v>
+        <v>148</v>
       </c>
       <c r="B90" t="s">
         <v>63</v>
@@ -4699,7 +4705,7 @@
     </row>
     <row r="91" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A91" t="s">
-        <v>150</v>
+        <v>149</v>
       </c>
       <c r="B91" t="s">
         <v>63</v>
@@ -4707,23 +4713,23 @@
     </row>
     <row r="92" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A92" t="s">
-        <v>151</v>
+        <v>150</v>
       </c>
       <c r="B92" t="s">
-        <v>56</v>
+        <v>63</v>
       </c>
     </row>
     <row r="93" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A93" t="s">
-        <v>152</v>
+        <v>151</v>
       </c>
       <c r="B93" t="s">
-        <v>70</v>
+        <v>56</v>
       </c>
     </row>
     <row r="94" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A94" t="s">
-        <v>153</v>
+        <v>152</v>
       </c>
       <c r="B94" t="s">
         <v>70</v>
@@ -4731,39 +4737,39 @@
     </row>
     <row r="95" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A95" t="s">
-        <v>154</v>
+        <v>153</v>
       </c>
       <c r="B95" t="s">
-        <v>56</v>
+        <v>70</v>
       </c>
     </row>
     <row r="96" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A96" t="s">
-        <v>155</v>
+        <v>154</v>
       </c>
       <c r="B96" t="s">
-        <v>63</v>
+        <v>56</v>
       </c>
     </row>
     <row r="97" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A97" t="s">
-        <v>156</v>
+        <v>155</v>
       </c>
       <c r="B97" t="s">
-        <v>58</v>
+        <v>63</v>
       </c>
     </row>
     <row r="98" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A98" t="s">
-        <v>157</v>
+        <v>156</v>
       </c>
       <c r="B98" t="s">
-        <v>60</v>
+        <v>58</v>
       </c>
     </row>
     <row r="99" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A99" t="s">
-        <v>158</v>
+        <v>157</v>
       </c>
       <c r="B99" t="s">
         <v>60</v>
@@ -4771,39 +4777,39 @@
     </row>
     <row r="100" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A100" t="s">
-        <v>159</v>
+        <v>158</v>
       </c>
       <c r="B100" t="s">
-        <v>56</v>
+        <v>60</v>
       </c>
     </row>
     <row r="101" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A101" t="s">
-        <v>160</v>
+        <v>159</v>
       </c>
       <c r="B101" t="s">
-        <v>60</v>
+        <v>56</v>
       </c>
     </row>
     <row r="102" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A102" t="s">
-        <v>161</v>
+        <v>160</v>
       </c>
       <c r="B102" t="s">
-        <v>58</v>
+        <v>60</v>
       </c>
     </row>
     <row r="103" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A103" t="s">
-        <v>162</v>
+        <v>161</v>
       </c>
       <c r="B103" t="s">
-        <v>60</v>
+        <v>58</v>
       </c>
     </row>
     <row r="104" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A104" t="s">
-        <v>163</v>
+        <v>162</v>
       </c>
       <c r="B104" t="s">
         <v>60</v>
@@ -4811,7 +4817,7 @@
     </row>
     <row r="105" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A105" t="s">
-        <v>164</v>
+        <v>163</v>
       </c>
       <c r="B105" t="s">
         <v>60</v>
@@ -4819,79 +4825,79 @@
     </row>
     <row r="106" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A106" t="s">
-        <v>165</v>
+        <v>164</v>
       </c>
       <c r="B106" t="s">
-        <v>58</v>
+        <v>60</v>
       </c>
     </row>
     <row r="107" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A107" t="s">
-        <v>166</v>
+        <v>165</v>
       </c>
       <c r="B107" t="s">
-        <v>56</v>
+        <v>58</v>
       </c>
     </row>
     <row r="108" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A108" t="s">
-        <v>167</v>
+        <v>166</v>
       </c>
       <c r="B108" t="s">
-        <v>70</v>
+        <v>56</v>
       </c>
     </row>
     <row r="109" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A109" t="s">
-        <v>168</v>
+        <v>167</v>
       </c>
       <c r="B109" t="s">
-        <v>63</v>
+        <v>70</v>
       </c>
     </row>
     <row r="110" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A110" t="s">
-        <v>169</v>
+        <v>168</v>
       </c>
       <c r="B110" t="s">
-        <v>60</v>
+        <v>63</v>
       </c>
     </row>
     <row r="111" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A111" t="s">
-        <v>170</v>
+        <v>169</v>
       </c>
       <c r="B111" t="s">
-        <v>70</v>
+        <v>60</v>
       </c>
     </row>
     <row r="112" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A112" t="s">
-        <v>171</v>
+        <v>170</v>
       </c>
       <c r="B112" t="s">
-        <v>63</v>
+        <v>70</v>
       </c>
     </row>
     <row r="113" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A113" t="s">
-        <v>172</v>
+        <v>171</v>
       </c>
       <c r="B113" t="s">
-        <v>60</v>
+        <v>63</v>
       </c>
     </row>
     <row r="114" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A114" t="s">
-        <v>173</v>
+        <v>172</v>
       </c>
       <c r="B114" t="s">
-        <v>58</v>
+        <v>60</v>
       </c>
     </row>
     <row r="115" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A115" t="s">
-        <v>174</v>
+        <v>173</v>
       </c>
       <c r="B115" t="s">
         <v>58</v>
@@ -4899,39 +4905,39 @@
     </row>
     <row r="116" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A116" t="s">
-        <v>175</v>
+        <v>174</v>
       </c>
       <c r="B116" t="s">
-        <v>60</v>
+        <v>58</v>
       </c>
     </row>
     <row r="117" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A117" t="s">
-        <v>176</v>
+        <v>175</v>
       </c>
       <c r="B117" t="s">
-        <v>70</v>
+        <v>60</v>
       </c>
     </row>
     <row r="118" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A118" t="s">
-        <v>177</v>
+        <v>176</v>
       </c>
       <c r="B118" t="s">
-        <v>60</v>
+        <v>70</v>
       </c>
     </row>
     <row r="119" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A119" t="s">
-        <v>178</v>
+        <v>177</v>
       </c>
       <c r="B119" t="s">
-        <v>58</v>
+        <v>60</v>
       </c>
     </row>
     <row r="120" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A120" t="s">
-        <v>179</v>
+        <v>178</v>
       </c>
       <c r="B120" t="s">
         <v>58</v>
@@ -4939,47 +4945,47 @@
     </row>
     <row r="121" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A121" t="s">
-        <v>180</v>
+        <v>179</v>
       </c>
       <c r="B121" t="s">
-        <v>63</v>
+        <v>58</v>
       </c>
     </row>
     <row r="122" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A122" t="s">
-        <v>181</v>
+        <v>180</v>
       </c>
       <c r="B122" t="s">
-        <v>70</v>
+        <v>63</v>
       </c>
     </row>
     <row r="123" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A123" t="s">
-        <v>182</v>
+        <v>181</v>
       </c>
       <c r="B123" t="s">
-        <v>60</v>
+        <v>70</v>
       </c>
     </row>
     <row r="124" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A124" t="s">
-        <v>183</v>
+        <v>182</v>
       </c>
       <c r="B124" t="s">
-        <v>58</v>
+        <v>60</v>
       </c>
     </row>
     <row r="125" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A125" t="s">
-        <v>184</v>
+        <v>183</v>
       </c>
       <c r="B125" t="s">
-        <v>63</v>
+        <v>58</v>
       </c>
     </row>
     <row r="126" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A126" t="s">
-        <v>185</v>
+        <v>184</v>
       </c>
       <c r="B126" t="s">
         <v>63</v>
@@ -4987,7 +4993,7 @@
     </row>
     <row r="127" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A127" t="s">
-        <v>186</v>
+        <v>185</v>
       </c>
       <c r="B127" t="s">
         <v>63</v>
@@ -4995,7 +5001,7 @@
     </row>
     <row r="128" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A128" t="s">
-        <v>187</v>
+        <v>186</v>
       </c>
       <c r="B128" t="s">
         <v>63</v>
@@ -5003,7 +5009,7 @@
     </row>
     <row r="129" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A129" t="s">
-        <v>188</v>
+        <v>187</v>
       </c>
       <c r="B129" t="s">
         <v>63</v>
@@ -5011,47 +5017,47 @@
     </row>
     <row r="130" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A130" t="s">
-        <v>189</v>
+        <v>188</v>
       </c>
       <c r="B130" t="s">
-        <v>56</v>
+        <v>63</v>
       </c>
     </row>
     <row r="131" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A131" t="s">
-        <v>190</v>
+        <v>189</v>
       </c>
       <c r="B131" t="s">
-        <v>58</v>
+        <v>56</v>
       </c>
     </row>
     <row r="132" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A132" t="s">
-        <v>191</v>
+        <v>190</v>
       </c>
       <c r="B132" t="s">
-        <v>63</v>
+        <v>58</v>
       </c>
     </row>
     <row r="133" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A133" t="s">
-        <v>192</v>
+        <v>191</v>
       </c>
       <c r="B133" t="s">
-        <v>56</v>
+        <v>63</v>
       </c>
     </row>
     <row r="134" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A134" t="s">
-        <v>193</v>
+        <v>192</v>
       </c>
       <c r="B134" t="s">
-        <v>63</v>
+        <v>56</v>
       </c>
     </row>
     <row r="135" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A135" t="s">
-        <v>194</v>
+        <v>193</v>
       </c>
       <c r="B135" t="s">
         <v>63</v>
@@ -5059,15 +5065,15 @@
     </row>
     <row r="136" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A136" t="s">
-        <v>195</v>
+        <v>194</v>
       </c>
       <c r="B136" t="s">
-        <v>60</v>
+        <v>63</v>
       </c>
     </row>
     <row r="137" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A137" t="s">
-        <v>196</v>
+        <v>195</v>
       </c>
       <c r="B137" t="s">
         <v>60</v>
@@ -5075,15 +5081,15 @@
     </row>
     <row r="138" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A138" t="s">
-        <v>197</v>
+        <v>196</v>
       </c>
       <c r="B138" t="s">
-        <v>56</v>
+        <v>60</v>
       </c>
     </row>
     <row r="139" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A139" t="s">
-        <v>198</v>
+        <v>197</v>
       </c>
       <c r="B139" t="s">
         <v>56</v>
@@ -5091,15 +5097,15 @@
     </row>
     <row r="140" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A140" t="s">
-        <v>199</v>
+        <v>198</v>
       </c>
       <c r="B140" t="s">
-        <v>63</v>
+        <v>56</v>
       </c>
     </row>
     <row r="141" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A141" t="s">
-        <v>200</v>
+        <v>199</v>
       </c>
       <c r="B141" t="s">
         <v>63</v>
@@ -5107,15 +5113,15 @@
     </row>
     <row r="142" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A142" t="s">
-        <v>201</v>
+        <v>200</v>
       </c>
       <c r="B142" t="s">
-        <v>70</v>
+        <v>63</v>
       </c>
     </row>
     <row r="143" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A143" t="s">
-        <v>202</v>
+        <v>201</v>
       </c>
       <c r="B143" t="s">
         <v>70</v>
@@ -5123,31 +5129,31 @@
     </row>
     <row r="144" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A144" t="s">
-        <v>203</v>
+        <v>202</v>
       </c>
       <c r="B144" t="s">
-        <v>60</v>
+        <v>70</v>
       </c>
     </row>
     <row r="145" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A145" t="s">
-        <v>204</v>
+        <v>203</v>
       </c>
       <c r="B145" t="s">
-        <v>70</v>
+        <v>60</v>
       </c>
     </row>
     <row r="146" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A146" t="s">
-        <v>205</v>
+        <v>204</v>
       </c>
       <c r="B146" t="s">
-        <v>58</v>
+        <v>70</v>
       </c>
     </row>
     <row r="147" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A147" t="s">
-        <v>206</v>
+        <v>205</v>
       </c>
       <c r="B147" t="s">
         <v>58</v>
@@ -5155,63 +5161,63 @@
     </row>
     <row r="148" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A148" t="s">
-        <v>207</v>
+        <v>206</v>
       </c>
       <c r="B148" t="s">
-        <v>63</v>
+        <v>58</v>
       </c>
     </row>
     <row r="149" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A149" t="s">
-        <v>208</v>
+        <v>207</v>
       </c>
       <c r="B149" t="s">
-        <v>70</v>
+        <v>63</v>
       </c>
     </row>
     <row r="150" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A150" t="s">
-        <v>209</v>
+        <v>208</v>
       </c>
       <c r="B150" t="s">
-        <v>58</v>
+        <v>70</v>
       </c>
     </row>
     <row r="151" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A151" t="s">
-        <v>210</v>
+        <v>209</v>
       </c>
       <c r="B151" t="s">
-        <v>63</v>
+        <v>58</v>
       </c>
     </row>
     <row r="152" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A152" t="s">
-        <v>211</v>
+        <v>210</v>
       </c>
       <c r="B152" t="s">
-        <v>56</v>
+        <v>63</v>
       </c>
     </row>
     <row r="153" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A153" t="s">
-        <v>212</v>
+        <v>211</v>
       </c>
       <c r="B153" t="s">
-        <v>60</v>
+        <v>56</v>
       </c>
     </row>
     <row r="154" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A154" t="s">
-        <v>213</v>
+        <v>212</v>
       </c>
       <c r="B154" t="s">
-        <v>63</v>
+        <v>60</v>
       </c>
     </row>
     <row r="155" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A155" t="s">
-        <v>214</v>
+        <v>213</v>
       </c>
       <c r="B155" t="s">
         <v>63</v>
@@ -5219,15 +5225,15 @@
     </row>
     <row r="156" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A156" t="s">
-        <v>215</v>
+        <v>214</v>
       </c>
       <c r="B156" t="s">
-        <v>58</v>
+        <v>63</v>
       </c>
     </row>
     <row r="157" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A157" t="s">
-        <v>216</v>
+        <v>215</v>
       </c>
       <c r="B157" t="s">
         <v>58</v>
@@ -5235,39 +5241,39 @@
     </row>
     <row r="158" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A158" t="s">
-        <v>217</v>
+        <v>216</v>
       </c>
       <c r="B158" t="s">
-        <v>70</v>
+        <v>58</v>
       </c>
     </row>
     <row r="159" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A159" t="s">
-        <v>218</v>
+        <v>217</v>
       </c>
       <c r="B159" t="s">
-        <v>60</v>
+        <v>70</v>
       </c>
     </row>
     <row r="160" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A160" t="s">
-        <v>219</v>
+        <v>218</v>
       </c>
       <c r="B160" t="s">
-        <v>58</v>
+        <v>60</v>
       </c>
     </row>
     <row r="161" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A161" t="s">
-        <v>220</v>
+        <v>219</v>
       </c>
       <c r="B161" t="s">
-        <v>63</v>
+        <v>58</v>
       </c>
     </row>
     <row r="162" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A162" t="s">
-        <v>221</v>
+        <v>220</v>
       </c>
       <c r="B162" t="s">
         <v>63</v>
@@ -5275,23 +5281,23 @@
     </row>
     <row r="163" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A163" t="s">
-        <v>222</v>
+        <v>221</v>
       </c>
       <c r="B163" t="s">
-        <v>58</v>
+        <v>63</v>
       </c>
     </row>
     <row r="164" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A164" t="s">
-        <v>223</v>
+        <v>222</v>
       </c>
       <c r="B164" t="s">
-        <v>63</v>
+        <v>58</v>
       </c>
     </row>
     <row r="165" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A165" t="s">
-        <v>224</v>
+        <v>223</v>
       </c>
       <c r="B165" t="s">
         <v>63</v>
@@ -5299,23 +5305,23 @@
     </row>
     <row r="166" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A166" t="s">
-        <v>225</v>
+        <v>224</v>
       </c>
       <c r="B166" t="s">
-        <v>56</v>
+        <v>63</v>
       </c>
     </row>
     <row r="167" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A167" t="s">
-        <v>226</v>
+        <v>225</v>
       </c>
       <c r="B167" t="s">
-        <v>63</v>
+        <v>56</v>
       </c>
     </row>
     <row r="168" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A168" t="s">
-        <v>227</v>
+        <v>226</v>
       </c>
       <c r="B168" t="s">
         <v>63</v>
@@ -5323,135 +5329,135 @@
     </row>
     <row r="169" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A169" t="s">
-        <v>228</v>
+        <v>227</v>
       </c>
       <c r="B169" t="s">
-        <v>58</v>
+        <v>63</v>
       </c>
     </row>
     <row r="170" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A170" t="s">
-        <v>229</v>
+        <v>228</v>
       </c>
       <c r="B170" t="s">
-        <v>60</v>
+        <v>58</v>
       </c>
     </row>
     <row r="171" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A171" t="s">
-        <v>230</v>
+        <v>229</v>
       </c>
       <c r="B171" t="s">
-        <v>56</v>
+        <v>60</v>
       </c>
     </row>
     <row r="172" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A172" t="s">
-        <v>231</v>
+        <v>230</v>
       </c>
       <c r="B172" t="s">
-        <v>60</v>
+        <v>56</v>
       </c>
     </row>
     <row r="173" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A173" t="s">
-        <v>232</v>
+        <v>231</v>
       </c>
       <c r="B173" t="s">
-        <v>70</v>
+        <v>60</v>
       </c>
     </row>
     <row r="174" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A174" t="s">
-        <v>233</v>
+        <v>232</v>
       </c>
       <c r="B174" t="s">
-        <v>58</v>
+        <v>70</v>
       </c>
     </row>
     <row r="175" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A175" t="s">
-        <v>234</v>
+        <v>233</v>
       </c>
       <c r="B175" t="s">
-        <v>60</v>
+        <v>58</v>
       </c>
     </row>
     <row r="176" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A176" t="s">
-        <v>235</v>
+        <v>234</v>
       </c>
       <c r="B176" t="s">
-        <v>70</v>
+        <v>60</v>
       </c>
     </row>
     <row r="177" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A177" t="s">
-        <v>236</v>
+        <v>235</v>
       </c>
       <c r="B177" t="s">
-        <v>56</v>
+        <v>70</v>
       </c>
     </row>
     <row r="178" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A178" t="s">
-        <v>237</v>
+        <v>236</v>
       </c>
       <c r="B178" t="s">
-        <v>63</v>
+        <v>56</v>
       </c>
     </row>
     <row r="179" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A179" t="s">
-        <v>238</v>
+        <v>237</v>
       </c>
       <c r="B179" t="s">
-        <v>58</v>
+        <v>63</v>
       </c>
     </row>
     <row r="180" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A180" t="s">
-        <v>239</v>
+        <v>238</v>
       </c>
       <c r="B180" t="s">
-        <v>63</v>
+        <v>58</v>
       </c>
     </row>
     <row r="181" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A181" t="s">
-        <v>240</v>
+        <v>239</v>
       </c>
       <c r="B181" t="s">
-        <v>60</v>
+        <v>63</v>
       </c>
     </row>
     <row r="182" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A182" t="s">
-        <v>241</v>
+        <v>240</v>
       </c>
       <c r="B182" t="s">
-        <v>56</v>
+        <v>60</v>
       </c>
     </row>
     <row r="183" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A183" t="s">
-        <v>242</v>
+        <v>241</v>
       </c>
       <c r="B183" t="s">
-        <v>70</v>
+        <v>56</v>
       </c>
     </row>
     <row r="184" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A184" t="s">
-        <v>243</v>
+        <v>242</v>
       </c>
       <c r="B184" t="s">
-        <v>60</v>
+        <v>70</v>
       </c>
     </row>
     <row r="185" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A185" t="s">
-        <v>244</v>
+        <v>243</v>
       </c>
       <c r="B185" t="s">
         <v>60</v>
@@ -5459,7 +5465,7 @@
     </row>
     <row r="186" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A186" t="s">
-        <v>245</v>
+        <v>244</v>
       </c>
       <c r="B186" t="s">
         <v>60</v>
@@ -5467,23 +5473,23 @@
     </row>
     <row r="187" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A187" t="s">
-        <v>246</v>
+        <v>245</v>
       </c>
       <c r="B187" t="s">
-        <v>58</v>
+        <v>60</v>
       </c>
     </row>
     <row r="188" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A188" t="s">
-        <v>247</v>
+        <v>246</v>
       </c>
       <c r="B188" t="s">
-        <v>60</v>
+        <v>58</v>
       </c>
     </row>
     <row r="189" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A189" t="s">
-        <v>248</v>
+        <v>247</v>
       </c>
       <c r="B189" t="s">
         <v>60</v>
@@ -5491,167 +5497,167 @@
     </row>
     <row r="190" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A190" t="s">
-        <v>249</v>
+        <v>248</v>
       </c>
       <c r="B190" t="s">
-        <v>70</v>
+        <v>60</v>
       </c>
     </row>
     <row r="191" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A191" t="s">
-        <v>250</v>
+        <v>249</v>
       </c>
       <c r="B191" t="s">
-        <v>63</v>
+        <v>70</v>
       </c>
     </row>
     <row r="192" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A192" t="s">
-        <v>251</v>
+        <v>250</v>
       </c>
       <c r="B192" t="s">
-        <v>60</v>
+        <v>63</v>
       </c>
     </row>
     <row r="193" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A193" t="s">
-        <v>252</v>
+        <v>251</v>
       </c>
       <c r="B193" t="s">
-        <v>70</v>
+        <v>60</v>
       </c>
     </row>
     <row r="194" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A194" t="s">
-        <v>253</v>
+        <v>252</v>
       </c>
       <c r="B194" t="s">
-        <v>58</v>
+        <v>70</v>
       </c>
     </row>
     <row r="195" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A195" t="s">
-        <v>254</v>
+        <v>253</v>
       </c>
       <c r="B195" t="s">
-        <v>70</v>
+        <v>58</v>
       </c>
     </row>
     <row r="196" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A196" t="s">
-        <v>255</v>
+        <v>254</v>
       </c>
       <c r="B196" t="s">
-        <v>58</v>
+        <v>70</v>
       </c>
     </row>
     <row r="197" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A197" t="s">
-        <v>256</v>
+        <v>255</v>
       </c>
       <c r="B197" t="s">
-        <v>60</v>
+        <v>58</v>
       </c>
     </row>
     <row r="198" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A198" t="s">
-        <v>257</v>
+        <v>256</v>
       </c>
       <c r="B198" t="s">
-        <v>56</v>
+        <v>60</v>
       </c>
     </row>
     <row r="199" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A199" t="s">
-        <v>258</v>
+        <v>257</v>
       </c>
       <c r="B199" t="s">
-        <v>60</v>
+        <v>56</v>
       </c>
     </row>
     <row r="200" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A200" t="s">
-        <v>259</v>
+        <v>258</v>
       </c>
       <c r="B200" t="s">
-        <v>58</v>
+        <v>60</v>
       </c>
     </row>
     <row r="201" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A201" t="s">
-        <v>260</v>
+        <v>259</v>
       </c>
       <c r="B201" t="s">
-        <v>70</v>
+        <v>58</v>
       </c>
     </row>
     <row r="202" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A202" t="s">
-        <v>261</v>
+        <v>260</v>
       </c>
       <c r="B202" t="s">
-        <v>63</v>
+        <v>70</v>
       </c>
     </row>
     <row r="203" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A203" t="s">
-        <v>262</v>
+        <v>261</v>
       </c>
       <c r="B203" t="s">
-        <v>60</v>
+        <v>63</v>
       </c>
     </row>
     <row r="204" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A204" t="s">
-        <v>263</v>
+        <v>262</v>
       </c>
       <c r="B204" t="s">
-        <v>56</v>
+        <v>60</v>
       </c>
     </row>
     <row r="205" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A205" t="s">
-        <v>264</v>
+        <v>263</v>
       </c>
       <c r="B205" t="s">
-        <v>70</v>
+        <v>56</v>
       </c>
     </row>
     <row r="206" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A206" t="s">
-        <v>265</v>
+        <v>264</v>
       </c>
       <c r="B206" t="s">
-        <v>58</v>
+        <v>70</v>
       </c>
     </row>
     <row r="207" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A207" t="s">
-        <v>266</v>
+        <v>265</v>
       </c>
       <c r="B207" t="s">
-        <v>63</v>
+        <v>58</v>
       </c>
     </row>
     <row r="208" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A208" t="s">
-        <v>267</v>
+        <v>266</v>
       </c>
       <c r="B208" t="s">
-        <v>58</v>
+        <v>63</v>
       </c>
     </row>
     <row r="209" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A209" t="s">
-        <v>268</v>
+        <v>267</v>
       </c>
       <c r="B209" t="s">
-        <v>56</v>
+        <v>58</v>
       </c>
     </row>
     <row r="210" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A210" t="s">
-        <v>269</v>
+        <v>268</v>
       </c>
       <c r="B210" t="s">
         <v>56</v>
@@ -5659,79 +5665,79 @@
     </row>
     <row r="211" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A211" t="s">
-        <v>270</v>
+        <v>269</v>
       </c>
       <c r="B211" t="s">
-        <v>58</v>
+        <v>56</v>
       </c>
     </row>
     <row r="212" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A212" t="s">
-        <v>271</v>
+        <v>270</v>
       </c>
       <c r="B212" t="s">
-        <v>60</v>
+        <v>58</v>
       </c>
     </row>
     <row r="213" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A213" t="s">
-        <v>272</v>
+        <v>271</v>
       </c>
       <c r="B213" t="s">
-        <v>63</v>
+        <v>60</v>
       </c>
     </row>
     <row r="214" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A214" t="s">
-        <v>273</v>
+        <v>272</v>
       </c>
       <c r="B214" t="s">
-        <v>56</v>
+        <v>63</v>
       </c>
     </row>
     <row r="215" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A215" t="s">
-        <v>274</v>
+        <v>273</v>
       </c>
       <c r="B215" t="s">
-        <v>70</v>
+        <v>56</v>
       </c>
     </row>
     <row r="216" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A216" t="s">
-        <v>275</v>
+        <v>274</v>
       </c>
       <c r="B216" t="s">
-        <v>56</v>
+        <v>70</v>
       </c>
     </row>
     <row r="217" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A217" t="s">
-        <v>276</v>
+        <v>275</v>
       </c>
       <c r="B217" t="s">
-        <v>60</v>
+        <v>56</v>
       </c>
     </row>
     <row r="218" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A218" t="s">
-        <v>277</v>
+        <v>276</v>
       </c>
       <c r="B218" t="s">
-        <v>58</v>
+        <v>60</v>
       </c>
     </row>
     <row r="219" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A219" t="s">
-        <v>278</v>
+        <v>277</v>
       </c>
       <c r="B219" t="s">
-        <v>56</v>
+        <v>58</v>
       </c>
     </row>
     <row r="220" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A220" t="s">
-        <v>279</v>
+        <v>278</v>
       </c>
       <c r="B220" t="s">
         <v>56</v>
@@ -5739,63 +5745,63 @@
     </row>
     <row r="221" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A221" t="s">
-        <v>280</v>
+        <v>279</v>
       </c>
       <c r="B221" t="s">
-        <v>70</v>
+        <v>56</v>
       </c>
     </row>
     <row r="222" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A222" t="s">
-        <v>281</v>
+        <v>280</v>
       </c>
       <c r="B222" t="s">
-        <v>63</v>
+        <v>70</v>
       </c>
     </row>
     <row r="223" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A223" t="s">
-        <v>282</v>
+        <v>281</v>
       </c>
       <c r="B223" t="s">
-        <v>70</v>
+        <v>63</v>
       </c>
     </row>
     <row r="224" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A224" t="s">
-        <v>283</v>
+        <v>282</v>
       </c>
       <c r="B224" t="s">
-        <v>63</v>
+        <v>70</v>
       </c>
     </row>
     <row r="225" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A225" t="s">
-        <v>284</v>
+        <v>283</v>
       </c>
       <c r="B225" t="s">
-        <v>70</v>
+        <v>63</v>
       </c>
     </row>
     <row r="226" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A226" t="s">
-        <v>285</v>
+        <v>284</v>
       </c>
       <c r="B226" t="s">
-        <v>58</v>
+        <v>70</v>
       </c>
     </row>
     <row r="227" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A227" t="s">
-        <v>286</v>
+        <v>285</v>
       </c>
       <c r="B227" t="s">
-        <v>63</v>
+        <v>58</v>
       </c>
     </row>
     <row r="228" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A228" t="s">
-        <v>287</v>
+        <v>286</v>
       </c>
       <c r="B228" t="s">
         <v>63</v>
@@ -5803,15 +5809,15 @@
     </row>
     <row r="229" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A229" t="s">
-        <v>288</v>
+        <v>287</v>
       </c>
       <c r="B229" t="s">
-        <v>56</v>
+        <v>63</v>
       </c>
     </row>
     <row r="230" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A230" t="s">
-        <v>289</v>
+        <v>288</v>
       </c>
       <c r="B230" t="s">
         <v>56</v>
@@ -5819,31 +5825,31 @@
     </row>
     <row r="231" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A231" t="s">
-        <v>290</v>
+        <v>289</v>
       </c>
       <c r="B231" t="s">
-        <v>58</v>
+        <v>56</v>
       </c>
     </row>
     <row r="232" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A232" t="s">
-        <v>291</v>
+        <v>290</v>
       </c>
       <c r="B232" t="s">
-        <v>56</v>
+        <v>58</v>
       </c>
     </row>
     <row r="233" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A233" t="s">
-        <v>292</v>
+        <v>291</v>
       </c>
       <c r="B233" t="s">
-        <v>63</v>
+        <v>56</v>
       </c>
     </row>
     <row r="234" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A234" t="s">
-        <v>293</v>
+        <v>292</v>
       </c>
       <c r="B234" t="s">
         <v>63</v>
@@ -5851,111 +5857,111 @@
     </row>
     <row r="235" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A235" t="s">
-        <v>294</v>
+        <v>293</v>
       </c>
       <c r="B235" t="s">
-        <v>58</v>
+        <v>63</v>
       </c>
     </row>
     <row r="236" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A236" t="s">
-        <v>295</v>
+        <v>294</v>
       </c>
       <c r="B236" t="s">
-        <v>60</v>
+        <v>58</v>
       </c>
     </row>
     <row r="237" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A237" t="s">
-        <v>296</v>
+        <v>295</v>
       </c>
       <c r="B237" t="s">
-        <v>63</v>
+        <v>60</v>
       </c>
     </row>
     <row r="238" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A238" t="s">
-        <v>297</v>
+        <v>296</v>
       </c>
       <c r="B238" t="s">
-        <v>60</v>
+        <v>63</v>
       </c>
     </row>
     <row r="239" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A239" t="s">
-        <v>298</v>
+        <v>297</v>
       </c>
       <c r="B239" t="s">
-        <v>63</v>
+        <v>60</v>
       </c>
     </row>
     <row r="240" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A240" t="s">
-        <v>299</v>
+        <v>298</v>
       </c>
       <c r="B240" t="s">
-        <v>70</v>
+        <v>63</v>
       </c>
     </row>
     <row r="241" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A241" t="s">
-        <v>300</v>
+        <v>299</v>
       </c>
       <c r="B241" t="s">
-        <v>56</v>
+        <v>70</v>
       </c>
     </row>
     <row r="242" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A242" t="s">
-        <v>301</v>
+        <v>300</v>
       </c>
       <c r="B242" t="s">
-        <v>63</v>
+        <v>56</v>
       </c>
     </row>
     <row r="243" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A243" t="s">
-        <v>302</v>
+        <v>301</v>
       </c>
       <c r="B243" t="s">
-        <v>58</v>
+        <v>63</v>
       </c>
     </row>
     <row r="244" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A244" t="s">
-        <v>303</v>
+        <v>302</v>
       </c>
       <c r="B244" t="s">
-        <v>70</v>
+        <v>58</v>
       </c>
     </row>
     <row r="245" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A245" t="s">
-        <v>304</v>
+        <v>303</v>
       </c>
       <c r="B245" t="s">
-        <v>60</v>
+        <v>70</v>
       </c>
     </row>
     <row r="246" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A246" t="s">
-        <v>305</v>
+        <v>304</v>
       </c>
       <c r="B246" t="s">
-        <v>56</v>
+        <v>60</v>
       </c>
     </row>
     <row r="247" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A247" t="s">
-        <v>306</v>
+        <v>305</v>
       </c>
       <c r="B247" t="s">
-        <v>58</v>
+        <v>56</v>
       </c>
     </row>
     <row r="248" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A248" t="s">
-        <v>307</v>
+        <v>306</v>
       </c>
       <c r="B248" t="s">
         <v>58</v>
@@ -5963,7 +5969,7 @@
     </row>
     <row r="249" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A249" t="s">
-        <v>308</v>
+        <v>307</v>
       </c>
       <c r="B249" t="s">
         <v>58</v>
@@ -5971,31 +5977,31 @@
     </row>
     <row r="250" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A250" t="s">
-        <v>309</v>
+        <v>308</v>
       </c>
       <c r="B250" t="s">
-        <v>60</v>
+        <v>58</v>
       </c>
     </row>
     <row r="251" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A251" t="s">
-        <v>310</v>
+        <v>309</v>
       </c>
       <c r="B251" t="s">
-        <v>63</v>
+        <v>60</v>
       </c>
     </row>
     <row r="252" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A252" t="s">
-        <v>311</v>
+        <v>310</v>
       </c>
       <c r="B252" t="s">
-        <v>60</v>
+        <v>63</v>
       </c>
     </row>
     <row r="253" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A253" t="s">
-        <v>312</v>
+        <v>311</v>
       </c>
       <c r="B253" t="s">
         <v>60</v>
@@ -6003,15 +6009,15 @@
     </row>
     <row r="254" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A254" t="s">
-        <v>313</v>
+        <v>312</v>
       </c>
       <c r="B254" t="s">
-        <v>63</v>
+        <v>60</v>
       </c>
     </row>
     <row r="255" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A255" t="s">
-        <v>314</v>
+        <v>313</v>
       </c>
       <c r="B255" t="s">
         <v>63</v>
@@ -6019,7 +6025,7 @@
     </row>
     <row r="256" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A256" t="s">
-        <v>315</v>
+        <v>314</v>
       </c>
       <c r="B256" t="s">
         <v>63</v>
@@ -6027,7 +6033,7 @@
     </row>
     <row r="257" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A257" t="s">
-        <v>316</v>
+        <v>315</v>
       </c>
       <c r="B257" t="s">
         <v>63</v>
@@ -6035,7 +6041,7 @@
     </row>
     <row r="258" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A258" t="s">
-        <v>317</v>
+        <v>316</v>
       </c>
       <c r="B258" t="s">
         <v>63</v>
@@ -6043,23 +6049,23 @@
     </row>
     <row r="259" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A259" t="s">
-        <v>318</v>
+        <v>317</v>
       </c>
       <c r="B259" t="s">
-        <v>60</v>
+        <v>63</v>
       </c>
     </row>
     <row r="260" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A260" t="s">
-        <v>319</v>
+        <v>318</v>
       </c>
       <c r="B260" t="s">
-        <v>56</v>
+        <v>60</v>
       </c>
     </row>
     <row r="261" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A261" t="s">
-        <v>320</v>
+        <v>319</v>
       </c>
       <c r="B261" t="s">
         <v>56</v>
@@ -6067,15 +6073,15 @@
     </row>
     <row r="262" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A262" t="s">
-        <v>321</v>
+        <v>320</v>
       </c>
       <c r="B262" t="s">
-        <v>60</v>
+        <v>56</v>
       </c>
     </row>
     <row r="263" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A263" t="s">
-        <v>322</v>
+        <v>321</v>
       </c>
       <c r="B263" t="s">
         <v>60</v>
@@ -6083,23 +6089,23 @@
     </row>
     <row r="264" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A264" t="s">
-        <v>323</v>
+        <v>322</v>
       </c>
       <c r="B264" t="s">
-        <v>63</v>
+        <v>60</v>
       </c>
     </row>
     <row r="265" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A265" t="s">
-        <v>324</v>
+        <v>323</v>
       </c>
       <c r="B265" t="s">
-        <v>60</v>
+        <v>63</v>
       </c>
     </row>
     <row r="266" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A266" t="s">
-        <v>325</v>
+        <v>324</v>
       </c>
       <c r="B266" t="s">
         <v>60</v>
@@ -6107,47 +6113,47 @@
     </row>
     <row r="267" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A267" t="s">
-        <v>326</v>
+        <v>325</v>
       </c>
       <c r="B267" t="s">
-        <v>70</v>
+        <v>60</v>
       </c>
     </row>
     <row r="268" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A268" t="s">
-        <v>327</v>
+        <v>326</v>
       </c>
       <c r="B268" t="s">
-        <v>60</v>
+        <v>70</v>
       </c>
     </row>
     <row r="269" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A269" t="s">
-        <v>328</v>
+        <v>327</v>
       </c>
       <c r="B269" t="s">
-        <v>58</v>
+        <v>60</v>
       </c>
     </row>
     <row r="270" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A270" t="s">
-        <v>329</v>
+        <v>328</v>
       </c>
       <c r="B270" t="s">
-        <v>70</v>
+        <v>58</v>
       </c>
     </row>
     <row r="271" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A271" t="s">
-        <v>330</v>
+        <v>329</v>
       </c>
       <c r="B271" t="s">
-        <v>60</v>
+        <v>70</v>
       </c>
     </row>
     <row r="272" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A272" t="s">
-        <v>331</v>
+        <v>330</v>
       </c>
       <c r="B272" t="s">
         <v>60</v>
@@ -6155,7 +6161,7 @@
     </row>
     <row r="273" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A273" t="s">
-        <v>332</v>
+        <v>331</v>
       </c>
       <c r="B273" t="s">
         <v>60</v>
@@ -6163,7 +6169,7 @@
     </row>
     <row r="274" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A274" t="s">
-        <v>333</v>
+        <v>332</v>
       </c>
       <c r="B274" t="s">
         <v>60</v>
@@ -6171,47 +6177,47 @@
     </row>
     <row r="275" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A275" t="s">
-        <v>334</v>
+        <v>333</v>
       </c>
       <c r="B275" t="s">
-        <v>58</v>
+        <v>60</v>
       </c>
     </row>
     <row r="276" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A276" t="s">
-        <v>335</v>
+        <v>334</v>
       </c>
       <c r="B276" t="s">
-        <v>56</v>
+        <v>58</v>
       </c>
     </row>
     <row r="277" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A277" t="s">
-        <v>336</v>
+        <v>335</v>
       </c>
       <c r="B277" t="s">
-        <v>60</v>
+        <v>56</v>
       </c>
     </row>
     <row r="278" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A278" t="s">
-        <v>337</v>
+        <v>336</v>
       </c>
       <c r="B278" t="s">
-        <v>58</v>
+        <v>60</v>
       </c>
     </row>
     <row r="279" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A279" t="s">
-        <v>338</v>
+        <v>337</v>
       </c>
       <c r="B279" t="s">
-        <v>63</v>
+        <v>58</v>
       </c>
     </row>
     <row r="280" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A280" t="s">
-        <v>339</v>
+        <v>338</v>
       </c>
       <c r="B280" t="s">
         <v>63</v>
@@ -6219,7 +6225,7 @@
     </row>
     <row r="281" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A281" t="s">
-        <v>340</v>
+        <v>339</v>
       </c>
       <c r="B281" t="s">
         <v>63</v>
@@ -6227,7 +6233,7 @@
     </row>
     <row r="282" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A282" t="s">
-        <v>341</v>
+        <v>340</v>
       </c>
       <c r="B282" t="s">
         <v>63</v>
@@ -6235,15 +6241,15 @@
     </row>
     <row r="283" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A283" t="s">
-        <v>342</v>
+        <v>341</v>
       </c>
       <c r="B283" t="s">
-        <v>60</v>
+        <v>63</v>
       </c>
     </row>
     <row r="284" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A284" t="s">
-        <v>343</v>
+        <v>342</v>
       </c>
       <c r="B284" t="s">
         <v>60</v>
@@ -6251,47 +6257,47 @@
     </row>
     <row r="285" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A285" t="s">
-        <v>344</v>
+        <v>343</v>
       </c>
       <c r="B285" t="s">
-        <v>63</v>
+        <v>60</v>
       </c>
     </row>
     <row r="286" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A286" t="s">
-        <v>345</v>
+        <v>344</v>
       </c>
       <c r="B286" t="s">
-        <v>60</v>
+        <v>63</v>
       </c>
     </row>
     <row r="287" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A287" t="s">
-        <v>346</v>
+        <v>345</v>
       </c>
       <c r="B287" t="s">
-        <v>56</v>
+        <v>60</v>
       </c>
     </row>
     <row r="288" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A288" t="s">
-        <v>347</v>
+        <v>346</v>
       </c>
       <c r="B288" t="s">
-        <v>60</v>
+        <v>56</v>
       </c>
     </row>
     <row r="289" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A289" t="s">
-        <v>348</v>
+        <v>347</v>
       </c>
       <c r="B289" t="s">
-        <v>70</v>
+        <v>60</v>
       </c>
     </row>
     <row r="290" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A290" t="s">
-        <v>349</v>
+        <v>348</v>
       </c>
       <c r="B290" t="s">
         <v>70</v>
@@ -6299,23 +6305,23 @@
     </row>
     <row r="291" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A291" t="s">
-        <v>350</v>
+        <v>349</v>
       </c>
       <c r="B291" t="s">
-        <v>60</v>
+        <v>70</v>
       </c>
     </row>
     <row r="292" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A292" t="s">
-        <v>351</v>
+        <v>350</v>
       </c>
       <c r="B292" t="s">
-        <v>58</v>
+        <v>60</v>
       </c>
     </row>
     <row r="293" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A293" t="s">
-        <v>352</v>
+        <v>351</v>
       </c>
       <c r="B293" t="s">
         <v>58</v>
@@ -6323,7 +6329,7 @@
     </row>
     <row r="294" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A294" t="s">
-        <v>353</v>
+        <v>352</v>
       </c>
       <c r="B294" t="s">
         <v>58</v>
@@ -6331,15 +6337,15 @@
     </row>
     <row r="295" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A295" t="s">
-        <v>354</v>
+        <v>353</v>
       </c>
       <c r="B295" t="s">
-        <v>56</v>
+        <v>58</v>
       </c>
     </row>
     <row r="296" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A296" t="s">
-        <v>355</v>
+        <v>354</v>
       </c>
       <c r="B296" t="s">
         <v>56</v>
@@ -6347,39 +6353,39 @@
     </row>
     <row r="297" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A297" t="s">
-        <v>356</v>
+        <v>355</v>
       </c>
       <c r="B297" t="s">
-        <v>60</v>
+        <v>56</v>
       </c>
     </row>
     <row r="298" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A298" t="s">
-        <v>357</v>
+        <v>356</v>
       </c>
       <c r="B298" t="s">
-        <v>63</v>
+        <v>60</v>
       </c>
     </row>
     <row r="299" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A299" t="s">
-        <v>358</v>
+        <v>357</v>
       </c>
       <c r="B299" t="s">
-        <v>56</v>
+        <v>63</v>
       </c>
     </row>
     <row r="300" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A300" t="s">
-        <v>359</v>
+        <v>358</v>
       </c>
       <c r="B300" t="s">
-        <v>58</v>
+        <v>56</v>
       </c>
     </row>
     <row r="301" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A301" t="s">
-        <v>360</v>
+        <v>359</v>
       </c>
       <c r="B301" t="s">
         <v>58</v>
@@ -6387,15 +6393,15 @@
     </row>
     <row r="302" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A302" t="s">
-        <v>361</v>
+        <v>360</v>
       </c>
       <c r="B302" t="s">
-        <v>60</v>
+        <v>58</v>
       </c>
     </row>
     <row r="303" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A303" t="s">
-        <v>362</v>
+        <v>361</v>
       </c>
       <c r="B303" t="s">
         <v>60</v>
@@ -6403,31 +6409,31 @@
     </row>
     <row r="304" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A304" t="s">
-        <v>363</v>
+        <v>362</v>
       </c>
       <c r="B304" t="s">
-        <v>56</v>
+        <v>60</v>
       </c>
     </row>
     <row r="305" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A305" t="s">
-        <v>364</v>
+        <v>363</v>
       </c>
       <c r="B305" t="s">
-        <v>58</v>
+        <v>56</v>
       </c>
     </row>
     <row r="306" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A306" t="s">
-        <v>365</v>
+        <v>364</v>
       </c>
       <c r="B306" t="s">
-        <v>63</v>
+        <v>58</v>
       </c>
     </row>
     <row r="307" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A307" t="s">
-        <v>366</v>
+        <v>365</v>
       </c>
       <c r="B307" t="s">
         <v>63</v>
@@ -6435,15 +6441,15 @@
     </row>
     <row r="308" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A308" t="s">
-        <v>367</v>
+        <v>366</v>
       </c>
       <c r="B308" t="s">
-        <v>56</v>
+        <v>63</v>
       </c>
     </row>
     <row r="309" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A309" t="s">
-        <v>368</v>
+        <v>367</v>
       </c>
       <c r="B309" t="s">
         <v>56</v>
@@ -6451,39 +6457,39 @@
     </row>
     <row r="310" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A310" t="s">
-        <v>369</v>
+        <v>368</v>
       </c>
       <c r="B310" t="s">
-        <v>60</v>
+        <v>56</v>
       </c>
     </row>
     <row r="311" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A311" t="s">
-        <v>370</v>
+        <v>369</v>
       </c>
       <c r="B311" t="s">
-        <v>63</v>
+        <v>60</v>
       </c>
     </row>
     <row r="312" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A312" t="s">
-        <v>371</v>
+        <v>370</v>
       </c>
       <c r="B312" t="s">
-        <v>58</v>
+        <v>63</v>
       </c>
     </row>
     <row r="313" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A313" t="s">
-        <v>372</v>
+        <v>371</v>
       </c>
       <c r="B313" t="s">
-        <v>63</v>
+        <v>58</v>
       </c>
     </row>
     <row r="314" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A314" t="s">
-        <v>373</v>
+        <v>372</v>
       </c>
       <c r="B314" t="s">
         <v>63</v>
@@ -6491,47 +6497,47 @@
     </row>
     <row r="315" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A315" t="s">
-        <v>374</v>
+        <v>373</v>
       </c>
       <c r="B315" t="s">
-        <v>58</v>
+        <v>63</v>
       </c>
     </row>
     <row r="316" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A316" t="s">
-        <v>375</v>
+        <v>374</v>
       </c>
       <c r="B316" t="s">
-        <v>56</v>
+        <v>58</v>
       </c>
     </row>
     <row r="317" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A317" t="s">
-        <v>376</v>
+        <v>375</v>
       </c>
       <c r="B317" t="s">
-        <v>63</v>
+        <v>56</v>
       </c>
     </row>
     <row r="318" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A318" t="s">
-        <v>377</v>
+        <v>376</v>
       </c>
       <c r="B318" t="s">
-        <v>56</v>
+        <v>63</v>
       </c>
     </row>
     <row r="319" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A319" t="s">
-        <v>378</v>
+        <v>377</v>
       </c>
       <c r="B319" t="s">
-        <v>58</v>
+        <v>56</v>
       </c>
     </row>
     <row r="320" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A320" t="s">
-        <v>379</v>
+        <v>378</v>
       </c>
       <c r="B320" t="s">
         <v>58</v>
@@ -6539,15 +6545,15 @@
     </row>
     <row r="321" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A321" t="s">
-        <v>380</v>
+        <v>379</v>
       </c>
       <c r="B321" t="s">
-        <v>63</v>
+        <v>58</v>
       </c>
     </row>
     <row r="322" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A322" t="s">
-        <v>381</v>
+        <v>380</v>
       </c>
       <c r="B322" t="s">
         <v>63</v>
@@ -6555,39 +6561,39 @@
     </row>
     <row r="323" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A323" t="s">
-        <v>382</v>
+        <v>381</v>
       </c>
       <c r="B323" t="s">
-        <v>60</v>
+        <v>63</v>
       </c>
     </row>
     <row r="324" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A324" t="s">
-        <v>383</v>
+        <v>382</v>
       </c>
       <c r="B324" t="s">
-        <v>70</v>
+        <v>60</v>
       </c>
     </row>
     <row r="325" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A325" t="s">
-        <v>384</v>
+        <v>383</v>
       </c>
       <c r="B325" t="s">
-        <v>60</v>
+        <v>70</v>
       </c>
     </row>
     <row r="326" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A326" t="s">
-        <v>385</v>
+        <v>384</v>
       </c>
       <c r="B326" t="s">
-        <v>58</v>
+        <v>60</v>
       </c>
     </row>
     <row r="327" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A327" t="s">
-        <v>386</v>
+        <v>385</v>
       </c>
       <c r="B327" t="s">
         <v>58</v>
@@ -6595,39 +6601,39 @@
     </row>
     <row r="328" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A328" t="s">
-        <v>387</v>
+        <v>386</v>
       </c>
       <c r="B328" t="s">
-        <v>56</v>
+        <v>58</v>
       </c>
     </row>
     <row r="329" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A329" t="s">
-        <v>388</v>
+        <v>387</v>
       </c>
       <c r="B329" t="s">
-        <v>58</v>
+        <v>56</v>
       </c>
     </row>
     <row r="330" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A330" t="s">
-        <v>389</v>
+        <v>388</v>
       </c>
       <c r="B330" t="s">
-        <v>70</v>
+        <v>58</v>
       </c>
     </row>
     <row r="331" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A331" t="s">
-        <v>390</v>
+        <v>389</v>
       </c>
       <c r="B331" t="s">
-        <v>56</v>
+        <v>70</v>
       </c>
     </row>
     <row r="332" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A332" t="s">
-        <v>391</v>
+        <v>390</v>
       </c>
       <c r="B332" t="s">
         <v>56</v>
@@ -6635,31 +6641,31 @@
     </row>
     <row r="333" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A333" t="s">
-        <v>392</v>
+        <v>391</v>
       </c>
       <c r="B333" t="s">
-        <v>63</v>
+        <v>56</v>
       </c>
     </row>
     <row r="334" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A334" t="s">
-        <v>393</v>
+        <v>392</v>
       </c>
       <c r="B334" t="s">
-        <v>56</v>
+        <v>63</v>
       </c>
     </row>
     <row r="335" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A335" t="s">
-        <v>394</v>
+        <v>393</v>
       </c>
       <c r="B335" t="s">
-        <v>63</v>
+        <v>56</v>
       </c>
     </row>
     <row r="336" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A336" t="s">
-        <v>395</v>
+        <v>394</v>
       </c>
       <c r="B336" t="s">
         <v>63</v>
@@ -6667,15 +6673,15 @@
     </row>
     <row r="337" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A337" t="s">
-        <v>396</v>
+        <v>395</v>
       </c>
       <c r="B337" t="s">
-        <v>60</v>
+        <v>63</v>
       </c>
     </row>
     <row r="338" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A338" t="s">
-        <v>397</v>
+        <v>396</v>
       </c>
       <c r="B338" t="s">
         <v>60</v>
@@ -6683,31 +6689,31 @@
     </row>
     <row r="339" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A339" t="s">
-        <v>398</v>
+        <v>397</v>
       </c>
       <c r="B339" t="s">
-        <v>63</v>
+        <v>60</v>
       </c>
     </row>
     <row r="340" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A340" t="s">
-        <v>399</v>
+        <v>398</v>
       </c>
       <c r="B340" t="s">
-        <v>56</v>
+        <v>63</v>
       </c>
     </row>
     <row r="341" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A341" t="s">
-        <v>400</v>
+        <v>399</v>
       </c>
       <c r="B341" t="s">
-        <v>70</v>
+        <v>56</v>
       </c>
     </row>
     <row r="342" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A342" t="s">
-        <v>401</v>
+        <v>400</v>
       </c>
       <c r="B342" t="s">
         <v>70</v>
@@ -6715,47 +6721,47 @@
     </row>
     <row r="343" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A343" t="s">
-        <v>402</v>
+        <v>401</v>
       </c>
       <c r="B343" t="s">
-        <v>58</v>
+        <v>70</v>
       </c>
     </row>
     <row r="344" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A344" t="s">
-        <v>403</v>
+        <v>402</v>
       </c>
       <c r="B344" t="s">
-        <v>56</v>
+        <v>58</v>
       </c>
     </row>
     <row r="345" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A345" t="s">
-        <v>404</v>
+        <v>403</v>
       </c>
       <c r="B345" t="s">
-        <v>60</v>
+        <v>56</v>
       </c>
     </row>
     <row r="346" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A346" t="s">
-        <v>405</v>
+        <v>404</v>
       </c>
       <c r="B346" t="s">
-        <v>58</v>
+        <v>60</v>
       </c>
     </row>
     <row r="347" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A347" t="s">
-        <v>406</v>
+        <v>405</v>
       </c>
       <c r="B347" t="s">
-        <v>56</v>
+        <v>58</v>
       </c>
     </row>
     <row r="348" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A348" t="s">
-        <v>407</v>
+        <v>406</v>
       </c>
       <c r="B348" t="s">
         <v>56</v>
@@ -6763,63 +6769,63 @@
     </row>
     <row r="349" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A349" t="s">
-        <v>408</v>
+        <v>407</v>
       </c>
       <c r="B349" t="s">
-        <v>60</v>
+        <v>56</v>
       </c>
     </row>
     <row r="350" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A350" t="s">
-        <v>409</v>
+        <v>408</v>
       </c>
       <c r="B350" t="s">
-        <v>70</v>
+        <v>60</v>
       </c>
     </row>
     <row r="351" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A351" t="s">
-        <v>410</v>
+        <v>409</v>
       </c>
       <c r="B351" t="s">
-        <v>63</v>
+        <v>70</v>
       </c>
     </row>
     <row r="352" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A352" t="s">
-        <v>411</v>
+        <v>410</v>
       </c>
       <c r="B352" t="s">
-        <v>70</v>
+        <v>63</v>
       </c>
     </row>
     <row r="353" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A353" t="s">
-        <v>412</v>
+        <v>411</v>
       </c>
       <c r="B353" t="s">
-        <v>58</v>
+        <v>70</v>
       </c>
     </row>
     <row r="354" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A354" t="s">
-        <v>413</v>
+        <v>412</v>
       </c>
       <c r="B354" t="s">
-        <v>56</v>
+        <v>58</v>
       </c>
     </row>
     <row r="355" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A355" t="s">
-        <v>414</v>
+        <v>413</v>
       </c>
       <c r="B355" t="s">
-        <v>70</v>
+        <v>56</v>
       </c>
     </row>
     <row r="356" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A356" t="s">
-        <v>415</v>
+        <v>414</v>
       </c>
       <c r="B356" t="s">
         <v>70</v>
@@ -6827,31 +6833,31 @@
     </row>
     <row r="357" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A357" t="s">
-        <v>416</v>
+        <v>415</v>
       </c>
       <c r="B357" t="s">
-        <v>63</v>
+        <v>70</v>
       </c>
     </row>
     <row r="358" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A358" t="s">
-        <v>417</v>
+        <v>416</v>
       </c>
       <c r="B358" t="s">
-        <v>70</v>
+        <v>63</v>
       </c>
     </row>
     <row r="359" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A359" t="s">
-        <v>418</v>
+        <v>417</v>
       </c>
       <c r="B359" t="s">
-        <v>60</v>
+        <v>70</v>
       </c>
     </row>
     <row r="360" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A360" t="s">
-        <v>419</v>
+        <v>418</v>
       </c>
       <c r="B360" t="s">
         <v>60</v>
@@ -6859,7 +6865,7 @@
     </row>
     <row r="361" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A361" t="s">
-        <v>420</v>
+        <v>419</v>
       </c>
       <c r="B361" t="s">
         <v>60</v>
@@ -6867,23 +6873,23 @@
     </row>
     <row r="362" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A362" t="s">
-        <v>421</v>
+        <v>420</v>
       </c>
       <c r="B362" t="s">
-        <v>63</v>
+        <v>60</v>
       </c>
     </row>
     <row r="363" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A363" t="s">
-        <v>422</v>
+        <v>421</v>
       </c>
       <c r="B363" t="s">
-        <v>70</v>
+        <v>63</v>
       </c>
     </row>
     <row r="364" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A364" t="s">
-        <v>423</v>
+        <v>422</v>
       </c>
       <c r="B364" t="s">
         <v>70</v>
@@ -6891,23 +6897,23 @@
     </row>
     <row r="365" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A365" t="s">
-        <v>424</v>
+        <v>423</v>
       </c>
       <c r="B365" t="s">
-        <v>56</v>
+        <v>70</v>
       </c>
     </row>
     <row r="366" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A366" t="s">
-        <v>425</v>
+        <v>424</v>
       </c>
       <c r="B366" t="s">
-        <v>70</v>
+        <v>56</v>
       </c>
     </row>
     <row r="367" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A367" t="s">
-        <v>426</v>
+        <v>425</v>
       </c>
       <c r="B367" t="s">
         <v>70</v>
@@ -6915,55 +6921,55 @@
     </row>
     <row r="368" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A368" t="s">
-        <v>427</v>
+        <v>426</v>
       </c>
       <c r="B368" t="s">
-        <v>63</v>
+        <v>70</v>
       </c>
     </row>
     <row r="369" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A369" t="s">
-        <v>428</v>
+        <v>427</v>
       </c>
       <c r="B369" t="s">
-        <v>58</v>
+        <v>63</v>
       </c>
     </row>
     <row r="370" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A370" t="s">
-        <v>429</v>
+        <v>428</v>
       </c>
       <c r="B370" t="s">
-        <v>63</v>
+        <v>58</v>
       </c>
     </row>
     <row r="371" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A371" t="s">
-        <v>430</v>
+        <v>429</v>
       </c>
       <c r="B371" t="s">
-        <v>60</v>
+        <v>63</v>
       </c>
     </row>
     <row r="372" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A372" t="s">
-        <v>431</v>
+        <v>430</v>
       </c>
       <c r="B372" t="s">
-        <v>56</v>
+        <v>60</v>
       </c>
     </row>
     <row r="373" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A373" t="s">
-        <v>432</v>
+        <v>431</v>
       </c>
       <c r="B373" t="s">
-        <v>70</v>
+        <v>56</v>
       </c>
     </row>
     <row r="374" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A374" t="s">
-        <v>433</v>
+        <v>432</v>
       </c>
       <c r="B374" t="s">
         <v>70</v>
@@ -6971,71 +6977,71 @@
     </row>
     <row r="375" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A375" t="s">
-        <v>434</v>
+        <v>433</v>
       </c>
       <c r="B375" t="s">
-        <v>60</v>
+        <v>70</v>
       </c>
     </row>
     <row r="376" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A376" t="s">
-        <v>435</v>
+        <v>434</v>
       </c>
       <c r="B376" t="s">
-        <v>63</v>
+        <v>60</v>
       </c>
     </row>
     <row r="377" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A377" t="s">
-        <v>436</v>
+        <v>435</v>
       </c>
       <c r="B377" t="s">
-        <v>60</v>
+        <v>63</v>
       </c>
     </row>
     <row r="378" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A378" t="s">
-        <v>437</v>
+        <v>436</v>
       </c>
       <c r="B378" t="s">
-        <v>56</v>
+        <v>60</v>
       </c>
     </row>
     <row r="379" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A379" t="s">
-        <v>438</v>
+        <v>437</v>
       </c>
       <c r="B379" t="s">
-        <v>60</v>
+        <v>56</v>
       </c>
     </row>
     <row r="380" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A380" t="s">
-        <v>439</v>
+        <v>438</v>
       </c>
       <c r="B380" t="s">
-        <v>70</v>
+        <v>60</v>
       </c>
     </row>
     <row r="381" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A381" t="s">
-        <v>440</v>
+        <v>439</v>
       </c>
       <c r="B381" t="s">
-        <v>60</v>
+        <v>70</v>
       </c>
     </row>
     <row r="382" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A382" t="s">
-        <v>441</v>
+        <v>440</v>
       </c>
       <c r="B382" t="s">
-        <v>56</v>
+        <v>60</v>
       </c>
     </row>
     <row r="383" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A383" t="s">
-        <v>442</v>
+        <v>441</v>
       </c>
       <c r="B383" t="s">
         <v>56</v>
@@ -7043,7 +7049,7 @@
     </row>
     <row r="384" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A384" t="s">
-        <v>443</v>
+        <v>442</v>
       </c>
       <c r="B384" t="s">
         <v>56</v>
@@ -7051,39 +7057,39 @@
     </row>
     <row r="385" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A385" t="s">
-        <v>444</v>
+        <v>443</v>
       </c>
       <c r="B385" t="s">
-        <v>63</v>
+        <v>56</v>
       </c>
     </row>
     <row r="386" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A386" t="s">
-        <v>445</v>
+        <v>444</v>
       </c>
       <c r="B386" t="s">
-        <v>58</v>
+        <v>63</v>
       </c>
     </row>
     <row r="387" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A387" t="s">
-        <v>446</v>
+        <v>445</v>
       </c>
       <c r="B387" t="s">
-        <v>60</v>
+        <v>58</v>
       </c>
     </row>
     <row r="388" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A388" t="s">
-        <v>447</v>
+        <v>446</v>
       </c>
       <c r="B388" t="s">
-        <v>56</v>
+        <v>60</v>
       </c>
     </row>
     <row r="389" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A389" t="s">
-        <v>448</v>
+        <v>447</v>
       </c>
       <c r="B389" t="s">
         <v>56</v>
@@ -7091,31 +7097,31 @@
     </row>
     <row r="390" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A390" t="s">
-        <v>449</v>
+        <v>448</v>
       </c>
       <c r="B390" t="s">
-        <v>58</v>
+        <v>56</v>
       </c>
     </row>
     <row r="391" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A391" t="s">
-        <v>450</v>
+        <v>449</v>
       </c>
       <c r="B391" t="s">
-        <v>63</v>
+        <v>58</v>
       </c>
     </row>
     <row r="392" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A392" t="s">
-        <v>451</v>
+        <v>450</v>
       </c>
       <c r="B392" t="s">
-        <v>56</v>
+        <v>63</v>
       </c>
     </row>
     <row r="393" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A393" t="s">
-        <v>452</v>
+        <v>451</v>
       </c>
       <c r="B393" t="s">
         <v>56</v>
@@ -7123,23 +7129,23 @@
     </row>
     <row r="394" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A394" t="s">
-        <v>453</v>
+        <v>452</v>
       </c>
       <c r="B394" t="s">
-        <v>60</v>
+        <v>56</v>
       </c>
     </row>
     <row r="395" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A395" t="s">
-        <v>454</v>
+        <v>453</v>
       </c>
       <c r="B395" t="s">
-        <v>58</v>
+        <v>60</v>
       </c>
     </row>
     <row r="396" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A396" t="s">
-        <v>455</v>
+        <v>454</v>
       </c>
       <c r="B396" t="s">
         <v>58</v>
@@ -7147,31 +7153,31 @@
     </row>
     <row r="397" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A397" t="s">
-        <v>456</v>
+        <v>455</v>
       </c>
       <c r="B397" t="s">
-        <v>56</v>
+        <v>58</v>
       </c>
     </row>
     <row r="398" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A398" t="s">
-        <v>457</v>
+        <v>456</v>
       </c>
       <c r="B398" t="s">
-        <v>58</v>
+        <v>56</v>
       </c>
     </row>
     <row r="399" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A399" t="s">
-        <v>458</v>
+        <v>457</v>
       </c>
       <c r="B399" t="s">
-        <v>63</v>
+        <v>58</v>
       </c>
     </row>
     <row r="400" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A400" t="s">
-        <v>459</v>
+        <v>458</v>
       </c>
       <c r="B400" t="s">
         <v>63</v>
@@ -7179,15 +7185,15 @@
     </row>
     <row r="401" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A401" t="s">
-        <v>460</v>
+        <v>459</v>
       </c>
       <c r="B401" t="s">
-        <v>58</v>
+        <v>63</v>
       </c>
     </row>
     <row r="402" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A402" t="s">
-        <v>461</v>
+        <v>460</v>
       </c>
       <c r="B402" t="s">
         <v>58</v>
@@ -7195,15 +7201,15 @@
     </row>
     <row r="403" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A403" t="s">
-        <v>462</v>
+        <v>461</v>
       </c>
       <c r="B403" t="s">
-        <v>60</v>
+        <v>58</v>
       </c>
     </row>
     <row r="404" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A404" t="s">
-        <v>463</v>
+        <v>462</v>
       </c>
       <c r="B404" t="s">
         <v>60</v>
@@ -7211,95 +7217,95 @@
     </row>
     <row r="405" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A405" t="s">
-        <v>464</v>
+        <v>463</v>
       </c>
       <c r="B405" t="s">
-        <v>63</v>
+        <v>60</v>
       </c>
     </row>
     <row r="406" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A406" t="s">
-        <v>465</v>
+        <v>464</v>
       </c>
       <c r="B406" t="s">
-        <v>58</v>
+        <v>63</v>
       </c>
     </row>
     <row r="407" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A407" t="s">
-        <v>466</v>
+        <v>465</v>
       </c>
       <c r="B407" t="s">
-        <v>56</v>
+        <v>58</v>
       </c>
     </row>
     <row r="408" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A408" t="s">
-        <v>467</v>
+        <v>466</v>
       </c>
       <c r="B408" t="s">
-        <v>70</v>
+        <v>56</v>
       </c>
     </row>
     <row r="409" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A409" t="s">
-        <v>468</v>
+        <v>467</v>
       </c>
       <c r="B409" t="s">
-        <v>58</v>
+        <v>70</v>
       </c>
     </row>
     <row r="410" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A410" t="s">
-        <v>469</v>
+        <v>468</v>
       </c>
       <c r="B410" t="s">
-        <v>63</v>
+        <v>58</v>
       </c>
     </row>
     <row r="411" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A411" t="s">
-        <v>470</v>
+        <v>469</v>
       </c>
       <c r="B411" t="s">
-        <v>56</v>
+        <v>63</v>
       </c>
     </row>
     <row r="412" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A412" t="s">
-        <v>471</v>
+        <v>470</v>
       </c>
       <c r="B412" t="s">
-        <v>70</v>
+        <v>56</v>
       </c>
     </row>
     <row r="413" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A413" t="s">
-        <v>472</v>
+        <v>471</v>
       </c>
       <c r="B413" t="s">
-        <v>63</v>
+        <v>70</v>
       </c>
     </row>
     <row r="414" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A414" t="s">
-        <v>473</v>
+        <v>472</v>
       </c>
       <c r="B414" t="s">
-        <v>70</v>
+        <v>63</v>
       </c>
     </row>
     <row r="415" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A415" t="s">
-        <v>474</v>
+        <v>473</v>
       </c>
       <c r="B415" t="s">
-        <v>60</v>
+        <v>70</v>
       </c>
     </row>
     <row r="416" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A416" t="s">
-        <v>475</v>
+        <v>474</v>
       </c>
       <c r="B416" t="s">
         <v>60</v>
@@ -7307,23 +7313,23 @@
     </row>
     <row r="417" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A417" t="s">
-        <v>476</v>
+        <v>475</v>
       </c>
       <c r="B417" t="s">
-        <v>63</v>
+        <v>60</v>
       </c>
     </row>
     <row r="418" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A418" t="s">
-        <v>477</v>
+        <v>476</v>
       </c>
       <c r="B418" t="s">
-        <v>60</v>
+        <v>63</v>
       </c>
     </row>
     <row r="419" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A419" t="s">
-        <v>478</v>
+        <v>477</v>
       </c>
       <c r="B419" t="s">
         <v>60</v>
@@ -7331,31 +7337,31 @@
     </row>
     <row r="420" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A420" t="s">
-        <v>479</v>
+        <v>478</v>
       </c>
       <c r="B420" t="s">
-        <v>70</v>
+        <v>60</v>
       </c>
     </row>
     <row r="421" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A421" t="s">
-        <v>480</v>
+        <v>479</v>
       </c>
       <c r="B421" t="s">
-        <v>56</v>
+        <v>70</v>
       </c>
     </row>
     <row r="422" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A422" t="s">
-        <v>481</v>
+        <v>480</v>
       </c>
       <c r="B422" t="s">
-        <v>58</v>
+        <v>56</v>
       </c>
     </row>
     <row r="423" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A423" t="s">
-        <v>482</v>
+        <v>481</v>
       </c>
       <c r="B423" t="s">
         <v>58</v>
@@ -7363,7 +7369,7 @@
     </row>
     <row r="424" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A424" t="s">
-        <v>483</v>
+        <v>482</v>
       </c>
       <c r="B424" t="s">
         <v>58</v>
@@ -7371,23 +7377,23 @@
     </row>
     <row r="425" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A425" t="s">
-        <v>484</v>
+        <v>483</v>
       </c>
       <c r="B425" t="s">
-        <v>60</v>
+        <v>58</v>
       </c>
     </row>
     <row r="426" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A426" t="s">
-        <v>485</v>
+        <v>484</v>
       </c>
       <c r="B426" t="s">
-        <v>63</v>
+        <v>60</v>
       </c>
     </row>
     <row r="427" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A427" t="s">
-        <v>486</v>
+        <v>485</v>
       </c>
       <c r="B427" t="s">
         <v>63</v>
@@ -7395,39 +7401,39 @@
     </row>
     <row r="428" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A428" t="s">
-        <v>487</v>
+        <v>486</v>
       </c>
       <c r="B428" t="s">
-        <v>60</v>
+        <v>63</v>
       </c>
     </row>
     <row r="429" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A429" t="s">
-        <v>488</v>
+        <v>487</v>
       </c>
       <c r="B429" t="s">
-        <v>56</v>
+        <v>60</v>
       </c>
     </row>
     <row r="430" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A430" t="s">
-        <v>489</v>
+        <v>488</v>
       </c>
       <c r="B430" t="s">
-        <v>70</v>
+        <v>56</v>
       </c>
     </row>
     <row r="431" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A431" t="s">
-        <v>490</v>
+        <v>489</v>
       </c>
       <c r="B431" t="s">
-        <v>63</v>
+        <v>70</v>
       </c>
     </row>
     <row r="432" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A432" t="s">
-        <v>491</v>
+        <v>490</v>
       </c>
       <c r="B432" t="s">
         <v>63</v>
@@ -7435,7 +7441,7 @@
     </row>
     <row r="433" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A433" t="s">
-        <v>492</v>
+        <v>491</v>
       </c>
       <c r="B433" t="s">
         <v>63</v>
@@ -7443,23 +7449,23 @@
     </row>
     <row r="434" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A434" t="s">
-        <v>493</v>
+        <v>492</v>
       </c>
       <c r="B434" t="s">
-        <v>58</v>
+        <v>63</v>
       </c>
     </row>
     <row r="435" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A435" t="s">
-        <v>494</v>
+        <v>493</v>
       </c>
       <c r="B435" t="s">
-        <v>63</v>
+        <v>58</v>
       </c>
     </row>
     <row r="436" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A436" t="s">
-        <v>495</v>
+        <v>494</v>
       </c>
       <c r="B436" t="s">
         <v>63</v>
@@ -7467,87 +7473,87 @@
     </row>
     <row r="437" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A437" t="s">
-        <v>496</v>
+        <v>495</v>
       </c>
       <c r="B437" t="s">
-        <v>60</v>
+        <v>63</v>
       </c>
     </row>
     <row r="438" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A438" t="s">
-        <v>497</v>
+        <v>496</v>
       </c>
       <c r="B438" t="s">
-        <v>58</v>
+        <v>60</v>
       </c>
     </row>
     <row r="439" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A439" t="s">
-        <v>498</v>
+        <v>497</v>
       </c>
       <c r="B439" t="s">
-        <v>60</v>
+        <v>58</v>
       </c>
     </row>
     <row r="440" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A440" t="s">
-        <v>499</v>
+        <v>498</v>
       </c>
       <c r="B440" t="s">
-        <v>58</v>
+        <v>60</v>
       </c>
     </row>
     <row r="441" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A441" t="s">
-        <v>500</v>
+        <v>499</v>
       </c>
       <c r="B441" t="s">
-        <v>63</v>
+        <v>58</v>
       </c>
     </row>
     <row r="442" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A442" t="s">
-        <v>501</v>
+        <v>500</v>
       </c>
       <c r="B442" t="s">
-        <v>70</v>
+        <v>63</v>
       </c>
     </row>
     <row r="443" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A443" t="s">
-        <v>502</v>
+        <v>501</v>
       </c>
       <c r="B443" t="s">
-        <v>63</v>
+        <v>70</v>
       </c>
     </row>
     <row r="444" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A444" t="s">
-        <v>503</v>
+        <v>502</v>
       </c>
       <c r="B444" t="s">
-        <v>58</v>
+        <v>63</v>
       </c>
     </row>
     <row r="445" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A445" t="s">
-        <v>504</v>
+        <v>503</v>
       </c>
       <c r="B445" t="s">
-        <v>60</v>
+        <v>58</v>
       </c>
     </row>
     <row r="446" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A446" t="s">
-        <v>505</v>
+        <v>504</v>
       </c>
       <c r="B446" t="s">
-        <v>70</v>
+        <v>60</v>
       </c>
     </row>
     <row r="447" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A447" t="s">
-        <v>506</v>
+        <v>505</v>
       </c>
       <c r="B447" t="s">
         <v>70</v>
@@ -7555,31 +7561,31 @@
     </row>
     <row r="448" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A448" t="s">
-        <v>507</v>
+        <v>506</v>
       </c>
       <c r="B448" t="s">
-        <v>60</v>
+        <v>70</v>
       </c>
     </row>
     <row r="449" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A449" t="s">
-        <v>508</v>
+        <v>507</v>
       </c>
       <c r="B449" t="s">
-        <v>56</v>
+        <v>60</v>
       </c>
     </row>
     <row r="450" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A450" t="s">
-        <v>509</v>
+        <v>508</v>
       </c>
       <c r="B450" t="s">
-        <v>63</v>
+        <v>56</v>
       </c>
     </row>
     <row r="451" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A451" t="s">
-        <v>510</v>
+        <v>509</v>
       </c>
       <c r="B451" t="s">
         <v>63</v>
@@ -7587,95 +7593,95 @@
     </row>
     <row r="452" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A452" t="s">
-        <v>511</v>
+        <v>510</v>
       </c>
       <c r="B452" t="s">
-        <v>60</v>
+        <v>63</v>
       </c>
     </row>
     <row r="453" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A453" t="s">
-        <v>512</v>
+        <v>511</v>
       </c>
       <c r="B453" t="s">
-        <v>63</v>
+        <v>60</v>
       </c>
     </row>
     <row r="454" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A454" t="s">
-        <v>513</v>
+        <v>512</v>
       </c>
       <c r="B454" t="s">
-        <v>58</v>
+        <v>63</v>
       </c>
     </row>
     <row r="455" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A455" t="s">
-        <v>514</v>
+        <v>513</v>
       </c>
       <c r="B455" t="s">
-        <v>56</v>
+        <v>58</v>
       </c>
     </row>
     <row r="456" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A456" t="s">
-        <v>515</v>
+        <v>514</v>
       </c>
       <c r="B456" t="s">
-        <v>60</v>
+        <v>56</v>
       </c>
     </row>
     <row r="457" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A457" t="s">
-        <v>516</v>
+        <v>515</v>
       </c>
       <c r="B457" t="s">
-        <v>58</v>
+        <v>60</v>
       </c>
     </row>
     <row r="458" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A458" t="s">
-        <v>517</v>
+        <v>516</v>
       </c>
       <c r="B458" t="s">
-        <v>63</v>
+        <v>58</v>
       </c>
     </row>
     <row r="459" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A459" t="s">
-        <v>518</v>
+        <v>517</v>
       </c>
       <c r="B459" t="s">
-        <v>70</v>
+        <v>63</v>
       </c>
     </row>
     <row r="460" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A460" t="s">
-        <v>519</v>
+        <v>518</v>
       </c>
       <c r="B460" t="s">
-        <v>56</v>
+        <v>70</v>
       </c>
     </row>
     <row r="461" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A461" t="s">
-        <v>520</v>
+        <v>519</v>
       </c>
       <c r="B461" t="s">
-        <v>58</v>
+        <v>56</v>
       </c>
     </row>
     <row r="462" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A462" t="s">
-        <v>521</v>
+        <v>520</v>
       </c>
       <c r="B462" t="s">
-        <v>63</v>
+        <v>58</v>
       </c>
     </row>
     <row r="463" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A463" t="s">
-        <v>522</v>
+        <v>521</v>
       </c>
       <c r="B463" t="s">
         <v>63</v>
@@ -7683,39 +7689,39 @@
     </row>
     <row r="464" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A464" t="s">
-        <v>523</v>
+        <v>522</v>
       </c>
       <c r="B464" t="s">
-        <v>60</v>
+        <v>63</v>
       </c>
     </row>
     <row r="465" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A465" t="s">
-        <v>524</v>
+        <v>523</v>
       </c>
       <c r="B465" t="s">
-        <v>63</v>
+        <v>60</v>
       </c>
     </row>
     <row r="466" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A466" t="s">
-        <v>525</v>
+        <v>524</v>
       </c>
       <c r="B466" t="s">
-        <v>70</v>
+        <v>63</v>
       </c>
     </row>
     <row r="467" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A467" t="s">
-        <v>526</v>
+        <v>525</v>
       </c>
       <c r="B467" t="s">
-        <v>60</v>
+        <v>70</v>
       </c>
     </row>
     <row r="468" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A468" t="s">
-        <v>527</v>
+        <v>526</v>
       </c>
       <c r="B468" t="s">
         <v>60</v>
@@ -7723,15 +7729,15 @@
     </row>
     <row r="469" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A469" t="s">
-        <v>528</v>
+        <v>527</v>
       </c>
       <c r="B469" t="s">
-        <v>58</v>
+        <v>60</v>
       </c>
     </row>
     <row r="470" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A470" t="s">
-        <v>529</v>
+        <v>528</v>
       </c>
       <c r="B470" t="s">
         <v>58</v>
@@ -7739,7 +7745,7 @@
     </row>
     <row r="471" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A471" t="s">
-        <v>530</v>
+        <v>529</v>
       </c>
       <c r="B471" t="s">
         <v>58</v>
@@ -7747,39 +7753,39 @@
     </row>
     <row r="472" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A472" t="s">
-        <v>531</v>
+        <v>530</v>
       </c>
       <c r="B472" t="s">
-        <v>63</v>
+        <v>58</v>
       </c>
     </row>
     <row r="473" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A473" t="s">
-        <v>532</v>
+        <v>531</v>
       </c>
       <c r="B473" t="s">
-        <v>60</v>
+        <v>63</v>
       </c>
     </row>
     <row r="474" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A474" t="s">
-        <v>533</v>
+        <v>532</v>
       </c>
       <c r="B474" t="s">
-        <v>58</v>
+        <v>60</v>
       </c>
     </row>
     <row r="475" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A475" t="s">
-        <v>534</v>
+        <v>533</v>
       </c>
       <c r="B475" t="s">
-        <v>70</v>
+        <v>58</v>
       </c>
     </row>
     <row r="476" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A476" t="s">
-        <v>535</v>
+        <v>534</v>
       </c>
       <c r="B476" t="s">
         <v>70</v>
@@ -7787,47 +7793,47 @@
     </row>
     <row r="477" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A477" t="s">
-        <v>536</v>
+        <v>535</v>
       </c>
       <c r="B477" t="s">
-        <v>60</v>
+        <v>70</v>
       </c>
     </row>
     <row r="478" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A478" t="s">
-        <v>537</v>
+        <v>536</v>
       </c>
       <c r="B478" t="s">
-        <v>58</v>
+        <v>60</v>
       </c>
     </row>
     <row r="479" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A479" t="s">
-        <v>538</v>
+        <v>537</v>
       </c>
       <c r="B479" t="s">
-        <v>60</v>
+        <v>58</v>
       </c>
     </row>
     <row r="480" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A480" t="s">
-        <v>539</v>
+        <v>538</v>
       </c>
       <c r="B480" t="s">
-        <v>58</v>
+        <v>60</v>
       </c>
     </row>
     <row r="481" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A481" t="s">
-        <v>540</v>
+        <v>539</v>
       </c>
       <c r="B481" t="s">
-        <v>63</v>
+        <v>58</v>
       </c>
     </row>
     <row r="482" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A482" t="s">
-        <v>541</v>
+        <v>540</v>
       </c>
       <c r="B482" t="s">
         <v>63</v>
@@ -7835,7 +7841,7 @@
     </row>
     <row r="483" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A483" t="s">
-        <v>542</v>
+        <v>541</v>
       </c>
       <c r="B483" t="s">
         <v>63</v>
@@ -7843,7 +7849,7 @@
     </row>
     <row r="484" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A484" t="s">
-        <v>543</v>
+        <v>542</v>
       </c>
       <c r="B484" t="s">
         <v>63</v>
@@ -7851,39 +7857,39 @@
     </row>
     <row r="485" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A485" t="s">
-        <v>544</v>
+        <v>543</v>
       </c>
       <c r="B485" t="s">
-        <v>58</v>
+        <v>63</v>
       </c>
     </row>
     <row r="486" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A486" t="s">
-        <v>545</v>
+        <v>544</v>
       </c>
       <c r="B486" t="s">
-        <v>63</v>
+        <v>58</v>
       </c>
     </row>
     <row r="487" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A487" t="s">
-        <v>546</v>
+        <v>545</v>
       </c>
       <c r="B487" t="s">
-        <v>58</v>
+        <v>63</v>
       </c>
     </row>
     <row r="488" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A488" t="s">
-        <v>547</v>
+        <v>546</v>
       </c>
       <c r="B488" t="s">
-        <v>70</v>
+        <v>58</v>
       </c>
     </row>
     <row r="489" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A489" t="s">
-        <v>548</v>
+        <v>547</v>
       </c>
       <c r="B489" t="s">
         <v>70</v>
@@ -7891,79 +7897,79 @@
     </row>
     <row r="490" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A490" t="s">
-        <v>549</v>
+        <v>548</v>
       </c>
       <c r="B490" t="s">
-        <v>63</v>
+        <v>70</v>
       </c>
     </row>
     <row r="491" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A491" t="s">
-        <v>550</v>
+        <v>549</v>
       </c>
       <c r="B491" t="s">
-        <v>70</v>
+        <v>63</v>
       </c>
     </row>
     <row r="492" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A492" t="s">
-        <v>551</v>
+        <v>550</v>
       </c>
       <c r="B492" t="s">
-        <v>60</v>
+        <v>70</v>
       </c>
     </row>
     <row r="493" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A493" t="s">
-        <v>552</v>
+        <v>551</v>
       </c>
       <c r="B493" t="s">
-        <v>63</v>
+        <v>60</v>
       </c>
     </row>
     <row r="494" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A494" t="s">
-        <v>553</v>
+        <v>552</v>
       </c>
       <c r="B494" t="s">
-        <v>70</v>
+        <v>63</v>
       </c>
     </row>
     <row r="495" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A495" t="s">
-        <v>554</v>
+        <v>553</v>
       </c>
       <c r="B495" t="s">
-        <v>56</v>
+        <v>70</v>
       </c>
     </row>
     <row r="496" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A496" t="s">
-        <v>555</v>
+        <v>554</v>
       </c>
       <c r="B496" t="s">
-        <v>60</v>
+        <v>56</v>
       </c>
     </row>
     <row r="497" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A497" t="s">
-        <v>556</v>
+        <v>555</v>
       </c>
       <c r="B497" t="s">
-        <v>63</v>
+        <v>60</v>
       </c>
     </row>
     <row r="498" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A498" t="s">
-        <v>557</v>
+        <v>556</v>
       </c>
       <c r="B498" t="s">
-        <v>60</v>
+        <v>63</v>
       </c>
     </row>
     <row r="499" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A499" t="s">
-        <v>558</v>
+        <v>557</v>
       </c>
       <c r="B499" t="s">
         <v>60</v>
@@ -7971,15 +7977,15 @@
     </row>
     <row r="500" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A500" t="s">
-        <v>559</v>
+        <v>558</v>
       </c>
       <c r="B500" t="s">
-        <v>70</v>
+        <v>60</v>
       </c>
     </row>
     <row r="501" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A501" t="s">
-        <v>560</v>
+        <v>559</v>
       </c>
       <c r="B501" t="s">
         <v>70</v>
@@ -7987,7 +7993,7 @@
     </row>
     <row r="502" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A502" t="s">
-        <v>561</v>
+        <v>560</v>
       </c>
       <c r="B502" t="s">
         <v>70</v>
@@ -7995,23 +8001,23 @@
     </row>
     <row r="503" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A503" t="s">
-        <v>562</v>
+        <v>561</v>
       </c>
       <c r="B503" t="s">
-        <v>58</v>
+        <v>70</v>
       </c>
     </row>
     <row r="504" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A504" t="s">
-        <v>563</v>
+        <v>562</v>
       </c>
       <c r="B504" t="s">
-        <v>63</v>
+        <v>58</v>
       </c>
     </row>
     <row r="505" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A505" t="s">
-        <v>564</v>
+        <v>563</v>
       </c>
       <c r="B505" t="s">
         <v>63</v>
@@ -8019,15 +8025,15 @@
     </row>
     <row r="506" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A506" t="s">
-        <v>565</v>
+        <v>564</v>
       </c>
       <c r="B506" t="s">
-        <v>56</v>
+        <v>63</v>
       </c>
     </row>
     <row r="507" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A507" t="s">
-        <v>566</v>
+        <v>565</v>
       </c>
       <c r="B507" t="s">
         <v>56</v>
@@ -8035,7 +8041,7 @@
     </row>
     <row r="508" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A508" t="s">
-        <v>567</v>
+        <v>566</v>
       </c>
       <c r="B508" t="s">
         <v>56</v>
@@ -8043,23 +8049,23 @@
     </row>
     <row r="509" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A509" t="s">
-        <v>568</v>
+        <v>567</v>
       </c>
       <c r="B509" t="s">
-        <v>58</v>
+        <v>56</v>
       </c>
     </row>
     <row r="510" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A510" t="s">
-        <v>569</v>
+        <v>568</v>
       </c>
       <c r="B510" t="s">
-        <v>60</v>
+        <v>58</v>
       </c>
     </row>
     <row r="511" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A511" t="s">
-        <v>570</v>
+        <v>569</v>
       </c>
       <c r="B511" t="s">
         <v>60</v>
@@ -8067,15 +8073,15 @@
     </row>
     <row r="512" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A512" t="s">
-        <v>571</v>
+        <v>570</v>
       </c>
       <c r="B512" t="s">
-        <v>58</v>
+        <v>60</v>
       </c>
     </row>
     <row r="513" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A513" t="s">
-        <v>572</v>
+        <v>571</v>
       </c>
       <c r="B513" t="s">
         <v>58</v>
@@ -8083,7 +8089,7 @@
     </row>
     <row r="514" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A514" t="s">
-        <v>573</v>
+        <v>572</v>
       </c>
       <c r="B514" t="s">
         <v>58</v>
@@ -8091,23 +8097,23 @@
     </row>
     <row r="515" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A515" t="s">
-        <v>574</v>
+        <v>573</v>
       </c>
       <c r="B515" t="s">
-        <v>60</v>
+        <v>58</v>
       </c>
     </row>
     <row r="516" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A516" t="s">
-        <v>575</v>
+        <v>574</v>
       </c>
       <c r="B516" t="s">
-        <v>70</v>
+        <v>60</v>
       </c>
     </row>
     <row r="517" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A517" t="s">
-        <v>576</v>
+        <v>575</v>
       </c>
       <c r="B517" t="s">
         <v>70</v>
@@ -8115,15 +8121,15 @@
     </row>
     <row r="518" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A518" t="s">
-        <v>577</v>
+        <v>576</v>
       </c>
       <c r="B518" t="s">
-        <v>58</v>
+        <v>70</v>
       </c>
     </row>
     <row r="519" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A519" t="s">
-        <v>578</v>
+        <v>577</v>
       </c>
       <c r="B519" t="s">
         <v>58</v>
@@ -8131,55 +8137,55 @@
     </row>
     <row r="520" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A520" t="s">
-        <v>579</v>
+        <v>578</v>
       </c>
       <c r="B520" t="s">
-        <v>56</v>
+        <v>58</v>
       </c>
     </row>
     <row r="521" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A521" t="s">
-        <v>580</v>
+        <v>579</v>
       </c>
       <c r="B521" t="s">
-        <v>60</v>
+        <v>56</v>
       </c>
     </row>
     <row r="522" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A522" t="s">
-        <v>581</v>
+        <v>580</v>
       </c>
       <c r="B522" t="s">
-        <v>56</v>
+        <v>60</v>
       </c>
     </row>
     <row r="523" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A523" t="s">
-        <v>582</v>
+        <v>581</v>
       </c>
       <c r="B523" t="s">
-        <v>63</v>
+        <v>56</v>
       </c>
     </row>
     <row r="524" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A524" t="s">
-        <v>583</v>
+        <v>582</v>
       </c>
       <c r="B524" t="s">
-        <v>56</v>
+        <v>63</v>
       </c>
     </row>
     <row r="525" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A525" t="s">
-        <v>584</v>
+        <v>583</v>
       </c>
       <c r="B525" t="s">
-        <v>60</v>
+        <v>56</v>
       </c>
     </row>
     <row r="526" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A526" t="s">
-        <v>585</v>
+        <v>584</v>
       </c>
       <c r="B526" t="s">
         <v>60</v>
@@ -8187,55 +8193,55 @@
     </row>
     <row r="527" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A527" t="s">
-        <v>586</v>
+        <v>585</v>
       </c>
       <c r="B527" t="s">
-        <v>58</v>
+        <v>60</v>
       </c>
     </row>
     <row r="528" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A528" t="s">
-        <v>587</v>
+        <v>586</v>
       </c>
       <c r="B528" t="s">
-        <v>70</v>
+        <v>58</v>
       </c>
     </row>
     <row r="529" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A529" t="s">
-        <v>588</v>
+        <v>587</v>
       </c>
       <c r="B529" t="s">
-        <v>58</v>
+        <v>70</v>
       </c>
     </row>
     <row r="530" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A530" t="s">
-        <v>589</v>
+        <v>588</v>
       </c>
       <c r="B530" t="s">
-        <v>56</v>
+        <v>58</v>
       </c>
     </row>
     <row r="531" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A531" t="s">
-        <v>590</v>
+        <v>589</v>
       </c>
       <c r="B531" t="s">
-        <v>63</v>
+        <v>56</v>
       </c>
     </row>
     <row r="532" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A532" t="s">
-        <v>591</v>
+        <v>590</v>
       </c>
       <c r="B532" t="s">
-        <v>56</v>
+        <v>63</v>
       </c>
     </row>
     <row r="533" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A533" t="s">
-        <v>592</v>
+        <v>591</v>
       </c>
       <c r="B533" t="s">
         <v>56</v>
@@ -8243,7 +8249,7 @@
     </row>
     <row r="534" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A534" t="s">
-        <v>593</v>
+        <v>592</v>
       </c>
       <c r="B534" t="s">
         <v>56</v>
@@ -8251,119 +8257,119 @@
     </row>
     <row r="535" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A535" t="s">
-        <v>594</v>
+        <v>593</v>
       </c>
       <c r="B535" t="s">
-        <v>63</v>
+        <v>56</v>
       </c>
     </row>
     <row r="536" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A536" t="s">
-        <v>595</v>
+        <v>594</v>
       </c>
       <c r="B536" t="s">
-        <v>60</v>
+        <v>63</v>
       </c>
     </row>
     <row r="537" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A537" t="s">
-        <v>596</v>
+        <v>595</v>
       </c>
       <c r="B537" t="s">
-        <v>63</v>
+        <v>60</v>
       </c>
     </row>
     <row r="538" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A538" t="s">
-        <v>597</v>
+        <v>596</v>
       </c>
       <c r="B538" t="s">
-        <v>60</v>
+        <v>63</v>
       </c>
     </row>
     <row r="539" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A539" t="s">
-        <v>598</v>
+        <v>597</v>
       </c>
       <c r="B539" t="s">
-        <v>70</v>
+        <v>60</v>
       </c>
     </row>
     <row r="540" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A540" t="s">
-        <v>599</v>
+        <v>598</v>
       </c>
       <c r="B540" t="s">
-        <v>60</v>
+        <v>70</v>
       </c>
     </row>
     <row r="541" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A541" t="s">
-        <v>600</v>
+        <v>599</v>
       </c>
       <c r="B541" t="s">
-        <v>70</v>
+        <v>60</v>
       </c>
     </row>
     <row r="542" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A542" t="s">
-        <v>601</v>
+        <v>600</v>
       </c>
       <c r="B542" t="s">
-        <v>58</v>
+        <v>70</v>
       </c>
     </row>
     <row r="543" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A543" t="s">
-        <v>602</v>
+        <v>601</v>
       </c>
       <c r="B543" t="s">
-        <v>63</v>
+        <v>58</v>
       </c>
     </row>
     <row r="544" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A544" t="s">
-        <v>603</v>
+        <v>602</v>
       </c>
       <c r="B544" t="s">
-        <v>70</v>
+        <v>63</v>
       </c>
     </row>
     <row r="545" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A545" t="s">
-        <v>604</v>
+        <v>603</v>
       </c>
       <c r="B545" t="s">
-        <v>63</v>
+        <v>70</v>
       </c>
     </row>
     <row r="546" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A546" t="s">
-        <v>605</v>
+        <v>604</v>
       </c>
       <c r="B546" t="s">
-        <v>60</v>
+        <v>63</v>
       </c>
     </row>
     <row r="547" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A547" t="s">
-        <v>606</v>
+        <v>605</v>
       </c>
       <c r="B547" t="s">
-        <v>58</v>
+        <v>60</v>
       </c>
     </row>
     <row r="548" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A548" t="s">
-        <v>607</v>
+        <v>606</v>
       </c>
       <c r="B548" t="s">
-        <v>56</v>
+        <v>58</v>
       </c>
     </row>
     <row r="549" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A549" t="s">
-        <v>608</v>
+        <v>607</v>
       </c>
       <c r="B549" t="s">
         <v>56</v>
@@ -8371,15 +8377,15 @@
     </row>
     <row r="550" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A550" t="s">
-        <v>609</v>
+        <v>608</v>
       </c>
       <c r="B550" t="s">
-        <v>60</v>
+        <v>56</v>
       </c>
     </row>
     <row r="551" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A551" t="s">
-        <v>610</v>
+        <v>609</v>
       </c>
       <c r="B551" t="s">
         <v>60</v>
@@ -8387,15 +8393,15 @@
     </row>
     <row r="552" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A552" t="s">
-        <v>611</v>
+        <v>610</v>
       </c>
       <c r="B552" t="s">
-        <v>63</v>
+        <v>60</v>
       </c>
     </row>
     <row r="553" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A553" t="s">
-        <v>612</v>
+        <v>611</v>
       </c>
       <c r="B553" t="s">
         <v>63</v>
@@ -8403,47 +8409,47 @@
     </row>
     <row r="554" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A554" t="s">
-        <v>613</v>
+        <v>612</v>
       </c>
       <c r="B554" t="s">
-        <v>60</v>
+        <v>63</v>
       </c>
     </row>
     <row r="555" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A555" t="s">
-        <v>614</v>
+        <v>613</v>
       </c>
       <c r="B555" t="s">
-        <v>63</v>
+        <v>60</v>
       </c>
     </row>
     <row r="556" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A556" t="s">
-        <v>615</v>
+        <v>614</v>
       </c>
       <c r="B556" t="s">
-        <v>58</v>
+        <v>63</v>
       </c>
     </row>
     <row r="557" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A557" t="s">
-        <v>616</v>
+        <v>615</v>
       </c>
       <c r="B557" t="s">
-        <v>56</v>
+        <v>58</v>
       </c>
     </row>
     <row r="558" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A558" t="s">
-        <v>617</v>
+        <v>616</v>
       </c>
       <c r="B558" t="s">
-        <v>70</v>
+        <v>56</v>
       </c>
     </row>
     <row r="559" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A559" t="s">
-        <v>618</v>
+        <v>617</v>
       </c>
       <c r="B559" t="s">
         <v>70</v>
@@ -8451,71 +8457,71 @@
     </row>
     <row r="560" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A560" t="s">
-        <v>619</v>
+        <v>618</v>
       </c>
       <c r="B560" t="s">
-        <v>63</v>
+        <v>70</v>
       </c>
     </row>
     <row r="561" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A561" t="s">
-        <v>620</v>
+        <v>619</v>
       </c>
       <c r="B561" t="s">
-        <v>60</v>
+        <v>63</v>
       </c>
     </row>
     <row r="562" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A562" t="s">
-        <v>621</v>
+        <v>620</v>
       </c>
       <c r="B562" t="s">
-        <v>63</v>
+        <v>60</v>
       </c>
     </row>
     <row r="563" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A563" t="s">
-        <v>622</v>
+        <v>621</v>
       </c>
       <c r="B563" t="s">
-        <v>60</v>
+        <v>63</v>
       </c>
     </row>
     <row r="564" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A564" t="s">
-        <v>623</v>
+        <v>622</v>
       </c>
       <c r="B564" t="s">
-        <v>63</v>
+        <v>60</v>
       </c>
     </row>
     <row r="565" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A565" t="s">
-        <v>624</v>
+        <v>623</v>
       </c>
       <c r="B565" t="s">
-        <v>58</v>
+        <v>63</v>
       </c>
     </row>
     <row r="566" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A566" t="s">
-        <v>625</v>
+        <v>624</v>
       </c>
       <c r="B566" t="s">
-        <v>60</v>
+        <v>58</v>
       </c>
     </row>
     <row r="567" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A567" t="s">
-        <v>626</v>
+        <v>625</v>
       </c>
       <c r="B567" t="s">
-        <v>70</v>
+        <v>60</v>
       </c>
     </row>
     <row r="568" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A568" t="s">
-        <v>627</v>
+        <v>626</v>
       </c>
       <c r="B568" t="s">
         <v>70</v>
@@ -8523,63 +8529,63 @@
     </row>
     <row r="569" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A569" t="s">
-        <v>628</v>
+        <v>627</v>
       </c>
       <c r="B569" t="s">
-        <v>60</v>
+        <v>70</v>
       </c>
     </row>
     <row r="570" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A570" t="s">
-        <v>629</v>
+        <v>628</v>
       </c>
       <c r="B570" t="s">
-        <v>63</v>
+        <v>60</v>
       </c>
     </row>
     <row r="571" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A571" t="s">
-        <v>630</v>
+        <v>629</v>
       </c>
       <c r="B571" t="s">
-        <v>70</v>
+        <v>63</v>
       </c>
     </row>
     <row r="572" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A572" t="s">
-        <v>631</v>
+        <v>630</v>
       </c>
       <c r="B572" t="s">
-        <v>60</v>
+        <v>70</v>
       </c>
     </row>
     <row r="573" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A573" t="s">
-        <v>632</v>
+        <v>631</v>
       </c>
       <c r="B573" t="s">
-        <v>58</v>
+        <v>60</v>
       </c>
     </row>
     <row r="574" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A574" t="s">
-        <v>633</v>
+        <v>632</v>
       </c>
       <c r="B574" t="s">
-        <v>60</v>
+        <v>58</v>
       </c>
     </row>
     <row r="575" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A575" t="s">
-        <v>634</v>
+        <v>633</v>
       </c>
       <c r="B575" t="s">
-        <v>63</v>
+        <v>60</v>
       </c>
     </row>
     <row r="576" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A576" t="s">
-        <v>635</v>
+        <v>634</v>
       </c>
       <c r="B576" t="s">
         <v>63</v>
@@ -8587,39 +8593,39 @@
     </row>
     <row r="577" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A577" t="s">
-        <v>636</v>
+        <v>635</v>
       </c>
       <c r="B577" t="s">
-        <v>56</v>
+        <v>63</v>
       </c>
     </row>
     <row r="578" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A578" t="s">
-        <v>637</v>
+        <v>636</v>
       </c>
       <c r="B578" t="s">
-        <v>58</v>
+        <v>56</v>
       </c>
     </row>
     <row r="579" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A579" t="s">
-        <v>638</v>
+        <v>637</v>
       </c>
       <c r="B579" t="s">
-        <v>60</v>
+        <v>58</v>
       </c>
     </row>
     <row r="580" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A580" t="s">
-        <v>639</v>
+        <v>638</v>
       </c>
       <c r="B580" t="s">
-        <v>70</v>
+        <v>60</v>
       </c>
     </row>
     <row r="581" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A581" t="s">
-        <v>640</v>
+        <v>639</v>
       </c>
       <c r="B581" t="s">
         <v>70</v>
@@ -8627,71 +8633,71 @@
     </row>
     <row r="582" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A582" t="s">
-        <v>641</v>
+        <v>640</v>
       </c>
       <c r="B582" t="s">
-        <v>63</v>
+        <v>70</v>
       </c>
     </row>
     <row r="583" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A583" t="s">
-        <v>642</v>
+        <v>641</v>
       </c>
       <c r="B583" t="s">
-        <v>58</v>
+        <v>63</v>
       </c>
     </row>
     <row r="584" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A584" t="s">
-        <v>643</v>
+        <v>642</v>
       </c>
       <c r="B584" t="s">
-        <v>70</v>
+        <v>58</v>
       </c>
     </row>
     <row r="585" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A585" t="s">
-        <v>644</v>
+        <v>643</v>
       </c>
       <c r="B585" t="s">
-        <v>56</v>
+        <v>70</v>
       </c>
     </row>
     <row r="586" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A586" t="s">
-        <v>645</v>
+        <v>644</v>
       </c>
       <c r="B586" t="s">
-        <v>63</v>
+        <v>56</v>
       </c>
     </row>
     <row r="587" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A587" t="s">
-        <v>646</v>
+        <v>645</v>
       </c>
       <c r="B587" t="s">
-        <v>56</v>
+        <v>63</v>
       </c>
     </row>
     <row r="588" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A588" t="s">
-        <v>647</v>
+        <v>646</v>
       </c>
       <c r="B588" t="s">
-        <v>60</v>
+        <v>56</v>
       </c>
     </row>
     <row r="589" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A589" t="s">
-        <v>648</v>
+        <v>647</v>
       </c>
       <c r="B589" t="s">
-        <v>56</v>
+        <v>60</v>
       </c>
     </row>
     <row r="590" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A590" t="s">
-        <v>649</v>
+        <v>648</v>
       </c>
       <c r="B590" t="s">
         <v>56</v>
@@ -8699,97 +8705,105 @@
     </row>
     <row r="591" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A591" t="s">
-        <v>650</v>
+        <v>649</v>
       </c>
       <c r="B591" t="s">
-        <v>60</v>
+        <v>56</v>
       </c>
     </row>
     <row r="592" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A592" t="s">
-        <v>651</v>
+        <v>650</v>
       </c>
       <c r="B592" t="s">
-        <v>58</v>
+        <v>60</v>
       </c>
     </row>
     <row r="593" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A593" t="s">
-        <v>652</v>
+        <v>651</v>
       </c>
       <c r="B593" t="s">
-        <v>56</v>
+        <v>58</v>
       </c>
     </row>
     <row r="594" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A594" t="s">
-        <v>653</v>
+        <v>652</v>
       </c>
       <c r="B594" t="s">
-        <v>63</v>
+        <v>56</v>
       </c>
     </row>
     <row r="595" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A595" t="s">
-        <v>654</v>
+        <v>653</v>
       </c>
       <c r="B595" t="s">
-        <v>56</v>
+        <v>63</v>
       </c>
     </row>
     <row r="596" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A596" t="s">
-        <v>655</v>
+        <v>654</v>
       </c>
       <c r="B596" t="s">
-        <v>63</v>
+        <v>56</v>
       </c>
     </row>
     <row r="597" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A597" t="s">
-        <v>656</v>
+        <v>655</v>
       </c>
       <c r="B597" t="s">
-        <v>70</v>
+        <v>63</v>
       </c>
     </row>
     <row r="598" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A598" t="s">
-        <v>657</v>
+        <v>656</v>
       </c>
       <c r="B598" t="s">
-        <v>63</v>
+        <v>70</v>
       </c>
     </row>
     <row r="599" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A599" t="s">
-        <v>658</v>
+        <v>657</v>
       </c>
       <c r="B599" t="s">
-        <v>56</v>
+        <v>63</v>
       </c>
     </row>
     <row r="600" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A600" t="s">
-        <v>659</v>
+        <v>658</v>
       </c>
       <c r="B600" t="s">
-        <v>63</v>
+        <v>56</v>
       </c>
     </row>
     <row r="601" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A601" t="s">
-        <v>660</v>
+        <v>659</v>
       </c>
       <c r="B601" t="s">
-        <v>58</v>
+        <v>63</v>
       </c>
     </row>
     <row r="602" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A602" t="s">
+        <v>660</v>
+      </c>
+      <c r="B602" t="s">
+        <v>58</v>
+      </c>
+    </row>
+    <row r="603" spans="1:2" x14ac:dyDescent="0.3">
+      <c r="A603" t="s">
         <v>661</v>
       </c>
-      <c r="B602" t="s">
+      <c r="B603" t="s">
         <v>63</v>
       </c>
     </row>

--- a/Opponent_List.xlsx
+++ b/Opponent_List.xlsx
@@ -1,16 +1,16 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
 <workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
-  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="24527"/>
+  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="24701"/>
   <workbookPr defaultThemeVersion="166925"/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\zacha\Documents\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{636C3909-0CAB-4C9F-9FAF-C3988CC1CCB0}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{A7111315-C549-4CF6-AC21-EAE2AACF57CA}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="-108" yWindow="-108" windowWidth="23256" windowHeight="12576" activeTab="1" xr2:uid="{A256BCE2-616E-47A0-B9EF-3250AE7F456A}"/>
+    <workbookView xWindow="-108" yWindow="-108" windowWidth="23256" windowHeight="12576" xr2:uid="{A256BCE2-616E-47A0-B9EF-3250AE7F456A}"/>
   </bookViews>
   <sheets>
     <sheet name="Opponent_List" sheetId="1" r:id="rId1"/>
@@ -35,7 +35,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="1710" uniqueCount="664">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="1958" uniqueCount="672">
   <si>
     <t>N/A</t>
   </si>
@@ -2027,16 +2027,46 @@
   </si>
   <si>
     <t>POSITION</t>
+  </si>
+  <si>
+    <t>12-15</t>
+  </si>
+  <si>
+    <t>12-16</t>
+  </si>
+  <si>
+    <t>12-18</t>
+  </si>
+  <si>
+    <t>12-19</t>
+  </si>
+  <si>
+    <t>12-20</t>
+  </si>
+  <si>
+    <t>12-21</t>
+  </si>
+  <si>
+    <t>12-22</t>
+  </si>
+  <si>
+    <t>12-25</t>
   </si>
 </sst>
 </file>
 
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
 <styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:x16r2="http://schemas.microsoft.com/office/spreadsheetml/2015/02/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" mc:Ignorable="x14ac x16r2 xr">
-  <fonts count="1" x14ac:knownFonts="1">
+  <fonts count="2" x14ac:knownFonts="1">
     <font>
       <sz val="11"/>
       <color theme="1"/>
+      <name val="Calibri"/>
+      <family val="2"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <sz val="8"/>
       <name val="Calibri"/>
       <family val="2"/>
       <scheme val="minor"/>
@@ -2382,16 +2412,16 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{C49934C3-58C9-470B-89F5-1E7727BEEAE9}">
-  <dimension ref="A1:X31"/>
+  <dimension ref="A1:AF31"/>
   <sheetViews>
-    <sheetView zoomScale="80" zoomScaleNormal="80" workbookViewId="0">
+    <sheetView tabSelected="1" zoomScale="80" zoomScaleNormal="80" workbookViewId="0">
       <pane xSplit="1" topLeftCell="B1" activePane="topRight" state="frozen"/>
-      <selection pane="topRight" activeCell="E19" sqref="E19"/>
+      <selection pane="topRight" activeCell="S2" sqref="S2"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="14.4" x14ac:dyDescent="0.3"/>
   <sheetData>
-    <row r="1" spans="1:24" x14ac:dyDescent="0.3">
+    <row r="1" spans="1:32" x14ac:dyDescent="0.3">
       <c r="A1" s="2" t="s">
         <v>31</v>
       </c>
@@ -2420,52 +2450,76 @@
         <v>39</v>
       </c>
       <c r="J1" s="2" t="s">
+        <v>664</v>
+      </c>
+      <c r="K1" s="2" t="s">
+        <v>665</v>
+      </c>
+      <c r="L1" s="2" t="s">
         <v>40</v>
       </c>
-      <c r="K1" s="2" t="s">
+      <c r="M1" s="2" t="s">
+        <v>666</v>
+      </c>
+      <c r="N1" s="2" t="s">
+        <v>667</v>
+      </c>
+      <c r="O1" s="2" t="s">
+        <v>668</v>
+      </c>
+      <c r="P1" s="2" t="s">
+        <v>669</v>
+      </c>
+      <c r="Q1" s="2" t="s">
+        <v>670</v>
+      </c>
+      <c r="R1" s="2" t="s">
         <v>54</v>
       </c>
-      <c r="L1" s="2" t="s">
+      <c r="S1" s="2" t="s">
+        <v>671</v>
+      </c>
+      <c r="T1" s="2" t="s">
         <v>41</v>
       </c>
-      <c r="M1" s="2" t="s">
+      <c r="U1" s="2" t="s">
         <v>42</v>
       </c>
-      <c r="N1" s="2" t="s">
+      <c r="V1" s="2" t="s">
         <v>43</v>
       </c>
-      <c r="O1" s="2" t="s">
+      <c r="W1" s="2" t="s">
         <v>44</v>
       </c>
-      <c r="P1" s="2" t="s">
+      <c r="X1" s="2" t="s">
         <v>45</v>
       </c>
-      <c r="Q1" s="2" t="s">
+      <c r="Y1" s="2" t="s">
         <v>46</v>
       </c>
-      <c r="R1" s="2" t="s">
+      <c r="Z1" s="2" t="s">
         <v>47</v>
       </c>
-      <c r="S1" s="2" t="s">
+      <c r="AA1" s="2" t="s">
         <v>48</v>
       </c>
-      <c r="T1" s="2" t="s">
+      <c r="AB1" s="2" t="s">
         <v>49</v>
       </c>
-      <c r="U1" s="2" t="s">
+      <c r="AC1" s="2" t="s">
         <v>50</v>
       </c>
-      <c r="V1" s="2" t="s">
+      <c r="AD1" s="2" t="s">
         <v>51</v>
       </c>
-      <c r="W1" s="2" t="s">
+      <c r="AE1" s="2" t="s">
         <v>52</v>
       </c>
-      <c r="X1" s="2" t="s">
+      <c r="AF1" s="2" t="s">
         <v>53</v>
       </c>
     </row>
-    <row r="2" spans="1:24" x14ac:dyDescent="0.3">
+    <row r="2" spans="1:32" x14ac:dyDescent="0.3">
       <c r="A2" s="1" t="s">
         <v>19</v>
       </c>
@@ -2494,28 +2548,52 @@
         <v>23</v>
       </c>
       <c r="J2" t="s">
+        <v>18</v>
+      </c>
+      <c r="K2" t="s">
+        <v>0</v>
+      </c>
+      <c r="L2" t="s">
         <v>25</v>
       </c>
-      <c r="K2" t="s">
+      <c r="M2" t="s">
+        <v>0</v>
+      </c>
+      <c r="N2" t="s">
+        <v>1</v>
+      </c>
+      <c r="O2" t="s">
+        <v>0</v>
+      </c>
+      <c r="P2" t="s">
+        <v>0</v>
+      </c>
+      <c r="Q2" t="s">
+        <v>18</v>
+      </c>
+      <c r="R2" t="s">
         <v>29</v>
       </c>
-      <c r="L2" t="s">
+      <c r="S2" t="s">
+        <v>0</v>
+      </c>
+      <c r="T2" t="s">
         <v>1</v>
       </c>
-      <c r="M2" t="s">
+      <c r="U2" t="s">
         <v>27</v>
       </c>
-      <c r="N2" t="s">
+      <c r="V2" t="s">
         <v>7</v>
       </c>
-      <c r="O2" t="s">
+      <c r="W2" t="s">
         <v>13</v>
       </c>
-      <c r="P2" t="s">
+      <c r="X2" t="s">
         <v>26</v>
       </c>
     </row>
-    <row r="3" spans="1:24" x14ac:dyDescent="0.3">
+    <row r="3" spans="1:32" x14ac:dyDescent="0.3">
       <c r="A3" s="1" t="s">
         <v>23</v>
       </c>
@@ -2547,25 +2625,49 @@
         <v>0</v>
       </c>
       <c r="K3" t="s">
+        <v>29</v>
+      </c>
+      <c r="L3" t="s">
+        <v>0</v>
+      </c>
+      <c r="M3" t="s">
+        <v>18</v>
+      </c>
+      <c r="N3" t="s">
+        <v>25</v>
+      </c>
+      <c r="O3" t="s">
+        <v>0</v>
+      </c>
+      <c r="P3" t="s">
+        <v>8</v>
+      </c>
+      <c r="Q3" t="s">
+        <v>0</v>
+      </c>
+      <c r="R3" t="s">
         <v>24</v>
       </c>
-      <c r="L3" t="s">
-        <v>0</v>
-      </c>
-      <c r="M3" t="s">
+      <c r="S3" t="s">
+        <v>27</v>
+      </c>
+      <c r="T3" t="s">
+        <v>0</v>
+      </c>
+      <c r="U3" t="s">
         <v>14</v>
       </c>
-      <c r="N3" t="s">
-        <v>0</v>
-      </c>
-      <c r="O3" t="s">
+      <c r="V3" t="s">
+        <v>0</v>
+      </c>
+      <c r="W3" t="s">
         <v>16</v>
       </c>
-      <c r="P3" t="s">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="4" spans="1:24" x14ac:dyDescent="0.3">
+      <c r="X3" t="s">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="4" spans="1:32" x14ac:dyDescent="0.3">
       <c r="A4" s="1" t="s">
         <v>20</v>
       </c>
@@ -2594,28 +2696,52 @@
         <v>10</v>
       </c>
       <c r="J4" t="s">
+        <v>0</v>
+      </c>
+      <c r="K4" t="s">
+        <v>0</v>
+      </c>
+      <c r="L4" t="s">
         <v>4</v>
       </c>
-      <c r="K4" t="s">
-        <v>0</v>
-      </c>
-      <c r="L4" t="s">
-        <v>0</v>
-      </c>
       <c r="M4" t="s">
         <v>0</v>
       </c>
       <c r="N4" t="s">
+        <v>0</v>
+      </c>
+      <c r="O4" t="s">
         <v>29</v>
       </c>
-      <c r="O4" t="s">
+      <c r="P4" t="s">
+        <v>0</v>
+      </c>
+      <c r="Q4" t="s">
+        <v>1</v>
+      </c>
+      <c r="R4" t="s">
+        <v>0</v>
+      </c>
+      <c r="S4" t="s">
+        <v>0</v>
+      </c>
+      <c r="T4" t="s">
+        <v>0</v>
+      </c>
+      <c r="U4" t="s">
+        <v>0</v>
+      </c>
+      <c r="V4" t="s">
+        <v>29</v>
+      </c>
+      <c r="W4" t="s">
         <v>28</v>
       </c>
-      <c r="P4" t="s">
+      <c r="X4" t="s">
         <v>25</v>
       </c>
     </row>
-    <row r="5" spans="1:24" x14ac:dyDescent="0.3">
+    <row r="5" spans="1:32" x14ac:dyDescent="0.3">
       <c r="A5" s="1" t="s">
         <v>15</v>
       </c>
@@ -2644,28 +2770,52 @@
         <v>9</v>
       </c>
       <c r="J5" t="s">
+        <v>26</v>
+      </c>
+      <c r="K5" t="s">
+        <v>0</v>
+      </c>
+      <c r="L5" t="s">
         <v>24</v>
       </c>
-      <c r="K5" t="s">
+      <c r="M5" t="s">
+        <v>0</v>
+      </c>
+      <c r="N5" t="s">
+        <v>10</v>
+      </c>
+      <c r="O5" t="s">
+        <v>16</v>
+      </c>
+      <c r="P5" t="s">
+        <v>0</v>
+      </c>
+      <c r="Q5" t="s">
+        <v>0</v>
+      </c>
+      <c r="R5" t="s">
         <v>25</v>
       </c>
-      <c r="L5" t="s">
-        <v>0</v>
-      </c>
-      <c r="M5" t="s">
-        <v>0</v>
-      </c>
-      <c r="N5" t="s">
+      <c r="S5" t="s">
+        <v>0</v>
+      </c>
+      <c r="T5" t="s">
+        <v>0</v>
+      </c>
+      <c r="U5" t="s">
+        <v>0</v>
+      </c>
+      <c r="V5" t="s">
         <v>18</v>
       </c>
-      <c r="O5" t="s">
+      <c r="W5" t="s">
         <v>1</v>
       </c>
-      <c r="P5" t="s">
+      <c r="X5" t="s">
         <v>28</v>
       </c>
     </row>
-    <row r="6" spans="1:24" x14ac:dyDescent="0.3">
+    <row r="6" spans="1:32" x14ac:dyDescent="0.3">
       <c r="A6" s="1" t="s">
         <v>11</v>
       </c>
@@ -2703,19 +2853,43 @@
         <v>0</v>
       </c>
       <c r="M6" t="s">
+        <v>0</v>
+      </c>
+      <c r="N6" t="s">
+        <v>27</v>
+      </c>
+      <c r="O6" t="s">
+        <v>21</v>
+      </c>
+      <c r="P6" t="s">
+        <v>0</v>
+      </c>
+      <c r="Q6" t="s">
+        <v>13</v>
+      </c>
+      <c r="R6" t="s">
+        <v>0</v>
+      </c>
+      <c r="S6" t="s">
+        <v>0</v>
+      </c>
+      <c r="T6" t="s">
+        <v>0</v>
+      </c>
+      <c r="U6" t="s">
         <v>8</v>
       </c>
-      <c r="N6" t="s">
+      <c r="V6" t="s">
         <v>4</v>
       </c>
-      <c r="O6" t="s">
+      <c r="W6" t="s">
         <v>30</v>
       </c>
-      <c r="P6" t="s">
+      <c r="X6" t="s">
         <v>22</v>
       </c>
     </row>
-    <row r="7" spans="1:24" x14ac:dyDescent="0.3">
+    <row r="7" spans="1:32" x14ac:dyDescent="0.3">
       <c r="A7" s="1" t="s">
         <v>1</v>
       </c>
@@ -2744,28 +2918,52 @@
         <v>22</v>
       </c>
       <c r="J7" t="s">
-        <v>0</v>
+        <v>21</v>
       </c>
       <c r="K7" t="s">
         <v>0</v>
       </c>
       <c r="L7" t="s">
+        <v>0</v>
+      </c>
+      <c r="M7" t="s">
+        <v>14</v>
+      </c>
+      <c r="N7" t="s">
         <v>19</v>
       </c>
-      <c r="M7" t="s">
+      <c r="O7" t="s">
+        <v>0</v>
+      </c>
+      <c r="P7" t="s">
+        <v>0</v>
+      </c>
+      <c r="Q7" t="s">
+        <v>20</v>
+      </c>
+      <c r="R7" t="s">
+        <v>0</v>
+      </c>
+      <c r="S7" t="s">
+        <v>0</v>
+      </c>
+      <c r="T7" t="s">
+        <v>19</v>
+      </c>
+      <c r="U7" t="s">
         <v>24</v>
       </c>
-      <c r="N7" t="s">
+      <c r="V7" t="s">
         <v>26</v>
       </c>
-      <c r="O7" t="s">
+      <c r="W7" t="s">
         <v>15</v>
       </c>
-      <c r="P7" t="s">
+      <c r="X7" t="s">
         <v>30</v>
       </c>
     </row>
-    <row r="8" spans="1:24" x14ac:dyDescent="0.3">
+    <row r="8" spans="1:32" x14ac:dyDescent="0.3">
       <c r="A8" s="1" t="s">
         <v>17</v>
       </c>
@@ -2794,28 +2992,52 @@
         <v>30</v>
       </c>
       <c r="J8" t="s">
-        <v>0</v>
+        <v>27</v>
       </c>
       <c r="K8" t="s">
+        <v>0</v>
+      </c>
+      <c r="L8" t="s">
+        <v>0</v>
+      </c>
+      <c r="M8" t="s">
+        <v>0</v>
+      </c>
+      <c r="N8" t="s">
+        <v>22</v>
+      </c>
+      <c r="O8" t="s">
+        <v>0</v>
+      </c>
+      <c r="P8" t="s">
+        <v>22</v>
+      </c>
+      <c r="Q8" t="s">
+        <v>0</v>
+      </c>
+      <c r="R8" t="s">
         <v>14</v>
       </c>
-      <c r="L8" t="s">
-        <v>0</v>
-      </c>
-      <c r="M8" t="s">
+      <c r="S8" t="s">
+        <v>16</v>
+      </c>
+      <c r="T8" t="s">
+        <v>0</v>
+      </c>
+      <c r="U8" t="s">
         <v>21</v>
       </c>
-      <c r="N8" t="s">
+      <c r="V8" t="s">
         <v>12</v>
       </c>
-      <c r="O8" t="s">
+      <c r="W8" t="s">
         <v>29</v>
       </c>
-      <c r="P8" t="s">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="9" spans="1:24" x14ac:dyDescent="0.3">
+      <c r="X8" t="s">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="9" spans="1:32" x14ac:dyDescent="0.3">
       <c r="A9" s="1" t="s">
         <v>25</v>
       </c>
@@ -2844,28 +3066,52 @@
         <v>0</v>
       </c>
       <c r="J9" t="s">
+        <v>22</v>
+      </c>
+      <c r="K9" t="s">
+        <v>0</v>
+      </c>
+      <c r="L9" t="s">
         <v>19</v>
       </c>
-      <c r="K9" t="s">
+      <c r="M9" t="s">
+        <v>0</v>
+      </c>
+      <c r="N9" t="s">
+        <v>23</v>
+      </c>
+      <c r="O9" t="s">
+        <v>0</v>
+      </c>
+      <c r="P9" t="s">
+        <v>0</v>
+      </c>
+      <c r="Q9" t="s">
+        <v>2</v>
+      </c>
+      <c r="R9" t="s">
         <v>15</v>
       </c>
-      <c r="L9" t="s">
-        <v>0</v>
-      </c>
-      <c r="M9" t="s">
+      <c r="S9" t="s">
+        <v>0</v>
+      </c>
+      <c r="T9" t="s">
+        <v>0</v>
+      </c>
+      <c r="U9" t="s">
         <v>9</v>
       </c>
-      <c r="N9" t="s">
-        <v>0</v>
-      </c>
-      <c r="O9" t="s">
+      <c r="V9" t="s">
+        <v>0</v>
+      </c>
+      <c r="W9" t="s">
         <v>3</v>
       </c>
-      <c r="P9" t="s">
+      <c r="X9" t="s">
         <v>20</v>
       </c>
     </row>
-    <row r="10" spans="1:24" x14ac:dyDescent="0.3">
+    <row r="10" spans="1:32" x14ac:dyDescent="0.3">
       <c r="A10" s="1" t="s">
         <v>28</v>
       </c>
@@ -2897,25 +3143,49 @@
         <v>0</v>
       </c>
       <c r="K10" t="s">
+        <v>30</v>
+      </c>
+      <c r="L10" t="s">
+        <v>0</v>
+      </c>
+      <c r="M10" t="s">
+        <v>0</v>
+      </c>
+      <c r="N10" t="s">
+        <v>0</v>
+      </c>
+      <c r="O10" t="s">
+        <v>0</v>
+      </c>
+      <c r="P10" t="s">
+        <v>6</v>
+      </c>
+      <c r="Q10" t="s">
+        <v>0</v>
+      </c>
+      <c r="R10" t="s">
         <v>7</v>
       </c>
-      <c r="L10" t="s">
-        <v>0</v>
-      </c>
-      <c r="M10" t="s">
-        <v>0</v>
-      </c>
-      <c r="N10" t="s">
+      <c r="S10" t="s">
+        <v>0</v>
+      </c>
+      <c r="T10" t="s">
+        <v>0</v>
+      </c>
+      <c r="U10" t="s">
+        <v>0</v>
+      </c>
+      <c r="V10" t="s">
         <v>13</v>
       </c>
-      <c r="O10" t="s">
+      <c r="W10" t="s">
         <v>20</v>
       </c>
-      <c r="P10" t="s">
+      <c r="X10" t="s">
         <v>15</v>
       </c>
     </row>
-    <row r="11" spans="1:24" x14ac:dyDescent="0.3">
+    <row r="11" spans="1:32" x14ac:dyDescent="0.3">
       <c r="A11" s="1" t="s">
         <v>4</v>
       </c>
@@ -2944,28 +3214,52 @@
         <v>0</v>
       </c>
       <c r="J11" t="s">
+        <v>0</v>
+      </c>
+      <c r="K11" t="s">
+        <v>0</v>
+      </c>
+      <c r="L11" t="s">
         <v>20</v>
       </c>
-      <c r="K11" t="s">
+      <c r="M11" t="s">
+        <v>13</v>
+      </c>
+      <c r="N11" t="s">
+        <v>0</v>
+      </c>
+      <c r="O11" t="s">
+        <v>9</v>
+      </c>
+      <c r="P11" t="s">
+        <v>0</v>
+      </c>
+      <c r="Q11" t="s">
+        <v>0</v>
+      </c>
+      <c r="R11" t="s">
         <v>12</v>
       </c>
-      <c r="L11" t="s">
-        <v>0</v>
-      </c>
-      <c r="M11" t="s">
-        <v>0</v>
-      </c>
-      <c r="N11" t="s">
+      <c r="S11" t="s">
+        <v>10</v>
+      </c>
+      <c r="T11" t="s">
+        <v>0</v>
+      </c>
+      <c r="U11" t="s">
+        <v>0</v>
+      </c>
+      <c r="V11" t="s">
         <v>11</v>
       </c>
-      <c r="O11" t="s">
-        <v>0</v>
-      </c>
-      <c r="P11" t="s">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="12" spans="1:24" x14ac:dyDescent="0.3">
+      <c r="W11" t="s">
+        <v>0</v>
+      </c>
+      <c r="X11" t="s">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="12" spans="1:32" x14ac:dyDescent="0.3">
       <c r="A12" s="1" t="s">
         <v>21</v>
       </c>
@@ -2994,28 +3288,52 @@
         <v>14</v>
       </c>
       <c r="J12" t="s">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="K12" t="s">
+        <v>6</v>
+      </c>
+      <c r="L12" t="s">
+        <v>0</v>
+      </c>
+      <c r="M12" t="s">
+        <v>0</v>
+      </c>
+      <c r="N12" t="s">
+        <v>0</v>
+      </c>
+      <c r="O12" t="s">
+        <v>11</v>
+      </c>
+      <c r="P12" t="s">
+        <v>0</v>
+      </c>
+      <c r="Q12" t="s">
+        <v>14</v>
+      </c>
+      <c r="R12" t="s">
         <v>30</v>
       </c>
-      <c r="L12" t="s">
+      <c r="S12" t="s">
+        <v>0</v>
+      </c>
+      <c r="T12" t="s">
         <v>7</v>
       </c>
-      <c r="M12" t="s">
+      <c r="U12" t="s">
         <v>17</v>
       </c>
-      <c r="N12" t="s">
+      <c r="V12" t="s">
         <v>9</v>
       </c>
-      <c r="O12" t="s">
+      <c r="W12" t="s">
         <v>26</v>
       </c>
-      <c r="P12" t="s">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="13" spans="1:24" x14ac:dyDescent="0.3">
+      <c r="X12" t="s">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="13" spans="1:32" x14ac:dyDescent="0.3">
       <c r="A13" s="1" t="s">
         <v>30</v>
       </c>
@@ -3044,28 +3362,52 @@
         <v>17</v>
       </c>
       <c r="J13" t="s">
-        <v>0</v>
+        <v>14</v>
       </c>
       <c r="K13" t="s">
+        <v>28</v>
+      </c>
+      <c r="L13" t="s">
+        <v>0</v>
+      </c>
+      <c r="M13" t="s">
+        <v>0</v>
+      </c>
+      <c r="N13" t="s">
+        <v>0</v>
+      </c>
+      <c r="O13" t="s">
+        <v>0</v>
+      </c>
+      <c r="P13" t="s">
+        <v>7</v>
+      </c>
+      <c r="Q13" t="s">
+        <v>0</v>
+      </c>
+      <c r="R13" t="s">
         <v>21</v>
       </c>
-      <c r="L13" t="s">
-        <v>0</v>
-      </c>
-      <c r="M13" t="s">
-        <v>0</v>
-      </c>
-      <c r="N13" t="s">
+      <c r="S13" t="s">
+        <v>0</v>
+      </c>
+      <c r="T13" t="s">
+        <v>0</v>
+      </c>
+      <c r="U13" t="s">
+        <v>0</v>
+      </c>
+      <c r="V13" t="s">
         <v>10</v>
       </c>
-      <c r="O13" t="s">
+      <c r="W13" t="s">
         <v>11</v>
       </c>
-      <c r="P13" t="s">
+      <c r="X13" t="s">
         <v>1</v>
       </c>
     </row>
-    <row r="14" spans="1:24" x14ac:dyDescent="0.3">
+    <row r="14" spans="1:32" x14ac:dyDescent="0.3">
       <c r="A14" s="1" t="s">
         <v>5</v>
       </c>
@@ -3094,28 +3436,52 @@
         <v>0</v>
       </c>
       <c r="J14" t="s">
-        <v>0</v>
+        <v>16</v>
       </c>
       <c r="K14" t="s">
         <v>0</v>
       </c>
       <c r="L14" t="s">
+        <v>0</v>
+      </c>
+      <c r="M14" t="s">
+        <v>2</v>
+      </c>
+      <c r="N14" t="s">
+        <v>0</v>
+      </c>
+      <c r="O14" t="s">
+        <v>26</v>
+      </c>
+      <c r="P14" t="s">
+        <v>0</v>
+      </c>
+      <c r="Q14" t="s">
+        <v>9</v>
+      </c>
+      <c r="R14" t="s">
+        <v>0</v>
+      </c>
+      <c r="S14" t="s">
+        <v>0</v>
+      </c>
+      <c r="T14" t="s">
         <v>13</v>
       </c>
-      <c r="M14" t="s">
-        <v>0</v>
-      </c>
-      <c r="N14" t="s">
-        <v>0</v>
-      </c>
-      <c r="O14" t="s">
-        <v>0</v>
-      </c>
-      <c r="P14" t="s">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="15" spans="1:24" x14ac:dyDescent="0.3">
+      <c r="U14" t="s">
+        <v>0</v>
+      </c>
+      <c r="V14" t="s">
+        <v>0</v>
+      </c>
+      <c r="W14" t="s">
+        <v>0</v>
+      </c>
+      <c r="X14" t="s">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="15" spans="1:32" x14ac:dyDescent="0.3">
       <c r="A15" s="1" t="s">
         <v>27</v>
       </c>
@@ -3144,28 +3510,52 @@
         <v>2</v>
       </c>
       <c r="J15" t="s">
+        <v>17</v>
+      </c>
+      <c r="K15" t="s">
+        <v>0</v>
+      </c>
+      <c r="L15" t="s">
         <v>22</v>
       </c>
-      <c r="K15" t="s">
+      <c r="M15" t="s">
+        <v>0</v>
+      </c>
+      <c r="N15" t="s">
+        <v>11</v>
+      </c>
+      <c r="O15" t="s">
+        <v>0</v>
+      </c>
+      <c r="P15" t="s">
+        <v>10</v>
+      </c>
+      <c r="Q15" t="s">
+        <v>0</v>
+      </c>
+      <c r="R15" t="s">
         <v>26</v>
       </c>
-      <c r="L15" t="s">
+      <c r="S15" t="s">
+        <v>23</v>
+      </c>
+      <c r="T15" t="s">
         <v>24</v>
       </c>
-      <c r="M15" t="s">
+      <c r="U15" t="s">
         <v>19</v>
       </c>
-      <c r="N15" t="s">
-        <v>0</v>
-      </c>
-      <c r="O15" t="s">
-        <v>0</v>
-      </c>
-      <c r="P15" t="s">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="16" spans="1:24" x14ac:dyDescent="0.3">
+      <c r="V15" t="s">
+        <v>0</v>
+      </c>
+      <c r="W15" t="s">
+        <v>0</v>
+      </c>
+      <c r="X15" t="s">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="16" spans="1:32" x14ac:dyDescent="0.3">
       <c r="A16" s="1" t="s">
         <v>12</v>
       </c>
@@ -3194,28 +3584,52 @@
         <v>0</v>
       </c>
       <c r="J16" t="s">
+        <v>24</v>
+      </c>
+      <c r="K16" t="s">
+        <v>0</v>
+      </c>
+      <c r="L16" t="s">
         <v>9</v>
       </c>
-      <c r="K16" t="s">
+      <c r="M16" t="s">
+        <v>0</v>
+      </c>
+      <c r="N16" t="s">
+        <v>0</v>
+      </c>
+      <c r="O16" t="s">
+        <v>2</v>
+      </c>
+      <c r="P16" t="s">
+        <v>0</v>
+      </c>
+      <c r="Q16" t="s">
+        <v>0</v>
+      </c>
+      <c r="R16" t="s">
         <v>4</v>
       </c>
-      <c r="L16" t="s">
+      <c r="S16" t="s">
+        <v>0</v>
+      </c>
+      <c r="T16" t="s">
         <v>26</v>
       </c>
-      <c r="M16" t="s">
-        <v>0</v>
-      </c>
-      <c r="N16" t="s">
+      <c r="U16" t="s">
+        <v>0</v>
+      </c>
+      <c r="V16" t="s">
         <v>17</v>
       </c>
-      <c r="O16" t="s">
-        <v>0</v>
-      </c>
-      <c r="P16" t="s">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="17" spans="1:16" x14ac:dyDescent="0.3">
+      <c r="W16" t="s">
+        <v>0</v>
+      </c>
+      <c r="X16" t="s">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="17" spans="1:24" x14ac:dyDescent="0.3">
       <c r="A17" s="1" t="s">
         <v>7</v>
       </c>
@@ -3244,28 +3658,52 @@
         <v>0</v>
       </c>
       <c r="J17" t="s">
+        <v>29</v>
+      </c>
+      <c r="K17" t="s">
+        <v>0</v>
+      </c>
+      <c r="L17" t="s">
         <v>18</v>
       </c>
-      <c r="K17" t="s">
+      <c r="M17" t="s">
+        <v>0</v>
+      </c>
+      <c r="N17" t="s">
+        <v>0</v>
+      </c>
+      <c r="O17" t="s">
+        <v>0</v>
+      </c>
+      <c r="P17" t="s">
+        <v>30</v>
+      </c>
+      <c r="Q17" t="s">
+        <v>0</v>
+      </c>
+      <c r="R17" t="s">
         <v>28</v>
       </c>
-      <c r="L17" t="s">
+      <c r="S17" t="s">
+        <v>0</v>
+      </c>
+      <c r="T17" t="s">
         <v>21</v>
       </c>
-      <c r="M17" t="s">
-        <v>0</v>
-      </c>
-      <c r="N17" t="s">
+      <c r="U17" t="s">
+        <v>0</v>
+      </c>
+      <c r="V17" t="s">
         <v>19</v>
       </c>
-      <c r="O17" t="s">
-        <v>0</v>
-      </c>
-      <c r="P17" t="s">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="18" spans="1:16" x14ac:dyDescent="0.3">
+      <c r="W17" t="s">
+        <v>0</v>
+      </c>
+      <c r="X17" t="s">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="18" spans="1:24" x14ac:dyDescent="0.3">
       <c r="A18" s="1" t="s">
         <v>14</v>
       </c>
@@ -3294,28 +3732,52 @@
         <v>21</v>
       </c>
       <c r="J18" t="s">
+        <v>30</v>
+      </c>
+      <c r="K18" t="s">
+        <v>0</v>
+      </c>
+      <c r="L18" t="s">
         <v>3</v>
       </c>
-      <c r="K18" t="s">
+      <c r="M18" t="s">
+        <v>1</v>
+      </c>
+      <c r="N18" t="s">
+        <v>0</v>
+      </c>
+      <c r="O18" t="s">
+        <v>0</v>
+      </c>
+      <c r="P18" t="s">
+        <v>0</v>
+      </c>
+      <c r="Q18" t="s">
+        <v>21</v>
+      </c>
+      <c r="R18" t="s">
         <v>17</v>
       </c>
-      <c r="L18" t="s">
-        <v>0</v>
-      </c>
-      <c r="M18" t="s">
+      <c r="S18" t="s">
+        <v>0</v>
+      </c>
+      <c r="T18" t="s">
+        <v>0</v>
+      </c>
+      <c r="U18" t="s">
         <v>23</v>
       </c>
-      <c r="N18" t="s">
-        <v>0</v>
-      </c>
-      <c r="O18" t="s">
-        <v>0</v>
-      </c>
-      <c r="P18" t="s">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="19" spans="1:16" x14ac:dyDescent="0.3">
+      <c r="V18" t="s">
+        <v>0</v>
+      </c>
+      <c r="W18" t="s">
+        <v>0</v>
+      </c>
+      <c r="X18" t="s">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="19" spans="1:24" x14ac:dyDescent="0.3">
       <c r="A19" s="1" t="s">
         <v>22</v>
       </c>
@@ -3344,28 +3806,52 @@
         <v>1</v>
       </c>
       <c r="J19" t="s">
+        <v>25</v>
+      </c>
+      <c r="K19" t="s">
+        <v>0</v>
+      </c>
+      <c r="L19" t="s">
         <v>27</v>
       </c>
-      <c r="K19" t="s">
+      <c r="M19" t="s">
+        <v>0</v>
+      </c>
+      <c r="N19" t="s">
+        <v>17</v>
+      </c>
+      <c r="O19" t="s">
+        <v>0</v>
+      </c>
+      <c r="P19" t="s">
+        <v>17</v>
+      </c>
+      <c r="Q19" t="s">
+        <v>0</v>
+      </c>
+      <c r="R19" t="s">
         <v>16</v>
       </c>
-      <c r="L19" t="s">
+      <c r="S19" t="s">
+        <v>0</v>
+      </c>
+      <c r="T19" t="s">
         <v>16</v>
       </c>
-      <c r="M19" t="s">
+      <c r="U19" t="s">
         <v>2</v>
       </c>
-      <c r="N19" t="s">
-        <v>0</v>
-      </c>
-      <c r="O19" t="s">
-        <v>0</v>
-      </c>
-      <c r="P19" t="s">
+      <c r="V19" t="s">
+        <v>0</v>
+      </c>
+      <c r="W19" t="s">
+        <v>0</v>
+      </c>
+      <c r="X19" t="s">
         <v>11</v>
       </c>
     </row>
-    <row r="20" spans="1:16" x14ac:dyDescent="0.3">
+    <row r="20" spans="1:24" x14ac:dyDescent="0.3">
       <c r="A20" s="1" t="s">
         <v>3</v>
       </c>
@@ -3394,28 +3880,52 @@
         <v>28</v>
       </c>
       <c r="J20" t="s">
+        <v>2</v>
+      </c>
+      <c r="K20" t="s">
+        <v>0</v>
+      </c>
+      <c r="L20" t="s">
         <v>14</v>
       </c>
-      <c r="K20" t="s">
+      <c r="M20" t="s">
+        <v>0</v>
+      </c>
+      <c r="N20" t="s">
+        <v>29</v>
+      </c>
+      <c r="O20" t="s">
+        <v>0</v>
+      </c>
+      <c r="P20" t="s">
+        <v>24</v>
+      </c>
+      <c r="Q20" t="s">
+        <v>0</v>
+      </c>
+      <c r="R20" t="s">
         <v>18</v>
       </c>
-      <c r="L20" t="s">
-        <v>0</v>
-      </c>
-      <c r="M20" t="s">
-        <v>0</v>
-      </c>
-      <c r="N20" t="s">
-        <v>0</v>
-      </c>
-      <c r="O20" t="s">
+      <c r="S20" t="s">
+        <v>0</v>
+      </c>
+      <c r="T20" t="s">
+        <v>0</v>
+      </c>
+      <c r="U20" t="s">
+        <v>0</v>
+      </c>
+      <c r="V20" t="s">
+        <v>0</v>
+      </c>
+      <c r="W20" t="s">
         <v>25</v>
       </c>
-      <c r="P20" t="s">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="21" spans="1:16" x14ac:dyDescent="0.3">
+      <c r="X20" t="s">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="21" spans="1:24" x14ac:dyDescent="0.3">
       <c r="A21" s="1" t="s">
         <v>6</v>
       </c>
@@ -3447,25 +3957,49 @@
         <v>0</v>
       </c>
       <c r="K21" t="s">
+        <v>21</v>
+      </c>
+      <c r="L21" t="s">
+        <v>0</v>
+      </c>
+      <c r="M21" t="s">
+        <v>0</v>
+      </c>
+      <c r="N21" t="s">
+        <v>0</v>
+      </c>
+      <c r="O21" t="s">
+        <v>0</v>
+      </c>
+      <c r="P21" t="s">
+        <v>28</v>
+      </c>
+      <c r="Q21" t="s">
+        <v>0</v>
+      </c>
+      <c r="R21" t="s">
         <v>8</v>
       </c>
-      <c r="L21" t="s">
+      <c r="S21" t="s">
+        <v>0</v>
+      </c>
+      <c r="T21" t="s">
         <v>2</v>
       </c>
-      <c r="M21" t="s">
-        <v>0</v>
-      </c>
-      <c r="N21" t="s">
-        <v>0</v>
-      </c>
-      <c r="O21" t="s">
-        <v>0</v>
-      </c>
-      <c r="P21" t="s">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="22" spans="1:16" x14ac:dyDescent="0.3">
+      <c r="U21" t="s">
+        <v>0</v>
+      </c>
+      <c r="V21" t="s">
+        <v>0</v>
+      </c>
+      <c r="W21" t="s">
+        <v>0</v>
+      </c>
+      <c r="X21" t="s">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="22" spans="1:24" x14ac:dyDescent="0.3">
       <c r="A22" s="1" t="s">
         <v>2</v>
       </c>
@@ -3494,28 +4028,52 @@
         <v>27</v>
       </c>
       <c r="J22" t="s">
-        <v>0</v>
+        <v>3</v>
       </c>
       <c r="K22" t="s">
+        <v>0</v>
+      </c>
+      <c r="L22" t="s">
+        <v>0</v>
+      </c>
+      <c r="M22" t="s">
+        <v>5</v>
+      </c>
+      <c r="N22" t="s">
+        <v>0</v>
+      </c>
+      <c r="O22" t="s">
+        <v>12</v>
+      </c>
+      <c r="P22" t="s">
+        <v>0</v>
+      </c>
+      <c r="Q22" t="s">
+        <v>25</v>
+      </c>
+      <c r="R22" t="s">
         <v>10</v>
       </c>
-      <c r="L22" t="s">
+      <c r="S22" t="s">
+        <v>0</v>
+      </c>
+      <c r="T22" t="s">
         <v>6</v>
       </c>
-      <c r="M22" t="s">
+      <c r="U22" t="s">
         <v>22</v>
       </c>
-      <c r="N22" t="s">
-        <v>0</v>
-      </c>
-      <c r="O22" t="s">
+      <c r="V22" t="s">
+        <v>0</v>
+      </c>
+      <c r="W22" t="s">
         <v>24</v>
       </c>
-      <c r="P22" t="s">
+      <c r="X22" t="s">
         <v>29</v>
       </c>
     </row>
-    <row r="23" spans="1:16" x14ac:dyDescent="0.3">
+    <row r="23" spans="1:24" x14ac:dyDescent="0.3">
       <c r="A23" s="1" t="s">
         <v>18</v>
       </c>
@@ -3544,28 +4102,52 @@
         <v>0</v>
       </c>
       <c r="J23" t="s">
+        <v>19</v>
+      </c>
+      <c r="K23" t="s">
+        <v>0</v>
+      </c>
+      <c r="L23" t="s">
         <v>7</v>
       </c>
-      <c r="K23" t="s">
+      <c r="M23" t="s">
+        <v>23</v>
+      </c>
+      <c r="N23" t="s">
+        <v>0</v>
+      </c>
+      <c r="O23" t="s">
+        <v>13</v>
+      </c>
+      <c r="P23" t="s">
+        <v>0</v>
+      </c>
+      <c r="Q23" t="s">
+        <v>19</v>
+      </c>
+      <c r="R23" t="s">
         <v>3</v>
       </c>
-      <c r="L23" t="s">
-        <v>0</v>
-      </c>
-      <c r="M23" t="s">
-        <v>0</v>
-      </c>
-      <c r="N23" t="s">
+      <c r="S23" t="s">
+        <v>0</v>
+      </c>
+      <c r="T23" t="s">
+        <v>0</v>
+      </c>
+      <c r="U23" t="s">
+        <v>0</v>
+      </c>
+      <c r="V23" t="s">
         <v>15</v>
       </c>
-      <c r="O23" t="s">
-        <v>0</v>
-      </c>
-      <c r="P23" t="s">
+      <c r="W23" t="s">
+        <v>0</v>
+      </c>
+      <c r="X23" t="s">
         <v>16</v>
       </c>
     </row>
-    <row r="24" spans="1:16" x14ac:dyDescent="0.3">
+    <row r="24" spans="1:24" x14ac:dyDescent="0.3">
       <c r="A24" s="1" t="s">
         <v>29</v>
       </c>
@@ -3594,28 +4176,52 @@
         <v>0</v>
       </c>
       <c r="J24" t="s">
-        <v>0</v>
+        <v>7</v>
       </c>
       <c r="K24" t="s">
+        <v>23</v>
+      </c>
+      <c r="L24" t="s">
+        <v>0</v>
+      </c>
+      <c r="M24" t="s">
+        <v>0</v>
+      </c>
+      <c r="N24" t="s">
+        <v>3</v>
+      </c>
+      <c r="O24" t="s">
+        <v>20</v>
+      </c>
+      <c r="P24" t="s">
+        <v>0</v>
+      </c>
+      <c r="Q24" t="s">
+        <v>0</v>
+      </c>
+      <c r="R24" t="s">
         <v>19</v>
       </c>
-      <c r="L24" t="s">
-        <v>0</v>
-      </c>
-      <c r="M24" t="s">
+      <c r="S24" t="s">
+        <v>0</v>
+      </c>
+      <c r="T24" t="s">
+        <v>0</v>
+      </c>
+      <c r="U24" t="s">
         <v>26</v>
       </c>
-      <c r="N24" t="s">
+      <c r="V24" t="s">
         <v>20</v>
       </c>
-      <c r="O24" t="s">
+      <c r="W24" t="s">
         <v>17</v>
       </c>
-      <c r="P24" t="s">
+      <c r="X24" t="s">
         <v>2</v>
       </c>
     </row>
-    <row r="25" spans="1:16" x14ac:dyDescent="0.3">
+    <row r="25" spans="1:24" x14ac:dyDescent="0.3">
       <c r="A25" s="1" t="s">
         <v>10</v>
       </c>
@@ -3647,25 +4253,49 @@
         <v>0</v>
       </c>
       <c r="K25" t="s">
+        <v>8</v>
+      </c>
+      <c r="L25" t="s">
+        <v>0</v>
+      </c>
+      <c r="M25" t="s">
+        <v>0</v>
+      </c>
+      <c r="N25" t="s">
+        <v>15</v>
+      </c>
+      <c r="O25" t="s">
+        <v>0</v>
+      </c>
+      <c r="P25" t="s">
+        <v>27</v>
+      </c>
+      <c r="Q25" t="s">
+        <v>0</v>
+      </c>
+      <c r="R25" t="s">
         <v>2</v>
       </c>
-      <c r="L25" t="s">
-        <v>0</v>
-      </c>
-      <c r="M25" t="s">
-        <v>0</v>
-      </c>
-      <c r="N25" t="s">
+      <c r="S25" t="s">
+        <v>4</v>
+      </c>
+      <c r="T25" t="s">
+        <v>0</v>
+      </c>
+      <c r="U25" t="s">
+        <v>0</v>
+      </c>
+      <c r="V25" t="s">
         <v>30</v>
       </c>
-      <c r="O25" t="s">
-        <v>0</v>
-      </c>
-      <c r="P25" t="s">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="26" spans="1:16" x14ac:dyDescent="0.3">
+      <c r="W25" t="s">
+        <v>0</v>
+      </c>
+      <c r="X25" t="s">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="26" spans="1:24" x14ac:dyDescent="0.3">
       <c r="A26" s="1" t="s">
         <v>24</v>
       </c>
@@ -3694,28 +4324,52 @@
         <v>0</v>
       </c>
       <c r="J26" t="s">
+        <v>12</v>
+      </c>
+      <c r="K26" t="s">
+        <v>0</v>
+      </c>
+      <c r="L26" t="s">
         <v>15</v>
       </c>
-      <c r="K26" t="s">
+      <c r="M26" t="s">
+        <v>0</v>
+      </c>
+      <c r="N26" t="s">
+        <v>0</v>
+      </c>
+      <c r="O26" t="s">
+        <v>0</v>
+      </c>
+      <c r="P26" t="s">
+        <v>3</v>
+      </c>
+      <c r="Q26" t="s">
+        <v>0</v>
+      </c>
+      <c r="R26" t="s">
         <v>23</v>
       </c>
-      <c r="L26" t="s">
+      <c r="S26" t="s">
+        <v>0</v>
+      </c>
+      <c r="T26" t="s">
         <v>27</v>
       </c>
-      <c r="M26" t="s">
+      <c r="U26" t="s">
         <v>1</v>
       </c>
-      <c r="N26" t="s">
-        <v>0</v>
-      </c>
-      <c r="O26" t="s">
+      <c r="V26" t="s">
+        <v>0</v>
+      </c>
+      <c r="W26" t="s">
         <v>2</v>
       </c>
-      <c r="P26" t="s">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="27" spans="1:16" x14ac:dyDescent="0.3">
+      <c r="X26" t="s">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="27" spans="1:24" x14ac:dyDescent="0.3">
       <c r="A27" s="1" t="s">
         <v>9</v>
       </c>
@@ -3744,28 +4398,52 @@
         <v>15</v>
       </c>
       <c r="J27" t="s">
+        <v>8</v>
+      </c>
+      <c r="K27" t="s">
+        <v>0</v>
+      </c>
+      <c r="L27" t="s">
         <v>12</v>
       </c>
-      <c r="K27" t="s">
-        <v>0</v>
-      </c>
-      <c r="L27" t="s">
-        <v>0</v>
-      </c>
       <c r="M27" t="s">
+        <v>0</v>
+      </c>
+      <c r="N27" t="s">
+        <v>0</v>
+      </c>
+      <c r="O27" t="s">
+        <v>4</v>
+      </c>
+      <c r="P27" t="s">
+        <v>0</v>
+      </c>
+      <c r="Q27" t="s">
+        <v>5</v>
+      </c>
+      <c r="R27" t="s">
+        <v>0</v>
+      </c>
+      <c r="S27" t="s">
+        <v>0</v>
+      </c>
+      <c r="T27" t="s">
+        <v>0</v>
+      </c>
+      <c r="U27" t="s">
         <v>25</v>
       </c>
-      <c r="N27" t="s">
+      <c r="V27" t="s">
         <v>21</v>
       </c>
-      <c r="O27" t="s">
-        <v>0</v>
-      </c>
-      <c r="P27" t="s">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="28" spans="1:16" x14ac:dyDescent="0.3">
+      <c r="W27" t="s">
+        <v>0</v>
+      </c>
+      <c r="X27" t="s">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="28" spans="1:24" x14ac:dyDescent="0.3">
       <c r="A28" s="1" t="s">
         <v>26</v>
       </c>
@@ -3794,28 +4472,52 @@
         <v>0</v>
       </c>
       <c r="J28" t="s">
+        <v>15</v>
+      </c>
+      <c r="K28" t="s">
+        <v>0</v>
+      </c>
+      <c r="L28" t="s">
         <v>16</v>
       </c>
-      <c r="K28" t="s">
+      <c r="M28" t="s">
+        <v>0</v>
+      </c>
+      <c r="N28" t="s">
+        <v>0</v>
+      </c>
+      <c r="O28" t="s">
+        <v>5</v>
+      </c>
+      <c r="P28" t="s">
+        <v>0</v>
+      </c>
+      <c r="Q28" t="s">
+        <v>0</v>
+      </c>
+      <c r="R28" t="s">
         <v>27</v>
       </c>
-      <c r="L28" t="s">
+      <c r="S28" t="s">
+        <v>0</v>
+      </c>
+      <c r="T28" t="s">
         <v>12</v>
       </c>
-      <c r="M28" t="s">
+      <c r="U28" t="s">
         <v>29</v>
       </c>
-      <c r="N28" t="s">
+      <c r="V28" t="s">
         <v>1</v>
       </c>
-      <c r="O28" t="s">
+      <c r="W28" t="s">
         <v>21</v>
       </c>
-      <c r="P28" t="s">
+      <c r="X28" t="s">
         <v>19</v>
       </c>
     </row>
-    <row r="29" spans="1:16" x14ac:dyDescent="0.3">
+    <row r="29" spans="1:24" x14ac:dyDescent="0.3">
       <c r="A29" s="1" t="s">
         <v>13</v>
       </c>
@@ -3850,22 +4552,46 @@
         <v>0</v>
       </c>
       <c r="L29" t="s">
+        <v>0</v>
+      </c>
+      <c r="M29" t="s">
+        <v>4</v>
+      </c>
+      <c r="N29" t="s">
+        <v>0</v>
+      </c>
+      <c r="O29" t="s">
+        <v>18</v>
+      </c>
+      <c r="P29" t="s">
+        <v>0</v>
+      </c>
+      <c r="Q29" t="s">
+        <v>11</v>
+      </c>
+      <c r="R29" t="s">
+        <v>0</v>
+      </c>
+      <c r="S29" t="s">
+        <v>0</v>
+      </c>
+      <c r="T29" t="s">
         <v>5</v>
       </c>
-      <c r="M29" t="s">
+      <c r="U29" t="s">
         <v>16</v>
       </c>
-      <c r="N29" t="s">
+      <c r="V29" t="s">
         <v>28</v>
       </c>
-      <c r="O29" t="s">
+      <c r="W29" t="s">
         <v>19</v>
       </c>
-      <c r="P29" t="s">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="30" spans="1:16" x14ac:dyDescent="0.3">
+      <c r="X29" t="s">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="30" spans="1:24" x14ac:dyDescent="0.3">
       <c r="A30" s="1" t="s">
         <v>16</v>
       </c>
@@ -3894,28 +4620,52 @@
         <v>0</v>
       </c>
       <c r="J30" t="s">
+        <v>5</v>
+      </c>
+      <c r="K30" t="s">
+        <v>0</v>
+      </c>
+      <c r="L30" t="s">
         <v>26</v>
       </c>
-      <c r="K30" t="s">
+      <c r="M30" t="s">
+        <v>8</v>
+      </c>
+      <c r="N30" t="s">
+        <v>0</v>
+      </c>
+      <c r="O30" t="s">
+        <v>15</v>
+      </c>
+      <c r="P30" t="s">
+        <v>0</v>
+      </c>
+      <c r="Q30" t="s">
+        <v>0</v>
+      </c>
+      <c r="R30" t="s">
         <v>22</v>
       </c>
-      <c r="L30" t="s">
+      <c r="S30" t="s">
+        <v>17</v>
+      </c>
+      <c r="T30" t="s">
         <v>22</v>
       </c>
-      <c r="M30" t="s">
+      <c r="U30" t="s">
         <v>13</v>
       </c>
-      <c r="N30" t="s">
-        <v>0</v>
-      </c>
-      <c r="O30" t="s">
+      <c r="V30" t="s">
+        <v>0</v>
+      </c>
+      <c r="W30" t="s">
         <v>23</v>
       </c>
-      <c r="P30" t="s">
+      <c r="X30" t="s">
         <v>18</v>
       </c>
     </row>
-    <row r="31" spans="1:16" x14ac:dyDescent="0.3">
+    <row r="31" spans="1:24" x14ac:dyDescent="0.3">
       <c r="A31" s="1" t="s">
         <v>8</v>
       </c>
@@ -3944,28 +4694,53 @@
         <v>0</v>
       </c>
       <c r="J31" t="s">
-        <v>0</v>
+        <v>9</v>
       </c>
       <c r="K31" t="s">
+        <v>10</v>
+      </c>
+      <c r="L31" t="s">
+        <v>0</v>
+      </c>
+      <c r="M31" t="s">
+        <v>16</v>
+      </c>
+      <c r="N31" t="s">
+        <v>0</v>
+      </c>
+      <c r="O31" t="s">
+        <v>0</v>
+      </c>
+      <c r="P31" t="s">
+        <v>23</v>
+      </c>
+      <c r="Q31" t="s">
+        <v>0</v>
+      </c>
+      <c r="R31" t="s">
         <v>6</v>
       </c>
-      <c r="L31" t="s">
-        <v>0</v>
-      </c>
-      <c r="M31" t="s">
+      <c r="S31" t="s">
+        <v>0</v>
+      </c>
+      <c r="T31" t="s">
+        <v>0</v>
+      </c>
+      <c r="U31" t="s">
         <v>11</v>
       </c>
-      <c r="N31" t="s">
-        <v>0</v>
-      </c>
-      <c r="O31" t="s">
-        <v>0</v>
-      </c>
-      <c r="P31" t="s">
+      <c r="V31" t="s">
+        <v>0</v>
+      </c>
+      <c r="W31" t="s">
+        <v>0</v>
+      </c>
+      <c r="X31" t="s">
         <v>0</v>
       </c>
     </row>
   </sheetData>
+  <phoneticPr fontId="1" type="noConversion"/>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
 </worksheet>
 </file>
@@ -3974,7 +4749,7 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{84EB052B-3BE7-49CF-9FAB-B98234BC3C78}">
   <dimension ref="A1:B603"/>
   <sheetViews>
-    <sheetView tabSelected="1" workbookViewId="0">
+    <sheetView workbookViewId="0">
       <selection activeCell="A2" sqref="A2"/>
     </sheetView>
   </sheetViews>

--- a/Opponent_List.xlsx
+++ b/Opponent_List.xlsx
@@ -8,7 +8,7 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\zacha\Documents\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{A7111315-C549-4CF6-AC21-EAE2AACF57CA}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{09202396-3032-4318-9B4C-0E73246672C6}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="-108" yWindow="-108" windowWidth="23256" windowHeight="12576" xr2:uid="{A256BCE2-616E-47A0-B9EF-3250AE7F456A}"/>
   </bookViews>
@@ -2415,8 +2415,8 @@
   <dimension ref="A1:AF31"/>
   <sheetViews>
     <sheetView tabSelected="1" zoomScale="80" zoomScaleNormal="80" workbookViewId="0">
-      <pane xSplit="1" topLeftCell="B1" activePane="topRight" state="frozen"/>
-      <selection pane="topRight" activeCell="S2" sqref="S2"/>
+      <pane xSplit="1" topLeftCell="J1" activePane="topRight" state="frozen"/>
+      <selection pane="topRight" activeCell="O16" sqref="O16"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="14.4" x14ac:dyDescent="0.3"/>
@@ -2705,7 +2705,7 @@
         <v>4</v>
       </c>
       <c r="M4" t="s">
-        <v>0</v>
+        <v>6</v>
       </c>
       <c r="N4" t="s">
         <v>0</v>
@@ -3963,7 +3963,7 @@
         <v>0</v>
       </c>
       <c r="M21" t="s">
-        <v>0</v>
+        <v>20</v>
       </c>
       <c r="N21" t="s">
         <v>0</v>

--- a/Opponent_List.xlsx
+++ b/Opponent_List.xlsx
@@ -8,7 +8,7 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\zacha\Documents\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{09202396-3032-4318-9B4C-0E73246672C6}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{6ECA154A-5EAC-421C-9CAB-625D2C4819ED}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="-108" yWindow="-108" windowWidth="23256" windowHeight="12576" xr2:uid="{A256BCE2-616E-47A0-B9EF-3250AE7F456A}"/>
   </bookViews>
@@ -16,6 +16,9 @@
     <sheet name="Opponent_List" sheetId="1" r:id="rId1"/>
     <sheet name="Positions" sheetId="2" r:id="rId2"/>
   </sheets>
+  <definedNames>
+    <definedName name="_xlnm._FilterDatabase" localSheetId="1" hidden="1">Positions!$A$1:$B$603</definedName>
+  </definedNames>
   <calcPr calcId="191029"/>
   <extLst>
     <ext xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" uri="{140A7094-0E35-4892-8432-C4D2E57EDEB5}">
@@ -2416,7 +2419,7 @@
   <sheetViews>
     <sheetView tabSelected="1" zoomScale="80" zoomScaleNormal="80" workbookViewId="0">
       <pane xSplit="1" topLeftCell="J1" activePane="topRight" state="frozen"/>
-      <selection pane="topRight" activeCell="O16" sqref="O16"/>
+      <selection pane="topRight" activeCell="R17" sqref="R17"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="14.4" x14ac:dyDescent="0.3"/>
@@ -4750,7 +4753,7 @@
   <dimension ref="A1:B603"/>
   <sheetViews>
     <sheetView workbookViewId="0">
-      <selection activeCell="A2" sqref="A2"/>
+      <selection activeCell="B6" sqref="B6"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="14.4" x14ac:dyDescent="0.3"/>
@@ -4779,7 +4782,7 @@
         <v>57</v>
       </c>
       <c r="B3" t="s">
-        <v>58</v>
+        <v>63</v>
       </c>
     </row>
     <row r="4" spans="1:2" x14ac:dyDescent="0.3">
@@ -4819,7 +4822,7 @@
         <v>65</v>
       </c>
       <c r="B8" t="s">
-        <v>63</v>
+        <v>58</v>
       </c>
     </row>
     <row r="9" spans="1:2" x14ac:dyDescent="0.3">
@@ -4883,7 +4886,7 @@
         <v>74</v>
       </c>
       <c r="B16" t="s">
-        <v>63</v>
+        <v>60</v>
       </c>
     </row>
     <row r="17" spans="1:2" x14ac:dyDescent="0.3">
@@ -4947,7 +4950,7 @@
         <v>82</v>
       </c>
       <c r="B24" t="s">
-        <v>56</v>
+        <v>60</v>
       </c>
     </row>
     <row r="25" spans="1:2" x14ac:dyDescent="0.3">
@@ -5043,7 +5046,7 @@
         <v>94</v>
       </c>
       <c r="B36" t="s">
-        <v>56</v>
+        <v>70</v>
       </c>
     </row>
     <row r="37" spans="1:2" x14ac:dyDescent="0.3">
@@ -5171,7 +5174,7 @@
         <v>110</v>
       </c>
       <c r="B52" t="s">
-        <v>56</v>
+        <v>70</v>
       </c>
     </row>
     <row r="53" spans="1:2" x14ac:dyDescent="0.3">
@@ -5275,7 +5278,7 @@
         <v>123</v>
       </c>
       <c r="B65" t="s">
-        <v>60</v>
+        <v>63</v>
       </c>
     </row>
     <row r="66" spans="1:2" x14ac:dyDescent="0.3">
@@ -5307,7 +5310,7 @@
         <v>127</v>
       </c>
       <c r="B69" t="s">
-        <v>56</v>
+        <v>70</v>
       </c>
     </row>
     <row r="70" spans="1:2" x14ac:dyDescent="0.3">
@@ -5499,7 +5502,7 @@
         <v>151</v>
       </c>
       <c r="B93" t="s">
-        <v>56</v>
+        <v>70</v>
       </c>
     </row>
     <row r="94" spans="1:2" x14ac:dyDescent="0.3">
@@ -5571,7 +5574,7 @@
         <v>160</v>
       </c>
       <c r="B102" t="s">
-        <v>60</v>
+        <v>56</v>
       </c>
     </row>
     <row r="103" spans="1:2" x14ac:dyDescent="0.3">
@@ -5579,7 +5582,7 @@
         <v>161</v>
       </c>
       <c r="B103" t="s">
-        <v>58</v>
+        <v>63</v>
       </c>
     </row>
     <row r="104" spans="1:2" x14ac:dyDescent="0.3">
@@ -5603,7 +5606,7 @@
         <v>164</v>
       </c>
       <c r="B106" t="s">
-        <v>60</v>
+        <v>56</v>
       </c>
     </row>
     <row r="107" spans="1:2" x14ac:dyDescent="0.3">
@@ -5731,7 +5734,7 @@
         <v>180</v>
       </c>
       <c r="B122" t="s">
-        <v>63</v>
+        <v>60</v>
       </c>
     </row>
     <row r="123" spans="1:2" x14ac:dyDescent="0.3">
@@ -5915,7 +5918,7 @@
         <v>203</v>
       </c>
       <c r="B145" t="s">
-        <v>60</v>
+        <v>63</v>
       </c>
     </row>
     <row r="146" spans="1:2" x14ac:dyDescent="0.3">
@@ -6051,7 +6054,7 @@
         <v>220</v>
       </c>
       <c r="B162" t="s">
-        <v>63</v>
+        <v>58</v>
       </c>
     </row>
     <row r="163" spans="1:2" x14ac:dyDescent="0.3">
@@ -6299,7 +6302,7 @@
         <v>251</v>
       </c>
       <c r="B193" t="s">
-        <v>60</v>
+        <v>70</v>
       </c>
     </row>
     <row r="194" spans="1:2" x14ac:dyDescent="0.3">
@@ -6595,7 +6598,7 @@
         <v>288</v>
       </c>
       <c r="B230" t="s">
-        <v>56</v>
+        <v>60</v>
       </c>
     </row>
     <row r="231" spans="1:2" x14ac:dyDescent="0.3">
@@ -6763,7 +6766,7 @@
         <v>309</v>
       </c>
       <c r="B251" t="s">
-        <v>60</v>
+        <v>56</v>
       </c>
     </row>
     <row r="252" spans="1:2" x14ac:dyDescent="0.3">
@@ -6827,7 +6830,7 @@
         <v>317</v>
       </c>
       <c r="B259" t="s">
-        <v>63</v>
+        <v>58</v>
       </c>
     </row>
     <row r="260" spans="1:2" x14ac:dyDescent="0.3">
@@ -6891,7 +6894,7 @@
         <v>325</v>
       </c>
       <c r="B267" t="s">
-        <v>60</v>
+        <v>56</v>
       </c>
     </row>
     <row r="268" spans="1:2" x14ac:dyDescent="0.3">
@@ -7003,7 +7006,7 @@
         <v>339</v>
       </c>
       <c r="B281" t="s">
-        <v>63</v>
+        <v>60</v>
       </c>
     </row>
     <row r="282" spans="1:2" x14ac:dyDescent="0.3">
@@ -7059,7 +7062,7 @@
         <v>346</v>
       </c>
       <c r="B288" t="s">
-        <v>56</v>
+        <v>70</v>
       </c>
     </row>
     <row r="289" spans="1:2" x14ac:dyDescent="0.3">
@@ -7235,7 +7238,7 @@
         <v>368</v>
       </c>
       <c r="B310" t="s">
-        <v>56</v>
+        <v>60</v>
       </c>
     </row>
     <row r="311" spans="1:2" x14ac:dyDescent="0.3">
@@ -7275,7 +7278,7 @@
         <v>373</v>
       </c>
       <c r="B315" t="s">
-        <v>63</v>
+        <v>60</v>
       </c>
     </row>
     <row r="316" spans="1:2" x14ac:dyDescent="0.3">
@@ -7539,7 +7542,7 @@
         <v>406</v>
       </c>
       <c r="B348" t="s">
-        <v>56</v>
+        <v>70</v>
       </c>
     </row>
     <row r="349" spans="1:2" x14ac:dyDescent="0.3">
@@ -7595,7 +7598,7 @@
         <v>413</v>
       </c>
       <c r="B355" t="s">
-        <v>56</v>
+        <v>70</v>
       </c>
     </row>
     <row r="356" spans="1:2" x14ac:dyDescent="0.3">
@@ -7843,7 +7846,7 @@
         <v>444</v>
       </c>
       <c r="B386" t="s">
-        <v>63</v>
+        <v>60</v>
       </c>
     </row>
     <row r="387" spans="1:2" x14ac:dyDescent="0.3">
@@ -7883,7 +7886,7 @@
         <v>449</v>
       </c>
       <c r="B391" t="s">
-        <v>58</v>
+        <v>63</v>
       </c>
     </row>
     <row r="392" spans="1:2" x14ac:dyDescent="0.3">
@@ -7915,7 +7918,7 @@
         <v>453</v>
       </c>
       <c r="B395" t="s">
-        <v>60</v>
+        <v>63</v>
       </c>
     </row>
     <row r="396" spans="1:2" x14ac:dyDescent="0.3">
@@ -8091,7 +8094,7 @@
         <v>475</v>
       </c>
       <c r="B417" t="s">
-        <v>60</v>
+        <v>63</v>
       </c>
     </row>
     <row r="418" spans="1:2" x14ac:dyDescent="0.3">
@@ -8107,7 +8110,7 @@
         <v>477</v>
       </c>
       <c r="B419" t="s">
-        <v>60</v>
+        <v>56</v>
       </c>
     </row>
     <row r="420" spans="1:2" x14ac:dyDescent="0.3">
@@ -8363,7 +8366,7 @@
         <v>509</v>
       </c>
       <c r="B451" t="s">
-        <v>63</v>
+        <v>60</v>
       </c>
     </row>
     <row r="452" spans="1:2" x14ac:dyDescent="0.3">
@@ -8587,7 +8590,7 @@
         <v>537</v>
       </c>
       <c r="B479" t="s">
-        <v>58</v>
+        <v>63</v>
       </c>
     </row>
     <row r="480" spans="1:2" x14ac:dyDescent="0.3">
@@ -8795,7 +8798,7 @@
         <v>563</v>
       </c>
       <c r="B505" t="s">
-        <v>63</v>
+        <v>60</v>
       </c>
     </row>
     <row r="506" spans="1:2" x14ac:dyDescent="0.3">
@@ -9131,7 +9134,7 @@
         <v>605</v>
       </c>
       <c r="B547" t="s">
-        <v>60</v>
+        <v>58</v>
       </c>
     </row>
     <row r="548" spans="1:2" x14ac:dyDescent="0.3">
@@ -9155,7 +9158,7 @@
         <v>608</v>
       </c>
       <c r="B550" t="s">
-        <v>56</v>
+        <v>60</v>
       </c>
     </row>
     <row r="551" spans="1:2" x14ac:dyDescent="0.3">
@@ -9251,7 +9254,7 @@
         <v>620</v>
       </c>
       <c r="B562" t="s">
-        <v>60</v>
+        <v>63</v>
       </c>
     </row>
     <row r="563" spans="1:2" x14ac:dyDescent="0.3">
@@ -9331,7 +9334,7 @@
         <v>630</v>
       </c>
       <c r="B572" t="s">
-        <v>70</v>
+        <v>56</v>
       </c>
     </row>
     <row r="573" spans="1:2" x14ac:dyDescent="0.3">
@@ -9363,7 +9366,7 @@
         <v>634</v>
       </c>
       <c r="B576" t="s">
-        <v>63</v>
+        <v>58</v>
       </c>
     </row>
     <row r="577" spans="1:2" x14ac:dyDescent="0.3">
@@ -9467,7 +9470,7 @@
         <v>647</v>
       </c>
       <c r="B589" t="s">
-        <v>60</v>
+        <v>56</v>
       </c>
     </row>
     <row r="590" spans="1:2" x14ac:dyDescent="0.3">
@@ -9523,7 +9526,7 @@
         <v>654</v>
       </c>
       <c r="B596" t="s">
-        <v>56</v>
+        <v>70</v>
       </c>
     </row>
     <row r="597" spans="1:2" x14ac:dyDescent="0.3">
@@ -9583,6 +9586,7 @@
       </c>
     </row>
   </sheetData>
+  <autoFilter ref="A1:B603" xr:uid="{84EB052B-3BE7-49CF-9FAB-B98234BC3C78}"/>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
 </worksheet>
 </file>